--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="902">
   <si>
     <t>সহজে বহনীয়</t>
   </si>
@@ -269,12 +269,6 @@
     <t>বৈদ্যুতিক শক প্রাপ্ত ব্যক্তির প্রাথমিক চিকিৎসা পদ্ধতি</t>
   </si>
   <si>
-    <t>২.৩ বৈদ্যুতিক শক প্রাপ্ত ব্যক্তির প্রাথমিক চিকিৎসা পদ্ধতি</t>
-  </si>
-  <si>
-    <t>70.Chapter-p1-02.xhtml</t>
-  </si>
-  <si>
     <t>image102001.jpg</t>
   </si>
   <si>
@@ -296,9 +290,6 @@
     <t>অফসেট স্ক্রু ড্রাইভার</t>
   </si>
   <si>
-    <t>পস্নাস্টিক বা সফট হ্যামার</t>
-  </si>
-  <si>
     <t>ক্লো হ্যামার</t>
   </si>
   <si>
@@ -311,18 +302,12 @@
     <t>ইলেকট্রিক হ্যান্ড ড্রি্ল</t>
   </si>
   <si>
-    <t>রাওয়াল পস্নাগ টুলস</t>
-  </si>
-  <si>
     <t>রিং রেঞ্জ বা স্প্যানার</t>
   </si>
   <si>
     <t>পাইপ রেঞ্জ</t>
   </si>
   <si>
-    <t>ইলেকট্রিক সোল্ডারিং আয়রন</t>
-  </si>
-  <si>
     <t>কাউন্টার সিঙ্ক</t>
   </si>
   <si>
@@ -332,9 +317,6 @@
     <t>সি-ক্ল্যাম্প</t>
   </si>
   <si>
-    <t>টিন কাটার বা স্নিপ</t>
-  </si>
-  <si>
     <t>পুলি পুলার</t>
   </si>
   <si>
@@ -350,9 +332,6 @@
     <t>ট্যাপ হোল্ডার এবং টেপ</t>
   </si>
   <si>
-    <t>ফ্লেক্সিবল বেস্নড স্ক্রু ড্রাইভার</t>
-  </si>
-  <si>
     <t>ক্রসপিন হ্যামার</t>
   </si>
   <si>
@@ -374,9 +353,6 @@
     <t xml:space="preserve">ফাইল </t>
   </si>
   <si>
-    <t>ওপেন এইন্ড স্প্যানার বা ডাল রেঞ্জ</t>
-  </si>
-  <si>
     <t>মাঙ্কি রেঞ্জ</t>
   </si>
   <si>
@@ -395,9 +371,6 @@
     <t>ইলেকট্রিশিয়ান নাইফ বা চাকু</t>
   </si>
   <si>
-    <t>গ্রিজ গান</t>
-  </si>
-  <si>
     <t>ইনসাইড- আউটসাইড ক্যালিপার্স</t>
   </si>
   <si>
@@ -407,9 +380,6 @@
     <t>স্পিরিট লেভেল</t>
   </si>
   <si>
-    <t>ডাই এন্ড স্টোক</t>
-  </si>
-  <si>
     <t>পাইপ বেন্ডার</t>
   </si>
   <si>
@@ -431,12 +401,6 @@
     <t>হ্যান্ড ড্রিল</t>
   </si>
   <si>
-    <t>বেস্না ল্যাম্প</t>
-  </si>
-  <si>
-    <t>এডজাস্টেবল বা সস্নাইড রেঞ্জ</t>
-  </si>
-  <si>
     <t>সকেট বা বক্স রেঞ্জ</t>
   </si>
   <si>
@@ -452,9 +416,6 @@
     <t>হ্যান্ড কম্প্রেসার</t>
   </si>
   <si>
-    <t>সেলফ লকিং হিঞ্জড পাইপ ভাইস</t>
-  </si>
-  <si>
     <t>পাইপ কাটার</t>
   </si>
   <si>
@@ -497,12 +458,6 @@
     <t>রাউন্ড নোজ প্লায়ার্স</t>
   </si>
   <si>
-    <t>এ্যাডজাস্টেবল জয়েন্ট প্লায়ার্স</t>
-  </si>
-  <si>
-    <t>80.Chapter-p1-03.xhtml</t>
-  </si>
-  <si>
     <t>image103001.jpg</t>
   </si>
   <si>
@@ -846,9 +801,6 @@
   </si>
   <si>
     <t>পুশ পুল সুইচ</t>
-  </si>
-  <si>
-    <t>90.Chapter-p1-04.xhtml</t>
   </si>
   <si>
     <t>image104001.jpg</t>
@@ -2636,6 +2588,231 @@
   <si>
     <t>060.Chapter-p1-01.xhtml</t>
   </si>
+  <si>
+    <t>স্ক্রাইবার;</t>
+  </si>
+  <si>
+    <t>প্লাম্ব-বব;</t>
+  </si>
+  <si>
+    <t>ওয়্যার স্ট্রিপিং প্লায়ার্স;</t>
+  </si>
+  <si>
+    <t>ডায়াগোনাল কাটিং প্লায়ার্স;</t>
+  </si>
+  <si>
+    <t>লং নোজ প্লায়ার্স;</t>
+  </si>
+  <si>
+    <t>ফ্লাট স্ক্রু ড্রাইভার;</t>
+  </si>
+  <si>
+    <t>ফিলিপস্ স্ক্রু ড্রাইভার;</t>
+  </si>
+  <si>
+    <t>অফসেট স্ক্রু ড্রাইভার;</t>
+  </si>
+  <si>
+    <t>প্লাষ্টিক বা সফট হ্যামার;</t>
+  </si>
+  <si>
+    <t>প্লাষ্টিক বা সফট হ্যামার</t>
+  </si>
+  <si>
+    <t>ক্লো হ্যামার;</t>
+  </si>
+  <si>
+    <t>টেনন ‘স’;</t>
+  </si>
+  <si>
+    <t>রাওয়াল প্লাগ টুলস;</t>
+  </si>
+  <si>
+    <t>রাওয়াল প্লাগ টুলস</t>
+  </si>
+  <si>
+    <t>রিং রেঞ্জ বা স্প্যানার;</t>
+  </si>
+  <si>
+    <t>ইলেকট্রিক সোল্ডারিং আয়রণ;</t>
+  </si>
+  <si>
+    <t>ইলেকট্রিক সোল্ডারিং আয়রণ</t>
+  </si>
+  <si>
+    <t>রিমার্স;</t>
+  </si>
+  <si>
+    <t>সি-ক্ল্যাম্প;</t>
+  </si>
+  <si>
+    <t>টিন কাটার</t>
+  </si>
+  <si>
+    <t>পুলি পুলার;</t>
+  </si>
+  <si>
+    <t>স্প্রিং ডিভাইডার;</t>
+  </si>
+  <si>
+    <t>ফিলার গেজ;</t>
+  </si>
+  <si>
+    <t>ফ্লাট নোজ প্লায়ার্স;</t>
+  </si>
+  <si>
+    <t>ট্যাপ হোল্ডার এবং টেপ;</t>
+  </si>
+  <si>
+    <t>ফ্লেক্সিবল ব্লেড স্ক্রু ড্রাইভার;</t>
+  </si>
+  <si>
+    <t>ক্রসপিন হ্যামার;</t>
+  </si>
+  <si>
+    <t>কাঠের হ্যামার বা মেলেট;</t>
+  </si>
+  <si>
+    <t>কোল্ড চিজেল;</t>
+  </si>
+  <si>
+    <t>হ্যামার ড্রিল;</t>
+  </si>
+  <si>
+    <t>ফাইল;</t>
+  </si>
+  <si>
+    <t>ওপেন এইন্ড স্প্যানার বা ডাল রেঞ্জ;</t>
+  </si>
+  <si>
+    <t>মাঙ্কি রেঞ্জ;</t>
+  </si>
+  <si>
+    <t>হ্যাক্‘স’;</t>
+  </si>
+  <si>
+    <t>ক্যাবল কাটার;</t>
+  </si>
+  <si>
+    <t>হাইড্রোলিক কম্প্রেসার;</t>
+  </si>
+  <si>
+    <t>বেঞ্চ ভাইস;</t>
+  </si>
+  <si>
+    <t>ইলেকট্রিশিয়ান নাইফ বা চাকু;</t>
+  </si>
+  <si>
+    <t>গ্রীজ গান</t>
+  </si>
+  <si>
+    <t>গ্রীজ গান;</t>
+  </si>
+  <si>
+    <t>ট্রাই-স্কয়ার;</t>
+  </si>
+  <si>
+    <t>স্পিরিট লেভেল;</t>
+  </si>
+  <si>
+    <t>স্টক এন্ড ডাই</t>
+  </si>
+  <si>
+    <t>ক্রিমপিং প্লায়ার্স;</t>
+  </si>
+  <si>
+    <t>রাউন্ড নোজ প্লায়ার্স;</t>
+  </si>
+  <si>
+    <t>এ্যাডজাষ্টেবল জয়েন্ট প্লায়ার্স</t>
+  </si>
+  <si>
+    <t>পাইপ বেন্ডার;</t>
+  </si>
+  <si>
+    <t>কানেক্টিং স্ক্রু ড্রাইভার;</t>
+  </si>
+  <si>
+    <t>হ্যান্ড ড্রিল;</t>
+  </si>
+  <si>
+    <t>ব্লো ল্যাম্প</t>
+  </si>
+  <si>
+    <t>ব্লো ল্যাম্প;</t>
+  </si>
+  <si>
+    <t>এডজাষ্টেবল বা স্লাইড রেঞ্জ</t>
+  </si>
+  <si>
+    <t>সকেট বা বক্স রেঞ্জ;</t>
+  </si>
+  <si>
+    <t>বোল্ট কাটার;</t>
+  </si>
+  <si>
+    <t>হ্যান্ড কম্প্রেসার;</t>
+  </si>
+  <si>
+    <t>সেল্ফ্ লকিং হিঞ্জড পাইপ ভাইস</t>
+  </si>
+  <si>
+    <t>পাইপ কাটার;</t>
+  </si>
+  <si>
+    <t>জিমলেট;</t>
+  </si>
+  <si>
+    <t>070.Chapter-p1-02.xhtml</t>
+  </si>
+  <si>
+    <t>080.Chapter-p1-03.xhtml</t>
+  </si>
+  <si>
+    <t>সেন্টার পাঞ্চ;</t>
+  </si>
+  <si>
+    <t>হ্যান্ড টং বা চিমটা;</t>
+  </si>
+  <si>
+    <t>ইলেকট্রিক হ্যান্ড ড্রি্ল;</t>
+  </si>
+  <si>
+    <t>পাইপ রেঞ্জ;</t>
+  </si>
+  <si>
+    <t>কাউন্টার সিঙ্ক;</t>
+  </si>
+  <si>
+    <t>মাইক্রোমিটার এবং ওয়্যার গেজ;</t>
+  </si>
+  <si>
+    <t>এন্ড কাটিং প্লায়ার্স;</t>
+  </si>
+  <si>
+    <t>কম্বিনেশন প্লায়ার্স;</t>
+  </si>
+  <si>
+    <t>কি ওয়ে ‘স’;</t>
+  </si>
+  <si>
+    <t>কার্পেন্ট্রি ব্রেস বা রেচেট ব্রেস;</t>
+  </si>
+  <si>
+    <t>ইনসাইড- আউটসাইড ক্যালিপার্স;</t>
+  </si>
+  <si>
+    <t>স্টক এন্ড ডাই;</t>
+  </si>
+  <si>
+    <t>বলপিন হ্যামার;</t>
+  </si>
+  <si>
+    <t>কপার হ্যামার;</t>
+  </si>
+  <si>
+    <t>090.Chapter-p1-04.xhtml</t>
+  </si>
 </sst>
 </file>
 
@@ -2645,7 +2822,7 @@
     <numFmt numFmtId="164" formatCode="[$-5000445]0.#"/>
     <numFmt numFmtId="165" formatCode="[$-5000445]0.##"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2773,8 +2950,19 @@
       <name val="Vrinda"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Vrinda"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2799,6 +2987,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2813,7 +3007,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2881,9 +3075,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -2982,7 +3173,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3256,7 +3462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3669,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K262"/>
+  <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3727,7 +3933,7 @@
     </row>
     <row r="2" spans="1:11" ht="82.8">
       <c r="A2" s="8" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>51</v>
@@ -3738,7 +3944,7 @@
       <c r="F2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="55" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="8">
@@ -3747,7 +3953,7 @@
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="8" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>53</v>
@@ -3764,18 +3970,18 @@
     </row>
     <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>824</v>
+        <v>826</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>808</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="55" t="s">
         <v>60</v>
       </c>
       <c r="K4" s="8">
@@ -3784,13 +3990,13 @@
     </row>
     <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>825</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>825</v>
+        <v>826</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>809</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>809</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="15" t="s">
@@ -3800,37 +4006,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="43.2">
+    <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D6" s="50" t="s">
         <v>826</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="D6" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="56" t="s">
         <v>826</v>
       </c>
-      <c r="G6" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="57" t="s">
-        <v>842</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="57" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="8">
@@ -3838,19 +4044,19 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="57" t="s">
-        <v>842</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="57" t="s">
         <v>64</v>
       </c>
       <c r="K8" s="8">
@@ -3859,13 +4065,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>827</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>827</v>
+        <v>826</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>811</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>811</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>65</v>
@@ -3876,15 +4082,15 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>828</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>828</v>
-      </c>
-      <c r="G10" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>812</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>812</v>
+      </c>
+      <c r="G10" s="55" t="s">
         <v>66</v>
       </c>
       <c r="K10" s="8">
@@ -3893,13 +4099,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>829</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>829</v>
+        <v>826</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>813</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>813</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>67</v>
@@ -3910,15 +4116,15 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>830</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>830</v>
-      </c>
-      <c r="G12" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>814</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>814</v>
+      </c>
+      <c r="G12" s="55" t="s">
         <v>68</v>
       </c>
       <c r="K12" s="8">
@@ -3927,15 +4133,15 @@
     </row>
     <row r="13" spans="1:11" ht="16.8">
       <c r="A13" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>831</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>831</v>
-      </c>
-      <c r="G13" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>815</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>815</v>
+      </c>
+      <c r="G13" s="55" t="s">
         <v>69</v>
       </c>
       <c r="K13" s="8">
@@ -3944,15 +4150,15 @@
     </row>
     <row r="14" spans="1:11" ht="16.8">
       <c r="A14" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>832</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>832</v>
-      </c>
-      <c r="G14" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>816</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>816</v>
+      </c>
+      <c r="G14" s="55" t="s">
         <v>70</v>
       </c>
       <c r="K14" s="8">
@@ -3961,15 +4167,15 @@
     </row>
     <row r="15" spans="1:11" ht="16.8">
       <c r="A15" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>833</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>833</v>
-      </c>
-      <c r="G15" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>817</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>817</v>
+      </c>
+      <c r="G15" s="55" t="s">
         <v>71</v>
       </c>
       <c r="K15" s="8">
@@ -3978,41 +4184,41 @@
     </row>
     <row r="16" spans="1:11" ht="16.8">
       <c r="A16" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>834</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>834</v>
-      </c>
-      <c r="G16" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>818</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>818</v>
+      </c>
+      <c r="G16" s="55" t="s">
         <v>72</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15">
+    <row r="17" spans="1:13" ht="15">
       <c r="A17" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>835</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>835</v>
-      </c>
-      <c r="G17" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>819</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>819</v>
+      </c>
+      <c r="G17" s="55" t="s">
         <v>73</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>59</v>
@@ -4020,22 +4226,22 @@
       <c r="E18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="55" t="s">
         <v>74</v>
       </c>
       <c r="K18" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18">
+    <row r="19" spans="1:13" ht="18">
       <c r="A19" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D19" s="52" t="s">
-        <v>836</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>836</v>
+        <v>826</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>820</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>820</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>75</v>
@@ -4044,15 +4250,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15">
+    <row r="20" spans="1:13" ht="15">
       <c r="A20" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>837</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>837</v>
+        <v>826</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>821</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>821</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>76</v>
@@ -4061,15 +4267,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15">
+    <row r="21" spans="1:13" ht="15">
       <c r="A21" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>838</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>838</v>
+        <v>826</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>822</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>822</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>77</v>
@@ -4078,15 +4284,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>78</v>
@@ -4095,177 +4301,179 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17.399999999999999">
+    <row r="23" spans="1:13" ht="17.399999999999999">
       <c r="A23" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="D23" s="54" t="s">
-        <v>840</v>
-      </c>
-      <c r="E23" s="54" t="s">
-        <v>840</v>
-      </c>
-      <c r="G23" s="56" t="s">
+        <v>826</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>824</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>824</v>
+      </c>
+      <c r="G23" s="55" t="s">
         <v>79</v>
       </c>
       <c r="K23" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="59" t="s">
-        <v>842</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60" t="s">
-        <v>841</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>841</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59" t="s">
+    <row r="24" spans="1:13">
+      <c r="A24" s="62" t="s">
+        <v>826</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63" t="s">
+        <v>825</v>
+      </c>
+      <c r="E24" s="63" t="s">
+        <v>825</v>
+      </c>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="41.4">
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55">
+        <v>1</v>
+      </c>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+    </row>
+    <row r="25" spans="1:13" ht="41.4">
       <c r="A25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>82</v>
+        <v>885</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>81</v>
       </c>
       <c r="G25" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G26" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="G27" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>887</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="K26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="K27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>162</v>
+      <c r="G28" s="55" t="s">
+        <v>147</v>
       </c>
       <c r="K28" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15">
+    <row r="29" spans="1:13" ht="15">
       <c r="A29" s="8" t="s">
-        <v>159</v>
+        <v>886</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>163</v>
-      </c>
       <c r="K29" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="30">
+    <row r="30" spans="1:13" ht="15">
       <c r="A30" s="8" t="s">
-        <v>159</v>
+        <v>886</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>164</v>
-      </c>
       <c r="K30" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30">
+    <row r="31" spans="1:13" ht="30">
       <c r="A31" s="8" t="s">
-        <v>159</v>
+        <v>886</v>
       </c>
       <c r="D31" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>165</v>
-      </c>
       <c r="K31" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>159</v>
+        <v>886</v>
       </c>
       <c r="D32" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="55" t="s">
         <v>151</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="K32" s="8">
         <v>1</v>
@@ -4273,16 +4481,16 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>159</v>
+        <v>886</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>167</v>
+        <v>832</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>152</v>
       </c>
       <c r="K33" s="8">
         <v>1</v>
@@ -4290,16 +4498,16 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>168</v>
+        <v>886</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>833</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>153</v>
       </c>
       <c r="K34" s="8">
         <v>1</v>
@@ -4307,33 +4515,33 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>169</v>
+        <v>886</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>154</v>
       </c>
       <c r="K35" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27.6">
+    <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>170</v>
+        <v>886</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>835</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>836</v>
+      </c>
+      <c r="G36" s="55" t="s">
+        <v>155</v>
       </c>
       <c r="K36" s="8">
         <v>1</v>
@@ -4341,16 +4549,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>159</v>
+        <v>886</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>171</v>
+        <v>837</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="55" t="s">
+        <v>156</v>
       </c>
       <c r="K37" s="8">
         <v>1</v>
@@ -4358,16 +4566,16 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>93</v>
+        <v>886</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="K38" s="8">
         <v>1</v>
@@ -4375,16 +4583,16 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>173</v>
+        <v>886</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>888</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="55" t="s">
+        <v>158</v>
       </c>
       <c r="K39" s="8">
         <v>1</v>
@@ -4392,16 +4600,16 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
+        <v>886</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="G40" s="55" t="s">
         <v>159</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>174</v>
       </c>
       <c r="K40" s="8">
         <v>1</v>
@@ -4409,16 +4617,16 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>175</v>
+        <v>886</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="E41" s="50" t="s">
+        <v>840</v>
+      </c>
+      <c r="G41" s="55" t="s">
+        <v>160</v>
       </c>
       <c r="K41" s="8">
         <v>1</v>
@@ -4426,16 +4634,16 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>97</v>
+        <v>886</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>841</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K42" s="8">
         <v>1</v>
@@ -4443,33 +4651,33 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>177</v>
+        <v>886</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>890</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="55" t="s">
+        <v>162</v>
       </c>
       <c r="K43" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="27.6">
+    <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>178</v>
+        <v>886</v>
+      </c>
+      <c r="D44" s="50" t="s">
+        <v>842</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>843</v>
+      </c>
+      <c r="G44" s="55" t="s">
+        <v>163</v>
       </c>
       <c r="K44" s="8">
         <v>1</v>
@@ -4477,16 +4685,16 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>179</v>
+        <v>886</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>891</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="55" t="s">
+        <v>164</v>
       </c>
       <c r="K45" s="8">
         <v>1</v>
@@ -4494,16 +4702,16 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>182</v>
+        <v>886</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>844</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="55" t="s">
+        <v>167</v>
       </c>
       <c r="K46" s="8">
         <v>1</v>
@@ -4511,16 +4719,16 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D47" s="23" t="s">
+        <v>886</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="E47" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>58</v>
-      </c>
       <c r="G47" s="15" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="K47" s="8">
         <v>1</v>
@@ -4528,16 +4736,16 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>184</v>
+        <v>886</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>845</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="55" t="s">
+        <v>169</v>
       </c>
       <c r="K48" s="8">
         <v>1</v>
@@ -4545,16 +4753,16 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>185</v>
+        <v>886</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="G49" s="55" t="s">
+        <v>170</v>
       </c>
       <c r="K49" s="8">
         <v>1</v>
@@ -4562,16 +4770,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>186</v>
+        <v>886</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="55" t="s">
+        <v>171</v>
       </c>
       <c r="K50" s="8">
         <v>1</v>
@@ -4579,16 +4787,16 @@
     </row>
     <row r="51" spans="1:11" ht="27.6">
       <c r="A51" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>187</v>
+        <v>886</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>892</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>172</v>
       </c>
       <c r="K51" s="8">
         <v>1</v>
@@ -4596,16 +4804,16 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>188</v>
+        <v>886</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>848</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>173</v>
       </c>
       <c r="K52" s="8">
         <v>1</v>
@@ -4613,16 +4821,16 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>189</v>
+        <v>886</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="55" t="s">
+        <v>174</v>
       </c>
       <c r="K53" s="8">
         <v>1</v>
@@ -4630,16 +4838,16 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>190</v>
+        <v>886</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>893</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G54" s="55" t="s">
+        <v>175</v>
       </c>
       <c r="K54" s="8">
         <v>1</v>
@@ -4647,16 +4855,16 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>191</v>
+        <v>886</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>894</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>176</v>
       </c>
       <c r="K55" s="8">
         <v>1</v>
@@ -4664,16 +4872,16 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>192</v>
+        <v>886</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="55" t="s">
+        <v>177</v>
       </c>
       <c r="K56" s="8">
         <v>1</v>
@@ -4681,16 +4889,19 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>193</v>
+        <v>886</v>
+      </c>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="F57" s="59"/>
+      <c r="G57" s="55" t="s">
+        <v>178</v>
       </c>
       <c r="K57" s="8">
         <v>1</v>
@@ -4698,50 +4909,56 @@
     </row>
     <row r="58" spans="1:11" ht="27.6">
       <c r="A58" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>194</v>
+        <v>886</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>851</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="G58" s="55" t="s">
+        <v>179</v>
       </c>
       <c r="K58" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="27.6">
+    <row r="59" spans="1:11">
       <c r="A59" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="K59" s="8">
+        <v>886</v>
+      </c>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="E59" s="63" t="s">
+        <v>852</v>
+      </c>
+      <c r="F59" s="62"/>
+      <c r="G59" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="H59" s="55"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="55"/>
+      <c r="K59" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>196</v>
+        <v>886</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="55" t="s">
+        <v>181</v>
       </c>
       <c r="K60" s="8">
         <v>1</v>
@@ -4749,16 +4966,16 @@
     </row>
     <row r="61" spans="1:11" ht="27.6">
       <c r="A61" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>197</v>
+        <v>886</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>854</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G61" s="55" t="s">
+        <v>182</v>
       </c>
       <c r="K61" s="8">
         <v>1</v>
@@ -4766,16 +4983,16 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>198</v>
+        <v>886</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="G62" s="55" t="s">
+        <v>183</v>
       </c>
       <c r="K62" s="8">
         <v>1</v>
@@ -4783,16 +5000,16 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>113</v>
+        <v>886</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>895</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>106</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K63" s="8">
         <v>1</v>
@@ -4800,16 +5017,16 @@
     </row>
     <row r="64" spans="1:11" ht="27.6">
       <c r="A64" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>114</v>
+        <v>886</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>896</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>107</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="K64" s="8">
         <v>1</v>
@@ -4817,16 +5034,16 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>201</v>
+        <v>886</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G65" s="55" t="s">
+        <v>186</v>
       </c>
       <c r="K65" s="8">
         <v>1</v>
@@ -4834,16 +5051,16 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D66" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>202</v>
+        <v>886</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="55" t="s">
+        <v>187</v>
       </c>
       <c r="K66" s="8">
         <v>1</v>
@@ -4851,16 +5068,16 @@
     </row>
     <row r="67" spans="1:11" ht="27.6">
       <c r="A67" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>203</v>
+        <v>886</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>858</v>
+      </c>
+      <c r="G67" s="55" t="s">
+        <v>188</v>
       </c>
       <c r="K67" s="8">
         <v>1</v>
@@ -4868,16 +5085,16 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>204</v>
+        <v>886</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>859</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G68" s="55" t="s">
+        <v>189</v>
       </c>
       <c r="K68" s="8">
         <v>1</v>
@@ -4885,16 +5102,16 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>205</v>
+        <v>886</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G69" s="55" t="s">
+        <v>190</v>
       </c>
       <c r="K69" s="8">
         <v>1</v>
@@ -4902,16 +5119,16 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D70" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>206</v>
+        <v>886</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" s="55" t="s">
+        <v>191</v>
       </c>
       <c r="K70" s="8">
         <v>1</v>
@@ -4919,16 +5136,16 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>207</v>
+        <v>886</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="55" t="s">
+        <v>192</v>
       </c>
       <c r="K71" s="8">
         <v>1</v>
@@ -4936,16 +5153,16 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>208</v>
+        <v>886</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="G72" s="55" t="s">
+        <v>193</v>
       </c>
       <c r="K72" s="8">
         <v>1</v>
@@ -4953,16 +5170,16 @@
     </row>
     <row r="73" spans="1:11" ht="27.6">
       <c r="A73" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>209</v>
+        <v>886</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>864</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G73" s="55" t="s">
+        <v>194</v>
       </c>
       <c r="K73" s="8">
         <v>1</v>
@@ -4970,16 +5187,16 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>210</v>
+        <v>886</v>
+      </c>
+      <c r="D74" s="50" t="s">
+        <v>866</v>
+      </c>
+      <c r="E74" s="50" t="s">
+        <v>865</v>
+      </c>
+      <c r="G74" s="55" t="s">
+        <v>195</v>
       </c>
       <c r="K74" s="8">
         <v>1</v>
@@ -4987,16 +5204,16 @@
     </row>
     <row r="75" spans="1:11" ht="27.6">
       <c r="A75" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>211</v>
+        <v>886</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>897</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G75" s="55" t="s">
+        <v>196</v>
       </c>
       <c r="K75" s="8">
         <v>1</v>
@@ -5004,16 +5221,16 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>212</v>
+        <v>886</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>867</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G76" s="55" t="s">
+        <v>197</v>
       </c>
       <c r="K76" s="8">
         <v>1</v>
@@ -5021,16 +5238,16 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>213</v>
+        <v>886</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G77" s="55" t="s">
+        <v>198</v>
       </c>
       <c r="K77" s="8">
         <v>1</v>
@@ -5038,16 +5255,16 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="8" t="s">
-        <v>159</v>
+        <v>886</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>128</v>
+        <v>898</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>869</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="K78" s="8">
         <v>1</v>
@@ -5055,16 +5272,16 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>215</v>
+        <v>886</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="G79" s="55" t="s">
+        <v>200</v>
       </c>
       <c r="K79" s="8">
         <v>1</v>
@@ -5072,33 +5289,33 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>216</v>
+        <v>886</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="G80" s="55" t="s">
+        <v>201</v>
       </c>
       <c r="K80" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="27.6">
+    <row r="81" spans="1:11">
       <c r="A81" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>217</v>
+        <v>886</v>
+      </c>
+      <c r="D81" s="50" t="s">
+        <v>872</v>
+      </c>
+      <c r="E81" s="50" t="s">
+        <v>872</v>
+      </c>
+      <c r="G81" s="55" t="s">
+        <v>202</v>
       </c>
       <c r="K81" s="8">
         <v>1</v>
@@ -5106,16 +5323,16 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>218</v>
+        <v>886</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82" s="55" t="s">
+        <v>203</v>
       </c>
       <c r="K82" s="8">
         <v>1</v>
@@ -5123,16 +5340,16 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D83" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>219</v>
+        <v>886</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G83" s="55" t="s">
+        <v>204</v>
       </c>
       <c r="K83" s="8">
         <v>1</v>
@@ -5140,16 +5357,16 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D84" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>220</v>
+        <v>886</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G84" s="55" t="s">
+        <v>205</v>
       </c>
       <c r="K84" s="8">
         <v>1</v>
@@ -5157,33 +5374,33 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>221</v>
+        <v>886</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>900</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G85" s="55" t="s">
+        <v>206</v>
       </c>
       <c r="K85" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="27.6">
+    <row r="86" spans="1:11">
       <c r="A86" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>222</v>
+        <v>886</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G86" s="55" t="s">
+        <v>207</v>
       </c>
       <c r="K86" s="8">
         <v>1</v>
@@ -5191,16 +5408,16 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D87" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>223</v>
+        <v>886</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G87" s="55" t="s">
+        <v>208</v>
       </c>
       <c r="K87" s="8">
         <v>1</v>
@@ -5208,16 +5425,16 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>224</v>
+        <v>886</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G88" s="55" t="s">
+        <v>209</v>
       </c>
       <c r="K88" s="8">
         <v>1</v>
@@ -5225,33 +5442,33 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D89" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>136</v>
+        <v>886</v>
+      </c>
+      <c r="D89" s="50" t="s">
+        <v>877</v>
+      </c>
+      <c r="E89" s="50" t="s">
+        <v>876</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="K89" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="27.6">
+    <row r="90" spans="1:11">
       <c r="A90" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>226</v>
+        <v>886</v>
+      </c>
+      <c r="D90" s="50" t="s">
+        <v>878</v>
+      </c>
+      <c r="E90" s="50" t="s">
+        <v>878</v>
+      </c>
+      <c r="G90" s="55" t="s">
+        <v>211</v>
       </c>
       <c r="K90" s="8">
         <v>1</v>
@@ -5259,16 +5476,16 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D91" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>227</v>
+        <v>886</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" s="55" t="s">
+        <v>212</v>
       </c>
       <c r="K91" s="8">
         <v>1</v>
@@ -5276,16 +5493,16 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>228</v>
+        <v>886</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="G92" s="55" t="s">
+        <v>213</v>
       </c>
       <c r="K92" s="8">
         <v>1</v>
@@ -5293,16 +5510,16 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D93" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>229</v>
+        <v>886</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G93" s="55" t="s">
+        <v>214</v>
       </c>
       <c r="K93" s="8">
         <v>1</v>
@@ -5310,16 +5527,16 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>230</v>
+        <v>886</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="G94" s="55" t="s">
+        <v>215</v>
       </c>
       <c r="K94" s="8">
         <v>1</v>
@@ -5327,33 +5544,33 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D95" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>231</v>
+        <v>886</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" s="55" t="s">
+        <v>216</v>
       </c>
       <c r="K95" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="27.6">
+    <row r="96" spans="1:11">
       <c r="A96" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>232</v>
+        <v>886</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>882</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>882</v>
+      </c>
+      <c r="G96" s="55" t="s">
+        <v>217</v>
       </c>
       <c r="K96" s="8">
         <v>1</v>
@@ -5361,50 +5578,56 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>233</v>
+        <v>886</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>883</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="G97" s="55" t="s">
+        <v>218</v>
       </c>
       <c r="K97" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D98" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="K98" s="8">
+      <c r="A98" s="58" t="s">
+        <v>886</v>
+      </c>
+      <c r="B98" s="58"/>
+      <c r="C98" s="58"/>
+      <c r="D98" s="64" t="s">
+        <v>884</v>
+      </c>
+      <c r="E98" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="F98" s="58"/>
+      <c r="G98" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="H98" s="58"/>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58"/>
+      <c r="K98" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D99" s="29" t="s">
-        <v>235</v>
+        <v>901</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>220</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="K99" s="8">
         <v>1</v>
@@ -5412,16 +5635,16 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D100" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="E100" s="32" t="s">
-        <v>238</v>
+        <v>901</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100" s="31" t="s">
+        <v>223</v>
       </c>
       <c r="G100" s="15" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="K100" s="8">
         <v>1</v>
@@ -5429,16 +5652,16 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D101" s="32" t="s">
-        <v>239</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>240</v>
+        <v>901</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E101" s="31" t="s">
+        <v>225</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="K101" s="8">
         <v>1</v>
@@ -5446,16 +5669,16 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D102" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="E102" s="32" t="s">
-        <v>242</v>
+        <v>901</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="E102" s="31" t="s">
+        <v>227</v>
       </c>
       <c r="G102" s="15" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="K102" s="8">
         <v>1</v>
@@ -5463,16 +5686,16 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D103" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>244</v>
+        <v>901</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="E103" s="31" t="s">
+        <v>229</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="K103" s="8">
         <v>1</v>
@@ -5480,16 +5703,16 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D104" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>274</v>
+        <v>901</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>259</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="K104" s="8">
         <v>1</v>
@@ -5497,16 +5720,16 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D105" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="E105" s="32" t="s">
-        <v>246</v>
+        <v>901</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="E105" s="31" t="s">
+        <v>231</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="K105" s="8">
         <v>1</v>
@@ -5514,16 +5737,16 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D106" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="E106" s="32" t="s">
-        <v>248</v>
+        <v>901</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="E106" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="K106" s="8">
         <v>1</v>
@@ -5531,16 +5754,16 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D107" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="E107" s="32" t="s">
-        <v>250</v>
+        <v>901</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="E107" s="31" t="s">
+        <v>235</v>
       </c>
       <c r="G107" s="15" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="K107" s="8">
         <v>1</v>
@@ -5548,16 +5771,16 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D108" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>252</v>
+        <v>901</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="E108" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="K108" s="8">
         <v>1</v>
@@ -5565,16 +5788,16 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D109" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>254</v>
+        <v>901</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>239</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="K109" s="8">
         <v>1</v>
@@ -5582,16 +5805,16 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D110" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="E110" s="32" t="s">
-        <v>256</v>
+        <v>901</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="E110" s="31" t="s">
+        <v>241</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="K110" s="8">
         <v>1</v>
@@ -5599,16 +5822,16 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D111" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>258</v>
+        <v>901</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="E111" s="31" t="s">
+        <v>243</v>
       </c>
       <c r="G111" s="15" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="K111" s="8">
         <v>1</v>
@@ -5616,16 +5839,16 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D112" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="E112" s="32" t="s">
-        <v>260</v>
+        <v>901</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>244</v>
+      </c>
+      <c r="E112" s="31" t="s">
+        <v>245</v>
       </c>
       <c r="G112" s="15" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="K112" s="8">
         <v>1</v>
@@ -5633,16 +5856,16 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D113" s="32" t="s">
-        <v>261</v>
-      </c>
-      <c r="E113" s="32" t="s">
-        <v>262</v>
+        <v>901</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>247</v>
       </c>
       <c r="G113" s="15" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="K113" s="8">
         <v>1</v>
@@ -5650,16 +5873,16 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="8" t="s">
+        <v>901</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E114" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="D114" s="32" t="s">
-        <v>263</v>
-      </c>
-      <c r="E114" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>291</v>
       </c>
       <c r="K114" s="8">
         <v>1</v>
@@ -5667,16 +5890,16 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D115" s="32" t="s">
-        <v>265</v>
-      </c>
-      <c r="E115" s="32" t="s">
-        <v>266</v>
+        <v>901</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>251</v>
       </c>
       <c r="G115" s="15" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="K115" s="8">
         <v>1</v>
@@ -5684,16 +5907,16 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D116" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="E116" s="32" t="s">
-        <v>268</v>
+        <v>901</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>252</v>
+      </c>
+      <c r="E116" s="31" t="s">
+        <v>253</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="K116" s="8">
         <v>1</v>
@@ -5701,16 +5924,16 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D117" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="E117" s="32" t="s">
-        <v>270</v>
+        <v>901</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>254</v>
+      </c>
+      <c r="E117" s="31" t="s">
+        <v>255</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="K117" s="8">
         <v>1</v>
@@ -5718,86 +5941,86 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D118" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="E118" s="32" t="s">
-        <v>272</v>
+        <v>901</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="E118" s="31" t="s">
+        <v>257</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="K118" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" ht="27.6">
       <c r="A119" s="8" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="15" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="K119" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="41.4">
+    <row r="120" spans="1:11" ht="27.6">
       <c r="A120" s="8" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="G120" s="27"/>
+        <v>284</v>
+      </c>
+      <c r="G120" s="26"/>
       <c r="K120" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="60">
       <c r="A121" s="8" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="K121" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" ht="27.6">
       <c r="A122" s="8" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="K122" s="8">
         <v>1</v>
@@ -5805,2261 +6028,2261 @@
     </row>
     <row r="123" spans="1:11" ht="27.6">
       <c r="A123" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="K123" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="27.6">
+      <c r="A124" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="K124" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="45">
+      <c r="A125" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="K125" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="41.4">
+      <c r="A126" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="G126" s="27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="27.6">
+      <c r="A127" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E127" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="D123" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="K123" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="41.4">
-      <c r="A124" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="F124" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="K124" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="75">
-      <c r="A125" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="K125" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="69">
-      <c r="A126" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="F126" s="16" t="s">
+      <c r="G127" s="27" t="s">
         <v>324</v>
-      </c>
-      <c r="G126" s="28" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="15.6">
-      <c r="A127" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D127" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="G127" s="28" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15.6">
       <c r="A128" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D128" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="G128" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="27.6">
+      <c r="A129" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E129" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="G129" s="27" t="s">
         <v>326</v>
-      </c>
-      <c r="D128" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="E128" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="G128" s="28" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="15.6">
-      <c r="A129" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D129" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="E129" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="G129" s="28" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="27.6">
       <c r="A130" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D130" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="E130" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="G130" s="28" t="s">
-        <v>343</v>
+        <v>310</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="E130" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="G130" s="27" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.6">
       <c r="A131" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D131" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="E131" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="G131" s="28" t="s">
-        <v>344</v>
+        <v>310</v>
+      </c>
+      <c r="D131" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="E131" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="G131" s="27" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.6">
       <c r="A132" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D132" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="E132" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="G132" s="27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="41.4">
+      <c r="A133" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="G133" s="27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="27.6">
+      <c r="A134" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="F134" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="E132" s="29" t="s">
-        <v>338</v>
-      </c>
-      <c r="G132" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="69">
-      <c r="A133" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="E133" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="F133" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="G133" s="28" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="F134" s="17" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="30">
       <c r="A135" s="8" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="27.6">
       <c r="A136" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D136" s="29" t="s">
-        <v>360</v>
+        <v>347</v>
+      </c>
+      <c r="D136" s="28" t="s">
+        <v>344</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="F136" s="16"/>
-      <c r="G136" s="28" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="55.2">
+      <c r="G136" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="41.4">
       <c r="A137" s="8" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="F137" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="G137" s="28" t="s">
-        <v>367</v>
+        <v>349</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="G137" s="27" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.6">
       <c r="A138" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D138" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="E138" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="F138" s="29"/>
-      <c r="G138" s="28" t="s">
-        <v>389</v>
+        <v>383</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="E138" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="F138" s="28"/>
+      <c r="G138" s="27" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.6">
       <c r="A139" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D139" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="E139" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="F139" s="29"/>
-      <c r="G139" s="28" t="s">
-        <v>390</v>
+        <v>383</v>
+      </c>
+      <c r="D139" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="E139" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="F139" s="28"/>
+      <c r="G139" s="27" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.6">
       <c r="A140" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D140" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="E140" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="F140" s="29"/>
-      <c r="G140" s="28" t="s">
-        <v>391</v>
+        <v>383</v>
+      </c>
+      <c r="D140" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E140" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="F140" s="28"/>
+      <c r="G140" s="27" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="27.6">
       <c r="A141" s="8" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E141" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="F141" s="28"/>
+      <c r="G141" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="F141" s="29"/>
-      <c r="G141" s="28" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="15.6">
+    </row>
+    <row r="142" spans="1:7" ht="27.6">
       <c r="A142" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D142" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="E142" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="F142" s="16"/>
+      <c r="G142" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="E142" s="34" t="s">
+    </row>
+    <row r="143" spans="1:7" ht="27.6">
+      <c r="A143" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D143" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E143" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="F143" s="16"/>
+      <c r="G143" s="27" t="s">
         <v>378</v>
-      </c>
-      <c r="F142" s="16"/>
-      <c r="G142" s="28" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="15.6">
-      <c r="A143" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D143" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="E143" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="F143" s="16"/>
-      <c r="G143" s="28" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.6">
       <c r="A144" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D144" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="E144" s="34" t="s">
-        <v>382</v>
+        <v>383</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="E144" s="33" t="s">
+        <v>366</v>
       </c>
       <c r="F144" s="16"/>
-      <c r="G144" s="28" t="s">
-        <v>395</v>
+      <c r="G144" s="27" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D145" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="E145" s="34" t="s">
-        <v>384</v>
+      <c r="D145" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E145" s="33" t="s">
+        <v>368</v>
       </c>
       <c r="F145" s="16"/>
-      <c r="G145" s="28" t="s">
-        <v>396</v>
+      <c r="G145" s="27" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="27.6">
       <c r="A146" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D146" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="E146" s="34" t="s">
-        <v>386</v>
+        <v>383</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="E146" s="33" t="s">
+        <v>370</v>
       </c>
       <c r="F146" s="16"/>
-      <c r="G146" s="28" t="s">
-        <v>397</v>
+      <c r="G146" s="27" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="43.8">
       <c r="A147" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D147" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="E147" s="34" t="s">
-        <v>388</v>
+        <v>383</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="E147" s="33" t="s">
+        <v>372</v>
       </c>
       <c r="F147" s="16"/>
-      <c r="G147" s="28" t="s">
-        <v>398</v>
+      <c r="G147" s="27" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="27.6">
       <c r="A148" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="D148" s="29" t="s">
-        <v>400</v>
+        <v>387</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>384</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="G148" s="28" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="27.6">
+        <v>385</v>
+      </c>
+      <c r="G148" s="27" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="41.4">
       <c r="A149" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="D149" s="29" t="s">
-        <v>404</v>
+        <v>394</v>
+      </c>
+      <c r="D149" s="28" t="s">
+        <v>388</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F149" s="16"/>
-      <c r="G149" s="28" t="s">
-        <v>408</v>
+      <c r="G149" s="27" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="27.6">
       <c r="A150" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="D150" s="29" t="s">
-        <v>406</v>
+        <v>394</v>
+      </c>
+      <c r="D150" s="28" t="s">
+        <v>390</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="F150" s="16"/>
-      <c r="G150" s="28" t="s">
-        <v>409</v>
+      <c r="G150" s="27" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="8" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E151" s="29" t="s">
-        <v>411</v>
+        <v>396</v>
+      </c>
+      <c r="E151" s="28" t="s">
+        <v>395</v>
       </c>
       <c r="F151" s="16"/>
-      <c r="G151" s="28" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="55.2">
+      <c r="G151" s="27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="41.4">
       <c r="A152" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="D152" s="35" t="s">
-        <v>415</v>
+        <v>402</v>
+      </c>
+      <c r="D152" s="34" t="s">
+        <v>399</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="G152" s="28" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="30">
+        <v>401</v>
+      </c>
+      <c r="G152" s="27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="45">
       <c r="A153" s="8" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="E153" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="G153" s="28" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="55.2">
+        <v>404</v>
+      </c>
+      <c r="E153" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="G153" s="27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="27.6">
       <c r="A154" s="8" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="G154" s="31"/>
+        <v>409</v>
+      </c>
+      <c r="G154" s="30"/>
     </row>
     <row r="155" spans="1:9" ht="82.8">
       <c r="A155" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="D155" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="E155" s="36" t="s">
-        <v>428</v>
+        <v>491</v>
+      </c>
+      <c r="D155" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="E155" s="35" t="s">
+        <v>412</v>
       </c>
       <c r="F155" s="16"/>
-      <c r="G155" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="H155" s="37"/>
-      <c r="I155" s="38" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="55.2">
+      <c r="G155" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="H155" s="36"/>
+      <c r="I155" s="37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="69">
       <c r="A156" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="D156" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="E156" s="36" t="s">
-        <v>432</v>
+        <v>492</v>
+      </c>
+      <c r="D156" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="E156" s="35" t="s">
+        <v>416</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="G156" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="H156" s="37"/>
-      <c r="I156" s="38"/>
+        <v>417</v>
+      </c>
+      <c r="G156" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="H156" s="36"/>
+      <c r="I156" s="37"/>
     </row>
     <row r="157" spans="1:9" ht="69">
       <c r="A157" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="D157" s="36" t="s">
-        <v>435</v>
-      </c>
-      <c r="E157" s="36" t="s">
-        <v>436</v>
+        <v>493</v>
+      </c>
+      <c r="D157" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="E157" s="35" t="s">
+        <v>420</v>
       </c>
       <c r="F157" s="16"/>
-      <c r="G157" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="H157" s="37"/>
-      <c r="I157" s="38"/>
+      <c r="G157" s="29" t="s">
+        <v>421</v>
+      </c>
+      <c r="H157" s="36"/>
+      <c r="I157" s="37"/>
     </row>
     <row r="158" spans="1:9" ht="124.2">
       <c r="A158" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="D158" s="36" t="s">
-        <v>438</v>
-      </c>
-      <c r="E158" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="F158" s="39"/>
-      <c r="G158" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="H158" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="I158" s="38"/>
-    </row>
-    <row r="159" spans="1:9" ht="69">
+        <v>494</v>
+      </c>
+      <c r="D158" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="E158" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="F158" s="38"/>
+      <c r="G158" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="H158" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="I158" s="37"/>
+    </row>
+    <row r="159" spans="1:9" ht="82.8">
       <c r="A159" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="D159" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="E159" s="36" t="s">
-        <v>442</v>
-      </c>
-      <c r="F159" s="39"/>
-      <c r="G159" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="H159" s="37"/>
-      <c r="I159" s="38"/>
+        <v>495</v>
+      </c>
+      <c r="D159" s="35" t="s">
+        <v>425</v>
+      </c>
+      <c r="E159" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="F159" s="38"/>
+      <c r="G159" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="H159" s="36"/>
+      <c r="I159" s="37"/>
     </row>
     <row r="160" spans="1:9" ht="69">
       <c r="A160" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="D160" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="E160" s="36" t="s">
-        <v>445</v>
+        <v>496</v>
+      </c>
+      <c r="D160" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E160" s="35" t="s">
+        <v>429</v>
       </c>
       <c r="F160" s="16"/>
-      <c r="G160" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="H160" s="37"/>
-      <c r="I160" s="38"/>
+      <c r="G160" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="H160" s="36"/>
+      <c r="I160" s="37"/>
     </row>
     <row r="161" spans="1:9" ht="41.4">
       <c r="A161" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="D161" s="36" t="s">
-        <v>447</v>
-      </c>
-      <c r="E161" s="36" t="s">
-        <v>448</v>
+        <v>497</v>
+      </c>
+      <c r="D161" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="E161" s="35" t="s">
+        <v>432</v>
       </c>
       <c r="F161" s="16"/>
-      <c r="G161" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="H161" s="37"/>
-      <c r="I161" s="38" t="s">
-        <v>430</v>
+      <c r="G161" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="H161" s="36"/>
+      <c r="I161" s="37" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="55.2">
       <c r="A162" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="D162" s="36" t="s">
-        <v>450</v>
-      </c>
-      <c r="E162" s="36" t="s">
-        <v>451</v>
+        <v>498</v>
+      </c>
+      <c r="D162" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="E162" s="35" t="s">
+        <v>435</v>
       </c>
       <c r="F162" s="16"/>
-      <c r="G162" s="30" t="s">
-        <v>452</v>
-      </c>
-      <c r="H162" s="37"/>
-      <c r="I162" s="38"/>
-    </row>
-    <row r="163" spans="1:9" ht="27.6">
+      <c r="G162" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="H162" s="36"/>
+      <c r="I162" s="37"/>
+    </row>
+    <row r="163" spans="1:9" ht="41.4">
       <c r="A163" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="D163" s="36" t="s">
-        <v>453</v>
-      </c>
-      <c r="E163" s="36" t="s">
-        <v>454</v>
+        <v>499</v>
+      </c>
+      <c r="D163" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="E163" s="35" t="s">
+        <v>438</v>
       </c>
       <c r="F163" s="16"/>
-      <c r="G163" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="H163" s="37"/>
-      <c r="I163" s="38"/>
+      <c r="G163" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="H163" s="36"/>
+      <c r="I163" s="37"/>
     </row>
     <row r="164" spans="1:9" ht="69">
       <c r="A164" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="D164" s="36" t="s">
-        <v>456</v>
-      </c>
-      <c r="E164" s="36" t="s">
-        <v>457</v>
-      </c>
-      <c r="F164" s="39"/>
-      <c r="G164" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="H164" s="37"/>
-      <c r="I164" s="38" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="27.6">
+        <v>500</v>
+      </c>
+      <c r="D164" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="E164" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="F164" s="38"/>
+      <c r="G164" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="H164" s="36"/>
+      <c r="I164" s="37" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="41.4">
       <c r="A165" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="D165" s="36" t="s">
-        <v>459</v>
-      </c>
-      <c r="E165" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="F165" s="39"/>
-      <c r="G165" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="H165" s="37"/>
-      <c r="I165" s="38" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="96.6">
+        <v>501</v>
+      </c>
+      <c r="D165" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="E165" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="F165" s="38"/>
+      <c r="G165" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="H165" s="36"/>
+      <c r="I165" s="37" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="110.4">
       <c r="A166" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="D166" s="36" t="s">
-        <v>463</v>
-      </c>
-      <c r="E166" s="36" t="s">
-        <v>464</v>
+        <v>502</v>
+      </c>
+      <c r="D166" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="E166" s="35" t="s">
+        <v>448</v>
       </c>
       <c r="F166" s="16"/>
-      <c r="G166" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="H166" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="I166" s="38"/>
+      <c r="G166" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="H166" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="I166" s="37"/>
     </row>
     <row r="167" spans="1:9" ht="96.6">
       <c r="A167" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="D167" s="36" t="s">
-        <v>466</v>
-      </c>
-      <c r="E167" s="36" t="s">
-        <v>467</v>
+        <v>503</v>
+      </c>
+      <c r="D167" s="35" t="s">
+        <v>450</v>
+      </c>
+      <c r="E167" s="35" t="s">
+        <v>451</v>
       </c>
       <c r="F167" s="16"/>
-      <c r="G167" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="H167" s="37"/>
-      <c r="I167" s="38" t="s">
-        <v>469</v>
+      <c r="G167" s="29" t="s">
+        <v>452</v>
+      </c>
+      <c r="H167" s="36"/>
+      <c r="I167" s="37" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="69">
       <c r="A168" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="D168" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="E168" s="36" t="s">
-        <v>471</v>
+        <v>504</v>
+      </c>
+      <c r="D168" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="E168" s="35" t="s">
+        <v>455</v>
       </c>
       <c r="F168" s="16"/>
-      <c r="G168" s="30" t="s">
-        <v>472</v>
-      </c>
-      <c r="H168" s="37"/>
-      <c r="I168" s="38"/>
-    </row>
-    <row r="169" spans="1:9" ht="96.6">
+      <c r="G168" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="H168" s="36"/>
+      <c r="I168" s="37"/>
+    </row>
+    <row r="169" spans="1:9" ht="82.8">
       <c r="A169" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="D169" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="E169" s="36" t="s">
-        <v>474</v>
+        <v>505</v>
+      </c>
+      <c r="D169" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="E169" s="35" t="s">
+        <v>458</v>
       </c>
       <c r="F169" s="16"/>
-      <c r="G169" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="H169" s="37"/>
-      <c r="I169" s="38" t="s">
-        <v>476</v>
+      <c r="G169" s="29" t="s">
+        <v>459</v>
+      </c>
+      <c r="H169" s="36"/>
+      <c r="I169" s="37" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="55.2">
       <c r="A170" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="D170" s="36" t="s">
-        <v>477</v>
-      </c>
-      <c r="E170" s="36" t="s">
-        <v>478</v>
+        <v>506</v>
+      </c>
+      <c r="D170" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="E170" s="35" t="s">
+        <v>462</v>
       </c>
       <c r="F170" s="16"/>
-      <c r="G170" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="H170" s="37"/>
-      <c r="I170" s="38"/>
+      <c r="G170" s="29" t="s">
+        <v>463</v>
+      </c>
+      <c r="H170" s="36"/>
+      <c r="I170" s="37"/>
     </row>
     <row r="171" spans="1:9" ht="151.80000000000001">
       <c r="A171" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="D171" s="36" t="s">
-        <v>480</v>
-      </c>
-      <c r="E171" s="36" t="s">
-        <v>481</v>
+        <v>507</v>
+      </c>
+      <c r="D171" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="E171" s="35" t="s">
+        <v>465</v>
       </c>
       <c r="F171" s="16"/>
-      <c r="G171" s="30" t="s">
-        <v>482</v>
-      </c>
-      <c r="H171" s="37"/>
-      <c r="I171" s="38" t="s">
-        <v>483</v>
+      <c r="G171" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="H171" s="36"/>
+      <c r="I171" s="37" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="69">
       <c r="A172" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="D172" s="36" t="s">
-        <v>484</v>
-      </c>
-      <c r="E172" s="36" t="s">
-        <v>485</v>
+        <v>508</v>
+      </c>
+      <c r="D172" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="E172" s="35" t="s">
+        <v>469</v>
       </c>
       <c r="F172" s="16"/>
-      <c r="G172" s="30" t="s">
-        <v>486</v>
-      </c>
-      <c r="H172" s="37"/>
-      <c r="I172" s="38" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="110.4">
+      <c r="G172" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="H172" s="36"/>
+      <c r="I172" s="37" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="96.6">
       <c r="A173" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="D173" s="36" t="s">
-        <v>488</v>
-      </c>
-      <c r="E173" s="36" t="s">
-        <v>489</v>
+        <v>509</v>
+      </c>
+      <c r="D173" s="35" t="s">
+        <v>472</v>
+      </c>
+      <c r="E173" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="F173" s="16"/>
-      <c r="G173" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="H173" s="37"/>
-      <c r="I173" s="38" t="s">
-        <v>491</v>
+      <c r="G173" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="H173" s="36"/>
+      <c r="I173" s="37" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="55.2">
       <c r="A174" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="D174" s="36" t="s">
-        <v>492</v>
-      </c>
-      <c r="E174" s="36" t="s">
-        <v>493</v>
+        <v>510</v>
+      </c>
+      <c r="D174" s="35" t="s">
+        <v>476</v>
+      </c>
+      <c r="E174" s="35" t="s">
+        <v>477</v>
       </c>
       <c r="F174" s="16"/>
-      <c r="G174" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="H174" s="37"/>
-      <c r="I174" s="38"/>
+      <c r="G174" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="H174" s="36"/>
+      <c r="I174" s="37"/>
     </row>
     <row r="175" spans="1:9" ht="69">
       <c r="A175" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="D175" s="36" t="s">
-        <v>495</v>
-      </c>
-      <c r="E175" s="36" t="s">
-        <v>496</v>
+        <v>511</v>
+      </c>
+      <c r="D175" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="E175" s="35" t="s">
+        <v>480</v>
       </c>
       <c r="F175" s="16"/>
-      <c r="G175" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="H175" s="37"/>
-      <c r="I175" s="38" t="s">
-        <v>498</v>
+      <c r="G175" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="H175" s="36"/>
+      <c r="I175" s="37" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="82.8">
       <c r="A176" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="D176" s="35" t="s">
+        <v>483</v>
+      </c>
+      <c r="E176" s="35" t="s">
+        <v>484</v>
+      </c>
+      <c r="F176" s="16"/>
+      <c r="G176" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="H176" s="36"/>
+      <c r="I176" s="37" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="41.4">
+      <c r="A177" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="D177" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="E177" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="F177" s="16"/>
+      <c r="G177" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="H177" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="I177" s="37" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="45">
+      <c r="A178" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="D176" s="36" t="s">
-        <v>499</v>
-      </c>
-      <c r="E176" s="36" t="s">
-        <v>500</v>
-      </c>
-      <c r="F176" s="16"/>
-      <c r="G176" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="H176" s="37"/>
-      <c r="I176" s="38" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="27.6">
-      <c r="A177" s="8" t="s">
+      <c r="D178" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="E178" s="40" t="s">
+        <v>515</v>
+      </c>
+      <c r="F178" s="40" t="s">
+        <v>516</v>
+      </c>
+      <c r="G178" s="15" t="s">
         <v>529</v>
-      </c>
-      <c r="D177" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="E177" s="36" t="s">
-        <v>504</v>
-      </c>
-      <c r="F177" s="16"/>
-      <c r="G177" s="30" t="s">
-        <v>505</v>
-      </c>
-      <c r="H177" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="I177" s="38" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="90">
-      <c r="A178" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D178" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="E178" s="41" t="s">
-        <v>531</v>
-      </c>
-      <c r="F178" s="41" t="s">
-        <v>532</v>
-      </c>
-      <c r="G178" s="15" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15">
       <c r="A179" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D179" s="41" t="s">
-        <v>533</v>
-      </c>
-      <c r="E179" s="41" t="s">
-        <v>534</v>
-      </c>
-      <c r="F179" s="41"/>
+        <v>528</v>
+      </c>
+      <c r="D179" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="E179" s="40" t="s">
+        <v>518</v>
+      </c>
+      <c r="F179" s="40"/>
       <c r="G179" s="15" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="105">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="60">
       <c r="A180" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D180" s="41" t="s">
-        <v>535</v>
-      </c>
-      <c r="E180" s="41" t="s">
-        <v>536</v>
-      </c>
-      <c r="F180" s="41" t="s">
-        <v>537</v>
+        <v>528</v>
+      </c>
+      <c r="D180" s="40" t="s">
+        <v>519</v>
+      </c>
+      <c r="E180" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="F180" s="40" t="s">
+        <v>521</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="15">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="30">
       <c r="A181" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D181" s="41" t="s">
-        <v>538</v>
-      </c>
-      <c r="E181" s="41" t="s">
-        <v>539</v>
-      </c>
-      <c r="F181" s="41"/>
+        <v>528</v>
+      </c>
+      <c r="D181" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="E181" s="40" t="s">
+        <v>523</v>
+      </c>
+      <c r="F181" s="40"/>
       <c r="G181" s="15" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15">
       <c r="A182" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D182" s="40" t="s">
+        <v>524</v>
+      </c>
+      <c r="E182" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="F182" s="40"/>
+      <c r="G182" s="15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="30">
+      <c r="A183" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D183" s="40" t="s">
+        <v>526</v>
+      </c>
+      <c r="E183" s="40" t="s">
+        <v>527</v>
+      </c>
+      <c r="F183" s="40"/>
+      <c r="G183" s="15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="45">
+      <c r="A184" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D184" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="E184" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="F184" s="40"/>
+      <c r="G184" s="15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="30">
+      <c r="A185" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D185" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="E185" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="F185" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="30">
+      <c r="A186" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D186" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="E186" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="F186" s="40"/>
+      <c r="G186" s="15" t="s">
         <v>544</v>
-      </c>
-      <c r="D182" s="41" t="s">
-        <v>540</v>
-      </c>
-      <c r="E182" s="41" t="s">
-        <v>541</v>
-      </c>
-      <c r="F182" s="41"/>
-      <c r="G182" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="15">
-      <c r="A183" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="D183" s="41" t="s">
-        <v>542</v>
-      </c>
-      <c r="E183" s="41" t="s">
-        <v>543</v>
-      </c>
-      <c r="F183" s="41"/>
-      <c r="G183" s="15" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="30">
-      <c r="A184" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="D184" s="41" t="s">
-        <v>551</v>
-      </c>
-      <c r="E184" s="41" t="s">
-        <v>552</v>
-      </c>
-      <c r="F184" s="41"/>
-      <c r="G184" s="15" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="60">
-      <c r="A185" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="D185" s="41" t="s">
-        <v>553</v>
-      </c>
-      <c r="E185" s="41" t="s">
-        <v>554</v>
-      </c>
-      <c r="F185" s="41" t="s">
-        <v>555</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="15">
-      <c r="A186" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="D186" s="41" t="s">
-        <v>556</v>
-      </c>
-      <c r="E186" s="41" t="s">
-        <v>557</v>
-      </c>
-      <c r="F186" s="41"/>
-      <c r="G186" s="15" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="30">
       <c r="A187" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="D187" s="42" t="s">
-        <v>562</v>
-      </c>
-      <c r="E187" s="42" t="s">
-        <v>563</v>
-      </c>
-      <c r="F187" s="42"/>
+        <v>557</v>
+      </c>
+      <c r="D187" s="41" t="s">
+        <v>546</v>
+      </c>
+      <c r="E187" s="41" t="s">
+        <v>547</v>
+      </c>
+      <c r="F187" s="41"/>
       <c r="G187" s="15" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="30">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="45">
       <c r="A188" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="D188" s="42" t="s">
-        <v>564</v>
-      </c>
-      <c r="E188" s="42" t="s">
-        <v>565</v>
-      </c>
-      <c r="F188" s="42"/>
+        <v>557</v>
+      </c>
+      <c r="D188" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="E188" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="F188" s="41"/>
       <c r="G188" s="15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="15">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="30">
       <c r="A189" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="D189" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="E189" s="42" t="s">
-        <v>567</v>
-      </c>
-      <c r="F189" s="42"/>
+        <v>557</v>
+      </c>
+      <c r="D189" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="E189" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="F189" s="41"/>
       <c r="G189" s="15" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="30">
       <c r="A190" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="D190" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="E190" s="42" t="s">
-        <v>568</v>
-      </c>
-      <c r="F190" s="42"/>
+        <v>557</v>
+      </c>
+      <c r="D190" s="41" t="s">
+        <v>550</v>
+      </c>
+      <c r="E190" s="41" t="s">
+        <v>552</v>
+      </c>
+      <c r="F190" s="41"/>
       <c r="G190" s="15" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="30">
       <c r="A191" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D191" s="41" t="s">
-        <v>574</v>
-      </c>
-      <c r="E191" s="41" t="s">
-        <v>575</v>
-      </c>
-      <c r="F191" s="41"/>
+        <v>562</v>
+      </c>
+      <c r="D191" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="E191" s="40" t="s">
+        <v>559</v>
+      </c>
+      <c r="F191" s="40"/>
       <c r="G191" s="15" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="30">
       <c r="A192" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D192" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="E192" s="41" t="s">
-        <v>577</v>
-      </c>
-      <c r="F192" s="41"/>
+        <v>562</v>
+      </c>
+      <c r="D192" s="40" t="s">
+        <v>560</v>
+      </c>
+      <c r="E192" s="40" t="s">
+        <v>561</v>
+      </c>
+      <c r="F192" s="40"/>
       <c r="G192" s="15" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="30">
       <c r="A193" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="D193" s="41" t="s">
-        <v>581</v>
-      </c>
-      <c r="E193" s="41" t="s">
-        <v>582</v>
-      </c>
-      <c r="F193" s="41"/>
+        <v>567</v>
+      </c>
+      <c r="D193" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="E193" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="F193" s="40"/>
       <c r="G193" s="15" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="30">
       <c r="A194" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="D194" s="41" t="s">
-        <v>585</v>
-      </c>
-      <c r="E194" s="41" t="s">
-        <v>586</v>
-      </c>
-      <c r="F194" s="41"/>
+        <v>571</v>
+      </c>
+      <c r="D194" s="40" t="s">
+        <v>569</v>
+      </c>
+      <c r="E194" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="F194" s="40"/>
       <c r="G194" s="15" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="75">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="45">
       <c r="A195" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="D195" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="E195" s="41" t="s">
-        <v>590</v>
-      </c>
-      <c r="F195" s="41" t="s">
-        <v>591</v>
+        <v>578</v>
+      </c>
+      <c r="D195" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="E195" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="F195" s="40" t="s">
+        <v>575</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="30">
       <c r="A196" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="D196" s="41" t="s">
-        <v>592</v>
-      </c>
-      <c r="E196" s="41" t="s">
-        <v>593</v>
-      </c>
-      <c r="F196" s="41"/>
+        <v>578</v>
+      </c>
+      <c r="D196" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="E196" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="F196" s="40"/>
       <c r="G196" s="15" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="30">
       <c r="A197" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D197" s="41" t="s">
-        <v>597</v>
-      </c>
-      <c r="E197" s="41" t="s">
-        <v>598</v>
-      </c>
-      <c r="F197" s="41"/>
+        <v>602</v>
+      </c>
+      <c r="D197" s="40" t="s">
+        <v>581</v>
+      </c>
+      <c r="E197" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="F197" s="40"/>
       <c r="G197" s="15" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="15">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="30">
       <c r="A198" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D198" s="41" t="s">
-        <v>599</v>
-      </c>
-      <c r="E198" s="41" t="s">
-        <v>600</v>
-      </c>
-      <c r="F198" s="41"/>
+        <v>602</v>
+      </c>
+      <c r="D198" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="E198" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="F198" s="40"/>
       <c r="G198" s="15" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="15">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="30">
       <c r="A199" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D199" s="41" t="s">
-        <v>599</v>
-      </c>
-      <c r="E199" s="41" t="s">
-        <v>601</v>
-      </c>
-      <c r="F199" s="41"/>
+        <v>602</v>
+      </c>
+      <c r="D199" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="E199" s="40" t="s">
+        <v>585</v>
+      </c>
+      <c r="F199" s="40"/>
       <c r="G199" s="15" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="30">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="45">
       <c r="A200" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D200" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="E200" s="41" t="s">
-        <v>603</v>
-      </c>
-      <c r="F200" s="41"/>
+      <c r="D200" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="E200" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="F200" s="40"/>
       <c r="G200" s="15" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="30">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="45">
       <c r="A201" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D201" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="E201" s="41" t="s">
-        <v>604</v>
-      </c>
-      <c r="F201" s="41"/>
+      <c r="D201" s="40" t="s">
+        <v>586</v>
+      </c>
+      <c r="E201" s="40" t="s">
+        <v>588</v>
+      </c>
+      <c r="F201" s="40"/>
       <c r="G201" s="15" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="15">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="30">
       <c r="A202" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D202" s="41" t="s">
-        <v>605</v>
-      </c>
-      <c r="E202" s="41" t="s">
-        <v>606</v>
-      </c>
-      <c r="F202" s="41"/>
+        <v>602</v>
+      </c>
+      <c r="D202" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="E202" s="40" t="s">
+        <v>590</v>
+      </c>
+      <c r="F202" s="40"/>
       <c r="G202" s="15" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="30">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="45">
       <c r="A203" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D203" s="41" t="s">
-        <v>607</v>
-      </c>
-      <c r="E203" s="41" t="s">
-        <v>608</v>
-      </c>
-      <c r="F203" s="41"/>
+        <v>602</v>
+      </c>
+      <c r="D203" s="40" t="s">
+        <v>591</v>
+      </c>
+      <c r="E203" s="40" t="s">
+        <v>592</v>
+      </c>
+      <c r="F203" s="40"/>
       <c r="G203" s="15" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="30">
       <c r="A204" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D204" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="E204" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D204" s="40" t="s">
+        <v>593</v>
+      </c>
+      <c r="E204" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="F204" s="40"/>
+      <c r="G204" s="15" t="s">
         <v>610</v>
-      </c>
-      <c r="F204" s="41"/>
-      <c r="G204" s="15" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="30">
       <c r="A205" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D205" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="E205" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D205" s="40" t="s">
+        <v>593</v>
+      </c>
+      <c r="E205" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="F205" s="40"/>
+      <c r="G205" s="15" t="s">
         <v>611</v>
-      </c>
-      <c r="F205" s="41"/>
-      <c r="G205" s="15" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="30">
       <c r="A206" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D206" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="D206" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="E206" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="F206" s="40"/>
+      <c r="G206" s="15" t="s">
         <v>612</v>
       </c>
-      <c r="E206" s="41" t="s">
+    </row>
+    <row r="207" spans="1:7" ht="45">
+      <c r="A207" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D207" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="E207" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="F207" s="40"/>
+      <c r="G207" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="F206" s="41"/>
-      <c r="G206" s="15" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="30">
-      <c r="A207" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D207" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="E207" s="41" t="s">
-        <v>615</v>
-      </c>
-      <c r="F207" s="41"/>
-      <c r="G207" s="15" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="45">
       <c r="A208" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D208" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="E208" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="F208" s="40"/>
+      <c r="G208" s="15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="105">
+      <c r="A209" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D209" s="40" t="s">
+        <v>615</v>
+      </c>
+      <c r="E209" s="40" t="s">
+        <v>616</v>
+      </c>
+      <c r="F209" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G209" s="29"/>
+    </row>
+    <row r="210" spans="1:7" ht="30">
+      <c r="A210" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="D210" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="E210" s="40" t="s">
         <v>618</v>
       </c>
-      <c r="D208" s="41" t="s">
-        <v>616</v>
-      </c>
-      <c r="E208" s="41" t="s">
-        <v>617</v>
-      </c>
-      <c r="F208" s="41"/>
-      <c r="G208" s="15" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="165">
-      <c r="A209" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="D209" s="41" t="s">
-        <v>631</v>
-      </c>
-      <c r="E209" s="41" t="s">
-        <v>632</v>
-      </c>
-      <c r="F209" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="G209" s="30"/>
-    </row>
-    <row r="210" spans="1:7" ht="45">
-      <c r="A210" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="D210" s="41" t="s">
-        <v>633</v>
-      </c>
-      <c r="E210" s="41" t="s">
-        <v>634</v>
-      </c>
-      <c r="F210" s="41" t="s">
-        <v>635</v>
-      </c>
-      <c r="G210" s="30"/>
+      <c r="F210" s="40" t="s">
+        <v>619</v>
+      </c>
+      <c r="G210" s="29"/>
     </row>
     <row r="211" spans="1:7" ht="30">
       <c r="A211" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="D211" s="41" t="s">
-        <v>637</v>
-      </c>
-      <c r="E211" s="41" t="s">
-        <v>638</v>
-      </c>
-      <c r="F211" s="41"/>
+        <v>620</v>
+      </c>
+      <c r="D211" s="40" t="s">
+        <v>621</v>
+      </c>
+      <c r="E211" s="40" t="s">
+        <v>622</v>
+      </c>
+      <c r="F211" s="40"/>
       <c r="G211" s="15" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="15">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="30">
       <c r="A212" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="D212" s="44" t="s">
-        <v>644</v>
-      </c>
-      <c r="E212" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="F212" s="41"/>
+        <v>620</v>
+      </c>
+      <c r="D212" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="E212" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="F212" s="40"/>
       <c r="G212" s="15" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="30">
       <c r="A213" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="D213" s="44" t="s">
-        <v>645</v>
-      </c>
-      <c r="E213" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="D213" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="E213" s="40" t="s">
+        <v>623</v>
+      </c>
+      <c r="F213" s="40"/>
+      <c r="G213" s="15" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="30">
+      <c r="A214" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D214" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="E214" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="F214" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="G214" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="F213" s="41"/>
-      <c r="G213" s="15" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="45">
-      <c r="A214" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="D214" s="41" t="s">
-        <v>646</v>
-      </c>
-      <c r="E214" s="41" t="s">
-        <v>647</v>
-      </c>
-      <c r="F214" s="41" t="s">
-        <v>648</v>
-      </c>
-      <c r="G214" s="15" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="60">
+    </row>
+    <row r="215" spans="1:7" ht="45">
       <c r="A215" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="D215" s="41" t="s">
-        <v>649</v>
-      </c>
-      <c r="E215" s="41" t="s">
-        <v>650</v>
-      </c>
-      <c r="F215" s="41" t="s">
-        <v>651</v>
+        <v>627</v>
+      </c>
+      <c r="D215" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="E215" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="F215" s="40" t="s">
+        <v>635</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15">
       <c r="A216" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D216" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="E216" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="F216" s="40"/>
+      <c r="G216" s="15" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="30">
+      <c r="A217" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D217" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="E217" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="F217" s="40"/>
+      <c r="G217" s="15" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="45">
+      <c r="A218" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="D218" s="40" t="s">
         <v>643</v>
       </c>
-      <c r="D216" s="41" t="s">
-        <v>652</v>
-      </c>
-      <c r="E216" s="41" t="s">
-        <v>653</v>
-      </c>
-      <c r="F216" s="41"/>
-      <c r="G216" s="15" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="15">
-      <c r="A217" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="D217" s="41" t="s">
-        <v>654</v>
-      </c>
-      <c r="E217" s="41" t="s">
-        <v>603</v>
-      </c>
-      <c r="F217" s="41"/>
-      <c r="G217" s="15" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="30">
-      <c r="A218" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="D218" s="41" t="s">
-        <v>659</v>
-      </c>
-      <c r="E218" s="41" t="s">
-        <v>660</v>
-      </c>
-      <c r="F218" s="41"/>
+      <c r="E218" s="40" t="s">
+        <v>644</v>
+      </c>
+      <c r="F218" s="40"/>
       <c r="G218" s="15" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="30">
       <c r="A219" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="D219" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="E219" s="41" t="s">
-        <v>664</v>
-      </c>
-      <c r="F219" s="41"/>
+        <v>661</v>
+      </c>
+      <c r="D219" s="40" t="s">
+        <v>647</v>
+      </c>
+      <c r="E219" s="40" t="s">
+        <v>648</v>
+      </c>
+      <c r="F219" s="40"/>
       <c r="G219" s="15" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="30">
       <c r="A220" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="D220" s="41" t="s">
-        <v>665</v>
-      </c>
-      <c r="E220" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="F220" s="41"/>
+        <v>661</v>
+      </c>
+      <c r="D220" s="40" t="s">
+        <v>649</v>
+      </c>
+      <c r="E220" s="40" t="s">
+        <v>650</v>
+      </c>
+      <c r="F220" s="40"/>
       <c r="G220" s="15" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="45">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="60">
       <c r="A221" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="D221" s="41" t="s">
-        <v>667</v>
-      </c>
-      <c r="E221" s="41"/>
-      <c r="F221" s="41"/>
+        <v>661</v>
+      </c>
+      <c r="D221" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="E221" s="40"/>
+      <c r="F221" s="40"/>
       <c r="G221" s="15" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="30">
       <c r="A222" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="D222" s="41" t="s">
-        <v>668</v>
-      </c>
-      <c r="E222" s="41" t="s">
-        <v>669</v>
-      </c>
-      <c r="F222" s="41"/>
+        <v>661</v>
+      </c>
+      <c r="D222" s="40" t="s">
+        <v>652</v>
+      </c>
+      <c r="E222" s="40" t="s">
+        <v>653</v>
+      </c>
+      <c r="F222" s="40"/>
       <c r="G222" s="15" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="15">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="30">
       <c r="A223" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="D223" s="41" t="s">
-        <v>670</v>
-      </c>
-      <c r="E223" s="41" t="s">
-        <v>671</v>
-      </c>
-      <c r="F223" s="41"/>
+        <v>661</v>
+      </c>
+      <c r="D223" s="40" t="s">
+        <v>654</v>
+      </c>
+      <c r="E223" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="F223" s="40"/>
       <c r="G223" s="15" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="45">
       <c r="A224" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="D224" s="41" t="s">
-        <v>678</v>
-      </c>
-      <c r="E224" s="41" t="s">
-        <v>679</v>
-      </c>
-      <c r="F224" s="45"/>
+        <v>664</v>
+      </c>
+      <c r="D224" s="40" t="s">
+        <v>662</v>
+      </c>
+      <c r="E224" s="40" t="s">
+        <v>663</v>
+      </c>
+      <c r="F224" s="44"/>
       <c r="G224" s="15" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="30">
       <c r="A225" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="D225" s="41" t="s">
-        <v>684</v>
-      </c>
-      <c r="E225" s="41" t="s">
-        <v>685</v>
-      </c>
-      <c r="F225" s="41"/>
+        <v>665</v>
+      </c>
+      <c r="D225" s="40" t="s">
+        <v>668</v>
+      </c>
+      <c r="E225" s="40" t="s">
+        <v>669</v>
+      </c>
+      <c r="F225" s="40"/>
       <c r="G225" s="15" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="30">
       <c r="A226" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="D226" s="40" t="s">
-        <v>686</v>
-      </c>
-      <c r="E226" s="41" t="s">
-        <v>686</v>
-      </c>
-      <c r="F226" s="41"/>
+        <v>665</v>
+      </c>
+      <c r="D226" s="39" t="s">
+        <v>670</v>
+      </c>
+      <c r="E226" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="F226" s="40"/>
       <c r="G226" s="15" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="15">
       <c r="A227" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="D227" s="40" t="s">
-        <v>687</v>
-      </c>
-      <c r="E227" s="41" t="s">
-        <v>688</v>
-      </c>
-      <c r="F227" s="41"/>
+        <v>665</v>
+      </c>
+      <c r="D227" s="39" t="s">
+        <v>671</v>
+      </c>
+      <c r="E227" s="40" t="s">
+        <v>672</v>
+      </c>
+      <c r="F227" s="40"/>
       <c r="G227" s="15" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="60">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="30">
       <c r="A228" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="D228" s="40" t="s">
-        <v>691</v>
-      </c>
-      <c r="E228" s="41" t="s">
-        <v>692</v>
-      </c>
-      <c r="F228" s="41" t="s">
-        <v>693</v>
+        <v>683</v>
+      </c>
+      <c r="D228" s="39" t="s">
+        <v>675</v>
+      </c>
+      <c r="E228" s="40" t="s">
+        <v>676</v>
+      </c>
+      <c r="F228" s="40" t="s">
+        <v>677</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="30">
       <c r="A229" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="D229" s="40" t="s">
-        <v>694</v>
-      </c>
-      <c r="E229" s="41" t="s">
-        <v>695</v>
-      </c>
-      <c r="F229" s="41"/>
+        <v>683</v>
+      </c>
+      <c r="D229" s="39" t="s">
+        <v>678</v>
+      </c>
+      <c r="E229" s="40" t="s">
+        <v>679</v>
+      </c>
+      <c r="F229" s="40"/>
       <c r="G229" s="15" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="30">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="15">
       <c r="A230" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="D230" s="40" t="s">
-        <v>696</v>
-      </c>
-      <c r="E230" s="41" t="s">
-        <v>697</v>
-      </c>
-      <c r="F230" s="41" t="s">
-        <v>698</v>
+        <v>683</v>
+      </c>
+      <c r="D230" s="39" t="s">
+        <v>680</v>
+      </c>
+      <c r="E230" s="40" t="s">
+        <v>681</v>
+      </c>
+      <c r="F230" s="40" t="s">
+        <v>682</v>
       </c>
       <c r="G230" s="15" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="15">
       <c r="A231" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="D231" s="40" t="s">
-        <v>703</v>
-      </c>
-      <c r="E231" s="41" t="s">
-        <v>704</v>
-      </c>
-      <c r="F231" s="41"/>
+        <v>694</v>
+      </c>
+      <c r="D231" s="39" t="s">
+        <v>687</v>
+      </c>
+      <c r="E231" s="40" t="s">
+        <v>688</v>
+      </c>
+      <c r="F231" s="40"/>
       <c r="G231" s="15" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="60">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="30">
       <c r="A232" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="D232" s="40" t="s">
-        <v>705</v>
-      </c>
-      <c r="E232" s="40" t="s">
-        <v>706</v>
-      </c>
-      <c r="F232" s="41" t="s">
-        <v>707</v>
+        <v>694</v>
+      </c>
+      <c r="D232" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="E232" s="39" t="s">
+        <v>690</v>
+      </c>
+      <c r="F232" s="40" t="s">
+        <v>691</v>
       </c>
       <c r="G232" s="15" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15">
       <c r="A233" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="D233" s="40" t="s">
-        <v>708</v>
-      </c>
-      <c r="E233" s="41" t="s">
-        <v>709</v>
-      </c>
-      <c r="F233" s="41"/>
+        <v>694</v>
+      </c>
+      <c r="D233" s="39" t="s">
+        <v>692</v>
+      </c>
+      <c r="E233" s="40" t="s">
+        <v>693</v>
+      </c>
+      <c r="F233" s="40"/>
       <c r="G233" s="15" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="15">
       <c r="A234" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="D234" s="40" t="s">
-        <v>714</v>
-      </c>
-      <c r="E234" s="41" t="s">
-        <v>715</v>
-      </c>
-      <c r="F234" s="41"/>
+        <v>708</v>
+      </c>
+      <c r="D234" s="39" t="s">
+        <v>698</v>
+      </c>
+      <c r="E234" s="40" t="s">
+        <v>699</v>
+      </c>
+      <c r="F234" s="40"/>
       <c r="G234" s="15" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="60">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="45">
       <c r="A235" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="D235" s="40" t="s">
-        <v>716</v>
-      </c>
-      <c r="E235" s="41" t="s">
-        <v>717</v>
-      </c>
-      <c r="F235" s="41" t="s">
-        <v>718</v>
+        <v>708</v>
+      </c>
+      <c r="D235" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="E235" s="40" t="s">
+        <v>701</v>
+      </c>
+      <c r="F235" s="40" t="s">
+        <v>702</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="15">
       <c r="A236" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="D236" s="40" t="s">
-        <v>716</v>
-      </c>
-      <c r="E236" s="41" t="s">
-        <v>719</v>
-      </c>
-      <c r="F236" s="41"/>
+        <v>708</v>
+      </c>
+      <c r="D236" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="E236" s="40" t="s">
+        <v>703</v>
+      </c>
+      <c r="F236" s="40"/>
       <c r="G236" s="15" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="90">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="45">
       <c r="A237" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="D237" s="40" t="s">
-        <v>716</v>
-      </c>
-      <c r="E237" s="41" t="s">
-        <v>653</v>
-      </c>
-      <c r="F237" s="41" t="s">
-        <v>720</v>
+        <v>708</v>
+      </c>
+      <c r="D237" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="E237" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="F237" s="40" t="s">
+        <v>704</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="45">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="30">
       <c r="A238" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="D238" s="40" t="s">
-        <v>721</v>
-      </c>
-      <c r="E238" s="41" t="s">
-        <v>722</v>
-      </c>
-      <c r="F238" s="41" t="s">
-        <v>723</v>
+        <v>708</v>
+      </c>
+      <c r="D238" s="39" t="s">
+        <v>705</v>
+      </c>
+      <c r="E238" s="40" t="s">
+        <v>706</v>
+      </c>
+      <c r="F238" s="40" t="s">
+        <v>707</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="15">
       <c r="A239" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="D239" s="40" t="s">
-        <v>730</v>
-      </c>
-      <c r="E239" s="41" t="s">
-        <v>731</v>
-      </c>
-      <c r="F239" s="41"/>
+        <v>716</v>
+      </c>
+      <c r="D239" s="39" t="s">
+        <v>714</v>
+      </c>
+      <c r="E239" s="40" t="s">
+        <v>715</v>
+      </c>
+      <c r="F239" s="40"/>
       <c r="G239" s="15" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="15">
       <c r="A240" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="D240" s="40" t="s">
+        <v>740</v>
+      </c>
+      <c r="D240" s="39" t="s">
+        <v>718</v>
+      </c>
+      <c r="E240" s="40" t="s">
+        <v>719</v>
+      </c>
+      <c r="F240" s="40"/>
+      <c r="G240" s="15" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="45">
+      <c r="A241" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D241" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="E241" s="40" t="s">
+        <v>721</v>
+      </c>
+      <c r="F241" s="40" t="s">
+        <v>722</v>
+      </c>
+      <c r="G241" s="15" t="s">
         <v>734</v>
       </c>
-      <c r="E240" s="41" t="s">
+    </row>
+    <row r="242" spans="1:9" ht="45">
+      <c r="A242" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D242" s="39" t="s">
+        <v>720</v>
+      </c>
+      <c r="E242" s="40" t="s">
+        <v>723</v>
+      </c>
+      <c r="F242" s="40" t="s">
+        <v>724</v>
+      </c>
+      <c r="G242" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="F240" s="41"/>
-      <c r="G240" s="15" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" ht="75">
-      <c r="A241" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="D241" s="40" t="s">
+    </row>
+    <row r="243" spans="1:9" ht="45">
+      <c r="A243" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D243" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="E243" s="40" t="s">
+        <v>726</v>
+      </c>
+      <c r="F243" s="40" t="s">
+        <v>727</v>
+      </c>
+      <c r="G243" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="E241" s="41" t="s">
+    </row>
+    <row r="244" spans="1:9" ht="60">
+      <c r="A244" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D244" s="40" t="s">
+        <v>725</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>728</v>
+      </c>
+      <c r="F244" s="40" t="s">
+        <v>729</v>
+      </c>
+      <c r="G244" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="F241" s="41" t="s">
+    </row>
+    <row r="245" spans="1:9" ht="45">
+      <c r="A245" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D245" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="E245" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="F245" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="G245" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="G241" s="15" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="75">
-      <c r="A242" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="D242" s="40" t="s">
-        <v>736</v>
-      </c>
-      <c r="E242" s="41" t="s">
+    </row>
+    <row r="246" spans="1:9" ht="45">
+      <c r="A246" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D246" s="45" t="s">
+        <v>730</v>
+      </c>
+      <c r="E246" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="F246" s="40" t="s">
+        <v>732</v>
+      </c>
+      <c r="G246" s="15" t="s">
         <v>739</v>
-      </c>
-      <c r="F242" s="41" t="s">
-        <v>740</v>
-      </c>
-      <c r="G242" s="15" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="75">
-      <c r="A243" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="D243" s="40" t="s">
-        <v>741</v>
-      </c>
-      <c r="E243" s="41" t="s">
-        <v>742</v>
-      </c>
-      <c r="F243" s="41" t="s">
-        <v>743</v>
-      </c>
-      <c r="G243" s="15" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="105">
-      <c r="A244" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="D244" s="41" t="s">
-        <v>741</v>
-      </c>
-      <c r="E244" s="41" t="s">
-        <v>744</v>
-      </c>
-      <c r="F244" s="41" t="s">
-        <v>745</v>
-      </c>
-      <c r="G244" s="15" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="75">
-      <c r="A245" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="D245" s="46" t="s">
-        <v>746</v>
-      </c>
-      <c r="E245" s="40" t="s">
-        <v>747</v>
-      </c>
-      <c r="F245" s="41" t="s">
-        <v>748</v>
-      </c>
-      <c r="G245" s="15" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="75">
-      <c r="A246" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="D246" s="46" t="s">
-        <v>746</v>
-      </c>
-      <c r="E246" s="40" t="s">
-        <v>747</v>
-      </c>
-      <c r="F246" s="41" t="s">
-        <v>748</v>
-      </c>
-      <c r="G246" s="15" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="45">
       <c r="A247" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="D247" s="43" t="s">
-        <v>757</v>
-      </c>
-      <c r="E247" s="43" t="s">
-        <v>758</v>
-      </c>
-      <c r="F247" s="41"/>
-      <c r="G247" s="47" t="s">
-        <v>759</v>
-      </c>
-      <c r="H247" s="37"/>
-      <c r="I247" s="38"/>
-    </row>
-    <row r="248" spans="1:9" ht="75">
+        <v>792</v>
+      </c>
+      <c r="D247" s="42" t="s">
+        <v>741</v>
+      </c>
+      <c r="E247" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="F247" s="40"/>
+      <c r="G247" s="46" t="s">
+        <v>743</v>
+      </c>
+      <c r="H247" s="36"/>
+      <c r="I247" s="37"/>
+    </row>
+    <row r="248" spans="1:9" ht="90">
       <c r="A248" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="D248" s="41" t="s">
-        <v>760</v>
-      </c>
-      <c r="E248" s="41" t="s">
-        <v>761</v>
-      </c>
-      <c r="F248" s="41"/>
-      <c r="G248" s="47" t="s">
-        <v>762</v>
-      </c>
-      <c r="H248" s="48"/>
-      <c r="I248" s="49"/>
+        <v>793</v>
+      </c>
+      <c r="D248" s="40" t="s">
+        <v>744</v>
+      </c>
+      <c r="E248" s="40" t="s">
+        <v>745</v>
+      </c>
+      <c r="F248" s="40"/>
+      <c r="G248" s="46" t="s">
+        <v>746</v>
+      </c>
+      <c r="H248" s="47"/>
+      <c r="I248" s="48"/>
     </row>
     <row r="249" spans="1:9" ht="15">
       <c r="A249" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="D249" s="40" t="s">
-        <v>763</v>
-      </c>
-      <c r="E249" s="40" t="s">
-        <v>764</v>
-      </c>
-      <c r="F249" s="41"/>
-      <c r="G249" s="47" t="s">
-        <v>765</v>
-      </c>
-      <c r="H249" s="48"/>
-      <c r="I249" s="49"/>
+        <v>794</v>
+      </c>
+      <c r="D249" s="39" t="s">
+        <v>747</v>
+      </c>
+      <c r="E249" s="39" t="s">
+        <v>748</v>
+      </c>
+      <c r="F249" s="40"/>
+      <c r="G249" s="46" t="s">
+        <v>749</v>
+      </c>
+      <c r="H249" s="47"/>
+      <c r="I249" s="48"/>
     </row>
     <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="D250" s="40" t="s">
-        <v>766</v>
-      </c>
-      <c r="E250" s="40" t="s">
-        <v>767</v>
-      </c>
-      <c r="F250" s="41"/>
-      <c r="G250" s="47" t="s">
-        <v>768</v>
-      </c>
-      <c r="H250" s="48"/>
-      <c r="I250" s="38" t="s">
-        <v>769</v>
+        <v>795</v>
+      </c>
+      <c r="D250" s="39" t="s">
+        <v>750</v>
+      </c>
+      <c r="E250" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="F250" s="40"/>
+      <c r="G250" s="46" t="s">
+        <v>752</v>
+      </c>
+      <c r="H250" s="47"/>
+      <c r="I250" s="37" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="60">
       <c r="A251" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="D251" s="41" t="s">
-        <v>770</v>
-      </c>
-      <c r="E251" s="41" t="s">
-        <v>771</v>
-      </c>
-      <c r="F251" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="G251" s="47" t="s">
-        <v>772</v>
-      </c>
-      <c r="H251" s="37"/>
-      <c r="I251" s="38"/>
+        <v>796</v>
+      </c>
+      <c r="D251" s="40" t="s">
+        <v>754</v>
+      </c>
+      <c r="E251" s="40" t="s">
+        <v>755</v>
+      </c>
+      <c r="F251" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="G251" s="46" t="s">
+        <v>756</v>
+      </c>
+      <c r="H251" s="36"/>
+      <c r="I251" s="37"/>
     </row>
     <row r="252" spans="1:9" ht="60">
       <c r="A252" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="D252" s="41" t="s">
-        <v>773</v>
-      </c>
-      <c r="E252" s="41" t="s">
-        <v>774</v>
-      </c>
-      <c r="F252" s="41"/>
-      <c r="G252" s="47" t="s">
-        <v>775</v>
-      </c>
-      <c r="H252" s="37"/>
-      <c r="I252" s="38"/>
+        <v>797</v>
+      </c>
+      <c r="D252" s="40" t="s">
+        <v>757</v>
+      </c>
+      <c r="E252" s="40" t="s">
+        <v>758</v>
+      </c>
+      <c r="F252" s="40"/>
+      <c r="G252" s="46" t="s">
+        <v>759</v>
+      </c>
+      <c r="H252" s="36"/>
+      <c r="I252" s="37"/>
     </row>
     <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="D253" s="40" t="s">
-        <v>776</v>
-      </c>
-      <c r="E253" s="40" t="s">
-        <v>777</v>
-      </c>
-      <c r="F253" s="41"/>
-      <c r="G253" s="47" t="s">
-        <v>778</v>
-      </c>
-      <c r="H253" s="37"/>
-      <c r="I253" s="38"/>
+        <v>798</v>
+      </c>
+      <c r="D253" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="E253" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="F253" s="40"/>
+      <c r="G253" s="46" t="s">
+        <v>762</v>
+      </c>
+      <c r="H253" s="36"/>
+      <c r="I253" s="37"/>
     </row>
     <row r="254" spans="1:9" ht="45">
       <c r="A254" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="D254" s="43" t="s">
-        <v>779</v>
-      </c>
-      <c r="E254" s="43" t="s">
-        <v>780</v>
-      </c>
-      <c r="F254" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="G254" s="47" t="s">
-        <v>781</v>
-      </c>
-      <c r="H254" s="37"/>
-      <c r="I254" s="38"/>
-    </row>
-    <row r="255" spans="1:9" ht="30">
+        <v>799</v>
+      </c>
+      <c r="D254" s="42" t="s">
+        <v>763</v>
+      </c>
+      <c r="E254" s="42" t="s">
+        <v>764</v>
+      </c>
+      <c r="F254" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="G254" s="46" t="s">
+        <v>765</v>
+      </c>
+      <c r="H254" s="36"/>
+      <c r="I254" s="37"/>
+    </row>
+    <row r="255" spans="1:9" ht="45">
       <c r="A255" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="D255" s="43" t="s">
-        <v>782</v>
-      </c>
-      <c r="E255" s="43" t="s">
-        <v>783</v>
-      </c>
-      <c r="F255" s="41"/>
-      <c r="G255" s="47" t="s">
-        <v>784</v>
-      </c>
-      <c r="H255" s="37"/>
-      <c r="I255" s="38"/>
+        <v>800</v>
+      </c>
+      <c r="D255" s="42" t="s">
+        <v>766</v>
+      </c>
+      <c r="E255" s="42" t="s">
+        <v>767</v>
+      </c>
+      <c r="F255" s="40"/>
+      <c r="G255" s="46" t="s">
+        <v>768</v>
+      </c>
+      <c r="H255" s="36"/>
+      <c r="I255" s="37"/>
     </row>
     <row r="256" spans="1:9" ht="75">
       <c r="A256" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="D256" s="43" t="s">
-        <v>785</v>
-      </c>
-      <c r="E256" s="43" t="s">
-        <v>786</v>
-      </c>
-      <c r="F256" s="41"/>
-      <c r="G256" s="47" t="s">
-        <v>787</v>
-      </c>
-      <c r="H256" s="37"/>
-      <c r="I256" s="38"/>
-    </row>
-    <row r="257" spans="1:9" ht="60">
+        <v>801</v>
+      </c>
+      <c r="D256" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="E256" s="42" t="s">
+        <v>770</v>
+      </c>
+      <c r="F256" s="40"/>
+      <c r="G256" s="46" t="s">
+        <v>771</v>
+      </c>
+      <c r="H256" s="36"/>
+      <c r="I256" s="37"/>
+    </row>
+    <row r="257" spans="1:9" ht="75">
       <c r="A257" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="D257" s="43" t="s">
-        <v>788</v>
-      </c>
-      <c r="E257" s="43" t="s">
-        <v>789</v>
-      </c>
-      <c r="F257" s="41"/>
-      <c r="G257" s="47" t="s">
-        <v>790</v>
-      </c>
-      <c r="H257" s="37"/>
-      <c r="I257" s="38"/>
-    </row>
-    <row r="258" spans="1:9" ht="75">
+        <v>802</v>
+      </c>
+      <c r="D257" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="E257" s="42" t="s">
+        <v>773</v>
+      </c>
+      <c r="F257" s="40"/>
+      <c r="G257" s="46" t="s">
+        <v>774</v>
+      </c>
+      <c r="H257" s="36"/>
+      <c r="I257" s="37"/>
+    </row>
+    <row r="258" spans="1:9" ht="90">
       <c r="A258" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="D258" s="43" t="s">
-        <v>791</v>
-      </c>
-      <c r="E258" s="43" t="s">
-        <v>792</v>
-      </c>
-      <c r="F258" s="41"/>
-      <c r="G258" s="47" t="s">
-        <v>793</v>
-      </c>
-      <c r="H258" s="37"/>
-      <c r="I258" s="38"/>
-    </row>
-    <row r="259" spans="1:9" ht="45">
+        <v>803</v>
+      </c>
+      <c r="D258" s="42" t="s">
+        <v>775</v>
+      </c>
+      <c r="E258" s="42" t="s">
+        <v>776</v>
+      </c>
+      <c r="F258" s="40"/>
+      <c r="G258" s="46" t="s">
+        <v>777</v>
+      </c>
+      <c r="H258" s="36"/>
+      <c r="I258" s="37"/>
+    </row>
+    <row r="259" spans="1:9" ht="60">
       <c r="A259" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="D259" s="43" t="s">
-        <v>794</v>
-      </c>
-      <c r="E259" s="43" t="s">
-        <v>795</v>
-      </c>
-      <c r="F259" s="41"/>
-      <c r="G259" s="47" t="s">
-        <v>796</v>
-      </c>
-      <c r="H259" s="37"/>
-      <c r="I259" s="38" t="s">
-        <v>797</v>
+        <v>804</v>
+      </c>
+      <c r="D259" s="42" t="s">
+        <v>778</v>
+      </c>
+      <c r="E259" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="F259" s="40"/>
+      <c r="G259" s="46" t="s">
+        <v>780</v>
+      </c>
+      <c r="H259" s="36"/>
+      <c r="I259" s="37" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="75">
       <c r="A260" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="D260" s="43" t="s">
-        <v>798</v>
-      </c>
-      <c r="E260" s="43" t="s">
-        <v>799</v>
-      </c>
-      <c r="F260" s="41"/>
-      <c r="G260" s="47" t="s">
-        <v>800</v>
-      </c>
-      <c r="H260" s="37"/>
-      <c r="I260" s="38" t="s">
-        <v>801</v>
+        <v>805</v>
+      </c>
+      <c r="D260" s="42" t="s">
+        <v>782</v>
+      </c>
+      <c r="E260" s="42" t="s">
+        <v>783</v>
+      </c>
+      <c r="F260" s="40"/>
+      <c r="G260" s="46" t="s">
+        <v>784</v>
+      </c>
+      <c r="H260" s="36"/>
+      <c r="I260" s="37" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="75">
       <c r="A261" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="D261" s="43" t="s">
-        <v>802</v>
-      </c>
-      <c r="E261" s="43" t="s">
-        <v>803</v>
-      </c>
-      <c r="F261" s="41"/>
-      <c r="G261" s="47" t="s">
-        <v>804</v>
-      </c>
-      <c r="H261" s="37"/>
-      <c r="I261" s="38"/>
+        <v>806</v>
+      </c>
+      <c r="D261" s="42" t="s">
+        <v>786</v>
+      </c>
+      <c r="E261" s="42" t="s">
+        <v>787</v>
+      </c>
+      <c r="F261" s="40"/>
+      <c r="G261" s="46" t="s">
+        <v>788</v>
+      </c>
+      <c r="H261" s="36"/>
+      <c r="I261" s="37"/>
     </row>
     <row r="262" spans="1:9" ht="45">
       <c r="A262" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="D262" s="43" t="s">
-        <v>805</v>
-      </c>
-      <c r="E262" s="43" t="s">
-        <v>806</v>
-      </c>
-      <c r="F262" s="41"/>
-      <c r="G262" s="47" t="s">
         <v>807</v>
       </c>
-      <c r="H262" s="37"/>
-      <c r="I262" s="38"/>
+      <c r="D262" s="42" t="s">
+        <v>789</v>
+      </c>
+      <c r="E262" s="42" t="s">
+        <v>790</v>
+      </c>
+      <c r="F262" s="40"/>
+      <c r="G262" s="46" t="s">
+        <v>791</v>
+      </c>
+      <c r="H262" s="36"/>
+      <c r="I262" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8079,23 +8302,23 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="H3" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="900">
   <si>
     <t>সহজে বহনীয়</t>
   </si>
@@ -683,123 +683,54 @@
     <t>image103073.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">৪.১ ল্যাম্প হোল্ডার: </t>
-  </si>
-  <si>
     <t>ল্যাম্প হোল্ডার</t>
   </si>
   <si>
-    <t xml:space="preserve">১। ওয়ান ওয়ে সুইচ: </t>
-  </si>
-  <si>
     <t>ওয়ান ওয়ে সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">২। টু ওয়ে সুইচ: </t>
-  </si>
-  <si>
     <t>টু ওয়ে সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">৩। ইন্টারমিডিয়েট সুইচ: </t>
-  </si>
-  <si>
     <t>ইন্টারমিডিয়েট সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">৪। পুশ সুইচ : </t>
-  </si>
-  <si>
     <t>পুশ সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">কী সুইচ : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">কী সুইচ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">৭। রোটারি সুইচ: </t>
-  </si>
-  <si>
-    <t>রোটারি সুইচ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">৮। বেড সুইচ: বিছানায় </t>
-  </si>
-  <si>
     <t>বেড সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">৯। পুশ বাটন সুইচ: এ </t>
-  </si>
-  <si>
     <t xml:space="preserve">পুশ বাটন সুইচ </t>
   </si>
   <si>
-    <t xml:space="preserve">১০। টাইম সুইচ: </t>
-  </si>
-  <si>
     <t>টাইম সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">১১। কনসিল্ড সুইচ: </t>
-  </si>
-  <si>
     <t>কনসিল্ড সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">১২। টুইনব সুইচ: </t>
-  </si>
-  <si>
     <t>টুইনব সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">১। নাইফ সুইচ: </t>
-  </si>
-  <si>
     <t>নাইফ সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">২। মেইন সুইচ: </t>
-  </si>
-  <si>
     <t>মেইন সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">৩। সিঙ্গেল পোল সুইচ: </t>
-  </si>
-  <si>
     <t>সিঙ্গেল পোল সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">৪। ডাবল পোল সুইচ: </t>
-  </si>
-  <si>
     <t>ডাবল পোল সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">৫। ট্রিপল পোল সুইচ: </t>
-  </si>
-  <si>
     <t>ট্রিপল পোল সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">৬। সিঙ্গেল থ্রো সুইচ: </t>
-  </si>
-  <si>
     <t>সিঙ্গেল থ্রো সুইচ</t>
   </si>
   <si>
-    <t xml:space="preserve">৭। আয়রন ক্ল্যাড সুইচ: </t>
-  </si>
-  <si>
-    <t>আয়রন ক্ল্যাড সুইচ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">৫। পুশ পুল সুইচ: </t>
-  </si>
-  <si>
     <t>পুশ পুল সুইচ</t>
   </si>
   <si>
@@ -863,13 +794,7 @@
     <t>image104021.jpg</t>
   </si>
   <si>
-    <t>চিত্র ৫.১: পিভিসি তারের কয়েল।</t>
-  </si>
-  <si>
     <t>পিভিসি তারের কয়েল</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ক্লোরাইড(PVC) এর ইনসুলেশন </t>
   </si>
   <si>
     <t>PVC</t>
@@ -2813,6 +2738,86 @@
   <si>
     <t>090.Chapter-p1-04.xhtml</t>
   </si>
+  <si>
+    <r>
+      <t>ল্যাম্প হোল্ডার</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Nikosh"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>কী সুইচ</t>
+  </si>
+  <si>
+    <t>রোটারী সুইচ:</t>
+  </si>
+  <si>
+    <t>রোটারী সুইচ</t>
+  </si>
+  <si>
+    <t>টাইম সুইচ:</t>
+  </si>
+  <si>
+    <t>কনসিল্ড সুইচ:</t>
+  </si>
+  <si>
+    <t>টুইনব সুইচ:</t>
+  </si>
+  <si>
+    <t>নাইফ সুইচ:</t>
+  </si>
+  <si>
+    <t>মেইন সুইচ:</t>
+  </si>
+  <si>
+    <t>আয়রণ ক্ল্যাড সুইচ:</t>
+  </si>
+  <si>
+    <t>আয়রণ ক্ল্যাড সুইচ</t>
+  </si>
+  <si>
+    <t>ওয়ান ওয়ে সুইচ:</t>
+  </si>
+  <si>
+    <t>টু ওয়ে সুইচ:</t>
+  </si>
+  <si>
+    <t>ইন্টারমিডিয়েট সুইচ:</t>
+  </si>
+  <si>
+    <t>পুশ সুইচ:</t>
+  </si>
+  <si>
+    <t>পুশ পুল সুইচ:</t>
+  </si>
+  <si>
+    <t>কী সুইচ:</t>
+  </si>
+  <si>
+    <t>বেড সুইচ:</t>
+  </si>
+  <si>
+    <t>পুশ বাটন সুইচ:</t>
+  </si>
+  <si>
+    <t>সিঙ্গেল পোল সুইচ:</t>
+  </si>
+  <si>
+    <t>ডাবল পোল সুইচ:</t>
+  </si>
+  <si>
+    <t>ট্রিপল পোল সুইচ:</t>
+  </si>
+  <si>
+    <t>সিঙ্গেল থ্রো সুইচ:</t>
+  </si>
 </sst>
 </file>
 
@@ -2822,7 +2827,7 @@
     <numFmt numFmtId="164" formatCode="[$-5000445]0.#"/>
     <numFmt numFmtId="165" formatCode="[$-5000445]0.##"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2961,6 +2966,17 @@
       <name val="Vrinda"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Vrinda"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="SolaimanLipi"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2983,13 +2999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3007,7 +3023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3173,20 +3189,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3462,7 +3483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3877,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3933,7 +3954,7 @@
     </row>
     <row r="2" spans="1:11" ht="82.8">
       <c r="A2" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>51</v>
@@ -3953,7 +3974,7 @@
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>53</v>
@@ -3970,10 +3991,10 @@
     </row>
     <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>808</v>
+        <v>783</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>133</v>
@@ -3990,13 +4011,13 @@
     </row>
     <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="15" t="s">
@@ -4008,13 +4029,13 @@
     </row>
     <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>810</v>
+        <v>785</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>62</v>
@@ -4025,7 +4046,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="56" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -4045,7 +4066,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="56" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -4065,13 +4086,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>811</v>
+        <v>786</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>65</v>
@@ -4082,13 +4103,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>66</v>
@@ -4099,13 +4120,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>813</v>
+        <v>788</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>67</v>
@@ -4116,13 +4137,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>68</v>
@@ -4133,13 +4154,13 @@
     </row>
     <row r="13" spans="1:11" ht="16.8">
       <c r="A13" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>815</v>
+        <v>790</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>69</v>
@@ -4150,13 +4171,13 @@
     </row>
     <row r="14" spans="1:11" ht="16.8">
       <c r="A14" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>816</v>
+        <v>791</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>70</v>
@@ -4167,13 +4188,13 @@
     </row>
     <row r="15" spans="1:11" ht="16.8">
       <c r="A15" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>71</v>
@@ -4184,13 +4205,13 @@
     </row>
     <row r="16" spans="1:11" ht="16.8">
       <c r="A16" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>818</v>
+        <v>793</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>72</v>
@@ -4201,13 +4222,13 @@
     </row>
     <row r="17" spans="1:13" ht="15">
       <c r="A17" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>73</v>
@@ -4218,7 +4239,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>59</v>
@@ -4235,13 +4256,13 @@
     </row>
     <row r="19" spans="1:13" ht="18">
       <c r="A19" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>820</v>
+        <v>795</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>75</v>
@@ -4252,13 +4273,13 @@
     </row>
     <row r="20" spans="1:13" ht="15">
       <c r="A20" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>821</v>
+        <v>796</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>76</v>
@@ -4269,13 +4290,13 @@
     </row>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>822</v>
+        <v>797</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>77</v>
@@ -4286,13 +4307,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>823</v>
+        <v>798</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>78</v>
@@ -4303,13 +4324,13 @@
     </row>
     <row r="23" spans="1:13" ht="17.399999999999999">
       <c r="A23" s="8" t="s">
-        <v>826</v>
+        <v>801</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>824</v>
+        <v>799</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>79</v>
@@ -4319,19 +4340,19 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="62" t="s">
-        <v>826</v>
-      </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63" t="s">
-        <v>825</v>
-      </c>
-      <c r="E24" s="63" t="s">
-        <v>825</v>
-      </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62" t="s">
+      <c r="A24" s="61" t="s">
+        <v>801</v>
+      </c>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="62" t="s">
+        <v>800</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>800</v>
+      </c>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61" t="s">
         <v>80</v>
       </c>
       <c r="H24" s="55"/>
@@ -4345,7 +4366,7 @@
     </row>
     <row r="25" spans="1:13" ht="41.4">
       <c r="A25" s="8" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>81</v>
@@ -4362,7 +4383,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>83</v>
@@ -4379,10 +4400,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>827</v>
+        <v>802</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>84</v>
@@ -4396,10 +4417,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>85</v>
@@ -4413,10 +4434,10 @@
     </row>
     <row r="29" spans="1:13" ht="15">
       <c r="A29" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>828</v>
+        <v>803</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>135</v>
@@ -4430,10 +4451,10 @@
     </row>
     <row r="30" spans="1:13" ht="15">
       <c r="A30" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>829</v>
+        <v>804</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>136</v>
@@ -4447,10 +4468,10 @@
     </row>
     <row r="31" spans="1:13" ht="30">
       <c r="A31" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>830</v>
+        <v>805</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>137</v>
@@ -4464,10 +4485,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>138</v>
@@ -4481,10 +4502,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>832</v>
+        <v>807</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>86</v>
@@ -4498,10 +4519,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>833</v>
+        <v>808</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>87</v>
@@ -4515,10 +4536,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>834</v>
+        <v>809</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>88</v>
@@ -4532,13 +4553,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>835</v>
+        <v>810</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>836</v>
+        <v>811</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>155</v>
@@ -4549,10 +4570,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>89</v>
@@ -4566,10 +4587,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>838</v>
+        <v>813</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>90</v>
@@ -4583,10 +4604,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>888</v>
+        <v>863</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>91</v>
@@ -4600,10 +4621,10 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>92</v>
@@ -4617,13 +4638,13 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>160</v>
@@ -4634,10 +4655,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>93</v>
@@ -4651,10 +4672,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>890</v>
+        <v>865</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>94</v>
@@ -4668,13 +4689,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="G44" s="55" t="s">
         <v>163</v>
@@ -4685,10 +4706,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>891</v>
+        <v>866</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>95</v>
@@ -4702,10 +4723,10 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>96</v>
@@ -4719,10 +4740,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>819</v>
+        <v>794</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>58</v>
@@ -4736,10 +4757,10 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>97</v>
@@ -4753,13 +4774,13 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="G49" s="55" t="s">
         <v>170</v>
@@ -4770,10 +4791,10 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>98</v>
@@ -4787,10 +4808,10 @@
     </row>
     <row r="51" spans="1:11" ht="27.6">
       <c r="A51" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>892</v>
+        <v>867</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>99</v>
@@ -4804,10 +4825,10 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>100</v>
@@ -4821,10 +4842,10 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>101</v>
@@ -4838,10 +4859,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>893</v>
+        <v>868</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>139</v>
@@ -4855,10 +4876,10 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>894</v>
+        <v>869</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>140</v>
@@ -4872,10 +4893,10 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>141</v>
@@ -4889,17 +4910,17 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="60" t="s">
+        <v>861</v>
+      </c>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="61" t="s">
+      <c r="E57" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="F57" s="59"/>
+      <c r="F57" s="58"/>
       <c r="G57" s="55" t="s">
         <v>178</v>
       </c>
@@ -4909,10 +4930,10 @@
     </row>
     <row r="58" spans="1:11" ht="27.6">
       <c r="A58" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>851</v>
+        <v>826</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>102</v>
@@ -4926,18 +4947,18 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="8" t="s">
-        <v>886</v>
-      </c>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="63" t="s">
-        <v>852</v>
-      </c>
-      <c r="E59" s="63" t="s">
-        <v>852</v>
-      </c>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62" t="s">
+        <v>861</v>
+      </c>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="62" t="s">
+        <v>827</v>
+      </c>
+      <c r="E59" s="62" t="s">
+        <v>827</v>
+      </c>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61" t="s">
         <v>180</v>
       </c>
       <c r="H59" s="55"/>
@@ -4949,10 +4970,10 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>853</v>
+        <v>828</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>103</v>
@@ -4966,10 +4987,10 @@
     </row>
     <row r="61" spans="1:11" ht="27.6">
       <c r="A61" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>854</v>
+        <v>829</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>104</v>
@@ -4983,10 +5004,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>855</v>
+        <v>830</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>105</v>
@@ -5000,10 +5021,10 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>895</v>
+        <v>870</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>106</v>
@@ -5017,10 +5038,10 @@
     </row>
     <row r="64" spans="1:11" ht="27.6">
       <c r="A64" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>896</v>
+        <v>871</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>107</v>
@@ -5034,10 +5055,10 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>856</v>
+        <v>831</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>108</v>
@@ -5051,10 +5072,10 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>857</v>
+        <v>832</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>109</v>
@@ -5068,13 +5089,13 @@
     </row>
     <row r="67" spans="1:11" ht="27.6">
       <c r="A67" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>858</v>
+        <v>833</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>858</v>
+        <v>833</v>
       </c>
       <c r="G67" s="55" t="s">
         <v>188</v>
@@ -5085,10 +5106,10 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>859</v>
+        <v>834</v>
       </c>
       <c r="E68" s="24" t="s">
         <v>110</v>
@@ -5102,10 +5123,10 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>860</v>
+        <v>835</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>111</v>
@@ -5119,10 +5140,10 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>861</v>
+        <v>836</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>112</v>
@@ -5136,10 +5157,10 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>862</v>
+        <v>837</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>113</v>
@@ -5153,10 +5174,10 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>863</v>
+        <v>838</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>114</v>
@@ -5170,10 +5191,10 @@
     </row>
     <row r="73" spans="1:11" ht="27.6">
       <c r="A73" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>864</v>
+        <v>839</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>115</v>
@@ -5187,13 +5208,13 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>866</v>
+        <v>841</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>865</v>
+        <v>840</v>
       </c>
       <c r="G74" s="55" t="s">
         <v>195</v>
@@ -5204,10 +5225,10 @@
     </row>
     <row r="75" spans="1:11" ht="27.6">
       <c r="A75" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>897</v>
+        <v>872</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>116</v>
@@ -5221,10 +5242,10 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>867</v>
+        <v>842</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>117</v>
@@ -5238,10 +5259,10 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>868</v>
+        <v>843</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>118</v>
@@ -5255,13 +5276,13 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>898</v>
+        <v>873</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>869</v>
+        <v>844</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>199</v>
@@ -5272,10 +5293,10 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>870</v>
+        <v>845</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>143</v>
@@ -5289,10 +5310,10 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>871</v>
+        <v>846</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>144</v>
@@ -5306,13 +5327,13 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>872</v>
+        <v>847</v>
       </c>
       <c r="E81" s="50" t="s">
-        <v>872</v>
+        <v>847</v>
       </c>
       <c r="G81" s="55" t="s">
         <v>202</v>
@@ -5323,10 +5344,10 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>873</v>
+        <v>848</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>119</v>
@@ -5340,10 +5361,10 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>874</v>
+        <v>849</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>120</v>
@@ -5357,10 +5378,10 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>121</v>
@@ -5374,10 +5395,10 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>900</v>
+        <v>875</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>122</v>
@@ -5391,7 +5412,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>123</v>
@@ -5408,7 +5429,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>124</v>
@@ -5425,10 +5446,10 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>875</v>
+        <v>850</v>
       </c>
       <c r="E88" s="24" t="s">
         <v>125</v>
@@ -5442,13 +5463,13 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>877</v>
+        <v>852</v>
       </c>
       <c r="E89" s="50" t="s">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>210</v>
@@ -5459,13 +5480,13 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D90" s="50" t="s">
-        <v>878</v>
+        <v>853</v>
       </c>
       <c r="E90" s="50" t="s">
-        <v>878</v>
+        <v>853</v>
       </c>
       <c r="G90" s="55" t="s">
         <v>211</v>
@@ -5476,10 +5497,10 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>879</v>
+        <v>854</v>
       </c>
       <c r="E91" s="24" t="s">
         <v>126</v>
@@ -5493,7 +5514,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>127</v>
@@ -5510,7 +5531,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>128</v>
@@ -5527,10 +5548,10 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>880</v>
+        <v>855</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>129</v>
@@ -5544,10 +5565,10 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>881</v>
+        <v>856</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>130</v>
@@ -5561,13 +5582,13 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D96" s="50" t="s">
-        <v>882</v>
+        <v>857</v>
       </c>
       <c r="E96" s="50" t="s">
-        <v>882</v>
+        <v>857</v>
       </c>
       <c r="G96" s="55" t="s">
         <v>217</v>
@@ -5578,10 +5599,10 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="8" t="s">
-        <v>886</v>
+        <v>861</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>883</v>
+        <v>858</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>131</v>
@@ -5594,40 +5615,40 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="58" t="s">
-        <v>886</v>
-      </c>
-      <c r="B98" s="58"/>
-      <c r="C98" s="58"/>
-      <c r="D98" s="64" t="s">
-        <v>884</v>
-      </c>
-      <c r="E98" s="64" t="s">
+      <c r="A98" s="55" t="s">
+        <v>861</v>
+      </c>
+      <c r="B98" s="55"/>
+      <c r="C98" s="55"/>
+      <c r="D98" s="67" t="s">
+        <v>859</v>
+      </c>
+      <c r="E98" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="F98" s="58"/>
-      <c r="G98" s="58" t="s">
+      <c r="F98" s="55"/>
+      <c r="G98" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="55"/>
+      <c r="K98" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="16.8">
       <c r="A99" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="D99" s="28" t="s">
+        <v>876</v>
+      </c>
+      <c r="D99" s="53" t="s">
+        <v>877</v>
+      </c>
+      <c r="E99" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="E99" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>260</v>
+      <c r="G99" s="55" t="s">
+        <v>237</v>
       </c>
       <c r="K99" s="8">
         <v>1</v>
@@ -5635,16 +5656,16 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>222</v>
+        <v>888</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>261</v>
+        <v>221</v>
+      </c>
+      <c r="G100" s="55" t="s">
+        <v>238</v>
       </c>
       <c r="K100" s="8">
         <v>1</v>
@@ -5652,16 +5673,16 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>224</v>
+        <v>889</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>262</v>
+        <v>222</v>
+      </c>
+      <c r="G101" s="55" t="s">
+        <v>239</v>
       </c>
       <c r="K101" s="8">
         <v>1</v>
@@ -5669,16 +5690,16 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>226</v>
+        <v>890</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>263</v>
+        <v>223</v>
+      </c>
+      <c r="G102" s="55" t="s">
+        <v>240</v>
       </c>
       <c r="K102" s="8">
         <v>1</v>
@@ -5686,16 +5707,16 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>228</v>
+        <v>891</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>264</v>
+        <v>224</v>
+      </c>
+      <c r="G103" s="55" t="s">
+        <v>241</v>
       </c>
       <c r="K103" s="8">
         <v>1</v>
@@ -5703,16 +5724,16 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>258</v>
+        <v>892</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>265</v>
+        <v>236</v>
+      </c>
+      <c r="G104" s="55" t="s">
+        <v>242</v>
       </c>
       <c r="K104" s="8">
         <v>1</v>
@@ -5720,33 +5741,33 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>230</v>
+        <v>893</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>266</v>
+        <v>878</v>
+      </c>
+      <c r="G105" s="55" t="s">
+        <v>243</v>
       </c>
       <c r="K105" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" ht="15">
       <c r="A106" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="D106" s="31" t="s">
-        <v>232</v>
-      </c>
-      <c r="E106" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>267</v>
+        <v>876</v>
+      </c>
+      <c r="D106" s="63" t="s">
+        <v>879</v>
+      </c>
+      <c r="E106" s="63" t="s">
+        <v>880</v>
+      </c>
+      <c r="G106" s="55" t="s">
+        <v>244</v>
       </c>
       <c r="K106" s="8">
         <v>1</v>
@@ -5754,16 +5775,16 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>234</v>
+        <v>894</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>268</v>
+        <v>225</v>
+      </c>
+      <c r="G107" s="55" t="s">
+        <v>245</v>
       </c>
       <c r="K107" s="8">
         <v>1</v>
@@ -5771,16 +5792,16 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>236</v>
+        <v>895</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>237</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>269</v>
+        <v>226</v>
+      </c>
+      <c r="G108" s="55" t="s">
+        <v>246</v>
       </c>
       <c r="K108" s="8">
         <v>1</v>
@@ -5788,16 +5809,16 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>238</v>
+        <v>881</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>270</v>
+        <v>227</v>
+      </c>
+      <c r="G109" s="55" t="s">
+        <v>247</v>
       </c>
       <c r="K109" s="8">
         <v>1</v>
@@ -5805,16 +5826,16 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>240</v>
+        <v>882</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>271</v>
+        <v>228</v>
+      </c>
+      <c r="G110" s="55" t="s">
+        <v>248</v>
       </c>
       <c r="K110" s="8">
         <v>1</v>
@@ -5822,16 +5843,16 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>242</v>
+        <v>883</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>272</v>
+        <v>229</v>
+      </c>
+      <c r="G111" s="55" t="s">
+        <v>249</v>
       </c>
       <c r="K111" s="8">
         <v>1</v>
@@ -5839,16 +5860,16 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>244</v>
+        <v>884</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>273</v>
+        <v>230</v>
+      </c>
+      <c r="G112" s="55" t="s">
+        <v>250</v>
       </c>
       <c r="K112" s="8">
         <v>1</v>
@@ -5856,16 +5877,16 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>246</v>
+        <v>885</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>274</v>
+        <v>231</v>
+      </c>
+      <c r="G113" s="55" t="s">
+        <v>251</v>
       </c>
       <c r="K113" s="8">
         <v>1</v>
@@ -5873,16 +5894,16 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>248</v>
+        <v>896</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>275</v>
+        <v>232</v>
+      </c>
+      <c r="G114" s="55" t="s">
+        <v>252</v>
       </c>
       <c r="K114" s="8">
         <v>1</v>
@@ -5890,16 +5911,16 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>250</v>
+        <v>897</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>277</v>
+        <v>233</v>
+      </c>
+      <c r="G115" s="55" t="s">
+        <v>254</v>
       </c>
       <c r="K115" s="8">
         <v>1</v>
@@ -5907,16 +5928,16 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>252</v>
+        <v>898</v>
       </c>
       <c r="E116" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="G116" s="55" t="s">
         <v>253</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="K116" s="8">
         <v>1</v>
@@ -5924,51 +5945,57 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="8" t="s">
-        <v>901</v>
+        <v>876</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>254</v>
+        <v>899</v>
       </c>
       <c r="E117" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G117" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="G117" s="15" t="s">
-        <v>278</v>
-      </c>
       <c r="K117" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="D118" s="31" t="s">
+    <row r="118" spans="1:11" ht="15">
+      <c r="A118" s="55" t="s">
+        <v>876</v>
+      </c>
+      <c r="B118" s="55"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="64" t="s">
+        <v>886</v>
+      </c>
+      <c r="E118" s="64" t="s">
+        <v>887</v>
+      </c>
+      <c r="F118" s="55"/>
+      <c r="G118" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="E118" s="31" t="s">
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="55"/>
+      <c r="K118" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D119" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="G118" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="K118" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="27.6">
-      <c r="A119" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>280</v>
-      </c>
       <c r="E119" s="16" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="15" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="K119" s="8">
         <v>1</v>
@@ -5976,16 +6003,16 @@
     </row>
     <row r="120" spans="1:11" ht="27.6">
       <c r="A120" s="8" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="G120" s="26"/>
       <c r="K120" s="8">
@@ -5993,34 +6020,40 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="60">
-      <c r="A121" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D121" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="K121" s="8">
+      <c r="A121" s="65" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="65"/>
+      <c r="C121" s="65"/>
+      <c r="D121" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="E121" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="F121" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="65">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="27.6">
       <c r="A122" s="8" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="K122" s="8">
         <v>1</v>
@@ -6028,16 +6061,16 @@
     </row>
     <row r="123" spans="1:11" ht="27.6">
       <c r="A123" s="8" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="K123" s="8">
         <v>1</v>
@@ -6045,16 +6078,16 @@
     </row>
     <row r="124" spans="1:11" ht="27.6">
       <c r="A124" s="8" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="K124" s="8">
         <v>1</v>
@@ -6062,16 +6095,16 @@
     </row>
     <row r="125" spans="1:11" ht="45">
       <c r="A125" s="8" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="K125" s="8">
         <v>1</v>
@@ -6079,1342 +6112,1342 @@
     </row>
     <row r="126" spans="1:11" ht="41.4">
       <c r="A126" s="8" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="G126" s="27" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="27.6">
       <c r="A127" s="8" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="G127" s="27" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15.6">
       <c r="A128" s="8" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="G128" s="27" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="27.6">
       <c r="A129" s="8" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="E129" s="28" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
       <c r="G129" s="27" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="27.6">
       <c r="A130" s="8" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="G130" s="27" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="15.6">
       <c r="A131" s="8" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
       <c r="G131" s="27" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="15.6">
       <c r="A132" s="8" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
       <c r="G132" s="27" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="41.4">
       <c r="A133" s="8" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="E133" s="17" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="F133" s="17" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="G133" s="27" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="27.6">
       <c r="A134" s="8" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
       <c r="E134" s="17" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="F134" s="17" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="30">
       <c r="A135" s="8" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="27.6">
       <c r="A136" s="8" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="27" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="41.4">
       <c r="A137" s="8" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="F137" s="28" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="G137" s="27" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="15.6">
       <c r="A138" s="8" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="F138" s="28"/>
       <c r="G138" s="27" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="15.6">
       <c r="A139" s="8" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="F139" s="28"/>
       <c r="G139" s="27" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="15.6">
       <c r="A140" s="8" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="F140" s="28"/>
       <c r="G140" s="27" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="27.6">
       <c r="A141" s="8" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="F141" s="28"/>
       <c r="G141" s="27" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="27.6">
       <c r="A142" s="8" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="27" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="27.6">
       <c r="A143" s="8" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>364</v>
+        <v>339</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="27" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15.6">
       <c r="A144" s="8" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="27" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.6">
       <c r="A145" s="8" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="27" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="27.6">
       <c r="A146" s="8" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="F146" s="16"/>
       <c r="G146" s="27" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="43.8">
       <c r="A147" s="8" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="27" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="27.6">
       <c r="A148" s="8" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="G148" s="27" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="41.4">
       <c r="A149" s="8" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="27" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="27.6">
       <c r="A150" s="8" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="27" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.6">
       <c r="A151" s="8" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>396</v>
+        <v>371</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>395</v>
+        <v>370</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="27" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="41.4">
       <c r="A152" s="8" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="D152" s="34" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="G152" s="27" t="s">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="45">
       <c r="A153" s="8" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
       <c r="G153" s="27" t="s">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="27.6">
       <c r="A154" s="8" t="s">
-        <v>410</v>
+        <v>385</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>407</v>
+        <v>382</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>408</v>
+        <v>383</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>409</v>
+        <v>384</v>
       </c>
       <c r="G154" s="30"/>
     </row>
     <row r="155" spans="1:9" ht="82.8">
       <c r="A155" s="8" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="E155" s="35" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="29" t="s">
-        <v>413</v>
+        <v>388</v>
       </c>
       <c r="H155" s="36"/>
       <c r="I155" s="37" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="69">
       <c r="A156" s="8" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="E156" s="35" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="G156" s="29" t="s">
-        <v>418</v>
+        <v>393</v>
       </c>
       <c r="H156" s="36"/>
       <c r="I156" s="37"/>
     </row>
     <row r="157" spans="1:9" ht="69">
       <c r="A157" s="8" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="E157" s="35" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="29" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="H157" s="36"/>
       <c r="I157" s="37"/>
     </row>
     <row r="158" spans="1:9" ht="124.2">
       <c r="A158" s="8" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="E158" s="35" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="29" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="I158" s="37"/>
     </row>
     <row r="159" spans="1:9" ht="82.8">
       <c r="A159" s="8" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="E159" s="35" t="s">
-        <v>426</v>
+        <v>401</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="29" t="s">
-        <v>427</v>
+        <v>402</v>
       </c>
       <c r="H159" s="36"/>
       <c r="I159" s="37"/>
     </row>
     <row r="160" spans="1:9" ht="69">
       <c r="A160" s="8" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>428</v>
+        <v>403</v>
       </c>
       <c r="E160" s="35" t="s">
-        <v>429</v>
+        <v>404</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="29" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="H160" s="36"/>
       <c r="I160" s="37"/>
     </row>
     <row r="161" spans="1:9" ht="41.4">
       <c r="A161" s="8" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="E161" s="35" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="29" t="s">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="H161" s="36"/>
       <c r="I161" s="37" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="55.2">
       <c r="A162" s="8" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>434</v>
+        <v>409</v>
       </c>
       <c r="E162" s="35" t="s">
-        <v>435</v>
+        <v>410</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="29" t="s">
-        <v>436</v>
+        <v>411</v>
       </c>
       <c r="H162" s="36"/>
       <c r="I162" s="37"/>
     </row>
     <row r="163" spans="1:9" ht="41.4">
       <c r="A163" s="8" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="E163" s="35" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="29" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="H163" s="36"/>
       <c r="I163" s="37"/>
     </row>
     <row r="164" spans="1:9" ht="69">
       <c r="A164" s="8" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="E164" s="35" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="29" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="H164" s="36"/>
       <c r="I164" s="37" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="41.4">
       <c r="A165" s="8" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="E165" s="35" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="29" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="H165" s="36"/>
       <c r="I165" s="37" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="110.4">
       <c r="A166" s="8" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="E166" s="35" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="29" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="H166" s="36" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="I166" s="37"/>
     </row>
     <row r="167" spans="1:9" ht="96.6">
       <c r="A167" s="8" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="E167" s="35" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="29" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="H167" s="36"/>
       <c r="I167" s="37" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="69">
       <c r="A168" s="8" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="E168" s="35" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="29" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="H168" s="36"/>
       <c r="I168" s="37"/>
     </row>
     <row r="169" spans="1:9" ht="82.8">
       <c r="A169" s="8" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="E169" s="35" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="29" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="H169" s="36"/>
       <c r="I169" s="37" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="55.2">
       <c r="A170" s="8" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="E170" s="35" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="29" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="H170" s="36"/>
       <c r="I170" s="37"/>
     </row>
     <row r="171" spans="1:9" ht="151.80000000000001">
       <c r="A171" s="8" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="E171" s="35" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="29" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="H171" s="36"/>
       <c r="I171" s="37" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="69">
       <c r="A172" s="8" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="E172" s="35" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="29" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="H172" s="36"/>
       <c r="I172" s="37" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="96.6">
       <c r="A173" s="8" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="E173" s="35" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="29" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="H173" s="36"/>
       <c r="I173" s="37" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="55.2">
       <c r="A174" s="8" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="E174" s="35" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="29" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="H174" s="36"/>
       <c r="I174" s="37"/>
     </row>
     <row r="175" spans="1:9" ht="69">
       <c r="A175" s="8" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="E175" s="35" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="29" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="H175" s="36"/>
       <c r="I175" s="37" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="82.8">
       <c r="A176" s="8" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
       <c r="E176" s="35" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="F176" s="16"/>
       <c r="G176" s="29" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="H176" s="36"/>
       <c r="I176" s="37" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="41.4">
       <c r="A177" s="8" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="E177" s="35" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="F177" s="16"/>
       <c r="G177" s="29" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="H177" s="36" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="45">
       <c r="A178" s="8" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="D178" s="40" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="E178" s="40" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="F178" s="40" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>529</v>
+        <v>504</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15">
       <c r="A179" s="8" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="D179" s="40" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
       <c r="E179" s="40" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="F179" s="40"/>
       <c r="G179" s="15" t="s">
-        <v>530</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="60">
       <c r="A180" s="8" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="D180" s="40" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E180" s="40" t="s">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>531</v>
+        <v>506</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="30">
       <c r="A181" s="8" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="D181" s="40" t="s">
-        <v>522</v>
+        <v>497</v>
       </c>
       <c r="E181" s="40" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="F181" s="40"/>
       <c r="G181" s="15" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15">
       <c r="A182" s="8" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="D182" s="40" t="s">
-        <v>524</v>
+        <v>499</v>
       </c>
       <c r="E182" s="40" t="s">
-        <v>525</v>
+        <v>500</v>
       </c>
       <c r="F182" s="40"/>
       <c r="G182" s="15" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="30">
       <c r="A183" s="8" t="s">
-        <v>528</v>
+        <v>503</v>
       </c>
       <c r="D183" s="40" t="s">
-        <v>526</v>
+        <v>501</v>
       </c>
       <c r="E183" s="40" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="F183" s="40"/>
       <c r="G183" s="15" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="45">
       <c r="A184" s="8" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="E184" s="40" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="F184" s="40"/>
       <c r="G184" s="15" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="30">
       <c r="A185" s="8" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="D185" s="40" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E185" s="40" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="F185" s="40" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="30">
       <c r="A186" s="8" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="D186" s="40" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="E186" s="40" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="F186" s="40"/>
       <c r="G186" s="15" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="30">
       <c r="A187" s="8" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="D187" s="41" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="E187" s="41" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="F187" s="41"/>
       <c r="G187" s="15" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="45">
       <c r="A188" s="8" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="D188" s="41" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="E188" s="41" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="F188" s="41"/>
       <c r="G188" s="15" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="30">
       <c r="A189" s="8" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="E189" s="41" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="F189" s="41"/>
       <c r="G189" s="15" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="30">
       <c r="A190" s="8" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="D190" s="41" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="E190" s="41" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="F190" s="41"/>
       <c r="G190" s="15" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="30">
       <c r="A191" s="8" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D191" s="40" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="E191" s="40" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="F191" s="40"/>
       <c r="G191" s="15" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="30">
       <c r="A192" s="8" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D192" s="40" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="E192" s="40" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="F192" s="40"/>
       <c r="G192" s="15" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="30">
       <c r="A193" s="8" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="D193" s="40" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="E193" s="40" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="F193" s="40"/>
       <c r="G193" s="15" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="30">
       <c r="A194" s="8" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="D194" s="40" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="E194" s="40" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="F194" s="40"/>
       <c r="G194" s="15" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="45">
       <c r="A195" s="8" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D195" s="40" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="E195" s="40" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="F195" s="40" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="30">
       <c r="A196" s="8" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D196" s="40" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="E196" s="40" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="F196" s="40"/>
       <c r="G196" s="15" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="30">
       <c r="A197" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D197" s="40" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="E197" s="40" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="F197" s="40"/>
       <c r="G197" s="15" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="30">
       <c r="A198" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D198" s="40" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="E198" s="40" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="F198" s="40"/>
       <c r="G198" s="15" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="30">
       <c r="A199" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D199" s="40" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="E199" s="40" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="F199" s="40"/>
       <c r="G199" s="15" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="45">
       <c r="A200" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D200" s="40" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="E200" s="40" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="F200" s="40"/>
       <c r="G200" s="15" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="45">
       <c r="A201" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D201" s="40" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="E201" s="40" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="F201" s="40"/>
       <c r="G201" s="15" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="30">
       <c r="A202" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D202" s="40" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="E202" s="40" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="F202" s="40"/>
       <c r="G202" s="15" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="45">
       <c r="A203" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D203" s="40" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="E203" s="40" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="F203" s="40"/>
       <c r="G203" s="15" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="30">
       <c r="A204" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D204" s="40" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="E204" s="40" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="F204" s="40"/>
       <c r="G204" s="15" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="30">
       <c r="A205" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D205" s="40" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="E205" s="40" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="F205" s="40"/>
       <c r="G205" s="15" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="30">
       <c r="A206" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D206" s="40" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="E206" s="40" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="F206" s="40"/>
       <c r="G206" s="15" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="45">
       <c r="A207" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D207" s="40" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="E207" s="40" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="F207" s="40"/>
       <c r="G207" s="15" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="45">
       <c r="A208" s="8" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="D208" s="40" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="E208" s="40" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="F208" s="40"/>
       <c r="G208" s="15" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="105">
       <c r="A209" s="8" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="D209" s="40" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="E209" s="40" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="F209" s="42" t="s">
         <v>52</v>
@@ -7423,863 +7456,863 @@
     </row>
     <row r="210" spans="1:7" ht="30">
       <c r="A210" s="8" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="D210" s="40" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="E210" s="40" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="F210" s="40" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="G210" s="29"/>
     </row>
     <row r="211" spans="1:7" ht="30">
       <c r="A211" s="8" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="D211" s="40" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="E211" s="40" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="F211" s="40"/>
       <c r="G211" s="15" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="30">
       <c r="A212" s="8" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="D212" s="43" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="E212" s="40" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="F212" s="40"/>
       <c r="G212" s="15" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="30">
       <c r="A213" s="8" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="D213" s="43" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="E213" s="40" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="F213" s="40"/>
       <c r="G213" s="15" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="30">
       <c r="A214" s="8" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="D214" s="40" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
       <c r="E214" s="40" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="F214" s="40" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>639</v>
+        <v>614</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="45">
       <c r="A215" s="8" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="D215" s="40" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="E215" s="40" t="s">
-        <v>634</v>
+        <v>609</v>
       </c>
       <c r="F215" s="40" t="s">
-        <v>635</v>
+        <v>610</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>640</v>
+        <v>615</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="15">
       <c r="A216" s="8" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="D216" s="40" t="s">
-        <v>636</v>
+        <v>611</v>
       </c>
       <c r="E216" s="40" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="F216" s="40"/>
       <c r="G216" s="15" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="30">
       <c r="A217" s="8" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="D217" s="40" t="s">
-        <v>638</v>
+        <v>613</v>
       </c>
       <c r="E217" s="40" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="F217" s="40"/>
       <c r="G217" s="15" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="45">
       <c r="A218" s="8" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="D218" s="40" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="E218" s="40" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="F218" s="40"/>
       <c r="G218" s="15" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="30">
       <c r="A219" s="8" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="D219" s="40" t="s">
-        <v>647</v>
+        <v>622</v>
       </c>
       <c r="E219" s="40" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="F219" s="40"/>
       <c r="G219" s="15" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="30">
       <c r="A220" s="8" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="D220" s="40" t="s">
-        <v>649</v>
+        <v>624</v>
       </c>
       <c r="E220" s="40" t="s">
-        <v>650</v>
+        <v>625</v>
       </c>
       <c r="F220" s="40"/>
       <c r="G220" s="15" t="s">
-        <v>657</v>
+        <v>632</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="60">
       <c r="A221" s="8" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="D221" s="40" t="s">
-        <v>651</v>
+        <v>626</v>
       </c>
       <c r="E221" s="40"/>
       <c r="F221" s="40"/>
       <c r="G221" s="15" t="s">
-        <v>658</v>
+        <v>633</v>
       </c>
     </row>
     <row r="222" spans="1:7" ht="30">
       <c r="A222" s="8" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="D222" s="40" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
       <c r="E222" s="40" t="s">
-        <v>653</v>
+        <v>628</v>
       </c>
       <c r="F222" s="40"/>
       <c r="G222" s="15" t="s">
-        <v>659</v>
+        <v>634</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="30">
       <c r="A223" s="8" t="s">
-        <v>661</v>
+        <v>636</v>
       </c>
       <c r="D223" s="40" t="s">
-        <v>654</v>
+        <v>629</v>
       </c>
       <c r="E223" s="40" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="F223" s="40"/>
       <c r="G223" s="15" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="45">
       <c r="A224" s="8" t="s">
-        <v>664</v>
+        <v>639</v>
       </c>
       <c r="D224" s="40" t="s">
-        <v>662</v>
+        <v>637</v>
       </c>
       <c r="E224" s="40" t="s">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="F224" s="44"/>
       <c r="G224" s="15" t="s">
-        <v>666</v>
+        <v>641</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="30">
       <c r="A225" s="8" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>668</v>
+        <v>643</v>
       </c>
       <c r="E225" s="40" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="F225" s="40"/>
       <c r="G225" s="15" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="30">
       <c r="A226" s="8" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="D226" s="39" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="E226" s="40" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="F226" s="40"/>
       <c r="G226" s="15" t="s">
-        <v>673</v>
+        <v>648</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="15">
       <c r="A227" s="8" t="s">
-        <v>665</v>
+        <v>640</v>
       </c>
       <c r="D227" s="39" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="E227" s="40" t="s">
-        <v>672</v>
+        <v>647</v>
       </c>
       <c r="F227" s="40"/>
       <c r="G227" s="15" t="s">
-        <v>674</v>
+        <v>649</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="30">
       <c r="A228" s="8" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="D228" s="39" t="s">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="E228" s="40" t="s">
-        <v>676</v>
+        <v>651</v>
       </c>
       <c r="F228" s="40" t="s">
-        <v>677</v>
+        <v>652</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>684</v>
+        <v>659</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="30">
       <c r="A229" s="8" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="D229" s="39" t="s">
-        <v>678</v>
+        <v>653</v>
       </c>
       <c r="E229" s="40" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="F229" s="40"/>
       <c r="G229" s="15" t="s">
-        <v>685</v>
+        <v>660</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="15">
       <c r="A230" s="8" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="D230" s="39" t="s">
-        <v>680</v>
+        <v>655</v>
       </c>
       <c r="E230" s="40" t="s">
-        <v>681</v>
+        <v>656</v>
       </c>
       <c r="F230" s="40" t="s">
-        <v>682</v>
+        <v>657</v>
       </c>
       <c r="G230" s="15" t="s">
-        <v>686</v>
+        <v>661</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="15">
       <c r="A231" s="8" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="D231" s="39" t="s">
-        <v>687</v>
+        <v>662</v>
       </c>
       <c r="E231" s="40" t="s">
-        <v>688</v>
+        <v>663</v>
       </c>
       <c r="F231" s="40"/>
       <c r="G231" s="15" t="s">
-        <v>695</v>
+        <v>670</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="30">
       <c r="A232" s="8" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="D232" s="39" t="s">
-        <v>689</v>
+        <v>664</v>
       </c>
       <c r="E232" s="39" t="s">
-        <v>690</v>
+        <v>665</v>
       </c>
       <c r="F232" s="40" t="s">
-        <v>691</v>
+        <v>666</v>
       </c>
       <c r="G232" s="15" t="s">
-        <v>696</v>
+        <v>671</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="15">
       <c r="A233" s="8" t="s">
-        <v>694</v>
+        <v>669</v>
       </c>
       <c r="D233" s="39" t="s">
-        <v>692</v>
+        <v>667</v>
       </c>
       <c r="E233" s="40" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
       <c r="F233" s="40"/>
       <c r="G233" s="15" t="s">
-        <v>697</v>
+        <v>672</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="15">
       <c r="A234" s="8" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="D234" s="39" t="s">
-        <v>698</v>
+        <v>673</v>
       </c>
       <c r="E234" s="40" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="F234" s="40"/>
       <c r="G234" s="15" t="s">
-        <v>709</v>
+        <v>684</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="45">
       <c r="A235" s="8" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="D235" s="39" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
       <c r="F235" s="40" t="s">
-        <v>702</v>
+        <v>677</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="15">
       <c r="A236" s="8" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="D236" s="39" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="E236" s="40" t="s">
-        <v>703</v>
+        <v>678</v>
       </c>
       <c r="F236" s="40"/>
       <c r="G236" s="15" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="45">
       <c r="A237" s="8" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="D237" s="39" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="E237" s="40" t="s">
-        <v>637</v>
+        <v>612</v>
       </c>
       <c r="F237" s="40" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="30">
       <c r="A238" s="8" t="s">
-        <v>708</v>
+        <v>683</v>
       </c>
       <c r="D238" s="39" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="E238" s="40" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
       <c r="F238" s="40" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="15">
       <c r="A239" s="8" t="s">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="D239" s="39" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="E239" s="40" t="s">
-        <v>715</v>
+        <v>690</v>
       </c>
       <c r="F239" s="40"/>
       <c r="G239" s="15" t="s">
-        <v>717</v>
+        <v>692</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="15">
       <c r="A240" s="8" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D240" s="39" t="s">
-        <v>718</v>
+        <v>693</v>
       </c>
       <c r="E240" s="40" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
       <c r="F240" s="40"/>
       <c r="G240" s="15" t="s">
-        <v>733</v>
+        <v>708</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="45">
       <c r="A241" s="8" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D241" s="39" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="E241" s="40" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="F241" s="40" t="s">
-        <v>722</v>
+        <v>697</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>734</v>
+        <v>709</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="45">
       <c r="A242" s="8" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D242" s="39" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="E242" s="40" t="s">
-        <v>723</v>
+        <v>698</v>
       </c>
       <c r="F242" s="40" t="s">
-        <v>724</v>
+        <v>699</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>735</v>
+        <v>710</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="45">
       <c r="A243" s="8" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D243" s="39" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="E243" s="40" t="s">
-        <v>726</v>
+        <v>701</v>
       </c>
       <c r="F243" s="40" t="s">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="G243" s="15" t="s">
-        <v>736</v>
+        <v>711</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="60">
       <c r="A244" s="8" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D244" s="40" t="s">
-        <v>725</v>
+        <v>700</v>
       </c>
       <c r="E244" s="40" t="s">
-        <v>728</v>
+        <v>703</v>
       </c>
       <c r="F244" s="40" t="s">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="G244" s="15" t="s">
-        <v>737</v>
+        <v>712</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="45">
       <c r="A245" s="8" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D245" s="45" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="E245" s="39" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="F245" s="40" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="G245" s="15" t="s">
-        <v>738</v>
+        <v>713</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="45">
       <c r="A246" s="8" t="s">
-        <v>740</v>
+        <v>715</v>
       </c>
       <c r="D246" s="45" t="s">
-        <v>730</v>
+        <v>705</v>
       </c>
       <c r="E246" s="39" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="F246" s="40" t="s">
-        <v>732</v>
+        <v>707</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>739</v>
+        <v>714</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="45">
       <c r="A247" s="8" t="s">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>741</v>
+        <v>716</v>
       </c>
       <c r="E247" s="42" t="s">
-        <v>742</v>
+        <v>717</v>
       </c>
       <c r="F247" s="40"/>
       <c r="G247" s="46" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="H247" s="36"/>
       <c r="I247" s="37"/>
     </row>
     <row r="248" spans="1:9" ht="90">
       <c r="A248" s="8" t="s">
-        <v>793</v>
+        <v>768</v>
       </c>
       <c r="D248" s="40" t="s">
-        <v>744</v>
+        <v>719</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>745</v>
+        <v>720</v>
       </c>
       <c r="F248" s="40"/>
       <c r="G248" s="46" t="s">
-        <v>746</v>
+        <v>721</v>
       </c>
       <c r="H248" s="47"/>
       <c r="I248" s="48"/>
     </row>
     <row r="249" spans="1:9" ht="15">
       <c r="A249" s="8" t="s">
-        <v>794</v>
+        <v>769</v>
       </c>
       <c r="D249" s="39" t="s">
-        <v>747</v>
+        <v>722</v>
       </c>
       <c r="E249" s="39" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="F249" s="40"/>
       <c r="G249" s="46" t="s">
-        <v>749</v>
+        <v>724</v>
       </c>
       <c r="H249" s="47"/>
       <c r="I249" s="48"/>
     </row>
     <row r="250" spans="1:9" ht="15.6">
       <c r="A250" s="8" t="s">
-        <v>795</v>
+        <v>770</v>
       </c>
       <c r="D250" s="39" t="s">
-        <v>750</v>
+        <v>725</v>
       </c>
       <c r="E250" s="39" t="s">
-        <v>751</v>
+        <v>726</v>
       </c>
       <c r="F250" s="40"/>
       <c r="G250" s="46" t="s">
-        <v>752</v>
+        <v>727</v>
       </c>
       <c r="H250" s="47"/>
       <c r="I250" s="37" t="s">
-        <v>753</v>
+        <v>728</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="60">
       <c r="A251" s="8" t="s">
-        <v>796</v>
+        <v>771</v>
       </c>
       <c r="D251" s="40" t="s">
-        <v>754</v>
+        <v>729</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>755</v>
+        <v>730</v>
       </c>
       <c r="F251" s="40" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="G251" s="46" t="s">
-        <v>756</v>
+        <v>731</v>
       </c>
       <c r="H251" s="36"/>
       <c r="I251" s="37"/>
     </row>
     <row r="252" spans="1:9" ht="60">
       <c r="A252" s="8" t="s">
-        <v>797</v>
+        <v>772</v>
       </c>
       <c r="D252" s="40" t="s">
-        <v>757</v>
+        <v>732</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>758</v>
+        <v>733</v>
       </c>
       <c r="F252" s="40"/>
       <c r="G252" s="46" t="s">
-        <v>759</v>
+        <v>734</v>
       </c>
       <c r="H252" s="36"/>
       <c r="I252" s="37"/>
     </row>
     <row r="253" spans="1:9" ht="15.6">
       <c r="A253" s="8" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>760</v>
+        <v>735</v>
       </c>
       <c r="E253" s="39" t="s">
-        <v>761</v>
+        <v>736</v>
       </c>
       <c r="F253" s="40"/>
       <c r="G253" s="46" t="s">
-        <v>762</v>
+        <v>737</v>
       </c>
       <c r="H253" s="36"/>
       <c r="I253" s="37"/>
     </row>
     <row r="254" spans="1:9" ht="45">
       <c r="A254" s="8" t="s">
-        <v>799</v>
+        <v>774</v>
       </c>
       <c r="D254" s="42" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="E254" s="42" t="s">
-        <v>764</v>
+        <v>739</v>
       </c>
       <c r="F254" s="40" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="G254" s="46" t="s">
-        <v>765</v>
+        <v>740</v>
       </c>
       <c r="H254" s="36"/>
       <c r="I254" s="37"/>
     </row>
     <row r="255" spans="1:9" ht="45">
       <c r="A255" s="8" t="s">
-        <v>800</v>
+        <v>775</v>
       </c>
       <c r="D255" s="42" t="s">
-        <v>766</v>
+        <v>741</v>
       </c>
       <c r="E255" s="42" t="s">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="F255" s="40"/>
       <c r="G255" s="46" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="H255" s="36"/>
       <c r="I255" s="37"/>
     </row>
     <row r="256" spans="1:9" ht="75">
       <c r="A256" s="8" t="s">
-        <v>801</v>
+        <v>776</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="E256" s="42" t="s">
-        <v>770</v>
+        <v>745</v>
       </c>
       <c r="F256" s="40"/>
       <c r="G256" s="46" t="s">
-        <v>771</v>
+        <v>746</v>
       </c>
       <c r="H256" s="36"/>
       <c r="I256" s="37"/>
     </row>
     <row r="257" spans="1:9" ht="75">
       <c r="A257" s="8" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>772</v>
+        <v>747</v>
       </c>
       <c r="E257" s="42" t="s">
-        <v>773</v>
+        <v>748</v>
       </c>
       <c r="F257" s="40"/>
       <c r="G257" s="46" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="H257" s="36"/>
       <c r="I257" s="37"/>
     </row>
     <row r="258" spans="1:9" ht="90">
       <c r="A258" s="8" t="s">
-        <v>803</v>
+        <v>778</v>
       </c>
       <c r="D258" s="42" t="s">
-        <v>775</v>
+        <v>750</v>
       </c>
       <c r="E258" s="42" t="s">
-        <v>776</v>
+        <v>751</v>
       </c>
       <c r="F258" s="40"/>
       <c r="G258" s="46" t="s">
-        <v>777</v>
+        <v>752</v>
       </c>
       <c r="H258" s="36"/>
       <c r="I258" s="37"/>
     </row>
     <row r="259" spans="1:9" ht="60">
       <c r="A259" s="8" t="s">
-        <v>804</v>
+        <v>779</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>778</v>
+        <v>753</v>
       </c>
       <c r="E259" s="42" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="F259" s="40"/>
       <c r="G259" s="46" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="H259" s="36"/>
       <c r="I259" s="37" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="75">
       <c r="A260" s="8" t="s">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="F260" s="40"/>
       <c r="G260" s="46" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
       <c r="H260" s="36"/>
       <c r="I260" s="37" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="75">
       <c r="A261" s="8" t="s">
-        <v>806</v>
+        <v>781</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>786</v>
+        <v>761</v>
       </c>
       <c r="E261" s="42" t="s">
-        <v>787</v>
+        <v>762</v>
       </c>
       <c r="F261" s="40"/>
       <c r="G261" s="46" t="s">
-        <v>788</v>
+        <v>763</v>
       </c>
       <c r="H261" s="36"/>
       <c r="I261" s="37"/>
     </row>
     <row r="262" spans="1:9" ht="45">
       <c r="A262" s="8" t="s">
-        <v>807</v>
+        <v>782</v>
       </c>
       <c r="D262" s="42" t="s">
-        <v>789</v>
+        <v>764</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>790</v>
+        <v>765</v>
       </c>
       <c r="F262" s="40"/>
       <c r="G262" s="46" t="s">
-        <v>791</v>
+        <v>766</v>
       </c>
       <c r="H262" s="36"/>
       <c r="I262" s="37"/>
@@ -8305,7 +8338,7 @@
         <v>165</v>
       </c>
       <c r="H1" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8313,12 +8346,12 @@
         <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="H3" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -830,9 +830,6 @@
     <t>image106001.jpg</t>
   </si>
   <si>
-    <t>সোল্ডারিং আয়রন</t>
-  </si>
-  <si>
     <t>image107001.jpg</t>
   </si>
   <si>
@@ -866,9 +863,6 @@
     <t>need to correct 8.4 on doc</t>
   </si>
   <si>
-    <t xml:space="preserve">ওয়্যারিং লে-আউট অনুযায়ী বৈদ্যুতিক </t>
-  </si>
-  <si>
     <t>ওয়্যারিং লে-আউট</t>
   </si>
   <si>
@@ -881,15 +875,6 @@
     <t>140.Chapter-p1-09.xhtml</t>
   </si>
   <si>
-    <t xml:space="preserve">ক্লিট ওয়্যারিং: ইহা অপেক্ষাকৃত </t>
-  </si>
-  <si>
-    <t>ক্লিট ওয়্যারিং</t>
-  </si>
-  <si>
-    <t xml:space="preserve">কেসিং ওয়্যারিং: ২৫০ </t>
-  </si>
-  <si>
     <t>কেসিং ওয়্যারিং</t>
   </si>
   <si>
@@ -951,9 +936,6 @@
   </si>
   <si>
     <t>image111001.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">১৩.১ কনসিল্ড কন্ডুইট ওয়্যারিং: </t>
   </si>
   <si>
     <t xml:space="preserve"> কনসিল্ড</t>
@@ -2817,6 +2799,46 @@
   </si>
   <si>
     <t>সিঙ্গেল থ্রো সুইচ:</t>
+  </si>
+  <si>
+    <t>মাধ্যমে দেখানোকে ওয়্যারিং লে-আউট বলে</t>
+  </si>
+  <si>
+    <r>
+      <t>ক্লীট ওয়্যারিং:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Vrinda"/>
+        <family val="2"/>
+      </rPr>
+      <t>ইহা অপেক্ষাকৃত কম</t>
+    </r>
+  </si>
+  <si>
+    <t>ক্লীট ওয়্যারিং</t>
+  </si>
+  <si>
+    <r>
+      <t>কেসিং ওয়্যারিং:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Vrinda"/>
+        <family val="2"/>
+      </rPr>
+      <t>২৫০</t>
+    </r>
+  </si>
+  <si>
+    <t>কনসিল্ড কন্ডুইট ওয়্যারিং.</t>
+  </si>
+  <si>
+    <t>সোল্ডারিং আয়রনের</t>
   </si>
 </sst>
 </file>
@@ -3005,7 +3027,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3023,7 +3045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3201,14 +3223,41 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3483,7 +3532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3898,8 +3947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3954,7 +4003,7 @@
     </row>
     <row r="2" spans="1:11" ht="82.8">
       <c r="A2" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>51</v>
@@ -3974,7 +4023,7 @@
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>53</v>
@@ -3991,10 +4040,10 @@
     </row>
     <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>133</v>
@@ -4011,13 +4060,13 @@
     </row>
     <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="15" t="s">
@@ -4029,13 +4078,13 @@
     </row>
     <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>62</v>
@@ -4046,7 +4095,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="56" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -4066,7 +4115,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="56" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -4086,13 +4135,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>65</v>
@@ -4103,13 +4152,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>66</v>
@@ -4120,13 +4169,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>67</v>
@@ -4137,13 +4186,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>68</v>
@@ -4154,13 +4203,13 @@
     </row>
     <row r="13" spans="1:11" ht="16.8">
       <c r="A13" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>69</v>
@@ -4171,13 +4220,13 @@
     </row>
     <row r="14" spans="1:11" ht="16.8">
       <c r="A14" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>70</v>
@@ -4188,13 +4237,13 @@
     </row>
     <row r="15" spans="1:11" ht="16.8">
       <c r="A15" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>71</v>
@@ -4205,13 +4254,13 @@
     </row>
     <row r="16" spans="1:11" ht="16.8">
       <c r="A16" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>72</v>
@@ -4222,13 +4271,13 @@
     </row>
     <row r="17" spans="1:13" ht="15">
       <c r="A17" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>73</v>
@@ -4239,7 +4288,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>59</v>
@@ -4256,13 +4305,13 @@
     </row>
     <row r="19" spans="1:13" ht="18">
       <c r="A19" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>75</v>
@@ -4273,13 +4322,13 @@
     </row>
     <row r="20" spans="1:13" ht="15">
       <c r="A20" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>76</v>
@@ -4290,13 +4339,13 @@
     </row>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>77</v>
@@ -4307,13 +4356,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>78</v>
@@ -4324,13 +4373,13 @@
     </row>
     <row r="23" spans="1:13" ht="17.399999999999999">
       <c r="A23" s="8" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>79</v>
@@ -4341,15 +4390,15 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="61" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="D24" s="62" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="F24" s="61"/>
       <c r="G24" s="61" t="s">
@@ -4366,7 +4415,7 @@
     </row>
     <row r="25" spans="1:13" ht="41.4">
       <c r="A25" s="8" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>81</v>
@@ -4383,7 +4432,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>83</v>
@@ -4400,10 +4449,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>84</v>
@@ -4417,10 +4466,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>85</v>
@@ -4434,10 +4483,10 @@
     </row>
     <row r="29" spans="1:13" ht="15">
       <c r="A29" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>135</v>
@@ -4451,10 +4500,10 @@
     </row>
     <row r="30" spans="1:13" ht="15">
       <c r="A30" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>136</v>
@@ -4468,10 +4517,10 @@
     </row>
     <row r="31" spans="1:13" ht="30">
       <c r="A31" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>137</v>
@@ -4485,10 +4534,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>138</v>
@@ -4502,10 +4551,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>86</v>
@@ -4519,10 +4568,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>87</v>
@@ -4536,10 +4585,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>88</v>
@@ -4553,13 +4602,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>155</v>
@@ -4570,10 +4619,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>89</v>
@@ -4587,10 +4636,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>90</v>
@@ -4604,10 +4653,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>91</v>
@@ -4621,10 +4670,10 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>92</v>
@@ -4638,13 +4687,13 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>160</v>
@@ -4655,10 +4704,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>93</v>
@@ -4672,10 +4721,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>94</v>
@@ -4689,13 +4738,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="G44" s="55" t="s">
         <v>163</v>
@@ -4706,10 +4755,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>95</v>
@@ -4723,10 +4772,10 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>96</v>
@@ -4740,10 +4789,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>58</v>
@@ -4757,10 +4806,10 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>97</v>
@@ -4774,13 +4823,13 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="G49" s="55" t="s">
         <v>170</v>
@@ -4791,10 +4840,10 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>98</v>
@@ -4808,10 +4857,10 @@
     </row>
     <row r="51" spans="1:11" ht="27.6">
       <c r="A51" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>861</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>867</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>99</v>
@@ -4825,10 +4874,10 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>100</v>
@@ -4842,10 +4891,10 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>101</v>
@@ -4859,10 +4908,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>139</v>
@@ -4876,10 +4925,10 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>140</v>
@@ -4893,10 +4942,10 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>141</v>
@@ -4910,7 +4959,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B57" s="58"/>
       <c r="C57" s="58"/>
@@ -4930,10 +4979,10 @@
     </row>
     <row r="58" spans="1:11" ht="27.6">
       <c r="A58" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>102</v>
@@ -4947,15 +4996,15 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B59" s="61"/>
       <c r="C59" s="61"/>
       <c r="D59" s="62" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="E59" s="62" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F59" s="61"/>
       <c r="G59" s="61" t="s">
@@ -4970,10 +5019,10 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>103</v>
@@ -4987,10 +5036,10 @@
     </row>
     <row r="61" spans="1:11" ht="27.6">
       <c r="A61" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>104</v>
@@ -5004,10 +5053,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>105</v>
@@ -5021,10 +5070,10 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>106</v>
@@ -5038,10 +5087,10 @@
     </row>
     <row r="64" spans="1:11" ht="27.6">
       <c r="A64" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>107</v>
@@ -5055,10 +5104,10 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>108</v>
@@ -5072,10 +5121,10 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>109</v>
@@ -5089,13 +5138,13 @@
     </row>
     <row r="67" spans="1:11" ht="27.6">
       <c r="A67" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="G67" s="55" t="s">
         <v>188</v>
@@ -5106,10 +5155,10 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="E68" s="24" t="s">
         <v>110</v>
@@ -5123,10 +5172,10 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>111</v>
@@ -5140,10 +5189,10 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>112</v>
@@ -5157,10 +5206,10 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>113</v>
@@ -5174,10 +5223,10 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>114</v>
@@ -5191,10 +5240,10 @@
     </row>
     <row r="73" spans="1:11" ht="27.6">
       <c r="A73" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>115</v>
@@ -5208,13 +5257,13 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="G74" s="55" t="s">
         <v>195</v>
@@ -5225,10 +5274,10 @@
     </row>
     <row r="75" spans="1:11" ht="27.6">
       <c r="A75" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>116</v>
@@ -5242,10 +5291,10 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>117</v>
@@ -5259,10 +5308,10 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>118</v>
@@ -5276,13 +5325,13 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>199</v>
@@ -5293,10 +5342,10 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>143</v>
@@ -5310,10 +5359,10 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>144</v>
@@ -5327,13 +5376,13 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E81" s="50" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="G81" s="55" t="s">
         <v>202</v>
@@ -5344,10 +5393,10 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>119</v>
@@ -5361,10 +5410,10 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>120</v>
@@ -5378,10 +5427,10 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>121</v>
@@ -5395,10 +5444,10 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>122</v>
@@ -5412,7 +5461,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>123</v>
@@ -5429,7 +5478,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>124</v>
@@ -5446,10 +5495,10 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="E88" s="24" t="s">
         <v>125</v>
@@ -5463,13 +5512,13 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="E89" s="50" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>210</v>
@@ -5480,13 +5529,13 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D90" s="50" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E90" s="50" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="G90" s="55" t="s">
         <v>211</v>
@@ -5497,10 +5546,10 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E91" s="24" t="s">
         <v>126</v>
@@ -5514,7 +5563,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>127</v>
@@ -5531,7 +5580,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>128</v>
@@ -5548,10 +5597,10 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>129</v>
@@ -5565,10 +5614,10 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>130</v>
@@ -5582,13 +5631,13 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D96" s="50" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="E96" s="50" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="G96" s="55" t="s">
         <v>217</v>
@@ -5599,10 +5648,10 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="8" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>131</v>
@@ -5616,14 +5665,14 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="55" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
-      <c r="D98" s="67" t="s">
-        <v>859</v>
-      </c>
-      <c r="E98" s="67" t="s">
+      <c r="D98" s="65" t="s">
+        <v>853</v>
+      </c>
+      <c r="E98" s="65" t="s">
         <v>132</v>
       </c>
       <c r="F98" s="55"/>
@@ -5639,10 +5688,10 @@
     </row>
     <row r="99" spans="1:11" ht="16.8">
       <c r="A99" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D99" s="53" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>220</v>
@@ -5656,10 +5705,10 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E100" s="31" t="s">
         <v>221</v>
@@ -5673,10 +5722,10 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E101" s="31" t="s">
         <v>222</v>
@@ -5690,10 +5739,10 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E102" s="31" t="s">
         <v>223</v>
@@ -5707,10 +5756,10 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E103" s="31" t="s">
         <v>224</v>
@@ -5724,10 +5773,10 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="E104" s="31" t="s">
         <v>236</v>
@@ -5741,13 +5790,13 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G105" s="55" t="s">
         <v>243</v>
@@ -5758,13 +5807,13 @@
     </row>
     <row r="106" spans="1:11" ht="15">
       <c r="A106" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D106" s="63" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E106" s="63" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="G106" s="55" t="s">
         <v>244</v>
@@ -5775,10 +5824,10 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E107" s="31" t="s">
         <v>225</v>
@@ -5792,10 +5841,10 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>226</v>
@@ -5809,10 +5858,10 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E109" s="31" t="s">
         <v>227</v>
@@ -5826,10 +5875,10 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="8" t="s">
+        <v>870</v>
+      </c>
+      <c r="D110" s="31" t="s">
         <v>876</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>882</v>
       </c>
       <c r="E110" s="31" t="s">
         <v>228</v>
@@ -5843,10 +5892,10 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E111" s="31" t="s">
         <v>229</v>
@@ -5860,10 +5909,10 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E112" s="31" t="s">
         <v>230</v>
@@ -5877,10 +5926,10 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E113" s="31" t="s">
         <v>231</v>
@@ -5894,10 +5943,10 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E114" s="31" t="s">
         <v>232</v>
@@ -5911,10 +5960,10 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E115" s="31" t="s">
         <v>233</v>
@@ -5928,10 +5977,10 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E116" s="31" t="s">
         <v>234</v>
@@ -5945,10 +5994,10 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="8" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E117" s="31" t="s">
         <v>235</v>
@@ -5962,15 +6011,15 @@
     </row>
     <row r="118" spans="1:11" ht="15">
       <c r="A118" s="55" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
       <c r="D118" s="64" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E118" s="64" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="F118" s="55"/>
       <c r="G118" s="15" t="s">
@@ -6020,2302 +6069,2748 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="60">
-      <c r="A121" s="65" t="s">
+      <c r="A121" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="B121" s="65"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="66" t="s">
+      <c r="B121" s="61"/>
+      <c r="C121" s="61"/>
+      <c r="D121" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="E121" s="66" t="s">
+      <c r="E121" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="F121" s="66" t="s">
+      <c r="F121" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="G121" s="65"/>
-      <c r="H121" s="65"/>
-      <c r="I121" s="65"/>
-      <c r="J121" s="65"/>
-      <c r="K121" s="65">
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
+      <c r="I121" s="61"/>
+      <c r="J121" s="61"/>
+      <c r="K121" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="27.6">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="B122" s="55"/>
+      <c r="C122" s="55"/>
+      <c r="D122" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="66" t="s">
         <v>266</v>
       </c>
+      <c r="F122" s="55"/>
       <c r="G122" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="K122" s="8">
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="55"/>
+      <c r="K122" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="27.6">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B123" s="55"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="D123" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="E123" s="16" t="s">
+      <c r="E123" s="66" t="s">
+        <v>899</v>
+      </c>
+      <c r="F123" s="55"/>
+      <c r="G123" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="G123" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="K123" s="8">
+      <c r="H123" s="55"/>
+      <c r="I123" s="55"/>
+      <c r="J123" s="55"/>
+      <c r="K123" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="27.6">
       <c r="A124" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="K124" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="45">
+      <c r="A125" s="55" t="s">
+        <v>275</v>
+      </c>
+      <c r="B125" s="55"/>
+      <c r="C125" s="55"/>
+      <c r="D125" s="67" t="s">
+        <v>277</v>
+      </c>
+      <c r="E125" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="F125" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="D124" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="F124" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="K124" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="45">
-      <c r="A125" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D125" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="K125" s="8">
+      <c r="G125" s="55"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="55"/>
+      <c r="J125" s="55"/>
+      <c r="K125" s="55">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="41.4">
       <c r="A126" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D126" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="D126" s="50" t="s">
+        <v>894</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F126" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="G126" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="F126" s="16" t="s">
+      <c r="K126" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="15.6">
+      <c r="A127" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="G126" s="27" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" ht="27.6">
-      <c r="A127" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D127" s="28" t="s">
-        <v>286</v>
+      <c r="D127" s="63" t="s">
+        <v>895</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="G127" s="27" t="s">
-        <v>299</v>
+        <v>896</v>
+      </c>
+      <c r="G127" s="70" t="s">
+        <v>294</v>
+      </c>
+      <c r="K127" s="55">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="15.6">
       <c r="A128" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D128" s="63" t="s">
+        <v>897</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="G128" s="70" t="s">
+        <v>295</v>
+      </c>
+      <c r="K128" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="27.6">
+      <c r="A129" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D129" s="28" t="s">
         <v>285</v>
       </c>
-      <c r="D128" s="28" t="s">
+      <c r="E129" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="G129" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="K129" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="27.6">
+      <c r="A130" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D130" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="E130" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="E128" s="28" t="s">
+      <c r="G130" s="70" t="s">
+        <v>297</v>
+      </c>
+      <c r="K130" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="15.6">
+      <c r="A131" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D131" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="G128" s="27" t="s">
+      <c r="E131" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="G131" s="70" t="s">
+        <v>298</v>
+      </c>
+      <c r="K131" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="15.6">
+      <c r="A132" s="55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B132" s="55"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="E132" s="69" t="s">
+        <v>292</v>
+      </c>
+      <c r="F132" s="55"/>
+      <c r="G132" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="H132" s="55"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="55"/>
+      <c r="K132" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="41.4">
+      <c r="A133" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="B133" s="55"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="71" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="27.6">
-      <c r="A129" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D129" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="E129" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="G129" s="27" t="s">
+      <c r="E133" s="72" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="27.6">
-      <c r="A130" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D130" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="E130" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="G130" s="27" t="s">
+      <c r="F133" s="72" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="15.6">
-      <c r="A131" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D131" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="G131" s="27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="15.6">
-      <c r="A132" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D132" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E132" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="G132" s="27" t="s">
+      <c r="G133" s="70" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="41.4">
-      <c r="A133" s="8" t="s">
+      <c r="H133" s="55"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="55"/>
+      <c r="K133" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="27.6">
+      <c r="A134" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="B134" s="73"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="74" t="s">
+        <v>898</v>
+      </c>
+      <c r="E134" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="F134" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="G134" s="73"/>
+      <c r="H134" s="73"/>
+      <c r="I134" s="73"/>
+      <c r="J134" s="73"/>
+      <c r="K134" s="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="30">
+      <c r="A135" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D135" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F135" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="D133" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="E133" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F133" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="G133" s="27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="27.6">
-      <c r="A134" s="8" t="s">
+      <c r="K135" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="27.6">
+      <c r="A136" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D136" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="D134" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="F134" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="30">
-      <c r="A135" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F135" s="12" t="s">
+      <c r="E136" s="16" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="27.6">
-      <c r="A136" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D136" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>320</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="K136" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="41.4">
+      <c r="A137" s="8" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="41.4">
-      <c r="A137" s="8" t="s">
-        <v>327</v>
-      </c>
       <c r="D137" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="G137" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="K137" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="15.6">
+      <c r="A138" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="E138" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="E137" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>325</v>
-      </c>
-      <c r="G137" s="27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="15.6">
-      <c r="A138" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D138" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="E138" s="33" t="s">
-        <v>329</v>
       </c>
       <c r="F138" s="28"/>
       <c r="G138" s="27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15.6">
+        <v>342</v>
+      </c>
+      <c r="K138" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="15.6">
       <c r="A139" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F139" s="28"/>
       <c r="G139" s="27" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="15.6">
+        <v>343</v>
+      </c>
+      <c r="K139" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="15.6">
       <c r="A140" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F140" s="28"/>
       <c r="G140" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="27.6">
+        <v>344</v>
+      </c>
+      <c r="K140" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" ht="27.6">
       <c r="A141" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F141" s="28"/>
       <c r="G141" s="27" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="27.6">
+        <v>345</v>
+      </c>
+      <c r="K141" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" ht="27.6">
       <c r="A142" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="K142" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="27.6">
+      <c r="A143" s="8" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="27.6">
-      <c r="A143" s="8" t="s">
-        <v>358</v>
-      </c>
       <c r="D143" s="33" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="27" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15.6">
+        <v>347</v>
+      </c>
+      <c r="K143" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="15.6">
       <c r="A144" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="27" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15.6">
+        <v>348</v>
+      </c>
+      <c r="K144" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="15.6">
       <c r="A145" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="27" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="27.6">
+        <v>349</v>
+      </c>
+      <c r="K145" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" ht="27.6">
       <c r="A146" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F146" s="16"/>
       <c r="G146" s="27" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" ht="43.8">
+        <v>350</v>
+      </c>
+      <c r="K146" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" ht="43.8">
       <c r="A147" s="8" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="K147" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="27.6">
+      <c r="A148" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G148" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="K148" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="41.4">
+      <c r="A149" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D149" s="28" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" ht="27.6">
-      <c r="A148" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D148" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="G148" s="27" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="41.4">
-      <c r="A149" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D149" s="28" t="s">
-        <v>363</v>
-      </c>
       <c r="E149" s="16" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="27" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="27.6">
+        <v>361</v>
+      </c>
+      <c r="K149" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="27.6">
       <c r="A150" s="8" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="27" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.6">
+        <v>362</v>
+      </c>
+      <c r="K150" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="15.6">
       <c r="A151" s="8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="K151" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" ht="41.4">
+      <c r="A152" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D152" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="E152" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G152" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="K152" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="45">
+      <c r="A153" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="D153" s="12" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" ht="41.4">
-      <c r="A152" s="8" t="s">
+      <c r="E153" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="G153" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="K153" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="27.6">
+      <c r="A154" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D154" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="E154" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="D152" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="E152" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="F152" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="G152" s="27" t="s">
+      <c r="F154" s="17" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" ht="45">
-      <c r="A153" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D153" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="E153" s="28" t="s">
+      <c r="G154" s="30"/>
+      <c r="K154" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="82.8">
+      <c r="A155" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D155" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="E155" s="35" t="s">
         <v>381</v>
-      </c>
-      <c r="G153" s="27" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" ht="27.6">
-      <c r="A154" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="D154" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="E154" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="F154" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="G154" s="30"/>
-    </row>
-    <row r="155" spans="1:9" ht="82.8">
-      <c r="A155" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D155" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="E155" s="35" t="s">
-        <v>387</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="29" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H155" s="36"/>
       <c r="I155" s="37" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" ht="69">
+        <v>383</v>
+      </c>
+      <c r="K155" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="69">
       <c r="A156" s="8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E156" s="35" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G156" s="29" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H156" s="36"/>
       <c r="I156" s="37"/>
-    </row>
-    <row r="157" spans="1:9" ht="69">
+      <c r="K156" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="69">
       <c r="A157" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E157" s="35" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="29" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H157" s="36"/>
       <c r="I157" s="37"/>
-    </row>
-    <row r="158" spans="1:9" ht="124.2">
+      <c r="K157" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="124.2">
       <c r="A158" s="8" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="E158" s="35" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="29" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I158" s="37"/>
-    </row>
-    <row r="159" spans="1:9" ht="82.8">
+      <c r="K158" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="82.8">
       <c r="A159" s="8" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E159" s="35" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="29" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H159" s="36"/>
       <c r="I159" s="37"/>
-    </row>
-    <row r="160" spans="1:9" ht="69">
+      <c r="K159" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="69">
       <c r="A160" s="8" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="E160" s="35" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="29" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H160" s="36"/>
       <c r="I160" s="37"/>
-    </row>
-    <row r="161" spans="1:9" ht="41.4">
+      <c r="K160" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="41.4">
       <c r="A161" s="8" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E161" s="35" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="29" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H161" s="36"/>
       <c r="I161" s="37" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" ht="55.2">
+        <v>383</v>
+      </c>
+      <c r="K161" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="55.2">
       <c r="A162" s="8" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E162" s="35" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="29" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="H162" s="36"/>
       <c r="I162" s="37"/>
-    </row>
-    <row r="163" spans="1:9" ht="41.4">
+      <c r="K162" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="41.4">
       <c r="A163" s="8" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E163" s="35" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="29" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H163" s="36"/>
       <c r="I163" s="37"/>
-    </row>
-    <row r="164" spans="1:9" ht="69">
+      <c r="K163" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="69">
       <c r="A164" s="8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E164" s="35" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="29" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H164" s="36"/>
       <c r="I164" s="37" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" ht="41.4">
+        <v>383</v>
+      </c>
+      <c r="K164" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="41.4">
       <c r="A165" s="8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E165" s="35" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="29" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H165" s="36"/>
       <c r="I165" s="37" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" ht="110.4">
+        <v>415</v>
+      </c>
+      <c r="K165" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="110.4">
       <c r="A166" s="8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E166" s="35" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="29" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="H166" s="36" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I166" s="37"/>
-    </row>
-    <row r="167" spans="1:9" ht="96.6">
+      <c r="K166" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="96.6">
       <c r="A167" s="8" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E167" s="35" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="29" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H167" s="36"/>
       <c r="I167" s="37" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" ht="69">
+        <v>422</v>
+      </c>
+      <c r="K167" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="69">
       <c r="A168" s="8" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E168" s="35" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="29" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H168" s="36"/>
       <c r="I168" s="37"/>
-    </row>
-    <row r="169" spans="1:9" ht="82.8">
+      <c r="K168" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="82.8">
       <c r="A169" s="8" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E169" s="35" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="29" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H169" s="36"/>
       <c r="I169" s="37" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" ht="55.2">
+        <v>429</v>
+      </c>
+      <c r="K169" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="55.2">
       <c r="A170" s="8" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E170" s="35" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="29" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H170" s="36"/>
       <c r="I170" s="37"/>
-    </row>
-    <row r="171" spans="1:9" ht="151.80000000000001">
+      <c r="K170" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="151.80000000000001">
       <c r="A171" s="8" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E171" s="35" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="29" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H171" s="36"/>
       <c r="I171" s="37" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" ht="69">
+        <v>436</v>
+      </c>
+      <c r="K171" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="69">
       <c r="A172" s="8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="E172" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="29" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H172" s="36"/>
       <c r="I172" s="37" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="96.6">
+        <v>440</v>
+      </c>
+      <c r="K172" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="96.6">
       <c r="A173" s="8" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E173" s="35" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="29" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H173" s="36"/>
       <c r="I173" s="37" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" ht="55.2">
+        <v>444</v>
+      </c>
+      <c r="K173" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="55.2">
       <c r="A174" s="8" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="E174" s="35" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="29" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="H174" s="36"/>
       <c r="I174" s="37"/>
-    </row>
-    <row r="175" spans="1:9" ht="69">
+      <c r="K174" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="69">
       <c r="A175" s="8" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E175" s="35" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="29" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H175" s="36"/>
       <c r="I175" s="37" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="82.8">
+        <v>451</v>
+      </c>
+      <c r="K175" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="82.8">
       <c r="A176" s="8" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E176" s="35" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F176" s="16"/>
       <c r="G176" s="29" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H176" s="36"/>
       <c r="I176" s="37" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="41.4">
+        <v>455</v>
+      </c>
+      <c r="K176" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="41.4">
       <c r="A177" s="8" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E177" s="35" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F177" s="16"/>
       <c r="G177" s="29" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="H177" s="36" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="45">
+        <v>459</v>
+      </c>
+      <c r="K177" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="45">
       <c r="A178" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D178" s="40" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E178" s="40" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F178" s="40" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="15">
+        <v>498</v>
+      </c>
+      <c r="K178" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="15">
       <c r="A179" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D179" s="40" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E179" s="40" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F179" s="40"/>
       <c r="G179" s="15" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="60">
+        <v>499</v>
+      </c>
+      <c r="K179" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="60">
       <c r="A180" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D180" s="40" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E180" s="40" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="30">
+        <v>500</v>
+      </c>
+      <c r="K180" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="30">
       <c r="A181" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D181" s="40" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E181" s="40" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F181" s="40"/>
       <c r="G181" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="15">
+        <v>501</v>
+      </c>
+      <c r="K181" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="15">
       <c r="A182" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D182" s="40" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E182" s="40" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F182" s="40"/>
       <c r="G182" s="15" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="30">
+        <v>502</v>
+      </c>
+      <c r="K182" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" ht="30">
       <c r="A183" s="8" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D183" s="40" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E183" s="40" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F183" s="40"/>
       <c r="G183" s="15" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="45">
+        <v>503</v>
+      </c>
+      <c r="K183" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="45">
       <c r="A184" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E184" s="40" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F184" s="40"/>
       <c r="G184" s="15" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="30">
+        <v>511</v>
+      </c>
+      <c r="K184" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="30">
       <c r="A185" s="8" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D185" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="E185" s="40" t="s">
+        <v>507</v>
+      </c>
+      <c r="F185" s="40" t="s">
+        <v>508</v>
+      </c>
+      <c r="G185" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="E185" s="40" t="s">
-        <v>513</v>
-      </c>
-      <c r="F185" s="40" t="s">
+      <c r="K185" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" ht="30">
+      <c r="A186" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="G185" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="30">
-      <c r="A186" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="D186" s="40" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="E186" s="40" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F186" s="40"/>
       <c r="G186" s="15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="30">
+        <v>513</v>
+      </c>
+      <c r="K186" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="30">
       <c r="A187" s="8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D187" s="41" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="E187" s="41" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F187" s="41"/>
       <c r="G187" s="15" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" ht="45">
+        <v>522</v>
+      </c>
+      <c r="K187" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="45">
       <c r="A188" s="8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D188" s="41" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E188" s="41" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F188" s="41"/>
       <c r="G188" s="15" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="30">
+        <v>523</v>
+      </c>
+      <c r="K188" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="30">
       <c r="A189" s="8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E189" s="41" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F189" s="41"/>
       <c r="G189" s="15" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="30">
+        <v>524</v>
+      </c>
+      <c r="K189" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="30">
       <c r="A190" s="8" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D190" s="41" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E190" s="41" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F190" s="41"/>
       <c r="G190" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="K190" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="30">
+      <c r="A191" s="8" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" ht="30">
-      <c r="A191" s="8" t="s">
-        <v>537</v>
-      </c>
       <c r="D191" s="40" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E191" s="40" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F191" s="40"/>
       <c r="G191" s="15" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" ht="30">
+        <v>533</v>
+      </c>
+      <c r="K191" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="30">
       <c r="A192" s="8" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D192" s="40" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E192" s="40" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F192" s="40"/>
       <c r="G192" s="15" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="30">
+        <v>532</v>
+      </c>
+      <c r="K192" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="30">
       <c r="A193" s="8" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D193" s="40" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E193" s="40" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F193" s="40"/>
       <c r="G193" s="15" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="30">
+        <v>537</v>
+      </c>
+      <c r="K193" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="30">
       <c r="A194" s="8" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D194" s="40" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E194" s="40" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F194" s="40"/>
       <c r="G194" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="K194" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="45">
+      <c r="A195" s="8" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="45">
-      <c r="A195" s="8" t="s">
-        <v>553</v>
-      </c>
       <c r="D195" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="E195" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="F195" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="G195" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="E195" s="40" t="s">
-        <v>549</v>
-      </c>
-      <c r="F195" s="40" t="s">
-        <v>550</v>
-      </c>
-      <c r="G195" s="15" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="30">
+      <c r="K195" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="30">
       <c r="A196" s="8" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D196" s="40" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="E196" s="40" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="F196" s="40"/>
       <c r="G196" s="15" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="30">
+        <v>549</v>
+      </c>
+      <c r="K196" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="30">
       <c r="A197" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D197" s="40" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="E197" s="40" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F197" s="40"/>
       <c r="G197" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="30">
+        <v>572</v>
+      </c>
+      <c r="K197" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="30">
       <c r="A198" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D198" s="40" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E198" s="40" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F198" s="40"/>
       <c r="G198" s="15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="30">
+        <v>573</v>
+      </c>
+      <c r="K198" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="30">
       <c r="A199" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D199" s="40" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E199" s="40" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F199" s="40"/>
       <c r="G199" s="15" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="45">
+        <v>574</v>
+      </c>
+      <c r="K199" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" ht="45">
       <c r="A200" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D200" s="40" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E200" s="40" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F200" s="40"/>
       <c r="G200" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="45">
+        <v>575</v>
+      </c>
+      <c r="K200" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="45">
       <c r="A201" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D201" s="40" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="E201" s="40" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F201" s="40"/>
       <c r="G201" s="15" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="30">
+        <v>576</v>
+      </c>
+      <c r="K201" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="30">
       <c r="A202" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D202" s="40" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="E202" s="40" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F202" s="40"/>
       <c r="G202" s="15" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="45">
+        <v>577</v>
+      </c>
+      <c r="K202" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" ht="45">
       <c r="A203" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D203" s="40" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E203" s="40" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F203" s="40"/>
       <c r="G203" s="15" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="30">
+        <v>578</v>
+      </c>
+      <c r="K203" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" ht="30">
       <c r="A204" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D204" s="40" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E204" s="40" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F204" s="40"/>
       <c r="G204" s="15" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="30">
+        <v>579</v>
+      </c>
+      <c r="K204" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" ht="30">
       <c r="A205" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D205" s="40" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="E205" s="40" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F205" s="40"/>
       <c r="G205" s="15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="30">
+        <v>580</v>
+      </c>
+      <c r="K205" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" ht="30">
       <c r="A206" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D206" s="40" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="E206" s="40" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F206" s="40"/>
       <c r="G206" s="15" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="45">
+        <v>581</v>
+      </c>
+      <c r="K206" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" ht="45">
       <c r="A207" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D207" s="40" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E207" s="40" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F207" s="40"/>
       <c r="G207" s="15" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="45">
+        <v>582</v>
+      </c>
+      <c r="K207" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" ht="45">
       <c r="A208" s="8" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D208" s="40" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="E208" s="40" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F208" s="40"/>
       <c r="G208" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="K208" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" ht="105">
+      <c r="A209" s="8" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="105">
-      <c r="A209" s="8" t="s">
-        <v>595</v>
-      </c>
       <c r="D209" s="40" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="E209" s="40" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F209" s="42" t="s">
         <v>52</v>
       </c>
       <c r="G209" s="29"/>
-    </row>
-    <row r="210" spans="1:7" ht="30">
+      <c r="K209" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="30">
       <c r="A210" s="8" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D210" s="40" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="E210" s="40" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F210" s="40" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G210" s="29"/>
-    </row>
-    <row r="211" spans="1:7" ht="30">
+      <c r="K210" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" ht="30">
       <c r="A211" s="8" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D211" s="40" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="E211" s="40" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F211" s="40"/>
       <c r="G211" s="15" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="30">
+        <v>593</v>
+      </c>
+      <c r="K211" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" ht="30">
       <c r="A212" s="8" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D212" s="43" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E212" s="40" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F212" s="40"/>
       <c r="G212" s="15" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="30">
+        <v>594</v>
+      </c>
+      <c r="K212" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="30">
       <c r="A213" s="8" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="D213" s="43" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E213" s="40" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="F213" s="40"/>
       <c r="G213" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="K213" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="30">
+      <c r="A214" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D214" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="E214" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="F214" s="40" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="30">
-      <c r="A214" s="8" t="s">
+      <c r="G214" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="K214" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="45">
+      <c r="A215" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D215" s="40" t="s">
         <v>602</v>
       </c>
-      <c r="D214" s="40" t="s">
+      <c r="E215" s="40" t="s">
+        <v>603</v>
+      </c>
+      <c r="F215" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="G215" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="K215" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="15">
+      <c r="A216" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="D216" s="40" t="s">
         <v>605</v>
       </c>
-      <c r="E214" s="40" t="s">
+      <c r="E216" s="40" t="s">
         <v>606</v>
-      </c>
-      <c r="F214" s="40" t="s">
-        <v>607</v>
-      </c>
-      <c r="G214" s="15" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="45">
-      <c r="A215" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="D215" s="40" t="s">
-        <v>608</v>
-      </c>
-      <c r="E215" s="40" t="s">
-        <v>609</v>
-      </c>
-      <c r="F215" s="40" t="s">
-        <v>610</v>
-      </c>
-      <c r="G215" s="15" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="15">
-      <c r="A216" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="D216" s="40" t="s">
-        <v>611</v>
-      </c>
-      <c r="E216" s="40" t="s">
-        <v>612</v>
       </c>
       <c r="F216" s="40"/>
       <c r="G216" s="15" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="30">
+        <v>610</v>
+      </c>
+      <c r="K216" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" ht="30">
       <c r="A217" s="8" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="D217" s="40" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="E217" s="40" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F217" s="40"/>
       <c r="G217" s="15" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="45">
+        <v>611</v>
+      </c>
+      <c r="K217" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="45">
       <c r="A218" s="8" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="D218" s="40" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="E218" s="40" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F218" s="40"/>
       <c r="G218" s="15" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="30">
+        <v>614</v>
+      </c>
+      <c r="K218" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" ht="30">
       <c r="A219" s="8" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D219" s="40" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E219" s="40" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F219" s="40"/>
       <c r="G219" s="15" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="30">
+        <v>625</v>
+      </c>
+      <c r="K219" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" ht="30">
       <c r="A220" s="8" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D220" s="40" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E220" s="40" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F220" s="40"/>
       <c r="G220" s="15" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="60">
+        <v>626</v>
+      </c>
+      <c r="K220" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" ht="60">
       <c r="A221" s="8" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D221" s="40" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="E221" s="40"/>
       <c r="F221" s="40"/>
       <c r="G221" s="15" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="30">
+        <v>627</v>
+      </c>
+      <c r="K221" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" ht="30">
       <c r="A222" s="8" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D222" s="40" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E222" s="40" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="F222" s="40"/>
       <c r="G222" s="15" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="30">
+        <v>628</v>
+      </c>
+      <c r="K222" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" ht="30">
       <c r="A223" s="8" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D223" s="40" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E223" s="40" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="F223" s="40"/>
       <c r="G223" s="15" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="45">
+        <v>629</v>
+      </c>
+      <c r="K223" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="45">
       <c r="A224" s="8" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="D224" s="40" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="E224" s="40" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F224" s="44"/>
       <c r="G224" s="15" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="30">
+        <v>635</v>
+      </c>
+      <c r="K224" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" ht="30">
       <c r="A225" s="8" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="E225" s="40" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="F225" s="40"/>
       <c r="G225" s="15" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="30">
+        <v>636</v>
+      </c>
+      <c r="K225" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" ht="30">
       <c r="A226" s="8" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D226" s="39" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="E226" s="40" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F226" s="40"/>
       <c r="G226" s="15" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="15">
+        <v>642</v>
+      </c>
+      <c r="K226" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" ht="15">
       <c r="A227" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="D227" s="39" t="s">
         <v>640</v>
       </c>
-      <c r="D227" s="39" t="s">
-        <v>646</v>
-      </c>
       <c r="E227" s="40" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F227" s="40"/>
       <c r="G227" s="15" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="30">
+        <v>643</v>
+      </c>
+      <c r="K227" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" ht="30">
       <c r="A228" s="8" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D228" s="39" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="E228" s="40" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F228" s="40" t="s">
+        <v>646</v>
+      </c>
+      <c r="G228" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="K228" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" ht="30">
+      <c r="A229" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="G228" s="15" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="30">
-      <c r="A229" s="8" t="s">
-        <v>658</v>
-      </c>
       <c r="D229" s="39" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E229" s="40" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="F229" s="40"/>
       <c r="G229" s="15" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="15">
+        <v>654</v>
+      </c>
+      <c r="K229" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" ht="15">
       <c r="A230" s="8" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D230" s="39" t="s">
+        <v>649</v>
+      </c>
+      <c r="E230" s="40" t="s">
+        <v>650</v>
+      </c>
+      <c r="F230" s="40" t="s">
+        <v>651</v>
+      </c>
+      <c r="G230" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="E230" s="40" t="s">
+      <c r="K230" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" ht="15">
+      <c r="A231" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="D231" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="F230" s="40" t="s">
+      <c r="E231" s="40" t="s">
         <v>657</v>
-      </c>
-      <c r="G230" s="15" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="15">
-      <c r="A231" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="D231" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="E231" s="40" t="s">
-        <v>663</v>
       </c>
       <c r="F231" s="40"/>
       <c r="G231" s="15" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="30">
+        <v>664</v>
+      </c>
+      <c r="K231" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" ht="30">
       <c r="A232" s="8" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D232" s="39" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E232" s="39" t="s">
+        <v>659</v>
+      </c>
+      <c r="F232" s="40" t="s">
+        <v>660</v>
+      </c>
+      <c r="G232" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="F232" s="40" t="s">
-        <v>666</v>
-      </c>
-      <c r="G232" s="15" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="15">
+      <c r="K232" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" ht="15">
       <c r="A233" s="8" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="D233" s="39" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E233" s="40" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="F233" s="40"/>
       <c r="G233" s="15" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="15">
+        <v>666</v>
+      </c>
+      <c r="K233" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" ht="15">
       <c r="A234" s="8" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D234" s="39" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E234" s="40" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="F234" s="40"/>
       <c r="G234" s="15" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="45">
+        <v>678</v>
+      </c>
+      <c r="K234" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" ht="45">
       <c r="A235" s="8" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="D235" s="39" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="F235" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="G235" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="K235" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" ht="15">
+      <c r="A236" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="G235" s="15" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="15">
-      <c r="A236" s="8" t="s">
-        <v>683</v>
-      </c>
       <c r="D236" s="39" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E236" s="40" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="F236" s="40"/>
       <c r="G236" s="15" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="45">
+        <v>680</v>
+      </c>
+      <c r="K236" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" ht="45">
       <c r="A237" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="D237" s="39" t="s">
+        <v>669</v>
+      </c>
+      <c r="E237" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="F237" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="G237" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="K237" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="30">
+      <c r="A238" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="D238" s="39" t="s">
+        <v>674</v>
+      </c>
+      <c r="E238" s="40" t="s">
+        <v>675</v>
+      </c>
+      <c r="F238" s="40" t="s">
+        <v>676</v>
+      </c>
+      <c r="G238" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="K238" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" ht="15">
+      <c r="A239" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="D239" s="39" t="s">
         <v>683</v>
       </c>
-      <c r="D237" s="39" t="s">
-        <v>675</v>
-      </c>
-      <c r="E237" s="40" t="s">
-        <v>612</v>
-      </c>
-      <c r="F237" s="40" t="s">
-        <v>679</v>
-      </c>
-      <c r="G237" s="15" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="30">
-      <c r="A238" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="D238" s="39" t="s">
-        <v>680</v>
-      </c>
-      <c r="E238" s="40" t="s">
-        <v>681</v>
-      </c>
-      <c r="F238" s="40" t="s">
-        <v>682</v>
-      </c>
-      <c r="G238" s="15" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="15">
-      <c r="A239" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="D239" s="39" t="s">
-        <v>689</v>
-      </c>
       <c r="E239" s="40" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="F239" s="40"/>
       <c r="G239" s="15" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="15">
+        <v>686</v>
+      </c>
+      <c r="K239" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" ht="15">
       <c r="A240" s="8" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D240" s="39" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E240" s="40" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="F240" s="40"/>
       <c r="G240" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="K240" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" ht="45">
+      <c r="A241" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D241" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="E241" s="40" t="s">
+        <v>690</v>
+      </c>
+      <c r="F241" s="40" t="s">
+        <v>691</v>
+      </c>
+      <c r="G241" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="K241" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" ht="45">
+      <c r="A242" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D242" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="E242" s="40" t="s">
+        <v>692</v>
+      </c>
+      <c r="F242" s="40" t="s">
+        <v>693</v>
+      </c>
+      <c r="G242" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="K242" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" ht="45">
+      <c r="A243" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D243" s="39" t="s">
+        <v>694</v>
+      </c>
+      <c r="E243" s="40" t="s">
+        <v>695</v>
+      </c>
+      <c r="F243" s="40" t="s">
+        <v>696</v>
+      </c>
+      <c r="G243" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="K243" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" ht="60">
+      <c r="A244" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D244" s="40" t="s">
+        <v>694</v>
+      </c>
+      <c r="E244" s="40" t="s">
+        <v>697</v>
+      </c>
+      <c r="F244" s="40" t="s">
+        <v>698</v>
+      </c>
+      <c r="G244" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="K244" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" ht="45">
+      <c r="A245" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D245" s="45" t="s">
+        <v>699</v>
+      </c>
+      <c r="E245" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="F245" s="40" t="s">
+        <v>701</v>
+      </c>
+      <c r="G245" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="K245" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="45">
+      <c r="A246" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D246" s="45" t="s">
+        <v>699</v>
+      </c>
+      <c r="E246" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="F246" s="40" t="s">
+        <v>701</v>
+      </c>
+      <c r="G246" s="15" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" ht="45">
-      <c r="A241" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="D241" s="39" t="s">
-        <v>695</v>
-      </c>
-      <c r="E241" s="40" t="s">
-        <v>696</v>
-      </c>
-      <c r="F241" s="40" t="s">
-        <v>697</v>
-      </c>
-      <c r="G241" s="15" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="45">
-      <c r="A242" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="D242" s="39" t="s">
-        <v>695</v>
-      </c>
-      <c r="E242" s="40" t="s">
-        <v>698</v>
-      </c>
-      <c r="F242" s="40" t="s">
-        <v>699</v>
-      </c>
-      <c r="G242" s="15" t="s">
+      <c r="K246" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" ht="45">
+      <c r="A247" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D247" s="42" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" ht="45">
-      <c r="A243" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="D243" s="39" t="s">
-        <v>700</v>
-      </c>
-      <c r="E243" s="40" t="s">
-        <v>701</v>
-      </c>
-      <c r="F243" s="40" t="s">
-        <v>702</v>
-      </c>
-      <c r="G243" s="15" t="s">
+      <c r="E247" s="42" t="s">
         <v>711</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="60">
-      <c r="A244" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="D244" s="40" t="s">
-        <v>700</v>
-      </c>
-      <c r="E244" s="40" t="s">
-        <v>703</v>
-      </c>
-      <c r="F244" s="40" t="s">
-        <v>704</v>
-      </c>
-      <c r="G244" s="15" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="45">
-      <c r="A245" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="D245" s="45" t="s">
-        <v>705</v>
-      </c>
-      <c r="E245" s="39" t="s">
-        <v>706</v>
-      </c>
-      <c r="F245" s="40" t="s">
-        <v>707</v>
-      </c>
-      <c r="G245" s="15" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="45">
-      <c r="A246" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="D246" s="45" t="s">
-        <v>705</v>
-      </c>
-      <c r="E246" s="39" t="s">
-        <v>706</v>
-      </c>
-      <c r="F246" s="40" t="s">
-        <v>707</v>
-      </c>
-      <c r="G246" s="15" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="45">
-      <c r="A247" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="D247" s="42" t="s">
-        <v>716</v>
-      </c>
-      <c r="E247" s="42" t="s">
-        <v>717</v>
       </c>
       <c r="F247" s="40"/>
       <c r="G247" s="46" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="H247" s="36"/>
       <c r="I247" s="37"/>
-    </row>
-    <row r="248" spans="1:9" ht="90">
+      <c r="K247" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" ht="90">
       <c r="A248" s="8" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="D248" s="40" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="F248" s="40"/>
       <c r="G248" s="46" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="H248" s="47"/>
       <c r="I248" s="48"/>
-    </row>
-    <row r="249" spans="1:9" ht="15">
+      <c r="K248" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" ht="15">
       <c r="A249" s="8" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="D249" s="39" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="E249" s="39" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F249" s="40"/>
       <c r="G249" s="46" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="H249" s="47"/>
       <c r="I249" s="48"/>
-    </row>
-    <row r="250" spans="1:9" ht="15.6">
+      <c r="K249" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" ht="15.6">
       <c r="A250" s="8" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="D250" s="39" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E250" s="39" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="F250" s="40"/>
       <c r="G250" s="46" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="H250" s="47"/>
       <c r="I250" s="37" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" ht="60">
+        <v>722</v>
+      </c>
+      <c r="K250" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" ht="60">
       <c r="A251" s="8" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D251" s="40" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="F251" s="40" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G251" s="46" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="H251" s="36"/>
       <c r="I251" s="37"/>
-    </row>
-    <row r="252" spans="1:9" ht="60">
+      <c r="K251" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" ht="60">
       <c r="A252" s="8" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D252" s="40" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F252" s="40"/>
       <c r="G252" s="46" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="H252" s="36"/>
       <c r="I252" s="37"/>
-    </row>
-    <row r="253" spans="1:9" ht="15.6">
+      <c r="K252" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" ht="15.6">
       <c r="A253" s="8" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E253" s="39" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="F253" s="40"/>
       <c r="G253" s="46" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="H253" s="36"/>
       <c r="I253" s="37"/>
-    </row>
-    <row r="254" spans="1:9" ht="45">
+      <c r="K253" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" ht="45">
       <c r="A254" s="8" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D254" s="42" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E254" s="42" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F254" s="40" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G254" s="46" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="H254" s="36"/>
       <c r="I254" s="37"/>
-    </row>
-    <row r="255" spans="1:9" ht="45">
+      <c r="K254" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" ht="45">
       <c r="A255" s="8" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="D255" s="42" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E255" s="42" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="F255" s="40"/>
       <c r="G255" s="46" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="H255" s="36"/>
       <c r="I255" s="37"/>
-    </row>
-    <row r="256" spans="1:9" ht="75">
+      <c r="K255" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" ht="75">
       <c r="A256" s="8" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E256" s="42" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F256" s="40"/>
       <c r="G256" s="46" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="H256" s="36"/>
       <c r="I256" s="37"/>
-    </row>
-    <row r="257" spans="1:9" ht="75">
+      <c r="K256" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="75">
       <c r="A257" s="8" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E257" s="42" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="F257" s="40"/>
       <c r="G257" s="46" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="H257" s="36"/>
       <c r="I257" s="37"/>
-    </row>
-    <row r="258" spans="1:9" ht="90">
+      <c r="K257" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="90">
       <c r="A258" s="8" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="D258" s="42" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E258" s="42" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="F258" s="40"/>
       <c r="G258" s="46" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="H258" s="36"/>
       <c r="I258" s="37"/>
-    </row>
-    <row r="259" spans="1:9" ht="60">
+      <c r="K258" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="60">
       <c r="A259" s="8" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E259" s="42" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="F259" s="40"/>
       <c r="G259" s="46" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="H259" s="36"/>
       <c r="I259" s="37" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="75">
+        <v>750</v>
+      </c>
+      <c r="K259" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="75">
       <c r="A260" s="8" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="F260" s="40"/>
       <c r="G260" s="46" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="H260" s="36"/>
       <c r="I260" s="37" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="75">
+        <v>754</v>
+      </c>
+      <c r="K260" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="75">
       <c r="A261" s="8" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E261" s="42" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F261" s="40"/>
       <c r="G261" s="46" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="H261" s="36"/>
       <c r="I261" s="37"/>
-    </row>
-    <row r="262" spans="1:9" ht="45">
+      <c r="K261" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="45">
       <c r="A262" s="8" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D262" s="42" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F262" s="40"/>
       <c r="G262" s="46" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="H262" s="36"/>
       <c r="I262" s="37"/>
+      <c r="K262" s="55">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8328,7 +8823,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8338,7 +8833,7 @@
         <v>165</v>
       </c>
       <c r="H1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8346,12 +8841,12 @@
         <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="H3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="898">
   <si>
     <t>সহজে বহনীয়</t>
   </si>
@@ -518,12 +518,6 @@
     <t>image103020.jpg</t>
   </si>
   <si>
-    <t>Numbering in table</t>
-  </si>
-  <si>
-    <t>Uniquely identify a member of a table</t>
-  </si>
-  <si>
     <t>image103021.jpg</t>
   </si>
   <si>
@@ -860,9 +854,6 @@
     <t xml:space="preserve">লিকেজ কারেন্ট </t>
   </si>
   <si>
-    <t>need to correct 8.4 on doc</t>
-  </si>
-  <si>
     <t>ওয়্যারিং লে-আউট</t>
   </si>
   <si>
@@ -902,9 +893,6 @@
     <t xml:space="preserve">ট্রাংকিং ওয়্যারিং </t>
   </si>
   <si>
-    <t>Chapter 9 spelling of clit wearing</t>
-  </si>
-  <si>
     <t>image109002.jpg</t>
   </si>
   <si>
@@ -957,9 +945,6 @@
   </si>
   <si>
     <t>190.Chapter-p1-14.xhtml</t>
-  </si>
-  <si>
-    <t>chapter 14.8</t>
   </si>
   <si>
     <t>১৫.১ ডিস্ট্রিবিউশন বোর্ড: বাসা-বাড়ি,</t>
@@ -2839,6 +2824,15 @@
   </si>
   <si>
     <t>সোল্ডারিং আয়রনের</t>
+  </si>
+  <si>
+    <t>auto Numbering in table doesnot work</t>
+  </si>
+  <si>
+    <t>How to uniquely identify a member of a table?</t>
+  </si>
+  <si>
+    <t>Chapter Name Problem</t>
   </si>
 </sst>
 </file>
@@ -3532,7 +3526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3947,8 +3941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4003,7 +3997,7 @@
     </row>
     <row r="2" spans="1:11" ht="82.8">
       <c r="A2" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>51</v>
@@ -4023,7 +4017,7 @@
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>53</v>
@@ -4040,10 +4034,10 @@
     </row>
     <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>133</v>
@@ -4060,13 +4054,13 @@
     </row>
     <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="15" t="s">
@@ -4078,13 +4072,13 @@
     </row>
     <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>62</v>
@@ -4095,7 +4089,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="56" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -4115,7 +4109,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="56" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -4135,13 +4129,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>65</v>
@@ -4152,13 +4146,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>66</v>
@@ -4169,13 +4163,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>67</v>
@@ -4186,13 +4180,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>68</v>
@@ -4203,13 +4197,13 @@
     </row>
     <row r="13" spans="1:11" ht="16.8">
       <c r="A13" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>69</v>
@@ -4220,13 +4214,13 @@
     </row>
     <row r="14" spans="1:11" ht="16.8">
       <c r="A14" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>70</v>
@@ -4237,13 +4231,13 @@
     </row>
     <row r="15" spans="1:11" ht="16.8">
       <c r="A15" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>71</v>
@@ -4254,13 +4248,13 @@
     </row>
     <row r="16" spans="1:11" ht="16.8">
       <c r="A16" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>72</v>
@@ -4271,13 +4265,13 @@
     </row>
     <row r="17" spans="1:13" ht="15">
       <c r="A17" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>73</v>
@@ -4288,7 +4282,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>59</v>
@@ -4305,13 +4299,13 @@
     </row>
     <row r="19" spans="1:13" ht="18">
       <c r="A19" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>75</v>
@@ -4322,13 +4316,13 @@
     </row>
     <row r="20" spans="1:13" ht="15">
       <c r="A20" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>76</v>
@@ -4339,13 +4333,13 @@
     </row>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>77</v>
@@ -4356,13 +4350,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>78</v>
@@ -4373,13 +4367,13 @@
     </row>
     <row r="23" spans="1:13" ht="17.399999999999999">
       <c r="A23" s="8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>79</v>
@@ -4390,15 +4384,15 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="61" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="D24" s="62" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="F24" s="61"/>
       <c r="G24" s="61" t="s">
@@ -4415,7 +4409,7 @@
     </row>
     <row r="25" spans="1:13" ht="41.4">
       <c r="A25" s="8" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>81</v>
@@ -4432,7 +4426,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>83</v>
@@ -4449,10 +4443,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>84</v>
@@ -4466,10 +4460,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>85</v>
@@ -4483,10 +4477,10 @@
     </row>
     <row r="29" spans="1:13" ht="15">
       <c r="A29" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>135</v>
@@ -4500,10 +4494,10 @@
     </row>
     <row r="30" spans="1:13" ht="15">
       <c r="A30" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>136</v>
@@ -4517,10 +4511,10 @@
     </row>
     <row r="31" spans="1:13" ht="30">
       <c r="A31" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>137</v>
@@ -4534,10 +4528,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>138</v>
@@ -4551,10 +4545,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>86</v>
@@ -4568,10 +4562,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>87</v>
@@ -4585,10 +4579,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>88</v>
@@ -4602,13 +4596,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>155</v>
@@ -4619,10 +4613,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>89</v>
@@ -4636,10 +4630,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>90</v>
@@ -4653,10 +4647,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>91</v>
@@ -4670,10 +4664,10 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>92</v>
@@ -4687,13 +4681,13 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>160</v>
@@ -4704,10 +4698,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>93</v>
@@ -4721,10 +4715,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>94</v>
@@ -4738,13 +4732,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="G44" s="55" t="s">
         <v>163</v>
@@ -4755,10 +4749,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="D45" s="24" t="s">
         <v>855</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>860</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>95</v>
@@ -4772,16 +4766,16 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>96</v>
       </c>
       <c r="G46" s="55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K46" s="8">
         <v>1</v>
@@ -4789,16 +4783,16 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>58</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K47" s="8">
         <v>1</v>
@@ -4806,16 +4800,16 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>97</v>
       </c>
       <c r="G48" s="55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K48" s="8">
         <v>1</v>
@@ -4823,16 +4817,16 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G49" s="55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K49" s="8">
         <v>1</v>
@@ -4840,16 +4834,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>98</v>
       </c>
       <c r="G50" s="55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K50" s="8">
         <v>1</v>
@@ -4857,16 +4851,16 @@
     </row>
     <row r="51" spans="1:11" ht="27.6">
       <c r="A51" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>99</v>
       </c>
       <c r="G51" s="55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K51" s="8">
         <v>1</v>
@@ -4874,16 +4868,16 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>100</v>
       </c>
       <c r="G52" s="55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K52" s="8">
         <v>1</v>
@@ -4891,16 +4885,16 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>101</v>
       </c>
       <c r="G53" s="55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K53" s="8">
         <v>1</v>
@@ -4908,16 +4902,16 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K54" s="8">
         <v>1</v>
@@ -4925,16 +4919,16 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K55" s="8">
         <v>1</v>
@@ -4942,16 +4936,16 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>141</v>
       </c>
       <c r="G56" s="55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K56" s="8">
         <v>1</v>
@@ -4959,7 +4953,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B57" s="58"/>
       <c r="C57" s="58"/>
@@ -4971,7 +4965,7 @@
       </c>
       <c r="F57" s="58"/>
       <c r="G57" s="55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K57" s="8">
         <v>1</v>
@@ -4979,16 +4973,16 @@
     </row>
     <row r="58" spans="1:11" ht="27.6">
       <c r="A58" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>102</v>
       </c>
       <c r="G58" s="55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K58" s="8">
         <v>1</v>
@@ -4996,19 +4990,19 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B59" s="61"/>
       <c r="C59" s="61"/>
       <c r="D59" s="62" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="E59" s="62" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F59" s="61"/>
       <c r="G59" s="61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H59" s="55"/>
       <c r="I59" s="55"/>
@@ -5019,16 +5013,16 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>103</v>
       </c>
       <c r="G60" s="55" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K60" s="8">
         <v>1</v>
@@ -5036,16 +5030,16 @@
     </row>
     <row r="61" spans="1:11" ht="27.6">
       <c r="A61" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>104</v>
       </c>
       <c r="G61" s="55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K61" s="8">
         <v>1</v>
@@ -5053,16 +5047,16 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>105</v>
       </c>
       <c r="G62" s="55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K62" s="8">
         <v>1</v>
@@ -5070,16 +5064,16 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>106</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K63" s="8">
         <v>1</v>
@@ -5087,16 +5081,16 @@
     </row>
     <row r="64" spans="1:11" ht="27.6">
       <c r="A64" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>107</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K64" s="8">
         <v>1</v>
@@ -5104,16 +5098,16 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>108</v>
       </c>
       <c r="G65" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K65" s="8">
         <v>1</v>
@@ -5121,16 +5115,16 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>109</v>
       </c>
       <c r="G66" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K66" s="8">
         <v>1</v>
@@ -5138,16 +5132,16 @@
     </row>
     <row r="67" spans="1:11" ht="27.6">
       <c r="A67" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K67" s="8">
         <v>1</v>
@@ -5155,16 +5149,16 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E68" s="24" t="s">
         <v>110</v>
       </c>
       <c r="G68" s="55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K68" s="8">
         <v>1</v>
@@ -5172,16 +5166,16 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>111</v>
       </c>
       <c r="G69" s="55" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K69" s="8">
         <v>1</v>
@@ -5189,16 +5183,16 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>112</v>
       </c>
       <c r="G70" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K70" s="8">
         <v>1</v>
@@ -5206,16 +5200,16 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>113</v>
       </c>
       <c r="G71" s="55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K71" s="8">
         <v>1</v>
@@ -5223,16 +5217,16 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>114</v>
       </c>
       <c r="G72" s="55" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K72" s="8">
         <v>1</v>
@@ -5240,16 +5234,16 @@
     </row>
     <row r="73" spans="1:11" ht="27.6">
       <c r="A73" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>115</v>
       </c>
       <c r="G73" s="55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K73" s="8">
         <v>1</v>
@@ -5257,16 +5251,16 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G74" s="55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K74" s="8">
         <v>1</v>
@@ -5274,16 +5268,16 @@
     </row>
     <row r="75" spans="1:11" ht="27.6">
       <c r="A75" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>116</v>
       </c>
       <c r="G75" s="55" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K75" s="8">
         <v>1</v>
@@ -5291,16 +5285,16 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>117</v>
       </c>
       <c r="G76" s="55" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K76" s="8">
         <v>1</v>
@@ -5308,16 +5302,16 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>118</v>
       </c>
       <c r="G77" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K77" s="8">
         <v>1</v>
@@ -5325,16 +5319,16 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K78" s="8">
         <v>1</v>
@@ -5342,16 +5336,16 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>143</v>
       </c>
       <c r="G79" s="55" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K79" s="8">
         <v>1</v>
@@ -5359,16 +5353,16 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>144</v>
       </c>
       <c r="G80" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K80" s="8">
         <v>1</v>
@@ -5376,16 +5370,16 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E81" s="50" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G81" s="55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K81" s="8">
         <v>1</v>
@@ -5393,16 +5387,16 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>119</v>
       </c>
       <c r="G82" s="55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K82" s="8">
         <v>1</v>
@@ -5410,16 +5404,16 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>120</v>
       </c>
       <c r="G83" s="55" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K83" s="8">
         <v>1</v>
@@ -5427,16 +5421,16 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>121</v>
       </c>
       <c r="G84" s="55" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K84" s="8">
         <v>1</v>
@@ -5444,16 +5438,16 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>122</v>
       </c>
       <c r="G85" s="55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K85" s="8">
         <v>1</v>
@@ -5461,7 +5455,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>123</v>
@@ -5470,7 +5464,7 @@
         <v>123</v>
       </c>
       <c r="G86" s="55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K86" s="8">
         <v>1</v>
@@ -5478,7 +5472,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>124</v>
@@ -5487,7 +5481,7 @@
         <v>124</v>
       </c>
       <c r="G87" s="55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K87" s="8">
         <v>1</v>
@@ -5495,16 +5489,16 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E88" s="24" t="s">
         <v>125</v>
       </c>
       <c r="G88" s="55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K88" s="8">
         <v>1</v>
@@ -5512,16 +5506,16 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E89" s="50" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K89" s="8">
         <v>1</v>
@@ -5529,16 +5523,16 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D90" s="50" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E90" s="50" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G90" s="55" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K90" s="8">
         <v>1</v>
@@ -5546,16 +5540,16 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="E91" s="24" t="s">
         <v>126</v>
       </c>
       <c r="G91" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K91" s="8">
         <v>1</v>
@@ -5563,7 +5557,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>127</v>
@@ -5572,7 +5566,7 @@
         <v>127</v>
       </c>
       <c r="G92" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K92" s="8">
         <v>1</v>
@@ -5580,7 +5574,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>128</v>
@@ -5589,7 +5583,7 @@
         <v>128</v>
       </c>
       <c r="G93" s="55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K93" s="8">
         <v>1</v>
@@ -5597,16 +5591,16 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>129</v>
       </c>
       <c r="G94" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K94" s="8">
         <v>1</v>
@@ -5614,16 +5608,16 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>130</v>
       </c>
       <c r="G95" s="55" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K95" s="8">
         <v>1</v>
@@ -5631,16 +5625,16 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D96" s="50" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E96" s="50" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="G96" s="55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K96" s="8">
         <v>1</v>
@@ -5648,16 +5642,16 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="8" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>131</v>
       </c>
       <c r="G97" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K97" s="8">
         <v>1</v>
@@ -5665,19 +5659,19 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="55" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
       <c r="D98" s="65" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>132</v>
       </c>
       <c r="F98" s="55"/>
       <c r="G98" s="55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
@@ -5688,16 +5682,16 @@
     </row>
     <row r="99" spans="1:11" ht="16.8">
       <c r="A99" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D99" s="53" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G99" s="55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K99" s="8">
         <v>1</v>
@@ -5705,16 +5699,16 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="E100" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G100" s="55" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K100" s="8">
         <v>1</v>
@@ -5722,16 +5716,16 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E101" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G101" s="55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K101" s="8">
         <v>1</v>
@@ -5739,16 +5733,16 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="E102" s="31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G102" s="55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K102" s="8">
         <v>1</v>
@@ -5756,16 +5750,16 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="E103" s="31" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G103" s="55" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K103" s="8">
         <v>1</v>
@@ -5773,16 +5767,16 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="E104" s="31" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G104" s="55" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K104" s="8">
         <v>1</v>
@@ -5790,16 +5784,16 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G105" s="55" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K105" s="8">
         <v>1</v>
@@ -5807,16 +5801,16 @@
     </row>
     <row r="106" spans="1:11" ht="15">
       <c r="A106" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D106" s="63" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E106" s="63" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G106" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K106" s="8">
         <v>1</v>
@@ -5824,16 +5818,16 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="E107" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G107" s="55" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K107" s="8">
         <v>1</v>
@@ -5841,16 +5835,16 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G108" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K108" s="8">
         <v>1</v>
@@ -5858,16 +5852,16 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="D109" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="D109" s="31" t="s">
-        <v>875</v>
-      </c>
       <c r="E109" s="31" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G109" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K109" s="8">
         <v>1</v>
@@ -5875,16 +5869,16 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G110" s="55" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K110" s="8">
         <v>1</v>
@@ -5892,16 +5886,16 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E111" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G111" s="55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K111" s="8">
         <v>1</v>
@@ -5909,16 +5903,16 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="E112" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G112" s="55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K112" s="8">
         <v>1</v>
@@ -5926,16 +5920,16 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="E113" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G113" s="55" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K113" s="8">
         <v>1</v>
@@ -5943,16 +5937,16 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E114" s="31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G114" s="55" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K114" s="8">
         <v>1</v>
@@ -5960,16 +5954,16 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="E115" s="31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G115" s="55" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K115" s="8">
         <v>1</v>
@@ -5977,16 +5971,16 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="E116" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G116" s="55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K116" s="8">
         <v>1</v>
@@ -5994,16 +5988,16 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="8" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="E117" s="31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G117" s="55" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K117" s="8">
         <v>1</v>
@@ -6011,19 +6005,19 @@
     </row>
     <row r="118" spans="1:11" ht="15">
       <c r="A118" s="55" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
       <c r="D118" s="64" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="E118" s="64" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="F118" s="55"/>
       <c r="G118" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H118" s="55"/>
       <c r="I118" s="55"/>
@@ -6034,17 +6028,17 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F119" s="16"/>
       <c r="G119" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K119" s="8">
         <v>1</v>
@@ -6052,16 +6046,16 @@
     </row>
     <row r="120" spans="1:11" ht="27.6">
       <c r="A120" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D120" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F120" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G120" s="26"/>
       <c r="K120" s="8">
@@ -6070,18 +6064,18 @@
     </row>
     <row r="121" spans="1:11" ht="60">
       <c r="A121" s="61" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B121" s="61"/>
       <c r="C121" s="61"/>
       <c r="D121" s="76" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="F121" s="76" t="s">
         <v>262</v>
-      </c>
-      <c r="E121" s="76" t="s">
-        <v>263</v>
-      </c>
-      <c r="F121" s="76" t="s">
-        <v>264</v>
       </c>
       <c r="G121" s="61"/>
       <c r="H121" s="61"/>
@@ -6093,19 +6087,19 @@
     </row>
     <row r="122" spans="1:11" ht="27.6">
       <c r="A122" s="55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B122" s="55"/>
       <c r="C122" s="55"/>
       <c r="D122" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E122" s="66" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F122" s="55"/>
       <c r="G122" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H122" s="55"/>
       <c r="I122" s="55"/>
@@ -6116,19 +6110,19 @@
     </row>
     <row r="123" spans="1:11" ht="27.6">
       <c r="A123" s="55" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B123" s="55"/>
       <c r="C123" s="55"/>
       <c r="D123" s="66" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E123" s="66" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="F123" s="55"/>
       <c r="G123" s="55" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H123" s="55"/>
       <c r="I123" s="55"/>
@@ -6139,16 +6133,16 @@
     </row>
     <row r="124" spans="1:11" ht="27.6">
       <c r="A124" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D124" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="F124" s="16" t="s">
         <v>272</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="F124" s="16" t="s">
-        <v>274</v>
       </c>
       <c r="K124" s="55">
         <v>1</v>
@@ -6156,18 +6150,18 @@
     </row>
     <row r="125" spans="1:11" ht="45">
       <c r="A125" s="55" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B125" s="55"/>
       <c r="C125" s="55"/>
       <c r="D125" s="67" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E125" s="55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F125" s="68" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G125" s="55"/>
       <c r="H125" s="55"/>
@@ -6179,19 +6173,19 @@
     </row>
     <row r="126" spans="1:11" ht="41.4">
       <c r="A126" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D126" s="50" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G126" s="70" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K126" s="55">
         <v>1</v>
@@ -6199,16 +6193,16 @@
     </row>
     <row r="127" spans="1:11" ht="15.6">
       <c r="A127" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D127" s="63" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G127" s="70" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K127" s="55">
         <v>1</v>
@@ -6216,16 +6210,16 @@
     </row>
     <row r="128" spans="1:11" ht="15.6">
       <c r="A128" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D128" s="63" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G128" s="70" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K128" s="55">
         <v>1</v>
@@ -6233,16 +6227,16 @@
     </row>
     <row r="129" spans="1:11" ht="27.6">
       <c r="A129" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D129" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="E129" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="D129" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="E129" s="28" t="s">
-        <v>286</v>
-      </c>
       <c r="G129" s="27" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K129" s="55">
         <v>1</v>
@@ -6250,16 +6244,16 @@
     </row>
     <row r="130" spans="1:11" ht="27.6">
       <c r="A130" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E130" s="28" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G130" s="70" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K130" s="55">
         <v>1</v>
@@ -6267,16 +6261,16 @@
     </row>
     <row r="131" spans="1:11" ht="15.6">
       <c r="A131" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D131" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G131" s="70" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K131" s="55">
         <v>1</v>
@@ -6284,19 +6278,19 @@
     </row>
     <row r="132" spans="1:11" ht="15.6">
       <c r="A132" s="55" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B132" s="55"/>
       <c r="C132" s="55"/>
       <c r="D132" s="69" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E132" s="69" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F132" s="55"/>
       <c r="G132" s="27" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H132" s="55"/>
       <c r="I132" s="55"/>
@@ -6307,21 +6301,21 @@
     </row>
     <row r="133" spans="1:11" ht="41.4">
       <c r="A133" s="55" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B133" s="55"/>
       <c r="C133" s="55"/>
       <c r="D133" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="E133" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="F133" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="G133" s="70" t="s">
         <v>300</v>
-      </c>
-      <c r="E133" s="72" t="s">
-        <v>301</v>
-      </c>
-      <c r="F133" s="72" t="s">
-        <v>302</v>
-      </c>
-      <c r="G133" s="70" t="s">
-        <v>304</v>
       </c>
       <c r="H133" s="55"/>
       <c r="I133" s="55"/>
@@ -6332,18 +6326,18 @@
     </row>
     <row r="134" spans="1:11" ht="27.6">
       <c r="A134" s="73" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B134" s="73"/>
       <c r="C134" s="73"/>
       <c r="D134" s="74" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="E134" s="75" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F134" s="75" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G134" s="73"/>
       <c r="H134" s="73"/>
@@ -6355,16 +6349,16 @@
     </row>
     <row r="135" spans="1:11" ht="30">
       <c r="A135" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K135" s="55">
         <v>1</v>
@@ -6372,17 +6366,17 @@
     </row>
     <row r="136" spans="1:11" ht="27.6">
       <c r="A136" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F136" s="16"/>
       <c r="G136" s="27" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="K136" s="55">
         <v>1</v>
@@ -6390,19 +6384,19 @@
     </row>
     <row r="137" spans="1:11" ht="41.4">
       <c r="A137" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E137" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F137" s="28" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G137" s="27" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K137" s="55">
         <v>1</v>
@@ -6410,17 +6404,17 @@
     </row>
     <row r="138" spans="1:11" ht="15.6">
       <c r="A138" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D138" s="33" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F138" s="28"/>
       <c r="G138" s="27" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K138" s="55">
         <v>1</v>
@@ -6428,17 +6422,17 @@
     </row>
     <row r="139" spans="1:11" ht="15.6">
       <c r="A139" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F139" s="28"/>
       <c r="G139" s="27" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="K139" s="55">
         <v>1</v>
@@ -6446,17 +6440,17 @@
     </row>
     <row r="140" spans="1:11" ht="15.6">
       <c r="A140" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F140" s="28"/>
       <c r="G140" s="27" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K140" s="55">
         <v>1</v>
@@ -6464,17 +6458,17 @@
     </row>
     <row r="141" spans="1:11" ht="27.6">
       <c r="A141" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F141" s="28"/>
       <c r="G141" s="27" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="K141" s="55">
         <v>1</v>
@@ -6482,17 +6476,17 @@
     </row>
     <row r="142" spans="1:11" ht="27.6">
       <c r="A142" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D142" s="33" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F142" s="16"/>
       <c r="G142" s="27" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K142" s="55">
         <v>1</v>
@@ -6500,17 +6494,17 @@
     </row>
     <row r="143" spans="1:11" ht="27.6">
       <c r="A143" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D143" s="33" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F143" s="16"/>
       <c r="G143" s="27" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="K143" s="55">
         <v>1</v>
@@ -6518,17 +6512,17 @@
     </row>
     <row r="144" spans="1:11" ht="15.6">
       <c r="A144" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F144" s="16"/>
       <c r="G144" s="27" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K144" s="55">
         <v>1</v>
@@ -6536,17 +6530,17 @@
     </row>
     <row r="145" spans="1:11" ht="15.6">
       <c r="A145" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F145" s="16"/>
       <c r="G145" s="27" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K145" s="55">
         <v>1</v>
@@ -6554,17 +6548,17 @@
     </row>
     <row r="146" spans="1:11" ht="27.6">
       <c r="A146" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F146" s="16"/>
       <c r="G146" s="27" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K146" s="55">
         <v>1</v>
@@ -6572,17 +6566,17 @@
     </row>
     <row r="147" spans="1:11" ht="43.8">
       <c r="A147" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D147" s="33" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F147" s="16"/>
       <c r="G147" s="27" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K147" s="55">
         <v>1</v>
@@ -6590,16 +6584,16 @@
     </row>
     <row r="148" spans="1:11" ht="27.6">
       <c r="A148" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G148" s="27" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="K148" s="55">
         <v>1</v>
@@ -6607,17 +6601,17 @@
     </row>
     <row r="149" spans="1:11" ht="41.4">
       <c r="A149" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="27" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K149" s="55">
         <v>1</v>
@@ -6625,17 +6619,17 @@
     </row>
     <row r="150" spans="1:11" ht="27.6">
       <c r="A150" s="8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="27" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K150" s="55">
         <v>1</v>
@@ -6643,17 +6637,17 @@
     </row>
     <row r="151" spans="1:11" ht="15.6">
       <c r="A151" s="8" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="27" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K151" s="55">
         <v>1</v>
@@ -6661,19 +6655,19 @@
     </row>
     <row r="152" spans="1:11" ht="41.4">
       <c r="A152" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D152" s="34" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G152" s="27" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K152" s="55">
         <v>1</v>
@@ -6681,16 +6675,16 @@
     </row>
     <row r="153" spans="1:11" ht="45">
       <c r="A153" s="8" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G153" s="27" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="K153" s="55">
         <v>1</v>
@@ -6698,16 +6692,16 @@
     </row>
     <row r="154" spans="1:11" ht="27.6">
       <c r="A154" s="8" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G154" s="30"/>
       <c r="K154" s="55">
@@ -6716,21 +6710,21 @@
     </row>
     <row r="155" spans="1:11" ht="82.8">
       <c r="A155" s="8" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E155" s="35" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="29" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H155" s="36"/>
       <c r="I155" s="37" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K155" s="55">
         <v>1</v>
@@ -6738,19 +6732,19 @@
     </row>
     <row r="156" spans="1:11" ht="69">
       <c r="A156" s="8" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E156" s="35" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G156" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H156" s="36"/>
       <c r="I156" s="37"/>
@@ -6760,17 +6754,17 @@
     </row>
     <row r="157" spans="1:11" ht="69">
       <c r="A157" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E157" s="35" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="29" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H157" s="36"/>
       <c r="I157" s="37"/>
@@ -6780,20 +6774,20 @@
     </row>
     <row r="158" spans="1:11" ht="124.2">
       <c r="A158" s="8" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E158" s="35" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="29" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I158" s="37"/>
       <c r="K158" s="55">
@@ -6802,17 +6796,17 @@
     </row>
     <row r="159" spans="1:11" ht="82.8">
       <c r="A159" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E159" s="35" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="29" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H159" s="36"/>
       <c r="I159" s="37"/>
@@ -6822,17 +6816,17 @@
     </row>
     <row r="160" spans="1:11" ht="69">
       <c r="A160" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E160" s="35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="29" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="H160" s="36"/>
       <c r="I160" s="37"/>
@@ -6842,21 +6836,21 @@
     </row>
     <row r="161" spans="1:11" ht="41.4">
       <c r="A161" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E161" s="35" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="29" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H161" s="36"/>
       <c r="I161" s="37" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K161" s="55">
         <v>1</v>
@@ -6864,17 +6858,17 @@
     </row>
     <row r="162" spans="1:11" ht="55.2">
       <c r="A162" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E162" s="35" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="29" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H162" s="36"/>
       <c r="I162" s="37"/>
@@ -6884,17 +6878,17 @@
     </row>
     <row r="163" spans="1:11" ht="41.4">
       <c r="A163" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E163" s="35" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="29" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H163" s="36"/>
       <c r="I163" s="37"/>
@@ -6904,21 +6898,21 @@
     </row>
     <row r="164" spans="1:11" ht="69">
       <c r="A164" s="8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E164" s="35" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="29" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H164" s="36"/>
       <c r="I164" s="37" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K164" s="55">
         <v>1</v>
@@ -6926,21 +6920,21 @@
     </row>
     <row r="165" spans="1:11" ht="41.4">
       <c r="A165" s="8" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E165" s="35" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="29" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="H165" s="36"/>
       <c r="I165" s="37" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="K165" s="55">
         <v>1</v>
@@ -6948,20 +6942,20 @@
     </row>
     <row r="166" spans="1:11" ht="110.4">
       <c r="A166" s="8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E166" s="35" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="29" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H166" s="36" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I166" s="37"/>
       <c r="K166" s="55">
@@ -6970,21 +6964,21 @@
     </row>
     <row r="167" spans="1:11" ht="96.6">
       <c r="A167" s="8" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E167" s="35" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="29" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H167" s="36"/>
       <c r="I167" s="37" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="K167" s="55">
         <v>1</v>
@@ -6992,17 +6986,17 @@
     </row>
     <row r="168" spans="1:11" ht="69">
       <c r="A168" s="8" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E168" s="35" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="29" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H168" s="36"/>
       <c r="I168" s="37"/>
@@ -7012,21 +7006,21 @@
     </row>
     <row r="169" spans="1:11" ht="82.8">
       <c r="A169" s="8" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E169" s="35" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="29" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H169" s="36"/>
       <c r="I169" s="37" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K169" s="55">
         <v>1</v>
@@ -7034,17 +7028,17 @@
     </row>
     <row r="170" spans="1:11" ht="55.2">
       <c r="A170" s="8" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E170" s="35" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="29" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H170" s="36"/>
       <c r="I170" s="37"/>
@@ -7054,21 +7048,21 @@
     </row>
     <row r="171" spans="1:11" ht="151.80000000000001">
       <c r="A171" s="8" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="E171" s="35" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="29" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H171" s="36"/>
       <c r="I171" s="37" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K171" s="55">
         <v>1</v>
@@ -7076,21 +7070,21 @@
     </row>
     <row r="172" spans="1:11" ht="69">
       <c r="A172" s="8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E172" s="35" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="29" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H172" s="36"/>
       <c r="I172" s="37" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K172" s="55">
         <v>1</v>
@@ -7098,21 +7092,21 @@
     </row>
     <row r="173" spans="1:11" ht="96.6">
       <c r="A173" s="8" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E173" s="35" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="29" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H173" s="36"/>
       <c r="I173" s="37" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K173" s="55">
         <v>1</v>
@@ -7120,17 +7114,17 @@
     </row>
     <row r="174" spans="1:11" ht="55.2">
       <c r="A174" s="8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E174" s="35" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="29" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H174" s="36"/>
       <c r="I174" s="37"/>
@@ -7140,21 +7134,21 @@
     </row>
     <row r="175" spans="1:11" ht="69">
       <c r="A175" s="8" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E175" s="35" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="29" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H175" s="36"/>
       <c r="I175" s="37" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K175" s="55">
         <v>1</v>
@@ -7162,21 +7156,21 @@
     </row>
     <row r="176" spans="1:11" ht="82.8">
       <c r="A176" s="8" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E176" s="35" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F176" s="16"/>
       <c r="G176" s="29" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H176" s="36"/>
       <c r="I176" s="37" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="K176" s="55">
         <v>1</v>
@@ -7184,23 +7178,23 @@
     </row>
     <row r="177" spans="1:11" ht="41.4">
       <c r="A177" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E177" s="35" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F177" s="16"/>
       <c r="G177" s="29" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="H177" s="36" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="K177" s="55">
         <v>1</v>
@@ -7208,19 +7202,19 @@
     </row>
     <row r="178" spans="1:11" ht="45">
       <c r="A178" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D178" s="40" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E178" s="40" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F178" s="40" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K178" s="55">
         <v>1</v>
@@ -7228,17 +7222,17 @@
     </row>
     <row r="179" spans="1:11" ht="15">
       <c r="A179" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D179" s="40" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E179" s="40" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F179" s="40"/>
       <c r="G179" s="15" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K179" s="55">
         <v>1</v>
@@ -7246,19 +7240,19 @@
     </row>
     <row r="180" spans="1:11" ht="60">
       <c r="A180" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D180" s="40" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E180" s="40" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K180" s="55">
         <v>1</v>
@@ -7266,17 +7260,17 @@
     </row>
     <row r="181" spans="1:11" ht="30">
       <c r="A181" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D181" s="40" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E181" s="40" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F181" s="40"/>
       <c r="G181" s="15" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K181" s="55">
         <v>1</v>
@@ -7284,17 +7278,17 @@
     </row>
     <row r="182" spans="1:11" ht="15">
       <c r="A182" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D182" s="40" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E182" s="40" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F182" s="40"/>
       <c r="G182" s="15" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K182" s="55">
         <v>1</v>
@@ -7302,17 +7296,17 @@
     </row>
     <row r="183" spans="1:11" ht="30">
       <c r="A183" s="8" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D183" s="40" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E183" s="40" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F183" s="40"/>
       <c r="G183" s="15" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K183" s="55">
         <v>1</v>
@@ -7320,17 +7314,17 @@
     </row>
     <row r="184" spans="1:11" ht="45">
       <c r="A184" s="8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E184" s="40" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F184" s="40"/>
       <c r="G184" s="15" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="K184" s="55">
         <v>1</v>
@@ -7338,19 +7332,19 @@
     </row>
     <row r="185" spans="1:11" ht="30">
       <c r="A185" s="8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D185" s="40" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E185" s="40" t="s">
+        <v>502</v>
+      </c>
+      <c r="F185" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="G185" s="15" t="s">
         <v>507</v>
-      </c>
-      <c r="F185" s="40" t="s">
-        <v>508</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>512</v>
       </c>
       <c r="K185" s="55">
         <v>1</v>
@@ -7358,17 +7352,17 @@
     </row>
     <row r="186" spans="1:11" ht="30">
       <c r="A186" s="8" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D186" s="40" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="E186" s="40" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F186" s="40"/>
       <c r="G186" s="15" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="K186" s="55">
         <v>1</v>
@@ -7376,17 +7370,17 @@
     </row>
     <row r="187" spans="1:11" ht="30">
       <c r="A187" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D187" s="41" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E187" s="41" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F187" s="41"/>
       <c r="G187" s="15" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="K187" s="55">
         <v>1</v>
@@ -7394,17 +7388,17 @@
     </row>
     <row r="188" spans="1:11" ht="45">
       <c r="A188" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D188" s="41" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E188" s="41" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F188" s="41"/>
       <c r="G188" s="15" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K188" s="55">
         <v>1</v>
@@ -7412,17 +7406,17 @@
     </row>
     <row r="189" spans="1:11" ht="30">
       <c r="A189" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E189" s="41" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F189" s="41"/>
       <c r="G189" s="15" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K189" s="55">
         <v>1</v>
@@ -7430,17 +7424,17 @@
     </row>
     <row r="190" spans="1:11" ht="30">
       <c r="A190" s="8" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D190" s="41" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E190" s="41" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F190" s="41"/>
       <c r="G190" s="15" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K190" s="55">
         <v>1</v>
@@ -7448,17 +7442,17 @@
     </row>
     <row r="191" spans="1:11" ht="30">
       <c r="A191" s="8" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D191" s="40" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E191" s="40" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="F191" s="40"/>
       <c r="G191" s="15" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="K191" s="55">
         <v>1</v>
@@ -7466,17 +7460,17 @@
     </row>
     <row r="192" spans="1:11" ht="30">
       <c r="A192" s="8" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D192" s="40" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E192" s="40" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F192" s="40"/>
       <c r="G192" s="15" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K192" s="55">
         <v>1</v>
@@ -7484,17 +7478,17 @@
     </row>
     <row r="193" spans="1:11" ht="30">
       <c r="A193" s="8" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D193" s="40" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E193" s="40" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F193" s="40"/>
       <c r="G193" s="15" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="K193" s="55">
         <v>1</v>
@@ -7502,17 +7496,17 @@
     </row>
     <row r="194" spans="1:11" ht="30">
       <c r="A194" s="8" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D194" s="40" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E194" s="40" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F194" s="40"/>
       <c r="G194" s="15" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K194" s="55">
         <v>1</v>
@@ -7520,19 +7514,19 @@
     </row>
     <row r="195" spans="1:11" ht="45">
       <c r="A195" s="8" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D195" s="40" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E195" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="F195" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="G195" s="15" t="s">
         <v>543</v>
-      </c>
-      <c r="F195" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="G195" s="15" t="s">
-        <v>548</v>
       </c>
       <c r="K195" s="55">
         <v>1</v>
@@ -7540,17 +7534,17 @@
     </row>
     <row r="196" spans="1:11" ht="30">
       <c r="A196" s="8" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D196" s="40" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E196" s="40" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F196" s="40"/>
       <c r="G196" s="15" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="K196" s="55">
         <v>1</v>
@@ -7558,17 +7552,17 @@
     </row>
     <row r="197" spans="1:11" ht="30">
       <c r="A197" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D197" s="40" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="E197" s="40" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F197" s="40"/>
       <c r="G197" s="15" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="K197" s="55">
         <v>1</v>
@@ -7576,17 +7570,17 @@
     </row>
     <row r="198" spans="1:11" ht="30">
       <c r="A198" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D198" s="40" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E198" s="40" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F198" s="40"/>
       <c r="G198" s="15" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="K198" s="55">
         <v>1</v>
@@ -7594,17 +7588,17 @@
     </row>
     <row r="199" spans="1:11" ht="30">
       <c r="A199" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D199" s="40" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E199" s="40" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F199" s="40"/>
       <c r="G199" s="15" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K199" s="55">
         <v>1</v>
@@ -7612,17 +7606,17 @@
     </row>
     <row r="200" spans="1:11" ht="45">
       <c r="A200" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D200" s="40" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E200" s="40" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F200" s="40"/>
       <c r="G200" s="15" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K200" s="55">
         <v>1</v>
@@ -7630,17 +7624,17 @@
     </row>
     <row r="201" spans="1:11" ht="45">
       <c r="A201" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D201" s="40" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E201" s="40" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F201" s="40"/>
       <c r="G201" s="15" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K201" s="55">
         <v>1</v>
@@ -7648,17 +7642,17 @@
     </row>
     <row r="202" spans="1:11" ht="30">
       <c r="A202" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D202" s="40" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E202" s="40" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F202" s="40"/>
       <c r="G202" s="15" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K202" s="55">
         <v>1</v>
@@ -7666,17 +7660,17 @@
     </row>
     <row r="203" spans="1:11" ht="45">
       <c r="A203" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D203" s="40" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E203" s="40" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F203" s="40"/>
       <c r="G203" s="15" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="K203" s="55">
         <v>1</v>
@@ -7684,17 +7678,17 @@
     </row>
     <row r="204" spans="1:11" ht="30">
       <c r="A204" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D204" s="40" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E204" s="40" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F204" s="40"/>
       <c r="G204" s="15" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="K204" s="55">
         <v>1</v>
@@ -7702,17 +7696,17 @@
     </row>
     <row r="205" spans="1:11" ht="30">
       <c r="A205" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D205" s="40" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E205" s="40" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F205" s="40"/>
       <c r="G205" s="15" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="K205" s="55">
         <v>1</v>
@@ -7720,17 +7714,17 @@
     </row>
     <row r="206" spans="1:11" ht="30">
       <c r="A206" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D206" s="40" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E206" s="40" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F206" s="40"/>
       <c r="G206" s="15" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K206" s="55">
         <v>1</v>
@@ -7738,17 +7732,17 @@
     </row>
     <row r="207" spans="1:11" ht="45">
       <c r="A207" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D207" s="40" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="E207" s="40" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F207" s="40"/>
       <c r="G207" s="15" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K207" s="55">
         <v>1</v>
@@ -7756,17 +7750,17 @@
     </row>
     <row r="208" spans="1:11" ht="45">
       <c r="A208" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D208" s="40" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E208" s="40" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F208" s="40"/>
       <c r="G208" s="15" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="K208" s="55">
         <v>1</v>
@@ -7774,13 +7768,13 @@
     </row>
     <row r="209" spans="1:11" ht="105">
       <c r="A209" s="8" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D209" s="40" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="E209" s="40" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F209" s="42" t="s">
         <v>52</v>
@@ -7792,16 +7786,16 @@
     </row>
     <row r="210" spans="1:11" ht="30">
       <c r="A210" s="8" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D210" s="40" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E210" s="40" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F210" s="40" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G210" s="29"/>
       <c r="K210" s="55">
@@ -7810,17 +7804,17 @@
     </row>
     <row r="211" spans="1:11" ht="30">
       <c r="A211" s="8" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D211" s="40" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E211" s="40" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F211" s="40"/>
       <c r="G211" s="15" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="K211" s="55">
         <v>1</v>
@@ -7828,17 +7822,17 @@
     </row>
     <row r="212" spans="1:11" ht="30">
       <c r="A212" s="8" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D212" s="43" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E212" s="40" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F212" s="40"/>
       <c r="G212" s="15" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K212" s="55">
         <v>1</v>
@@ -7846,17 +7840,17 @@
     </row>
     <row r="213" spans="1:11" ht="30">
       <c r="A213" s="8" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D213" s="43" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E213" s="40" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F213" s="40"/>
       <c r="G213" s="15" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K213" s="55">
         <v>1</v>
@@ -7864,19 +7858,19 @@
     </row>
     <row r="214" spans="1:11" ht="30">
       <c r="A214" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D214" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="E214" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="F214" s="40" t="s">
         <v>596</v>
       </c>
-      <c r="D214" s="40" t="s">
-        <v>599</v>
-      </c>
-      <c r="E214" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="F214" s="40" t="s">
-        <v>601</v>
-      </c>
       <c r="G214" s="15" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="K214" s="55">
         <v>1</v>
@@ -7884,19 +7878,19 @@
     </row>
     <row r="215" spans="1:11" ht="45">
       <c r="A215" s="8" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D215" s="40" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E215" s="40" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="F215" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="G215" s="15" t="s">
         <v>604</v>
-      </c>
-      <c r="G215" s="15" t="s">
-        <v>609</v>
       </c>
       <c r="K215" s="55">
         <v>1</v>
@@ -7904,17 +7898,17 @@
     </row>
     <row r="216" spans="1:11" ht="15">
       <c r="A216" s="8" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D216" s="40" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E216" s="40" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F216" s="40"/>
       <c r="G216" s="15" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K216" s="55">
         <v>1</v>
@@ -7922,17 +7916,17 @@
     </row>
     <row r="217" spans="1:11" ht="30">
       <c r="A217" s="8" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D217" s="40" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E217" s="40" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F217" s="40"/>
       <c r="G217" s="15" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="K217" s="55">
         <v>1</v>
@@ -7940,17 +7934,17 @@
     </row>
     <row r="218" spans="1:11" ht="45">
       <c r="A218" s="8" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D218" s="40" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="E218" s="40" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F218" s="40"/>
       <c r="G218" s="15" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="K218" s="55">
         <v>1</v>
@@ -7958,17 +7952,17 @@
     </row>
     <row r="219" spans="1:11" ht="30">
       <c r="A219" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D219" s="40" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E219" s="40" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F219" s="40"/>
       <c r="G219" s="15" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="K219" s="55">
         <v>1</v>
@@ -7976,17 +7970,17 @@
     </row>
     <row r="220" spans="1:11" ht="30">
       <c r="A220" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D220" s="40" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E220" s="40" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F220" s="40"/>
       <c r="G220" s="15" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="K220" s="55">
         <v>1</v>
@@ -7994,15 +7988,15 @@
     </row>
     <row r="221" spans="1:11" ht="60">
       <c r="A221" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D221" s="40" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E221" s="40"/>
       <c r="F221" s="40"/>
       <c r="G221" s="15" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="K221" s="55">
         <v>1</v>
@@ -8010,17 +8004,17 @@
     </row>
     <row r="222" spans="1:11" ht="30">
       <c r="A222" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D222" s="40" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E222" s="40" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F222" s="40"/>
       <c r="G222" s="15" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="K222" s="55">
         <v>1</v>
@@ -8028,17 +8022,17 @@
     </row>
     <row r="223" spans="1:11" ht="30">
       <c r="A223" s="8" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D223" s="40" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E223" s="40" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F223" s="40"/>
       <c r="G223" s="15" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="K223" s="55">
         <v>1</v>
@@ -8046,17 +8040,17 @@
     </row>
     <row r="224" spans="1:11" ht="45">
       <c r="A224" s="8" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="D224" s="40" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E224" s="40" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F224" s="44"/>
       <c r="G224" s="15" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="K224" s="55">
         <v>1</v>
@@ -8064,17 +8058,17 @@
     </row>
     <row r="225" spans="1:11" ht="30">
       <c r="A225" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E225" s="40" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F225" s="40"/>
       <c r="G225" s="15" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="K225" s="55">
         <v>1</v>
@@ -8082,17 +8076,17 @@
     </row>
     <row r="226" spans="1:11" ht="30">
       <c r="A226" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="D226" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="D226" s="39" t="s">
-        <v>639</v>
-      </c>
       <c r="E226" s="40" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="F226" s="40"/>
       <c r="G226" s="15" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="K226" s="55">
         <v>1</v>
@@ -8100,17 +8094,17 @@
     </row>
     <row r="227" spans="1:11" ht="15">
       <c r="A227" s="8" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D227" s="39" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E227" s="40" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F227" s="40"/>
       <c r="G227" s="15" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="K227" s="55">
         <v>1</v>
@@ -8118,19 +8112,19 @@
     </row>
     <row r="228" spans="1:11" ht="30">
       <c r="A228" s="8" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D228" s="39" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E228" s="40" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F228" s="40" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="K228" s="55">
         <v>1</v>
@@ -8138,17 +8132,17 @@
     </row>
     <row r="229" spans="1:11" ht="30">
       <c r="A229" s="8" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D229" s="39" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E229" s="40" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F229" s="40"/>
       <c r="G229" s="15" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="K229" s="55">
         <v>1</v>
@@ -8156,19 +8150,19 @@
     </row>
     <row r="230" spans="1:11" ht="15">
       <c r="A230" s="8" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D230" s="39" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E230" s="40" t="s">
+        <v>645</v>
+      </c>
+      <c r="F230" s="40" t="s">
+        <v>646</v>
+      </c>
+      <c r="G230" s="15" t="s">
         <v>650</v>
-      </c>
-      <c r="F230" s="40" t="s">
-        <v>651</v>
-      </c>
-      <c r="G230" s="15" t="s">
-        <v>655</v>
       </c>
       <c r="K230" s="55">
         <v>1</v>
@@ -8176,17 +8170,17 @@
     </row>
     <row r="231" spans="1:11" ht="15">
       <c r="A231" s="8" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D231" s="39" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E231" s="40" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F231" s="40"/>
       <c r="G231" s="15" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="K231" s="55">
         <v>1</v>
@@ -8194,19 +8188,19 @@
     </row>
     <row r="232" spans="1:11" ht="30">
       <c r="A232" s="8" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D232" s="39" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E232" s="39" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F232" s="40" t="s">
+        <v>655</v>
+      </c>
+      <c r="G232" s="15" t="s">
         <v>660</v>
-      </c>
-      <c r="G232" s="15" t="s">
-        <v>665</v>
       </c>
       <c r="K232" s="55">
         <v>1</v>
@@ -8214,17 +8208,17 @@
     </row>
     <row r="233" spans="1:11" ht="15">
       <c r="A233" s="8" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D233" s="39" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E233" s="40" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F233" s="40"/>
       <c r="G233" s="15" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="K233" s="55">
         <v>1</v>
@@ -8232,17 +8226,17 @@
     </row>
     <row r="234" spans="1:11" ht="15">
       <c r="A234" s="8" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D234" s="39" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E234" s="40" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F234" s="40"/>
       <c r="G234" s="15" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="K234" s="55">
         <v>1</v>
@@ -8250,19 +8244,19 @@
     </row>
     <row r="235" spans="1:11" ht="45">
       <c r="A235" s="8" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D235" s="39" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F235" s="40" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="K235" s="55">
         <v>1</v>
@@ -8270,17 +8264,17 @@
     </row>
     <row r="236" spans="1:11" ht="15">
       <c r="A236" s="8" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D236" s="39" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E236" s="40" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F236" s="40"/>
       <c r="G236" s="15" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="K236" s="55">
         <v>1</v>
@@ -8288,19 +8282,19 @@
     </row>
     <row r="237" spans="1:11" ht="45">
       <c r="A237" s="8" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="D237" s="39" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E237" s="40" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F237" s="40" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="K237" s="55">
         <v>1</v>
@@ -8308,19 +8302,19 @@
     </row>
     <row r="238" spans="1:11" ht="30">
       <c r="A238" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="D238" s="39" t="s">
+        <v>669</v>
+      </c>
+      <c r="E238" s="40" t="s">
+        <v>670</v>
+      </c>
+      <c r="F238" s="40" t="s">
+        <v>671</v>
+      </c>
+      <c r="G238" s="15" t="s">
         <v>677</v>
-      </c>
-      <c r="D238" s="39" t="s">
-        <v>674</v>
-      </c>
-      <c r="E238" s="40" t="s">
-        <v>675</v>
-      </c>
-      <c r="F238" s="40" t="s">
-        <v>676</v>
-      </c>
-      <c r="G238" s="15" t="s">
-        <v>682</v>
       </c>
       <c r="K238" s="55">
         <v>1</v>
@@ -8328,17 +8322,17 @@
     </row>
     <row r="239" spans="1:11" ht="15">
       <c r="A239" s="8" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="D239" s="39" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E239" s="40" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F239" s="40"/>
       <c r="G239" s="15" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="K239" s="55">
         <v>1</v>
@@ -8346,17 +8340,17 @@
     </row>
     <row r="240" spans="1:11" ht="15">
       <c r="A240" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D240" s="39" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="E240" s="40" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="F240" s="40"/>
       <c r="G240" s="15" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="K240" s="55">
         <v>1</v>
@@ -8364,19 +8358,19 @@
     </row>
     <row r="241" spans="1:11" ht="45">
       <c r="A241" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D241" s="39" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E241" s="40" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F241" s="40" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="K241" s="55">
         <v>1</v>
@@ -8384,19 +8378,19 @@
     </row>
     <row r="242" spans="1:11" ht="45">
       <c r="A242" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D242" s="39" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E242" s="40" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F242" s="40" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="K242" s="55">
         <v>1</v>
@@ -8404,19 +8398,19 @@
     </row>
     <row r="243" spans="1:11" ht="45">
       <c r="A243" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D243" s="39" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E243" s="40" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F243" s="40" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G243" s="15" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="K243" s="55">
         <v>1</v>
@@ -8424,19 +8418,19 @@
     </row>
     <row r="244" spans="1:11" ht="60">
       <c r="A244" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D244" s="40" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E244" s="40" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F244" s="40" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="G244" s="15" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="K244" s="55">
         <v>1</v>
@@ -8444,19 +8438,19 @@
     </row>
     <row r="245" spans="1:11" ht="45">
       <c r="A245" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D245" s="45" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E245" s="39" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F245" s="40" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G245" s="15" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="K245" s="55">
         <v>1</v>
@@ -8464,19 +8458,19 @@
     </row>
     <row r="246" spans="1:11" ht="45">
       <c r="A246" s="8" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D246" s="45" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E246" s="39" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="F246" s="40" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="K246" s="55">
         <v>1</v>
@@ -8484,17 +8478,17 @@
     </row>
     <row r="247" spans="1:11" ht="45">
       <c r="A247" s="8" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E247" s="42" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F247" s="40"/>
       <c r="G247" s="46" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="H247" s="36"/>
       <c r="I247" s="37"/>
@@ -8504,17 +8498,17 @@
     </row>
     <row r="248" spans="1:11" ht="90">
       <c r="A248" s="8" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="D248" s="40" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F248" s="40"/>
       <c r="G248" s="46" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="H248" s="47"/>
       <c r="I248" s="48"/>
@@ -8524,17 +8518,17 @@
     </row>
     <row r="249" spans="1:11" ht="15">
       <c r="A249" s="8" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D249" s="39" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E249" s="39" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F249" s="40"/>
       <c r="G249" s="46" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H249" s="47"/>
       <c r="I249" s="48"/>
@@ -8544,21 +8538,21 @@
     </row>
     <row r="250" spans="1:11" ht="15.6">
       <c r="A250" s="8" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D250" s="39" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E250" s="39" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F250" s="40"/>
       <c r="G250" s="46" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="H250" s="47"/>
       <c r="I250" s="37" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="K250" s="55">
         <v>1</v>
@@ -8566,19 +8560,19 @@
     </row>
     <row r="251" spans="1:11" ht="60">
       <c r="A251" s="8" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D251" s="40" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F251" s="40" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G251" s="46" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H251" s="36"/>
       <c r="I251" s="37"/>
@@ -8588,17 +8582,17 @@
     </row>
     <row r="252" spans="1:11" ht="60">
       <c r="A252" s="8" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D252" s="40" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F252" s="40"/>
       <c r="G252" s="46" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H252" s="36"/>
       <c r="I252" s="37"/>
@@ -8608,17 +8602,17 @@
     </row>
     <row r="253" spans="1:11" ht="15.6">
       <c r="A253" s="8" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E253" s="39" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F253" s="40"/>
       <c r="G253" s="46" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="H253" s="36"/>
       <c r="I253" s="37"/>
@@ -8628,19 +8622,19 @@
     </row>
     <row r="254" spans="1:11" ht="45">
       <c r="A254" s="8" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="D254" s="42" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E254" s="42" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F254" s="40" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G254" s="46" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H254" s="36"/>
       <c r="I254" s="37"/>
@@ -8650,17 +8644,17 @@
     </row>
     <row r="255" spans="1:11" ht="45">
       <c r="A255" s="8" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="D255" s="42" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="E255" s="42" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F255" s="40"/>
       <c r="G255" s="46" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H255" s="36"/>
       <c r="I255" s="37"/>
@@ -8670,17 +8664,17 @@
     </row>
     <row r="256" spans="1:11" ht="75">
       <c r="A256" s="8" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="E256" s="42" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F256" s="40"/>
       <c r="G256" s="46" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H256" s="36"/>
       <c r="I256" s="37"/>
@@ -8690,17 +8684,17 @@
     </row>
     <row r="257" spans="1:11" ht="75">
       <c r="A257" s="8" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="E257" s="42" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F257" s="40"/>
       <c r="G257" s="46" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="H257" s="36"/>
       <c r="I257" s="37"/>
@@ -8710,17 +8704,17 @@
     </row>
     <row r="258" spans="1:11" ht="90">
       <c r="A258" s="8" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="D258" s="42" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E258" s="42" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F258" s="40"/>
       <c r="G258" s="46" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H258" s="36"/>
       <c r="I258" s="37"/>
@@ -8730,21 +8724,21 @@
     </row>
     <row r="259" spans="1:11" ht="60">
       <c r="A259" s="8" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E259" s="42" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="F259" s="40"/>
       <c r="G259" s="46" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="H259" s="36"/>
       <c r="I259" s="37" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="K259" s="55">
         <v>1</v>
@@ -8752,21 +8746,21 @@
     </row>
     <row r="260" spans="1:11" ht="75">
       <c r="A260" s="8" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="F260" s="40"/>
       <c r="G260" s="46" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H260" s="36"/>
       <c r="I260" s="37" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="K260" s="55">
         <v>1</v>
@@ -8774,17 +8768,17 @@
     </row>
     <row r="261" spans="1:11" ht="75">
       <c r="A261" s="8" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E261" s="42" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="F261" s="40"/>
       <c r="G261" s="46" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="H261" s="36"/>
       <c r="I261" s="37"/>
@@ -8794,17 +8788,17 @@
     </row>
     <row r="262" spans="1:11" ht="45">
       <c r="A262" s="8" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D262" s="42" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="F262" s="40"/>
       <c r="G262" s="46" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H262" s="36"/>
       <c r="I262" s="37"/>
@@ -8820,33 +8814,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="H3" t="s">
-        <v>312</v>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="890">
   <si>
     <t>সহজে বহনীয়</t>
   </si>
@@ -947,9 +947,6 @@
     <t>190.Chapter-p1-14.xhtml</t>
   </si>
   <si>
-    <t>১৫.১ ডিস্ট্রিবিউশন বোর্ড: বাসা-বাড়ি,</t>
-  </si>
-  <si>
     <t>ডিস্ট্রিবিউশন বোর্ড</t>
   </si>
   <si>
@@ -959,9 +956,6 @@
     <t>200.Chapter-p1-15.xhtml</t>
   </si>
   <si>
-    <t xml:space="preserve">চেঞ্জ ওভার সুইচ: একই লোড </t>
-  </si>
-  <si>
     <t xml:space="preserve">চেঞ্জ ওভার সুইচ </t>
   </si>
   <si>
@@ -974,98 +968,22 @@
     <t>210.Chapter-p1-16.xhtml</t>
   </si>
   <si>
-    <t xml:space="preserve">৩। প্লাগ ফিউজ </t>
-  </si>
-  <si>
     <t xml:space="preserve">প্লাগ ফিউজ </t>
   </si>
   <si>
-    <t>৪। টাইম রিলে ফিউজ</t>
-  </si>
-  <si>
     <t>টাইম রিলে ফিউজ</t>
   </si>
   <si>
-    <t>৫। ওপেন ফিউজ</t>
-  </si>
-  <si>
     <t>ওপেন ফিউজ</t>
   </si>
   <si>
-    <t>৬। এইচ আর সি ফিউজ ইত্যাদি।</t>
-  </si>
-  <si>
     <t>এইচ আর সি ফিউজ ইত্যাদি।</t>
   </si>
   <si>
-    <t>১। এয়ার সার্কিট ব্রেকার</t>
-  </si>
-  <si>
     <t>এয়ার সার্কিট ব্রেকার</t>
   </si>
   <si>
-    <t>২। ওয়েল সার্কিট ব্রেকার</t>
-  </si>
-  <si>
     <t>ওয়েল সার্কিট ব্রেকার</t>
-  </si>
-  <si>
-    <t xml:space="preserve">৩। ইএলসিবি (ELCB) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ইএলসিবি (ELCB) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">৪। এমসিবি (MCB) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">এমসিবি (MCB) </t>
-  </si>
-  <si>
-    <t>৫। এমসিসিবি(MCCB) এবং</t>
-  </si>
-  <si>
-    <t>এমসিসিবি(MCCB) এবং</t>
-  </si>
-  <si>
-    <r>
-      <t>৬। সালফার হেক্সা-ফ্লোরাইড (SF</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="NikoshBAN"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="NikoshBAN"/>
-      </rPr>
-      <t>) সার্কিট ব্রেকার ।</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>সালফার হেক্সা-ফ্লোরাইড (SF</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="NikoshBAN"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="NikoshBAN"/>
-      </rPr>
-      <t>) সার্কিট ব্রেকার ।</t>
-    </r>
   </si>
   <si>
     <t>image117001.jpg</t>
@@ -2834,6 +2752,72 @@
   <si>
     <t>Chapter Name Problem</t>
   </si>
+  <si>
+    <t>১৫.১ ডিস্ট্রিবিউশন বোর্ড</t>
+  </si>
+  <si>
+    <t>১৬.৫ চেঞ্জ ওভার সুইচ:</t>
+  </si>
+  <si>
+    <t>৩. প্লাগ ফিউজ</t>
+  </si>
+  <si>
+    <t>ELCB</t>
+  </si>
+  <si>
+    <t>এম সি বি (MCB)</t>
+  </si>
+  <si>
+    <t>MCCB</t>
+  </si>
+  <si>
+    <r>
+      <t>সালফার হেক্সা-ফ্লোরাইড(SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)সার্কিট ব্রেকার</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>সালফার হেক্সা-ফ্লোরাইড(SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Vrinda"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Vrinda"/>
+        <family val="2"/>
+      </rPr>
+      <t>)সার্কিট ব্রেকার</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2843,7 +2827,7 @@
     <numFmt numFmtId="164" formatCode="[$-5000445]0.#"/>
     <numFmt numFmtId="165" formatCode="[$-5000445]0.##"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2883,11 +2867,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <name val="NikoshBAN"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2993,8 +2972,40 @@
       <sz val="12"/>
       <name val="SolaimanLipi"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Vrinda"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Vrinda"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Vrinda"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="NikoshBAN"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3025,6 +3036,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3037,9 +3060,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3144,62 +3167,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3211,12 +3234,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -3250,8 +3273,23 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3526,7 +3564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3941,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="D253" sqref="D253"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -3997,7 +4035,7 @@
     </row>
     <row r="2" spans="1:11" ht="82.8">
       <c r="A2" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>51</v>
@@ -4017,7 +4055,7 @@
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>53</v>
@@ -4034,10 +4072,10 @@
     </row>
     <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>133</v>
@@ -4054,13 +4092,13 @@
     </row>
     <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="E5" s="49" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="15" t="s">
@@ -4072,13 +4110,13 @@
     </row>
     <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="E6" s="49" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="G6" s="55" t="s">
         <v>62</v>
@@ -4089,7 +4127,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="56" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -4109,7 +4147,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="56" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -4129,13 +4167,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>65</v>
@@ -4146,13 +4184,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="G10" s="55" t="s">
         <v>66</v>
@@ -4163,13 +4201,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>67</v>
@@ -4180,13 +4218,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>68</v>
@@ -4197,13 +4235,13 @@
     </row>
     <row r="13" spans="1:11" ht="16.8">
       <c r="A13" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="G13" s="55" t="s">
         <v>69</v>
@@ -4214,13 +4252,13 @@
     </row>
     <row r="14" spans="1:11" ht="16.8">
       <c r="A14" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="G14" s="55" t="s">
         <v>70</v>
@@ -4231,13 +4269,13 @@
     </row>
     <row r="15" spans="1:11" ht="16.8">
       <c r="A15" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>71</v>
@@ -4248,13 +4286,13 @@
     </row>
     <row r="16" spans="1:11" ht="16.8">
       <c r="A16" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>72</v>
@@ -4265,13 +4303,13 @@
     </row>
     <row r="17" spans="1:13" ht="15">
       <c r="A17" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="E17" s="52" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>73</v>
@@ -4282,7 +4320,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>59</v>
@@ -4299,13 +4337,13 @@
     </row>
     <row r="19" spans="1:13" ht="18">
       <c r="A19" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>75</v>
@@ -4316,13 +4354,13 @@
     </row>
     <row r="20" spans="1:13" ht="15">
       <c r="A20" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="E20" s="52" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>76</v>
@@ -4333,13 +4371,13 @@
     </row>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>77</v>
@@ -4350,13 +4388,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>78</v>
@@ -4367,13 +4405,13 @@
     </row>
     <row r="23" spans="1:13" ht="17.399999999999999">
       <c r="A23" s="8" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>79</v>
@@ -4384,15 +4422,15 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="61" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="D24" s="62" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="E24" s="62" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="F24" s="61"/>
       <c r="G24" s="61" t="s">
@@ -4409,7 +4447,7 @@
     </row>
     <row r="25" spans="1:13" ht="41.4">
       <c r="A25" s="8" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>81</v>
@@ -4426,7 +4464,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>83</v>
@@ -4443,10 +4481,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>84</v>
@@ -4460,10 +4498,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>85</v>
@@ -4477,10 +4515,10 @@
     </row>
     <row r="29" spans="1:13" ht="15">
       <c r="A29" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>135</v>
@@ -4494,10 +4532,10 @@
     </row>
     <row r="30" spans="1:13" ht="15">
       <c r="A30" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>136</v>
@@ -4511,10 +4549,10 @@
     </row>
     <row r="31" spans="1:13" ht="30">
       <c r="A31" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>137</v>
@@ -4528,10 +4566,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>138</v>
@@ -4545,10 +4583,10 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>86</v>
@@ -4562,10 +4600,10 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>87</v>
@@ -4579,10 +4617,10 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>88</v>
@@ -4596,13 +4634,13 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>155</v>
@@ -4613,10 +4651,10 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="E37" s="23" t="s">
         <v>89</v>
@@ -4630,10 +4668,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>90</v>
@@ -4647,10 +4685,10 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>91</v>
@@ -4664,10 +4702,10 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>92</v>
@@ -4681,13 +4719,13 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D41" s="50" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="G41" s="55" t="s">
         <v>160</v>
@@ -4698,10 +4736,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>93</v>
@@ -4715,10 +4753,10 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>94</v>
@@ -4732,13 +4770,13 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="G44" s="55" t="s">
         <v>163</v>
@@ -4749,10 +4787,10 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>95</v>
@@ -4766,10 +4804,10 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>96</v>
@@ -4783,10 +4821,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>58</v>
@@ -4800,10 +4838,10 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>97</v>
@@ -4817,13 +4855,13 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G49" s="55" t="s">
         <v>168</v>
@@ -4834,10 +4872,10 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="E50" s="24" t="s">
         <v>98</v>
@@ -4851,10 +4889,10 @@
     </row>
     <row r="51" spans="1:11" ht="27.6">
       <c r="A51" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="E51" s="24" t="s">
         <v>99</v>
@@ -4868,10 +4906,10 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="E52" s="24" t="s">
         <v>100</v>
@@ -4885,10 +4923,10 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="E53" s="24" t="s">
         <v>101</v>
@@ -4902,10 +4940,10 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="E54" s="24" t="s">
         <v>139</v>
@@ -4919,10 +4957,10 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>140</v>
@@ -4936,10 +4974,10 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>141</v>
@@ -4953,7 +4991,7 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="B57" s="58"/>
       <c r="C57" s="58"/>
@@ -4973,10 +5011,10 @@
     </row>
     <row r="58" spans="1:11" ht="27.6">
       <c r="A58" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>102</v>
@@ -4990,15 +5028,15 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="B59" s="61"/>
       <c r="C59" s="61"/>
       <c r="D59" s="62" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="E59" s="62" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="F59" s="61"/>
       <c r="G59" s="61" t="s">
@@ -5013,10 +5051,10 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>103</v>
@@ -5030,10 +5068,10 @@
     </row>
     <row r="61" spans="1:11" ht="27.6">
       <c r="A61" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="E61" s="24" t="s">
         <v>104</v>
@@ -5047,10 +5085,10 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="E62" s="24" t="s">
         <v>105</v>
@@ -5064,10 +5102,10 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E63" s="24" t="s">
         <v>106</v>
@@ -5081,10 +5119,10 @@
     </row>
     <row r="64" spans="1:11" ht="27.6">
       <c r="A64" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>107</v>
@@ -5098,10 +5136,10 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>108</v>
@@ -5115,10 +5153,10 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>109</v>
@@ -5132,13 +5170,13 @@
     </row>
     <row r="67" spans="1:11" ht="27.6">
       <c r="A67" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="G67" s="55" t="s">
         <v>186</v>
@@ -5149,10 +5187,10 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="E68" s="24" t="s">
         <v>110</v>
@@ -5166,10 +5204,10 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>111</v>
@@ -5183,10 +5221,10 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>112</v>
@@ -5200,10 +5238,10 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>113</v>
@@ -5217,10 +5255,10 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>114</v>
@@ -5234,10 +5272,10 @@
     </row>
     <row r="73" spans="1:11" ht="27.6">
       <c r="A73" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>115</v>
@@ -5251,13 +5289,13 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="G74" s="55" t="s">
         <v>193</v>
@@ -5268,10 +5306,10 @@
     </row>
     <row r="75" spans="1:11" ht="27.6">
       <c r="A75" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>116</v>
@@ -5285,10 +5323,10 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D76" s="24" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>117</v>
@@ -5302,10 +5340,10 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D77" s="24" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>118</v>
@@ -5319,13 +5357,13 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>197</v>
@@ -5336,10 +5374,10 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D79" s="24" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>143</v>
@@ -5353,10 +5391,10 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D80" s="24" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>144</v>
@@ -5370,13 +5408,13 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="E81" s="50" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="G81" s="55" t="s">
         <v>200</v>
@@ -5387,10 +5425,10 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="E82" s="24" t="s">
         <v>119</v>
@@ -5404,10 +5442,10 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D83" s="24" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="E83" s="24" t="s">
         <v>120</v>
@@ -5421,10 +5459,10 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="E84" s="24" t="s">
         <v>121</v>
@@ -5438,10 +5476,10 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>122</v>
@@ -5455,7 +5493,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>123</v>
@@ -5472,7 +5510,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>124</v>
@@ -5489,10 +5527,10 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D88" s="24" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="E88" s="24" t="s">
         <v>125</v>
@@ -5506,13 +5544,13 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="E89" s="50" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>208</v>
@@ -5523,13 +5561,13 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D90" s="50" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="E90" s="50" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="G90" s="55" t="s">
         <v>209</v>
@@ -5540,10 +5578,10 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D91" s="24" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="E91" s="24" t="s">
         <v>126</v>
@@ -5557,7 +5595,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>127</v>
@@ -5574,7 +5612,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>128</v>
@@ -5591,10 +5629,10 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>129</v>
@@ -5608,10 +5646,10 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>130</v>
@@ -5625,13 +5663,13 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D96" s="50" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="E96" s="50" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="G96" s="55" t="s">
         <v>215</v>
@@ -5642,10 +5680,10 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="8" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="D97" s="24" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="E97" s="24" t="s">
         <v>131</v>
@@ -5659,12 +5697,12 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="55" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="B98" s="55"/>
       <c r="C98" s="55"/>
       <c r="D98" s="65" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>132</v>
@@ -5682,10 +5720,10 @@
     </row>
     <row r="99" spans="1:11" ht="16.8">
       <c r="A99" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D99" s="53" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>218</v>
@@ -5699,10 +5737,10 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="E100" s="31" t="s">
         <v>219</v>
@@ -5716,10 +5754,10 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="E101" s="31" t="s">
         <v>220</v>
@@ -5733,10 +5771,10 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="E102" s="31" t="s">
         <v>221</v>
@@ -5750,10 +5788,10 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="E103" s="31" t="s">
         <v>222</v>
@@ -5767,10 +5805,10 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="D104" s="31" t="s">
         <v>865</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>881</v>
       </c>
       <c r="E104" s="31" t="s">
         <v>234</v>
@@ -5784,13 +5822,13 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="E105" s="31" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="G105" s="55" t="s">
         <v>241</v>
@@ -5801,13 +5839,13 @@
     </row>
     <row r="106" spans="1:11" ht="15">
       <c r="A106" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D106" s="63" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="E106" s="63" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="G106" s="55" t="s">
         <v>242</v>
@@ -5818,10 +5856,10 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="E107" s="31" t="s">
         <v>223</v>
@@ -5835,10 +5873,10 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>224</v>
@@ -5852,10 +5890,10 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="E109" s="31" t="s">
         <v>225</v>
@@ -5869,10 +5907,10 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="E110" s="31" t="s">
         <v>226</v>
@@ -5886,10 +5924,10 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="E111" s="31" t="s">
         <v>227</v>
@@ -5903,10 +5941,10 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="E112" s="31" t="s">
         <v>228</v>
@@ -5920,10 +5958,10 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="E113" s="31" t="s">
         <v>229</v>
@@ -5937,10 +5975,10 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="E114" s="31" t="s">
         <v>230</v>
@@ -5954,10 +5992,10 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="E115" s="31" t="s">
         <v>231</v>
@@ -5971,10 +6009,10 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="E116" s="31" t="s">
         <v>232</v>
@@ -5988,10 +6026,10 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="8" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="E117" s="31" t="s">
         <v>233</v>
@@ -6005,15 +6043,15 @@
     </row>
     <row r="118" spans="1:11" ht="15">
       <c r="A118" s="55" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="B118" s="55"/>
       <c r="C118" s="55"/>
       <c r="D118" s="64" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="E118" s="64" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="F118" s="55"/>
       <c r="G118" s="15" t="s">
@@ -6118,7 +6156,7 @@
         <v>269</v>
       </c>
       <c r="E123" s="66" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="F123" s="55"/>
       <c r="G123" s="55" t="s">
@@ -6176,7 +6214,7 @@
         <v>280</v>
       </c>
       <c r="D126" s="50" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>277</v>
@@ -6196,10 +6234,10 @@
         <v>280</v>
       </c>
       <c r="D127" s="63" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="G127" s="70" t="s">
         <v>290</v>
@@ -6213,7 +6251,7 @@
         <v>280</v>
       </c>
       <c r="D128" s="63" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="E128" s="28" t="s">
         <v>281</v>
@@ -6331,7 +6369,7 @@
       <c r="B134" s="73"/>
       <c r="C134" s="73"/>
       <c r="D134" s="74" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="E134" s="75" t="s">
         <v>301</v>
@@ -6348,7 +6386,7 @@
       </c>
     </row>
     <row r="135" spans="1:11" ht="30">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="55" t="s">
         <v>307</v>
       </c>
       <c r="D135" s="10" t="s">
@@ -6364,39 +6402,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="27.6">
+    <row r="136" spans="1:11" ht="17.399999999999999">
       <c r="A136" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D136" s="77" t="s">
+        <v>882</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F136" s="16"/>
+      <c r="G136" s="70" t="s">
+        <v>309</v>
+      </c>
+      <c r="K136" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" ht="43.2">
+      <c r="A137" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="D137" s="63" t="s">
+        <v>883</v>
+      </c>
+      <c r="E137" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="D136" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F136" s="16"/>
-      <c r="G136" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="K136" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" ht="41.4">
-      <c r="A137" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D137" s="20" t="s">
+      <c r="F137" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="E137" s="20" t="s">
+      <c r="G137" s="70" t="s">
         <v>313</v>
-      </c>
-      <c r="F137" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="G137" s="27" t="s">
-        <v>315</v>
       </c>
       <c r="K137" s="55">
         <v>1</v>
@@ -6404,17 +6442,17 @@
     </row>
     <row r="138" spans="1:11" ht="15.6">
       <c r="A138" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D138" s="33" t="s">
-        <v>317</v>
+        <v>331</v>
+      </c>
+      <c r="D138" s="50" t="s">
+        <v>884</v>
       </c>
       <c r="E138" s="33" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F138" s="28"/>
-      <c r="G138" s="27" t="s">
-        <v>337</v>
+      <c r="G138" s="70" t="s">
+        <v>321</v>
       </c>
       <c r="K138" s="55">
         <v>1</v>
@@ -6422,17 +6460,17 @@
     </row>
     <row r="139" spans="1:11" ht="15.6">
       <c r="A139" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F139" s="28"/>
-      <c r="G139" s="27" t="s">
-        <v>338</v>
+      <c r="G139" s="70" t="s">
+        <v>322</v>
       </c>
       <c r="K139" s="55">
         <v>1</v>
@@ -6440,17 +6478,17 @@
     </row>
     <row r="140" spans="1:11" ht="15.6">
       <c r="A140" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D140" s="33" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F140" s="28"/>
-      <c r="G140" s="27" t="s">
-        <v>339</v>
+      <c r="G140" s="70" t="s">
+        <v>323</v>
       </c>
       <c r="K140" s="55">
         <v>1</v>
@@ -6458,53 +6496,53 @@
     </row>
     <row r="141" spans="1:11" ht="27.6">
       <c r="A141" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E141" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="F141" s="28"/>
+      <c r="G141" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="F141" s="28"/>
-      <c r="G141" s="27" t="s">
-        <v>340</v>
-      </c>
       <c r="K141" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="27.6">
+    <row r="142" spans="1:11" ht="15.6">
       <c r="A142" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D142" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="E142" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="F142" s="16"/>
+      <c r="G142" s="70" t="s">
         <v>325</v>
       </c>
-      <c r="E142" s="33" t="s">
+      <c r="K142" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" ht="15.6">
+      <c r="A143" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D143" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E143" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="F143" s="16"/>
+      <c r="G143" s="70" t="s">
         <v>326</v>
-      </c>
-      <c r="F142" s="16"/>
-      <c r="G142" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="K142" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="27.6">
-      <c r="A143" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D143" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="E143" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="F143" s="16"/>
-      <c r="G143" s="27" t="s">
-        <v>342</v>
       </c>
       <c r="K143" s="55">
         <v>1</v>
@@ -6512,17 +6550,17 @@
     </row>
     <row r="144" spans="1:11" ht="15.6">
       <c r="A144" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D144" s="33" t="s">
-        <v>329</v>
+        <v>885</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>330</v>
+        <v>885</v>
       </c>
       <c r="F144" s="16"/>
-      <c r="G144" s="27" t="s">
-        <v>343</v>
+      <c r="G144" s="70" t="s">
+        <v>327</v>
       </c>
       <c r="K144" s="55">
         <v>1</v>
@@ -6530,70 +6568,75 @@
     </row>
     <row r="145" spans="1:11" ht="15.6">
       <c r="A145" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D145" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="E145" s="33" t="s">
-        <v>332</v>
+      <c r="D145" s="78" t="s">
+        <v>886</v>
+      </c>
+      <c r="E145" s="78" t="s">
+        <v>886</v>
       </c>
       <c r="F145" s="16"/>
-      <c r="G145" s="27" t="s">
-        <v>344</v>
+      <c r="G145" s="70" t="s">
+        <v>328</v>
       </c>
       <c r="K145" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="27.6">
+    <row r="146" spans="1:11" ht="15.6">
       <c r="A146" s="8" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D146" s="33" t="s">
-        <v>333</v>
+        <v>887</v>
       </c>
       <c r="E146" s="33" t="s">
-        <v>334</v>
+        <v>887</v>
       </c>
       <c r="F146" s="16"/>
-      <c r="G146" s="27" t="s">
-        <v>345</v>
+      <c r="G146" s="70" t="s">
+        <v>329</v>
       </c>
       <c r="K146" s="55">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="43.8">
-      <c r="A147" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="D147" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="E147" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="F147" s="16"/>
-      <c r="G147" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="K147" s="55">
+    <row r="147" spans="1:11" ht="16.8">
+      <c r="A147" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="B147" s="79"/>
+      <c r="C147" s="79"/>
+      <c r="D147" s="80" t="s">
+        <v>888</v>
+      </c>
+      <c r="E147" s="80" t="s">
+        <v>889</v>
+      </c>
+      <c r="F147" s="81"/>
+      <c r="G147" s="82" t="s">
+        <v>330</v>
+      </c>
+      <c r="H147" s="79"/>
+      <c r="I147" s="79"/>
+      <c r="J147" s="79"/>
+      <c r="K147" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="27.6">
       <c r="A148" s="8" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="G148" s="27" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="K148" s="55">
         <v>1</v>
@@ -6601,17 +6644,17 @@
     </row>
     <row r="149" spans="1:11" ht="41.4">
       <c r="A149" s="8" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="27" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="K149" s="55">
         <v>1</v>
@@ -6619,17 +6662,17 @@
     </row>
     <row r="150" spans="1:11" ht="27.6">
       <c r="A150" s="8" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="27" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="K150" s="55">
         <v>1</v>
@@ -6637,17 +6680,17 @@
     </row>
     <row r="151" spans="1:11" ht="15.6">
       <c r="A151" s="8" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="27" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="K151" s="55">
         <v>1</v>
@@ -6655,19 +6698,19 @@
     </row>
     <row r="152" spans="1:11" ht="41.4">
       <c r="A152" s="8" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="D152" s="34" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="G152" s="27" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="K152" s="55">
         <v>1</v>
@@ -6675,16 +6718,16 @@
     </row>
     <row r="153" spans="1:11" ht="45">
       <c r="A153" s="8" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="G153" s="27" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="K153" s="55">
         <v>1</v>
@@ -6692,16 +6735,16 @@
     </row>
     <row r="154" spans="1:11" ht="27.6">
       <c r="A154" s="8" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D154" s="20" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E154" s="17" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="F154" s="17" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="G154" s="30"/>
       <c r="K154" s="55">
@@ -6710,21 +6753,21 @@
     </row>
     <row r="155" spans="1:11" ht="82.8">
       <c r="A155" s="8" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D155" s="35" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E155" s="35" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="29" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="H155" s="36"/>
       <c r="I155" s="37" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="K155" s="55">
         <v>1</v>
@@ -6732,19 +6775,19 @@
     </row>
     <row r="156" spans="1:11" ht="69">
       <c r="A156" s="8" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D156" s="35" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E156" s="35" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="G156" s="29" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="H156" s="36"/>
       <c r="I156" s="37"/>
@@ -6754,17 +6797,17 @@
     </row>
     <row r="157" spans="1:11" ht="69">
       <c r="A157" s="8" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="D157" s="35" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="E157" s="35" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="29" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="H157" s="36"/>
       <c r="I157" s="37"/>
@@ -6774,20 +6817,20 @@
     </row>
     <row r="158" spans="1:11" ht="124.2">
       <c r="A158" s="8" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D158" s="35" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E158" s="35" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="F158" s="38"/>
       <c r="G158" s="29" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="H158" s="36" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="I158" s="37"/>
       <c r="K158" s="55">
@@ -6796,17 +6839,17 @@
     </row>
     <row r="159" spans="1:11" ht="82.8">
       <c r="A159" s="8" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D159" s="35" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E159" s="35" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="F159" s="38"/>
       <c r="G159" s="29" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="H159" s="36"/>
       <c r="I159" s="37"/>
@@ -6816,17 +6859,17 @@
     </row>
     <row r="160" spans="1:11" ht="69">
       <c r="A160" s="8" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="D160" s="35" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="E160" s="35" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="29" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="H160" s="36"/>
       <c r="I160" s="37"/>
@@ -6836,21 +6879,21 @@
     </row>
     <row r="161" spans="1:11" ht="41.4">
       <c r="A161" s="8" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D161" s="35" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="E161" s="35" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="29" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="H161" s="36"/>
       <c r="I161" s="37" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="K161" s="55">
         <v>1</v>
@@ -6858,17 +6901,17 @@
     </row>
     <row r="162" spans="1:11" ht="55.2">
       <c r="A162" s="8" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D162" s="35" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="E162" s="35" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="29" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="H162" s="36"/>
       <c r="I162" s="37"/>
@@ -6878,17 +6921,17 @@
     </row>
     <row r="163" spans="1:11" ht="41.4">
       <c r="A163" s="8" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="D163" s="35" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="E163" s="35" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="29" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="H163" s="36"/>
       <c r="I163" s="37"/>
@@ -6898,21 +6941,21 @@
     </row>
     <row r="164" spans="1:11" ht="69">
       <c r="A164" s="8" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E164" s="35" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="F164" s="38"/>
       <c r="G164" s="29" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="H164" s="36"/>
       <c r="I164" s="37" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="K164" s="55">
         <v>1</v>
@@ -6920,21 +6963,21 @@
     </row>
     <row r="165" spans="1:11" ht="41.4">
       <c r="A165" s="8" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="E165" s="35" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="F165" s="38"/>
       <c r="G165" s="29" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="H165" s="36"/>
       <c r="I165" s="37" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="K165" s="55">
         <v>1</v>
@@ -6942,20 +6985,20 @@
     </row>
     <row r="166" spans="1:11" ht="110.4">
       <c r="A166" s="8" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E166" s="35" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="29" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="H166" s="36" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="I166" s="37"/>
       <c r="K166" s="55">
@@ -6964,21 +7007,21 @@
     </row>
     <row r="167" spans="1:11" ht="96.6">
       <c r="A167" s="8" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="E167" s="35" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="29" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="H167" s="36"/>
       <c r="I167" s="37" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="K167" s="55">
         <v>1</v>
@@ -6986,17 +7029,17 @@
     </row>
     <row r="168" spans="1:11" ht="69">
       <c r="A168" s="8" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="E168" s="35" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="29" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="H168" s="36"/>
       <c r="I168" s="37"/>
@@ -7006,21 +7049,21 @@
     </row>
     <row r="169" spans="1:11" ht="82.8">
       <c r="A169" s="8" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="D169" s="35" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="E169" s="35" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="29" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="H169" s="36"/>
       <c r="I169" s="37" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="K169" s="55">
         <v>1</v>
@@ -7028,17 +7071,17 @@
     </row>
     <row r="170" spans="1:11" ht="55.2">
       <c r="A170" s="8" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D170" s="35" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E170" s="35" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="29" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="H170" s="36"/>
       <c r="I170" s="37"/>
@@ -7048,21 +7091,21 @@
     </row>
     <row r="171" spans="1:11" ht="151.80000000000001">
       <c r="A171" s="8" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D171" s="35" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="E171" s="35" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="29" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="H171" s="36"/>
       <c r="I171" s="37" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="K171" s="55">
         <v>1</v>
@@ -7070,21 +7113,21 @@
     </row>
     <row r="172" spans="1:11" ht="69">
       <c r="A172" s="8" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="D172" s="35" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E172" s="35" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="29" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="H172" s="36"/>
       <c r="I172" s="37" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="K172" s="55">
         <v>1</v>
@@ -7092,21 +7135,21 @@
     </row>
     <row r="173" spans="1:11" ht="96.6">
       <c r="A173" s="8" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D173" s="35" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="E173" s="35" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="29" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="H173" s="36"/>
       <c r="I173" s="37" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="K173" s="55">
         <v>1</v>
@@ -7114,17 +7157,17 @@
     </row>
     <row r="174" spans="1:11" ht="55.2">
       <c r="A174" s="8" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="E174" s="35" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="29" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="H174" s="36"/>
       <c r="I174" s="37"/>
@@ -7134,21 +7177,21 @@
     </row>
     <row r="175" spans="1:11" ht="69">
       <c r="A175" s="8" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="D175" s="35" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="E175" s="35" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="29" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="H175" s="36"/>
       <c r="I175" s="37" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="K175" s="55">
         <v>1</v>
@@ -7156,21 +7199,21 @@
     </row>
     <row r="176" spans="1:11" ht="82.8">
       <c r="A176" s="8" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D176" s="35" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="E176" s="35" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="F176" s="16"/>
       <c r="G176" s="29" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="H176" s="36"/>
       <c r="I176" s="37" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="K176" s="55">
         <v>1</v>
@@ -7178,23 +7221,23 @@
     </row>
     <row r="177" spans="1:11" ht="41.4">
       <c r="A177" s="8" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D177" s="35" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="E177" s="35" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="F177" s="16"/>
       <c r="G177" s="29" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="H177" s="36" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="I177" s="37" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="K177" s="55">
         <v>1</v>
@@ -7202,19 +7245,19 @@
     </row>
     <row r="178" spans="1:11" ht="45">
       <c r="A178" s="8" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D178" s="40" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="E178" s="40" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="F178" s="40" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="K178" s="55">
         <v>1</v>
@@ -7222,17 +7265,17 @@
     </row>
     <row r="179" spans="1:11" ht="15">
       <c r="A179" s="8" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D179" s="40" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="E179" s="40" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="F179" s="40"/>
       <c r="G179" s="15" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="K179" s="55">
         <v>1</v>
@@ -7240,19 +7283,19 @@
     </row>
     <row r="180" spans="1:11" ht="60">
       <c r="A180" s="8" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D180" s="40" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E180" s="40" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="F180" s="40" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="K180" s="55">
         <v>1</v>
@@ -7260,17 +7303,17 @@
     </row>
     <row r="181" spans="1:11" ht="30">
       <c r="A181" s="8" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D181" s="40" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E181" s="40" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="F181" s="40"/>
       <c r="G181" s="15" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="K181" s="55">
         <v>1</v>
@@ -7278,17 +7321,17 @@
     </row>
     <row r="182" spans="1:11" ht="15">
       <c r="A182" s="8" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D182" s="40" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="E182" s="40" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="F182" s="40"/>
       <c r="G182" s="15" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="K182" s="55">
         <v>1</v>
@@ -7296,17 +7339,17 @@
     </row>
     <row r="183" spans="1:11" ht="30">
       <c r="A183" s="8" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D183" s="40" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="E183" s="40" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="F183" s="40"/>
       <c r="G183" s="15" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="K183" s="55">
         <v>1</v>
@@ -7314,17 +7357,17 @@
     </row>
     <row r="184" spans="1:11" ht="45">
       <c r="A184" s="8" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="D184" s="40" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E184" s="40" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="F184" s="40"/>
       <c r="G184" s="15" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="K184" s="55">
         <v>1</v>
@@ -7332,19 +7375,19 @@
     </row>
     <row r="185" spans="1:11" ht="30">
       <c r="A185" s="8" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="D185" s="40" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="E185" s="40" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="F185" s="40" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="K185" s="55">
         <v>1</v>
@@ -7352,17 +7395,17 @@
     </row>
     <row r="186" spans="1:11" ht="30">
       <c r="A186" s="8" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="D186" s="40" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="E186" s="40" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="F186" s="40"/>
       <c r="G186" s="15" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="K186" s="55">
         <v>1</v>
@@ -7370,17 +7413,17 @@
     </row>
     <row r="187" spans="1:11" ht="30">
       <c r="A187" s="8" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D187" s="41" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="E187" s="41" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="F187" s="41"/>
       <c r="G187" s="15" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="K187" s="55">
         <v>1</v>
@@ -7388,17 +7431,17 @@
     </row>
     <row r="188" spans="1:11" ht="45">
       <c r="A188" s="8" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D188" s="41" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="E188" s="41" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="F188" s="41"/>
       <c r="G188" s="15" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="K188" s="55">
         <v>1</v>
@@ -7406,17 +7449,17 @@
     </row>
     <row r="189" spans="1:11" ht="30">
       <c r="A189" s="8" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D189" s="41" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E189" s="41" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="F189" s="41"/>
       <c r="G189" s="15" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="K189" s="55">
         <v>1</v>
@@ -7424,17 +7467,17 @@
     </row>
     <row r="190" spans="1:11" ht="30">
       <c r="A190" s="8" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D190" s="41" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E190" s="41" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="F190" s="41"/>
       <c r="G190" s="15" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="K190" s="55">
         <v>1</v>
@@ -7442,17 +7485,17 @@
     </row>
     <row r="191" spans="1:11" ht="30">
       <c r="A191" s="8" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D191" s="40" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="E191" s="40" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="F191" s="40"/>
       <c r="G191" s="15" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="K191" s="55">
         <v>1</v>
@@ -7460,17 +7503,17 @@
     </row>
     <row r="192" spans="1:11" ht="30">
       <c r="A192" s="8" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="D192" s="40" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="E192" s="40" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="F192" s="40"/>
       <c r="G192" s="15" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="K192" s="55">
         <v>1</v>
@@ -7478,17 +7521,17 @@
     </row>
     <row r="193" spans="1:11" ht="30">
       <c r="A193" s="8" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="D193" s="40" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="E193" s="40" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="F193" s="40"/>
       <c r="G193" s="15" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="K193" s="55">
         <v>1</v>
@@ -7496,17 +7539,17 @@
     </row>
     <row r="194" spans="1:11" ht="30">
       <c r="A194" s="8" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="D194" s="40" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="E194" s="40" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="F194" s="40"/>
       <c r="G194" s="15" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="K194" s="55">
         <v>1</v>
@@ -7514,19 +7557,19 @@
     </row>
     <row r="195" spans="1:11" ht="45">
       <c r="A195" s="8" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D195" s="40" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="E195" s="40" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="F195" s="40" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="K195" s="55">
         <v>1</v>
@@ -7534,17 +7577,17 @@
     </row>
     <row r="196" spans="1:11" ht="30">
       <c r="A196" s="8" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D196" s="40" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="E196" s="40" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="F196" s="40"/>
       <c r="G196" s="15" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="K196" s="55">
         <v>1</v>
@@ -7552,17 +7595,17 @@
     </row>
     <row r="197" spans="1:11" ht="30">
       <c r="A197" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D197" s="40" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="E197" s="40" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="F197" s="40"/>
       <c r="G197" s="15" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="K197" s="55">
         <v>1</v>
@@ -7570,17 +7613,17 @@
     </row>
     <row r="198" spans="1:11" ht="30">
       <c r="A198" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D198" s="40" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="E198" s="40" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="F198" s="40"/>
       <c r="G198" s="15" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="K198" s="55">
         <v>1</v>
@@ -7588,17 +7631,17 @@
     </row>
     <row r="199" spans="1:11" ht="30">
       <c r="A199" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D199" s="40" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="E199" s="40" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="F199" s="40"/>
       <c r="G199" s="15" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="K199" s="55">
         <v>1</v>
@@ -7606,17 +7649,17 @@
     </row>
     <row r="200" spans="1:11" ht="45">
       <c r="A200" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D200" s="40" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="E200" s="40" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="F200" s="40"/>
       <c r="G200" s="15" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="K200" s="55">
         <v>1</v>
@@ -7624,17 +7667,17 @@
     </row>
     <row r="201" spans="1:11" ht="45">
       <c r="A201" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D201" s="40" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
       <c r="E201" s="40" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="F201" s="40"/>
       <c r="G201" s="15" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
       <c r="K201" s="55">
         <v>1</v>
@@ -7642,17 +7685,17 @@
     </row>
     <row r="202" spans="1:11" ht="30">
       <c r="A202" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D202" s="40" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="E202" s="40" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="F202" s="40"/>
       <c r="G202" s="15" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="K202" s="55">
         <v>1</v>
@@ -7660,17 +7703,17 @@
     </row>
     <row r="203" spans="1:11" ht="45">
       <c r="A203" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D203" s="40" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="E203" s="40" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="F203" s="40"/>
       <c r="G203" s="15" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="K203" s="55">
         <v>1</v>
@@ -7678,17 +7721,17 @@
     </row>
     <row r="204" spans="1:11" ht="30">
       <c r="A204" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D204" s="40" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="E204" s="40" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="F204" s="40"/>
       <c r="G204" s="15" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
       <c r="K204" s="55">
         <v>1</v>
@@ -7696,17 +7739,17 @@
     </row>
     <row r="205" spans="1:11" ht="30">
       <c r="A205" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D205" s="40" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="E205" s="40" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F205" s="40"/>
       <c r="G205" s="15" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="K205" s="55">
         <v>1</v>
@@ -7714,17 +7757,17 @@
     </row>
     <row r="206" spans="1:11" ht="30">
       <c r="A206" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D206" s="40" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="E206" s="40" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="F206" s="40"/>
       <c r="G206" s="15" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="K206" s="55">
         <v>1</v>
@@ -7732,17 +7775,17 @@
     </row>
     <row r="207" spans="1:11" ht="45">
       <c r="A207" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D207" s="40" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="E207" s="40" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="F207" s="40"/>
       <c r="G207" s="15" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="K207" s="55">
         <v>1</v>
@@ -7750,17 +7793,17 @@
     </row>
     <row r="208" spans="1:11" ht="45">
       <c r="A208" s="8" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D208" s="40" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="E208" s="40" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="F208" s="40"/>
       <c r="G208" s="15" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="K208" s="55">
         <v>1</v>
@@ -7768,13 +7811,13 @@
     </row>
     <row r="209" spans="1:11" ht="105">
       <c r="A209" s="8" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="D209" s="40" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E209" s="40" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="F209" s="42" t="s">
         <v>52</v>
@@ -7786,16 +7829,16 @@
     </row>
     <row r="210" spans="1:11" ht="30">
       <c r="A210" s="8" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="D210" s="40" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="E210" s="40" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="F210" s="40" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="G210" s="29"/>
       <c r="K210" s="55">
@@ -7804,17 +7847,17 @@
     </row>
     <row r="211" spans="1:11" ht="30">
       <c r="A211" s="8" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="D211" s="40" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="E211" s="40" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="F211" s="40"/>
       <c r="G211" s="15" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="K211" s="55">
         <v>1</v>
@@ -7822,17 +7865,17 @@
     </row>
     <row r="212" spans="1:11" ht="30">
       <c r="A212" s="8" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="D212" s="43" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="E212" s="40" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F212" s="40"/>
       <c r="G212" s="15" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="K212" s="55">
         <v>1</v>
@@ -7840,17 +7883,17 @@
     </row>
     <row r="213" spans="1:11" ht="30">
       <c r="A213" s="8" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="D213" s="43" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="E213" s="40" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="F213" s="40"/>
       <c r="G213" s="15" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="K213" s="55">
         <v>1</v>
@@ -7858,19 +7901,19 @@
     </row>
     <row r="214" spans="1:11" ht="30">
       <c r="A214" s="8" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="D214" s="40" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="E214" s="40" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="F214" s="40" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="K214" s="55">
         <v>1</v>
@@ -7878,19 +7921,19 @@
     </row>
     <row r="215" spans="1:11" ht="45">
       <c r="A215" s="8" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="D215" s="40" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E215" s="40" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="F215" s="40" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="K215" s="55">
         <v>1</v>
@@ -7898,17 +7941,17 @@
     </row>
     <row r="216" spans="1:11" ht="15">
       <c r="A216" s="8" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="D216" s="40" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="E216" s="40" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F216" s="40"/>
       <c r="G216" s="15" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="K216" s="55">
         <v>1</v>
@@ -7916,17 +7959,17 @@
     </row>
     <row r="217" spans="1:11" ht="30">
       <c r="A217" s="8" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="D217" s="40" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="E217" s="40" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="F217" s="40"/>
       <c r="G217" s="15" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="K217" s="55">
         <v>1</v>
@@ -7934,17 +7977,17 @@
     </row>
     <row r="218" spans="1:11" ht="45">
       <c r="A218" s="8" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="D218" s="40" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="E218" s="40" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="F218" s="40"/>
       <c r="G218" s="15" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="K218" s="55">
         <v>1</v>
@@ -7952,17 +7995,17 @@
     </row>
     <row r="219" spans="1:11" ht="30">
       <c r="A219" s="8" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="D219" s="40" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="E219" s="40" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="F219" s="40"/>
       <c r="G219" s="15" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="K219" s="55">
         <v>1</v>
@@ -7970,17 +8013,17 @@
     </row>
     <row r="220" spans="1:11" ht="30">
       <c r="A220" s="8" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="D220" s="40" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="E220" s="40" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="F220" s="40"/>
       <c r="G220" s="15" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="K220" s="55">
         <v>1</v>
@@ -7988,15 +8031,15 @@
     </row>
     <row r="221" spans="1:11" ht="60">
       <c r="A221" s="8" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="D221" s="40" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="E221" s="40"/>
       <c r="F221" s="40"/>
       <c r="G221" s="15" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="K221" s="55">
         <v>1</v>
@@ -8004,17 +8047,17 @@
     </row>
     <row r="222" spans="1:11" ht="30">
       <c r="A222" s="8" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="D222" s="40" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="E222" s="40" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="F222" s="40"/>
       <c r="G222" s="15" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="K222" s="55">
         <v>1</v>
@@ -8022,17 +8065,17 @@
     </row>
     <row r="223" spans="1:11" ht="30">
       <c r="A223" s="8" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="D223" s="40" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="E223" s="40" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="F223" s="40"/>
       <c r="G223" s="15" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="K223" s="55">
         <v>1</v>
@@ -8040,17 +8083,17 @@
     </row>
     <row r="224" spans="1:11" ht="45">
       <c r="A224" s="8" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="D224" s="40" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="E224" s="40" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="F224" s="44"/>
       <c r="G224" s="15" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="K224" s="55">
         <v>1</v>
@@ -8058,17 +8101,17 @@
     </row>
     <row r="225" spans="1:11" ht="30">
       <c r="A225" s="8" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="D225" s="40" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="E225" s="40" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="F225" s="40"/>
       <c r="G225" s="15" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="K225" s="55">
         <v>1</v>
@@ -8076,17 +8119,17 @@
     </row>
     <row r="226" spans="1:11" ht="30">
       <c r="A226" s="8" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="D226" s="39" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="E226" s="40" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="F226" s="40"/>
       <c r="G226" s="15" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="K226" s="55">
         <v>1</v>
@@ -8094,17 +8137,17 @@
     </row>
     <row r="227" spans="1:11" ht="15">
       <c r="A227" s="8" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="D227" s="39" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="E227" s="40" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="F227" s="40"/>
       <c r="G227" s="15" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="K227" s="55">
         <v>1</v>
@@ -8112,19 +8155,19 @@
     </row>
     <row r="228" spans="1:11" ht="30">
       <c r="A228" s="8" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D228" s="39" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="E228" s="40" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="F228" s="40" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="K228" s="55">
         <v>1</v>
@@ -8132,17 +8175,17 @@
     </row>
     <row r="229" spans="1:11" ht="30">
       <c r="A229" s="8" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D229" s="39" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="E229" s="40" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="F229" s="40"/>
       <c r="G229" s="15" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="K229" s="55">
         <v>1</v>
@@ -8150,19 +8193,19 @@
     </row>
     <row r="230" spans="1:11" ht="15">
       <c r="A230" s="8" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D230" s="39" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="E230" s="40" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="F230" s="40" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="G230" s="15" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="K230" s="55">
         <v>1</v>
@@ -8170,17 +8213,17 @@
     </row>
     <row r="231" spans="1:11" ht="15">
       <c r="A231" s="8" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="D231" s="39" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="E231" s="40" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="F231" s="40"/>
       <c r="G231" s="15" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="K231" s="55">
         <v>1</v>
@@ -8188,19 +8231,19 @@
     </row>
     <row r="232" spans="1:11" ht="30">
       <c r="A232" s="8" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="D232" s="39" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="E232" s="39" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="F232" s="40" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="G232" s="15" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="K232" s="55">
         <v>1</v>
@@ -8208,17 +8251,17 @@
     </row>
     <row r="233" spans="1:11" ht="15">
       <c r="A233" s="8" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="D233" s="39" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="E233" s="40" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="F233" s="40"/>
       <c r="G233" s="15" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="K233" s="55">
         <v>1</v>
@@ -8226,17 +8269,17 @@
     </row>
     <row r="234" spans="1:11" ht="15">
       <c r="A234" s="8" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D234" s="39" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="E234" s="40" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F234" s="40"/>
       <c r="G234" s="15" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="K234" s="55">
         <v>1</v>
@@ -8244,19 +8287,19 @@
     </row>
     <row r="235" spans="1:11" ht="45">
       <c r="A235" s="8" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D235" s="39" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="E235" s="40" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="F235" s="40" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="K235" s="55">
         <v>1</v>
@@ -8264,17 +8307,17 @@
     </row>
     <row r="236" spans="1:11" ht="15">
       <c r="A236" s="8" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D236" s="39" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="E236" s="40" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="F236" s="40"/>
       <c r="G236" s="15" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="K236" s="55">
         <v>1</v>
@@ -8282,19 +8325,19 @@
     </row>
     <row r="237" spans="1:11" ht="45">
       <c r="A237" s="8" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D237" s="39" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="E237" s="40" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F237" s="40" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="K237" s="55">
         <v>1</v>
@@ -8302,19 +8345,19 @@
     </row>
     <row r="238" spans="1:11" ht="30">
       <c r="A238" s="8" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="D238" s="39" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="E238" s="40" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="F238" s="40" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="K238" s="55">
         <v>1</v>
@@ -8322,17 +8365,17 @@
     </row>
     <row r="239" spans="1:11" ht="15">
       <c r="A239" s="8" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="D239" s="39" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="E239" s="40" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="F239" s="40"/>
       <c r="G239" s="15" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="K239" s="55">
         <v>1</v>
@@ -8340,17 +8383,17 @@
     </row>
     <row r="240" spans="1:11" ht="15">
       <c r="A240" s="8" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="D240" s="39" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="E240" s="40" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="F240" s="40"/>
       <c r="G240" s="15" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="K240" s="55">
         <v>1</v>
@@ -8358,19 +8401,19 @@
     </row>
     <row r="241" spans="1:11" ht="45">
       <c r="A241" s="8" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="D241" s="39" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="E241" s="40" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="F241" s="40" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="K241" s="55">
         <v>1</v>
@@ -8378,19 +8421,19 @@
     </row>
     <row r="242" spans="1:11" ht="45">
       <c r="A242" s="8" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="D242" s="39" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="E242" s="40" t="s">
-        <v>687</v>
+        <v>671</v>
       </c>
       <c r="F242" s="40" t="s">
-        <v>688</v>
+        <v>672</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="K242" s="55">
         <v>1</v>
@@ -8398,19 +8441,19 @@
     </row>
     <row r="243" spans="1:11" ht="45">
       <c r="A243" s="8" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="D243" s="39" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="E243" s="40" t="s">
-        <v>690</v>
+        <v>674</v>
       </c>
       <c r="F243" s="40" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="G243" s="15" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="K243" s="55">
         <v>1</v>
@@ -8418,19 +8461,19 @@
     </row>
     <row r="244" spans="1:11" ht="60">
       <c r="A244" s="8" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="D244" s="40" t="s">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="E244" s="40" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="F244" s="40" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="G244" s="15" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="K244" s="55">
         <v>1</v>
@@ -8438,19 +8481,19 @@
     </row>
     <row r="245" spans="1:11" ht="45">
       <c r="A245" s="8" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="D245" s="45" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="E245" s="39" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="F245" s="40" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="G245" s="15" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="K245" s="55">
         <v>1</v>
@@ -8458,19 +8501,19 @@
     </row>
     <row r="246" spans="1:11" ht="45">
       <c r="A246" s="8" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
       <c r="D246" s="45" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="E246" s="39" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="F246" s="40" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="K246" s="55">
         <v>1</v>
@@ -8478,17 +8521,17 @@
     </row>
     <row r="247" spans="1:11" ht="45">
       <c r="A247" s="8" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="E247" s="42" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="F247" s="40"/>
       <c r="G247" s="46" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="H247" s="36"/>
       <c r="I247" s="37"/>
@@ -8498,17 +8541,17 @@
     </row>
     <row r="248" spans="1:11" ht="90">
       <c r="A248" s="8" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="D248" s="40" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="E248" s="40" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="F248" s="40"/>
       <c r="G248" s="46" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="H248" s="47"/>
       <c r="I248" s="48"/>
@@ -8518,17 +8561,17 @@
     </row>
     <row r="249" spans="1:11" ht="15">
       <c r="A249" s="8" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="D249" s="39" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="E249" s="39" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="F249" s="40"/>
       <c r="G249" s="46" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="H249" s="47"/>
       <c r="I249" s="48"/>
@@ -8538,21 +8581,21 @@
     </row>
     <row r="250" spans="1:11" ht="15.6">
       <c r="A250" s="8" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="D250" s="39" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="E250" s="39" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="F250" s="40"/>
       <c r="G250" s="46" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="H250" s="47"/>
       <c r="I250" s="37" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="K250" s="55">
         <v>1</v>
@@ -8560,19 +8603,19 @@
     </row>
     <row r="251" spans="1:11" ht="60">
       <c r="A251" s="8" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="D251" s="40" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="E251" s="40" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="F251" s="40" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="G251" s="46" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="H251" s="36"/>
       <c r="I251" s="37"/>
@@ -8582,17 +8625,17 @@
     </row>
     <row r="252" spans="1:11" ht="60">
       <c r="A252" s="8" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="D252" s="40" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="E252" s="40" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="F252" s="40"/>
       <c r="G252" s="46" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="H252" s="36"/>
       <c r="I252" s="37"/>
@@ -8602,17 +8645,17 @@
     </row>
     <row r="253" spans="1:11" ht="15.6">
       <c r="A253" s="8" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="D253" s="39" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="E253" s="39" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F253" s="40"/>
       <c r="G253" s="46" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="H253" s="36"/>
       <c r="I253" s="37"/>
@@ -8622,19 +8665,19 @@
     </row>
     <row r="254" spans="1:11" ht="45">
       <c r="A254" s="8" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="D254" s="42" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="E254" s="42" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="F254" s="40" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="G254" s="46" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="H254" s="36"/>
       <c r="I254" s="37"/>
@@ -8644,17 +8687,17 @@
     </row>
     <row r="255" spans="1:11" ht="45">
       <c r="A255" s="8" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="D255" s="42" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="E255" s="42" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F255" s="40"/>
       <c r="G255" s="46" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="H255" s="36"/>
       <c r="I255" s="37"/>
@@ -8664,17 +8707,17 @@
     </row>
     <row r="256" spans="1:11" ht="75">
       <c r="A256" s="8" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="E256" s="42" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="F256" s="40"/>
       <c r="G256" s="46" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="H256" s="36"/>
       <c r="I256" s="37"/>
@@ -8684,17 +8727,17 @@
     </row>
     <row r="257" spans="1:11" ht="75">
       <c r="A257" s="8" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="E257" s="42" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F257" s="40"/>
       <c r="G257" s="46" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="H257" s="36"/>
       <c r="I257" s="37"/>
@@ -8704,17 +8747,17 @@
     </row>
     <row r="258" spans="1:11" ht="90">
       <c r="A258" s="8" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="D258" s="42" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="E258" s="42" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="F258" s="40"/>
       <c r="G258" s="46" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="H258" s="36"/>
       <c r="I258" s="37"/>
@@ -8724,21 +8767,21 @@
     </row>
     <row r="259" spans="1:11" ht="60">
       <c r="A259" s="8" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="E259" s="42" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F259" s="40"/>
       <c r="G259" s="46" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="H259" s="36"/>
       <c r="I259" s="37" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="K259" s="55">
         <v>1</v>
@@ -8746,21 +8789,21 @@
     </row>
     <row r="260" spans="1:11" ht="75">
       <c r="A260" s="8" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F260" s="40"/>
       <c r="G260" s="46" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="H260" s="36"/>
       <c r="I260" s="37" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="K260" s="55">
         <v>1</v>
@@ -8768,17 +8811,17 @@
     </row>
     <row r="261" spans="1:11" ht="75">
       <c r="A261" s="8" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="E261" s="42" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F261" s="40"/>
       <c r="G261" s="46" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="H261" s="36"/>
       <c r="I261" s="37"/>
@@ -8788,17 +8831,17 @@
     </row>
     <row r="262" spans="1:11" ht="45">
       <c r="A262" s="8" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="D262" s="42" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="F262" s="40"/>
       <c r="G262" s="46" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="H262" s="36"/>
       <c r="I262" s="37"/>
@@ -8827,17 +8870,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
     </row>
   </sheetData>

--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -1019,9 +1019,6 @@
     <t>220.Chapter-p1-17.xhtml</t>
   </si>
   <si>
-    <t xml:space="preserve">১৮.১ সার্ভিস এন্ট্রান্স বা সার্ভিস মেইন: </t>
-  </si>
-  <si>
     <t xml:space="preserve">সার্ভিস এন্ট্রান্স </t>
   </si>
   <si>
@@ -1037,9 +1034,6 @@
     <t>আর্থিং</t>
   </si>
   <si>
-    <t xml:space="preserve">এখানে আর্থ টেস্টারের সাহায্যে আর্থ রেজিস্ট্যান্স </t>
-  </si>
-  <si>
     <t>আর্থ টেস্টারের</t>
   </si>
   <si>
@@ -1055,9 +1049,6 @@
     <t>মেগার</t>
   </si>
   <si>
-    <t>মেগার: যে যন্ত্রের</t>
-  </si>
-  <si>
     <t>250.Chapter-p1-20.xhtml</t>
   </si>
   <si>
@@ -1065,9 +1056,6 @@
   </si>
   <si>
     <t>ওয়্যারিং লে-আউট ও ব্লুপ্রিন্ট</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ব্লু-প্রিন্ট</t>
   </si>
   <si>
     <t>প্রতীক সম্বলিত মুল নকশা একটি বড় কাগজে বিশেষ পদ্ধতিতে (রাসয়নিক সংমিশ্রনে) ছাপানোই ব্লু-প্রিন্ট</t>
@@ -2817,6 +2805,18 @@
       </rPr>
       <t>)সার্কিট ব্রেকার</t>
     </r>
+  </si>
+  <si>
+    <t>সার্ভিস এন্ট্রান্স বা সার্ভিস মেইন</t>
+  </si>
+  <si>
+    <t>আর্থ টেস্টারের সাহায্যে আর্থ রেজিষ্ট্যান্স</t>
+  </si>
+  <si>
+    <t>গুরম্নত্বপূর্ণ যন্ত্র মেগার</t>
+  </si>
+  <si>
+    <t>ব্লুপ্রিন্ট</t>
   </si>
 </sst>
 </file>
@@ -3032,12 +3032,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3045,6 +3039,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3062,7 +3062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3124,9 +3124,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
@@ -3264,31 +3261,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3564,7 +3555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3980,7 +3971,7 @@
   <dimension ref="A1:M262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4035,7 +4026,7 @@
     </row>
     <row r="2" spans="1:11" ht="82.8">
       <c r="A2" s="8" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>51</v>
@@ -4046,7 +4037,7 @@
       <c r="F2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="54" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="8">
@@ -4055,7 +4046,7 @@
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="8" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>53</v>
@@ -4072,10 +4063,10 @@
     </row>
     <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>756</v>
+        <v>770</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>752</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>133</v>
@@ -4083,7 +4074,7 @@
       <c r="F4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="54" t="s">
         <v>60</v>
       </c>
       <c r="K4" s="8">
@@ -4092,13 +4083,13 @@
     </row>
     <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>757</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>757</v>
+        <v>770</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>753</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>753</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="15" t="s">
@@ -4110,15 +4101,15 @@
     </row>
     <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D6" s="49" t="s">
-        <v>758</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>758</v>
-      </c>
-      <c r="G6" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>754</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>754</v>
+      </c>
+      <c r="G6" s="54" t="s">
         <v>62</v>
       </c>
       <c r="K6" s="8">
@@ -4126,19 +4117,19 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="56" t="s">
-        <v>774</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
+      <c r="A7" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="56" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="8">
@@ -4146,19 +4137,19 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="56" t="s">
-        <v>774</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
+      <c r="A8" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57" t="s">
+      <c r="F8" s="55"/>
+      <c r="G8" s="56" t="s">
         <v>64</v>
       </c>
       <c r="K8" s="8">
@@ -4167,13 +4158,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>759</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>759</v>
+        <v>770</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>755</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>65</v>
@@ -4184,15 +4175,15 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>760</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>760</v>
-      </c>
-      <c r="G10" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="G10" s="54" t="s">
         <v>66</v>
       </c>
       <c r="K10" s="8">
@@ -4201,13 +4192,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>761</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>761</v>
+        <v>770</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>757</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>757</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>67</v>
@@ -4218,15 +4209,15 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>762</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>762</v>
-      </c>
-      <c r="G12" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>758</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>758</v>
+      </c>
+      <c r="G12" s="54" t="s">
         <v>68</v>
       </c>
       <c r="K12" s="8">
@@ -4235,15 +4226,15 @@
     </row>
     <row r="13" spans="1:11" ht="16.8">
       <c r="A13" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>763</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>763</v>
-      </c>
-      <c r="G13" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>759</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>759</v>
+      </c>
+      <c r="G13" s="54" t="s">
         <v>69</v>
       </c>
       <c r="K13" s="8">
@@ -4252,15 +4243,15 @@
     </row>
     <row r="14" spans="1:11" ht="16.8">
       <c r="A14" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>764</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>764</v>
-      </c>
-      <c r="G14" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>760</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>760</v>
+      </c>
+      <c r="G14" s="54" t="s">
         <v>70</v>
       </c>
       <c r="K14" s="8">
@@ -4269,15 +4260,15 @@
     </row>
     <row r="15" spans="1:11" ht="16.8">
       <c r="A15" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>765</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>765</v>
-      </c>
-      <c r="G15" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>761</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>761</v>
+      </c>
+      <c r="G15" s="54" t="s">
         <v>71</v>
       </c>
       <c r="K15" s="8">
@@ -4286,15 +4277,15 @@
     </row>
     <row r="16" spans="1:11" ht="16.8">
       <c r="A16" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D16" s="52" t="s">
-        <v>766</v>
-      </c>
-      <c r="E16" s="52" t="s">
-        <v>766</v>
-      </c>
-      <c r="G16" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>762</v>
+      </c>
+      <c r="G16" s="54" t="s">
         <v>72</v>
       </c>
       <c r="K16" s="8">
@@ -4303,15 +4294,15 @@
     </row>
     <row r="17" spans="1:13" ht="15">
       <c r="A17" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>767</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>767</v>
-      </c>
-      <c r="G17" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>763</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>763</v>
+      </c>
+      <c r="G17" s="54" t="s">
         <v>73</v>
       </c>
       <c r="K17" s="8">
@@ -4320,7 +4311,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>59</v>
@@ -4328,7 +4319,7 @@
       <c r="E18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="54" t="s">
         <v>74</v>
       </c>
       <c r="K18" s="8">
@@ -4337,13 +4328,13 @@
     </row>
     <row r="19" spans="1:13" ht="18">
       <c r="A19" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>768</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>768</v>
+        <v>770</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>764</v>
+      </c>
+      <c r="E19" s="50" t="s">
+        <v>764</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>75</v>
@@ -4354,13 +4345,13 @@
     </row>
     <row r="20" spans="1:13" ht="15">
       <c r="A20" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>769</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>769</v>
+        <v>770</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>765</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>765</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>76</v>
@@ -4371,13 +4362,13 @@
     </row>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D21" s="52" t="s">
         <v>770</v>
       </c>
-      <c r="E21" s="52" t="s">
-        <v>770</v>
+      <c r="D21" s="51" t="s">
+        <v>766</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>766</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>77</v>
@@ -4388,13 +4379,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>78</v>
@@ -4405,15 +4396,15 @@
     </row>
     <row r="23" spans="1:13" ht="17.399999999999999">
       <c r="A23" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>772</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>772</v>
-      </c>
-      <c r="G23" s="55" t="s">
+        <v>770</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>768</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>768</v>
+      </c>
+      <c r="G23" s="54" t="s">
         <v>79</v>
       </c>
       <c r="K23" s="8">
@@ -4421,33 +4412,33 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="61" t="s">
-        <v>774</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62" t="s">
-        <v>773</v>
-      </c>
-      <c r="E24" s="62" t="s">
-        <v>773</v>
-      </c>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61" t="s">
+      <c r="A24" s="60" t="s">
+        <v>770</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61" t="s">
+        <v>769</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>769</v>
+      </c>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55">
-        <v>1</v>
-      </c>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54">
+        <v>1</v>
+      </c>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
     </row>
     <row r="25" spans="1:13" ht="41.4">
       <c r="A25" s="8" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>81</v>
@@ -4464,15 +4455,15 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D26" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="D26" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="54" t="s">
         <v>145</v>
       </c>
       <c r="K26" s="8">
@@ -4481,12 +4472,12 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>775</v>
-      </c>
-      <c r="E27" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>84</v>
       </c>
       <c r="G27" s="15" t="s">
@@ -4498,15 +4489,15 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>835</v>
-      </c>
-      <c r="E28" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="E28" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="55" t="s">
+      <c r="G28" s="54" t="s">
         <v>147</v>
       </c>
       <c r="K28" s="8">
@@ -4515,10 +4506,10 @@
     </row>
     <row r="29" spans="1:13" ht="15">
       <c r="A29" s="8" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>135</v>
@@ -4532,15 +4523,15 @@
     </row>
     <row r="30" spans="1:13" ht="15">
       <c r="A30" s="8" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="54" t="s">
         <v>149</v>
       </c>
       <c r="K30" s="8">
@@ -4549,15 +4540,15 @@
     </row>
     <row r="31" spans="1:13" ht="30">
       <c r="A31" s="8" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="55" t="s">
+      <c r="G31" s="54" t="s">
         <v>150</v>
       </c>
       <c r="K31" s="8">
@@ -4566,15 +4557,15 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>779</v>
-      </c>
-      <c r="E32" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="55" t="s">
+      <c r="G32" s="54" t="s">
         <v>151</v>
       </c>
       <c r="K32" s="8">
@@ -4583,15 +4574,15 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>780</v>
-      </c>
-      <c r="E33" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>776</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="54" t="s">
         <v>152</v>
       </c>
       <c r="K33" s="8">
@@ -4600,15 +4591,15 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>781</v>
-      </c>
-      <c r="E34" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>777</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="55" t="s">
+      <c r="G34" s="54" t="s">
         <v>153</v>
       </c>
       <c r="K34" s="8">
@@ -4617,15 +4608,15 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>782</v>
-      </c>
-      <c r="E35" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>778</v>
+      </c>
+      <c r="E35" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="G35" s="54" t="s">
         <v>154</v>
       </c>
       <c r="K35" s="8">
@@ -4634,15 +4625,15 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>783</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>784</v>
-      </c>
-      <c r="G36" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="D36" s="49" t="s">
+        <v>779</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>780</v>
+      </c>
+      <c r="G36" s="54" t="s">
         <v>155</v>
       </c>
       <c r="K36" s="8">
@@ -4651,15 +4642,15 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>785</v>
-      </c>
-      <c r="E37" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>781</v>
+      </c>
+      <c r="E37" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="55" t="s">
+      <c r="G37" s="54" t="s">
         <v>156</v>
       </c>
       <c r="K37" s="8">
@@ -4668,12 +4659,12 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>786</v>
-      </c>
-      <c r="E38" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>90</v>
       </c>
       <c r="G38" s="15" t="s">
@@ -4685,15 +4676,15 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>836</v>
-      </c>
-      <c r="E39" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="E39" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="55" t="s">
+      <c r="G39" s="54" t="s">
         <v>158</v>
       </c>
       <c r="K39" s="8">
@@ -4702,15 +4693,15 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>837</v>
-      </c>
-      <c r="E40" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>833</v>
+      </c>
+      <c r="E40" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="55" t="s">
+      <c r="G40" s="54" t="s">
         <v>159</v>
       </c>
       <c r="K40" s="8">
@@ -4719,15 +4710,15 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>787</v>
-      </c>
-      <c r="E41" s="50" t="s">
-        <v>788</v>
-      </c>
-      <c r="G41" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="D41" s="49" t="s">
+        <v>783</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>784</v>
+      </c>
+      <c r="G41" s="54" t="s">
         <v>160</v>
       </c>
       <c r="K41" s="8">
@@ -4736,12 +4727,12 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>789</v>
-      </c>
-      <c r="E42" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>785</v>
+      </c>
+      <c r="E42" s="23" t="s">
         <v>93</v>
       </c>
       <c r="G42" s="15" t="s">
@@ -4753,15 +4744,15 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>834</v>
       </c>
-      <c r="D43" s="24" t="s">
-        <v>838</v>
-      </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="55" t="s">
+      <c r="G43" s="54" t="s">
         <v>162</v>
       </c>
       <c r="K43" s="8">
@@ -4770,15 +4761,15 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>790</v>
-      </c>
-      <c r="E44" s="50" t="s">
-        <v>791</v>
-      </c>
-      <c r="G44" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>786</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>787</v>
+      </c>
+      <c r="G44" s="54" t="s">
         <v>163</v>
       </c>
       <c r="K44" s="8">
@@ -4787,15 +4778,15 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>839</v>
-      </c>
-      <c r="E45" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="E45" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="55" t="s">
+      <c r="G45" s="54" t="s">
         <v>164</v>
       </c>
       <c r="K45" s="8">
@@ -4804,15 +4795,15 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>792</v>
-      </c>
-      <c r="E46" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="E46" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="55" t="s">
+      <c r="G46" s="54" t="s">
         <v>165</v>
       </c>
       <c r="K46" s="8">
@@ -4821,12 +4812,12 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>767</v>
-      </c>
-      <c r="E47" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="E47" s="23" t="s">
         <v>58</v>
       </c>
       <c r="G47" s="15" t="s">
@@ -4838,15 +4829,15 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>793</v>
-      </c>
-      <c r="E48" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>789</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="55" t="s">
+      <c r="G48" s="54" t="s">
         <v>167</v>
       </c>
       <c r="K48" s="8">
@@ -4855,15 +4846,15 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>794</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>794</v>
-      </c>
-      <c r="G49" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>790</v>
+      </c>
+      <c r="G49" s="54" t="s">
         <v>168</v>
       </c>
       <c r="K49" s="8">
@@ -4872,15 +4863,15 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>795</v>
-      </c>
-      <c r="E50" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="E50" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="54" t="s">
         <v>169</v>
       </c>
       <c r="K50" s="8">
@@ -4889,15 +4880,15 @@
     </row>
     <row r="51" spans="1:11" ht="27.6">
       <c r="A51" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>840</v>
-      </c>
-      <c r="E51" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>836</v>
+      </c>
+      <c r="E51" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="54" t="s">
         <v>170</v>
       </c>
       <c r="K51" s="8">
@@ -4906,15 +4897,15 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>796</v>
-      </c>
-      <c r="E52" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="E52" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G52" s="55" t="s">
+      <c r="G52" s="54" t="s">
         <v>171</v>
       </c>
       <c r="K52" s="8">
@@ -4923,15 +4914,15 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>797</v>
-      </c>
-      <c r="E53" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="55" t="s">
+      <c r="G53" s="54" t="s">
         <v>172</v>
       </c>
       <c r="K53" s="8">
@@ -4940,15 +4931,15 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>841</v>
-      </c>
-      <c r="E54" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>837</v>
+      </c>
+      <c r="E54" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="55" t="s">
+      <c r="G54" s="54" t="s">
         <v>173</v>
       </c>
       <c r="K54" s="8">
@@ -4957,15 +4948,15 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>842</v>
-      </c>
-      <c r="E55" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="E55" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G55" s="55" t="s">
+      <c r="G55" s="54" t="s">
         <v>174</v>
       </c>
       <c r="K55" s="8">
@@ -4974,15 +4965,15 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>798</v>
-      </c>
-      <c r="E56" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>794</v>
+      </c>
+      <c r="E56" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="G56" s="55" t="s">
+      <c r="G56" s="54" t="s">
         <v>175</v>
       </c>
       <c r="K56" s="8">
@@ -4991,18 +4982,18 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="59" t="s">
+        <v>830</v>
+      </c>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="60" t="s">
+      <c r="E57" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="F57" s="58"/>
-      <c r="G57" s="55" t="s">
+      <c r="F57" s="57"/>
+      <c r="G57" s="54" t="s">
         <v>176</v>
       </c>
       <c r="K57" s="8">
@@ -5011,15 +5002,15 @@
     </row>
     <row r="58" spans="1:11" ht="27.6">
       <c r="A58" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>799</v>
-      </c>
-      <c r="E58" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>795</v>
+      </c>
+      <c r="E58" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="55" t="s">
+      <c r="G58" s="54" t="s">
         <v>177</v>
       </c>
       <c r="K58" s="8">
@@ -5028,38 +5019,38 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="62" t="s">
-        <v>800</v>
-      </c>
-      <c r="E59" s="62" t="s">
-        <v>800</v>
-      </c>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61" t="s">
+        <v>830</v>
+      </c>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="61" t="s">
+        <v>796</v>
+      </c>
+      <c r="E59" s="61" t="s">
+        <v>796</v>
+      </c>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55">
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>801</v>
-      </c>
-      <c r="E60" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>797</v>
+      </c>
+      <c r="E60" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G60" s="55" t="s">
+      <c r="G60" s="54" t="s">
         <v>179</v>
       </c>
       <c r="K60" s="8">
@@ -5068,15 +5059,15 @@
     </row>
     <row r="61" spans="1:11" ht="27.6">
       <c r="A61" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="E61" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D61" s="23" t="s">
+        <v>798</v>
+      </c>
+      <c r="E61" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G61" s="55" t="s">
+      <c r="G61" s="54" t="s">
         <v>180</v>
       </c>
       <c r="K61" s="8">
@@ -5085,15 +5076,15 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>803</v>
-      </c>
-      <c r="E62" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="E62" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G62" s="55" t="s">
+      <c r="G62" s="54" t="s">
         <v>181</v>
       </c>
       <c r="K62" s="8">
@@ -5102,12 +5093,12 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>843</v>
-      </c>
-      <c r="E63" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="E63" s="23" t="s">
         <v>106</v>
       </c>
       <c r="G63" s="15" t="s">
@@ -5119,12 +5110,12 @@
     </row>
     <row r="64" spans="1:11" ht="27.6">
       <c r="A64" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>844</v>
-      </c>
-      <c r="E64" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D64" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="E64" s="23" t="s">
         <v>107</v>
       </c>
       <c r="G64" s="15" t="s">
@@ -5136,15 +5127,15 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>804</v>
-      </c>
-      <c r="E65" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="E65" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G65" s="55" t="s">
+      <c r="G65" s="54" t="s">
         <v>184</v>
       </c>
       <c r="K65" s="8">
@@ -5153,15 +5144,15 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>805</v>
-      </c>
-      <c r="E66" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D66" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="E66" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="55" t="s">
+      <c r="G66" s="54" t="s">
         <v>185</v>
       </c>
       <c r="K66" s="8">
@@ -5170,15 +5161,15 @@
     </row>
     <row r="67" spans="1:11" ht="27.6">
       <c r="A67" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>806</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>806</v>
-      </c>
-      <c r="G67" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="D67" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>802</v>
+      </c>
+      <c r="G67" s="54" t="s">
         <v>186</v>
       </c>
       <c r="K67" s="8">
@@ -5187,15 +5178,15 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>807</v>
-      </c>
-      <c r="E68" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D68" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="E68" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G68" s="55" t="s">
+      <c r="G68" s="54" t="s">
         <v>187</v>
       </c>
       <c r="K68" s="8">
@@ -5204,15 +5195,15 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>808</v>
-      </c>
-      <c r="E69" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>804</v>
+      </c>
+      <c r="E69" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G69" s="55" t="s">
+      <c r="G69" s="54" t="s">
         <v>188</v>
       </c>
       <c r="K69" s="8">
@@ -5221,15 +5212,15 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>809</v>
-      </c>
-      <c r="E70" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D70" s="23" t="s">
+        <v>805</v>
+      </c>
+      <c r="E70" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G70" s="55" t="s">
+      <c r="G70" s="54" t="s">
         <v>189</v>
       </c>
       <c r="K70" s="8">
@@ -5238,15 +5229,15 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>810</v>
-      </c>
-      <c r="E71" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D71" s="23" t="s">
+        <v>806</v>
+      </c>
+      <c r="E71" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G71" s="55" t="s">
+      <c r="G71" s="54" t="s">
         <v>190</v>
       </c>
       <c r="K71" s="8">
@@ -5255,15 +5246,15 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="E72" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="E72" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="G72" s="55" t="s">
+      <c r="G72" s="54" t="s">
         <v>191</v>
       </c>
       <c r="K72" s="8">
@@ -5272,15 +5263,15 @@
     </row>
     <row r="73" spans="1:11" ht="27.6">
       <c r="A73" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="E73" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>808</v>
+      </c>
+      <c r="E73" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="55" t="s">
+      <c r="G73" s="54" t="s">
         <v>192</v>
       </c>
       <c r="K73" s="8">
@@ -5289,15 +5280,15 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D74" s="50" t="s">
-        <v>814</v>
-      </c>
-      <c r="E74" s="50" t="s">
-        <v>813</v>
-      </c>
-      <c r="G74" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="D74" s="49" t="s">
+        <v>810</v>
+      </c>
+      <c r="E74" s="49" t="s">
+        <v>809</v>
+      </c>
+      <c r="G74" s="54" t="s">
         <v>193</v>
       </c>
       <c r="K74" s="8">
@@ -5306,15 +5297,15 @@
     </row>
     <row r="75" spans="1:11" ht="27.6">
       <c r="A75" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>845</v>
-      </c>
-      <c r="E75" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>841</v>
+      </c>
+      <c r="E75" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G75" s="55" t="s">
+      <c r="G75" s="54" t="s">
         <v>194</v>
       </c>
       <c r="K75" s="8">
@@ -5323,15 +5314,15 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>815</v>
-      </c>
-      <c r="E76" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="E76" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G76" s="55" t="s">
+      <c r="G76" s="54" t="s">
         <v>195</v>
       </c>
       <c r="K76" s="8">
@@ -5340,15 +5331,15 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>816</v>
-      </c>
-      <c r="E77" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="E77" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G77" s="55" t="s">
+      <c r="G77" s="54" t="s">
         <v>196</v>
       </c>
       <c r="K77" s="8">
@@ -5357,13 +5348,13 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>846</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>817</v>
+        <v>830</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>842</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>813</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>197</v>
@@ -5374,15 +5365,15 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="E79" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="E79" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G79" s="55" t="s">
+      <c r="G79" s="54" t="s">
         <v>198</v>
       </c>
       <c r="K79" s="8">
@@ -5391,15 +5382,15 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>819</v>
-      </c>
-      <c r="E80" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="E80" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G80" s="55" t="s">
+      <c r="G80" s="54" t="s">
         <v>199</v>
       </c>
       <c r="K80" s="8">
@@ -5408,15 +5399,15 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D81" s="50" t="s">
-        <v>820</v>
-      </c>
-      <c r="E81" s="50" t="s">
-        <v>820</v>
-      </c>
-      <c r="G81" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="D81" s="49" t="s">
+        <v>816</v>
+      </c>
+      <c r="E81" s="49" t="s">
+        <v>816</v>
+      </c>
+      <c r="G81" s="54" t="s">
         <v>200</v>
       </c>
       <c r="K81" s="8">
@@ -5425,15 +5416,15 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>821</v>
-      </c>
-      <c r="E82" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D82" s="23" t="s">
+        <v>817</v>
+      </c>
+      <c r="E82" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G82" s="55" t="s">
+      <c r="G82" s="54" t="s">
         <v>201</v>
       </c>
       <c r="K82" s="8">
@@ -5442,15 +5433,15 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>822</v>
-      </c>
-      <c r="E83" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>818</v>
+      </c>
+      <c r="E83" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G83" s="55" t="s">
+      <c r="G83" s="54" t="s">
         <v>202</v>
       </c>
       <c r="K83" s="8">
@@ -5459,15 +5450,15 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>847</v>
-      </c>
-      <c r="E84" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D84" s="23" t="s">
+        <v>843</v>
+      </c>
+      <c r="E84" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G84" s="55" t="s">
+      <c r="G84" s="54" t="s">
         <v>203</v>
       </c>
       <c r="K84" s="8">
@@ -5476,15 +5467,15 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>848</v>
-      </c>
-      <c r="E85" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>844</v>
+      </c>
+      <c r="E85" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G85" s="55" t="s">
+      <c r="G85" s="54" t="s">
         <v>204</v>
       </c>
       <c r="K85" s="8">
@@ -5493,15 +5484,15 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D86" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D86" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="E86" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="55" t="s">
+      <c r="G86" s="54" t="s">
         <v>205</v>
       </c>
       <c r="K86" s="8">
@@ -5510,15 +5501,15 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D87" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D87" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E87" s="24" t="s">
+      <c r="E87" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="55" t="s">
+      <c r="G87" s="54" t="s">
         <v>206</v>
       </c>
       <c r="K87" s="8">
@@ -5527,15 +5518,15 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>823</v>
-      </c>
-      <c r="E88" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D88" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="E88" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="55" t="s">
+      <c r="G88" s="54" t="s">
         <v>207</v>
       </c>
       <c r="K88" s="8">
@@ -5544,13 +5535,13 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D89" s="50" t="s">
-        <v>825</v>
-      </c>
-      <c r="E89" s="50" t="s">
-        <v>824</v>
+        <v>830</v>
+      </c>
+      <c r="D89" s="49" t="s">
+        <v>821</v>
+      </c>
+      <c r="E89" s="49" t="s">
+        <v>820</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>208</v>
@@ -5561,15 +5552,15 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D90" s="50" t="s">
-        <v>826</v>
-      </c>
-      <c r="E90" s="50" t="s">
-        <v>826</v>
-      </c>
-      <c r="G90" s="55" t="s">
+        <v>830</v>
+      </c>
+      <c r="D90" s="49" t="s">
+        <v>822</v>
+      </c>
+      <c r="E90" s="49" t="s">
+        <v>822</v>
+      </c>
+      <c r="G90" s="54" t="s">
         <v>209</v>
       </c>
       <c r="K90" s="8">
@@ -5578,15 +5569,15 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>827</v>
-      </c>
-      <c r="E91" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="E91" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G91" s="55" t="s">
+      <c r="G91" s="54" t="s">
         <v>210</v>
       </c>
       <c r="K91" s="8">
@@ -5595,15 +5586,15 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D92" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D92" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E92" s="24" t="s">
+      <c r="E92" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G92" s="55" t="s">
+      <c r="G92" s="54" t="s">
         <v>211</v>
       </c>
       <c r="K92" s="8">
@@ -5612,15 +5603,15 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D93" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D93" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E93" s="24" t="s">
+      <c r="E93" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G93" s="55" t="s">
+      <c r="G93" s="54" t="s">
         <v>212</v>
       </c>
       <c r="K93" s="8">
@@ -5629,15 +5620,15 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>828</v>
-      </c>
-      <c r="E94" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>824</v>
+      </c>
+      <c r="E94" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G94" s="55" t="s">
+      <c r="G94" s="54" t="s">
         <v>213</v>
       </c>
       <c r="K94" s="8">
@@ -5646,15 +5637,15 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="E95" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D95" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="E95" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="G95" s="55" t="s">
+      <c r="G95" s="54" t="s">
         <v>214</v>
       </c>
       <c r="K95" s="8">
@@ -5663,15 +5654,15 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D96" s="50" t="s">
         <v>830</v>
       </c>
-      <c r="E96" s="50" t="s">
-        <v>830</v>
-      </c>
-      <c r="G96" s="55" t="s">
+      <c r="D96" s="49" t="s">
+        <v>826</v>
+      </c>
+      <c r="E96" s="49" t="s">
+        <v>826</v>
+      </c>
+      <c r="G96" s="54" t="s">
         <v>215</v>
       </c>
       <c r="K96" s="8">
@@ -5680,15 +5671,15 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>831</v>
-      </c>
-      <c r="E97" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="E97" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G97" s="55" t="s">
+      <c r="G97" s="54" t="s">
         <v>216</v>
       </c>
       <c r="K97" s="8">
@@ -5696,39 +5687,39 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="55" t="s">
-        <v>834</v>
-      </c>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="65" t="s">
-        <v>832</v>
-      </c>
-      <c r="E98" s="65" t="s">
+      <c r="A98" s="54" t="s">
+        <v>830</v>
+      </c>
+      <c r="B98" s="54"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="64" t="s">
+        <v>828</v>
+      </c>
+      <c r="E98" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55" t="s">
+      <c r="F98" s="54"/>
+      <c r="G98" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="H98" s="55"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="55"/>
-      <c r="K98" s="55">
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="54"/>
+      <c r="K98" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="16.8">
       <c r="A99" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D99" s="53" t="s">
-        <v>850</v>
+        <v>845</v>
+      </c>
+      <c r="D99" s="52" t="s">
+        <v>846</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="G99" s="55" t="s">
+      <c r="G99" s="54" t="s">
         <v>235</v>
       </c>
       <c r="K99" s="8">
@@ -5737,15 +5728,15 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D100" s="31" t="s">
-        <v>861</v>
-      </c>
-      <c r="E100" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D100" s="30" t="s">
+        <v>857</v>
+      </c>
+      <c r="E100" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="G100" s="55" t="s">
+      <c r="G100" s="54" t="s">
         <v>236</v>
       </c>
       <c r="K100" s="8">
@@ -5754,15 +5745,15 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>862</v>
-      </c>
-      <c r="E101" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="E101" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="G101" s="55" t="s">
+      <c r="G101" s="54" t="s">
         <v>237</v>
       </c>
       <c r="K101" s="8">
@@ -5771,15 +5762,15 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D102" s="31" t="s">
-        <v>863</v>
-      </c>
-      <c r="E102" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D102" s="30" t="s">
+        <v>859</v>
+      </c>
+      <c r="E102" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="G102" s="55" t="s">
+      <c r="G102" s="54" t="s">
         <v>238</v>
       </c>
       <c r="K102" s="8">
@@ -5788,15 +5779,15 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>864</v>
-      </c>
-      <c r="E103" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D103" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="E103" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="G103" s="55" t="s">
+      <c r="G103" s="54" t="s">
         <v>239</v>
       </c>
       <c r="K103" s="8">
@@ -5805,15 +5796,15 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>865</v>
-      </c>
-      <c r="E104" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D104" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="E104" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="G104" s="55" t="s">
+      <c r="G104" s="54" t="s">
         <v>240</v>
       </c>
       <c r="K104" s="8">
@@ -5822,15 +5813,15 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D105" s="31" t="s">
-        <v>866</v>
-      </c>
-      <c r="E105" s="31" t="s">
-        <v>851</v>
-      </c>
-      <c r="G105" s="55" t="s">
+        <v>845</v>
+      </c>
+      <c r="D105" s="30" t="s">
+        <v>862</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>847</v>
+      </c>
+      <c r="G105" s="54" t="s">
         <v>241</v>
       </c>
       <c r="K105" s="8">
@@ -5839,15 +5830,15 @@
     </row>
     <row r="106" spans="1:11" ht="15">
       <c r="A106" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="D106" s="62" t="s">
+        <v>848</v>
+      </c>
+      <c r="E106" s="62" t="s">
         <v>849</v>
       </c>
-      <c r="D106" s="63" t="s">
-        <v>852</v>
-      </c>
-      <c r="E106" s="63" t="s">
-        <v>853</v>
-      </c>
-      <c r="G106" s="55" t="s">
+      <c r="G106" s="54" t="s">
         <v>242</v>
       </c>
       <c r="K106" s="8">
@@ -5856,15 +5847,15 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>867</v>
-      </c>
-      <c r="E107" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D107" s="30" t="s">
+        <v>863</v>
+      </c>
+      <c r="E107" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="G107" s="55" t="s">
+      <c r="G107" s="54" t="s">
         <v>243</v>
       </c>
       <c r="K107" s="8">
@@ -5873,15 +5864,15 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>868</v>
-      </c>
-      <c r="E108" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D108" s="30" t="s">
+        <v>864</v>
+      </c>
+      <c r="E108" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="G108" s="55" t="s">
+      <c r="G108" s="54" t="s">
         <v>244</v>
       </c>
       <c r="K108" s="8">
@@ -5890,15 +5881,15 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D109" s="31" t="s">
-        <v>854</v>
-      </c>
-      <c r="E109" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>850</v>
+      </c>
+      <c r="E109" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="G109" s="55" t="s">
+      <c r="G109" s="54" t="s">
         <v>245</v>
       </c>
       <c r="K109" s="8">
@@ -5907,15 +5898,15 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>855</v>
-      </c>
-      <c r="E110" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D110" s="30" t="s">
+        <v>851</v>
+      </c>
+      <c r="E110" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="G110" s="55" t="s">
+      <c r="G110" s="54" t="s">
         <v>246</v>
       </c>
       <c r="K110" s="8">
@@ -5924,15 +5915,15 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>856</v>
-      </c>
-      <c r="E111" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="E111" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="G111" s="55" t="s">
+      <c r="G111" s="54" t="s">
         <v>247</v>
       </c>
       <c r="K111" s="8">
@@ -5941,15 +5932,15 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="E112" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>853</v>
+      </c>
+      <c r="E112" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="G112" s="55" t="s">
+      <c r="G112" s="54" t="s">
         <v>248</v>
       </c>
       <c r="K112" s="8">
@@ -5958,15 +5949,15 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>858</v>
-      </c>
-      <c r="E113" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D113" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="E113" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="G113" s="55" t="s">
+      <c r="G113" s="54" t="s">
         <v>249</v>
       </c>
       <c r="K113" s="8">
@@ -5975,15 +5966,15 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>869</v>
-      </c>
-      <c r="E114" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D114" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="E114" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G114" s="55" t="s">
+      <c r="G114" s="54" t="s">
         <v>250</v>
       </c>
       <c r="K114" s="8">
@@ -5992,15 +5983,15 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D115" s="31" t="s">
-        <v>870</v>
-      </c>
-      <c r="E115" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>866</v>
+      </c>
+      <c r="E115" s="30" t="s">
         <v>231</v>
       </c>
-      <c r="G115" s="55" t="s">
+      <c r="G115" s="54" t="s">
         <v>252</v>
       </c>
       <c r="K115" s="8">
@@ -6009,15 +6000,15 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D116" s="31" t="s">
-        <v>871</v>
-      </c>
-      <c r="E116" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D116" s="30" t="s">
+        <v>867</v>
+      </c>
+      <c r="E116" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="G116" s="55" t="s">
+      <c r="G116" s="54" t="s">
         <v>251</v>
       </c>
       <c r="K116" s="8">
@@ -6026,15 +6017,15 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="8" t="s">
-        <v>849</v>
-      </c>
-      <c r="D117" s="31" t="s">
-        <v>872</v>
-      </c>
-      <c r="E117" s="31" t="s">
+        <v>845</v>
+      </c>
+      <c r="D117" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="E117" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="G117" s="55" t="s">
+      <c r="G117" s="54" t="s">
         <v>253</v>
       </c>
       <c r="K117" s="8">
@@ -6042,25 +6033,25 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="15">
-      <c r="A118" s="55" t="s">
-        <v>849</v>
-      </c>
-      <c r="B118" s="55"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="64" t="s">
-        <v>859</v>
-      </c>
-      <c r="E118" s="64" t="s">
-        <v>860</v>
-      </c>
-      <c r="F118" s="55"/>
+      <c r="A118" s="54" t="s">
+        <v>845</v>
+      </c>
+      <c r="B118" s="54"/>
+      <c r="C118" s="54"/>
+      <c r="D118" s="63" t="s">
+        <v>855</v>
+      </c>
+      <c r="E118" s="63" t="s">
+        <v>856</v>
+      </c>
+      <c r="F118" s="54"/>
       <c r="G118" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="H118" s="55"/>
-      <c r="I118" s="55"/>
-      <c r="J118" s="55"/>
-      <c r="K118" s="55">
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6095,77 +6086,77 @@
       <c r="F120" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="G120" s="26"/>
+      <c r="G120" s="25"/>
       <c r="K120" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="60">
-      <c r="A121" s="61" t="s">
+      <c r="A121" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="B121" s="61"/>
-      <c r="C121" s="61"/>
-      <c r="D121" s="76" t="s">
+      <c r="B121" s="60"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="E121" s="76" t="s">
+      <c r="E121" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="F121" s="76" t="s">
+      <c r="F121" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="G121" s="61"/>
-      <c r="H121" s="61"/>
-      <c r="I121" s="61"/>
-      <c r="J121" s="61"/>
-      <c r="K121" s="61">
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="27.6">
-      <c r="A122" s="55" t="s">
+      <c r="A122" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="B122" s="55"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="66" t="s">
+      <c r="B122" s="54"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="E122" s="66" t="s">
+      <c r="E122" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="F122" s="55"/>
+      <c r="F122" s="54"/>
       <c r="G122" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="55"/>
-      <c r="K122" s="55">
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="27.6">
-      <c r="A123" s="55" t="s">
+      <c r="A123" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="55"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="66" t="s">
+      <c r="B123" s="54"/>
+      <c r="C123" s="54"/>
+      <c r="D123" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="E123" s="66" t="s">
-        <v>878</v>
-      </c>
-      <c r="F123" s="55"/>
-      <c r="G123" s="55" t="s">
+      <c r="E123" s="65" t="s">
+        <v>874</v>
+      </c>
+      <c r="F123" s="54"/>
+      <c r="G123" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="H123" s="55"/>
-      <c r="I123" s="55"/>
-      <c r="J123" s="55"/>
-      <c r="K123" s="55">
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6182,30 +6173,30 @@
       <c r="F124" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="K124" s="55">
+      <c r="K124" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="45">
-      <c r="A125" s="55" t="s">
+      <c r="A125" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="B125" s="55"/>
-      <c r="C125" s="55"/>
-      <c r="D125" s="67" t="s">
+      <c r="B125" s="54"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="E125" s="55" t="s">
+      <c r="E125" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="F125" s="68" t="s">
+      <c r="F125" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="G125" s="55"/>
-      <c r="H125" s="55"/>
-      <c r="I125" s="55"/>
-      <c r="J125" s="55"/>
-      <c r="K125" s="55">
+      <c r="G125" s="54"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6213,8 +6204,8 @@
       <c r="A126" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D126" s="50" t="s">
-        <v>873</v>
+      <c r="D126" s="49" t="s">
+        <v>869</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>277</v>
@@ -6222,10 +6213,10 @@
       <c r="F126" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="G126" s="70" t="s">
+      <c r="G126" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="K126" s="55">
+      <c r="K126" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6233,16 +6224,16 @@
       <c r="A127" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D127" s="63" t="s">
-        <v>874</v>
-      </c>
-      <c r="E127" s="28" t="s">
-        <v>875</v>
-      </c>
-      <c r="G127" s="70" t="s">
+      <c r="D127" s="62" t="s">
+        <v>870</v>
+      </c>
+      <c r="E127" s="27" t="s">
+        <v>871</v>
+      </c>
+      <c r="G127" s="69" t="s">
         <v>290</v>
       </c>
-      <c r="K127" s="55">
+      <c r="K127" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6250,16 +6241,16 @@
       <c r="A128" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D128" s="63" t="s">
-        <v>876</v>
-      </c>
-      <c r="E128" s="28" t="s">
+      <c r="D128" s="62" t="s">
+        <v>872</v>
+      </c>
+      <c r="E128" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="G128" s="70" t="s">
+      <c r="G128" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="K128" s="55">
+      <c r="K128" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6267,16 +6258,16 @@
       <c r="A129" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D129" s="28" t="s">
+      <c r="D129" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="E129" s="28" t="s">
+      <c r="E129" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="G129" s="27" t="s">
+      <c r="G129" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="K129" s="55">
+      <c r="K129" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6284,16 +6275,16 @@
       <c r="A130" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D130" s="28" t="s">
+      <c r="D130" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="E130" s="28" t="s">
+      <c r="E130" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="G130" s="70" t="s">
+      <c r="G130" s="69" t="s">
         <v>293</v>
       </c>
-      <c r="K130" s="55">
+      <c r="K130" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6301,92 +6292,92 @@
       <c r="A131" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D131" s="32" t="s">
+      <c r="D131" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="E131" s="28" t="s">
+      <c r="E131" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="G131" s="70" t="s">
+      <c r="G131" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="K131" s="55">
+      <c r="K131" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.6">
-      <c r="A132" s="55" t="s">
+      <c r="A132" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="B132" s="55"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="69" t="s">
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="E132" s="69" t="s">
+      <c r="E132" s="68" t="s">
         <v>289</v>
       </c>
-      <c r="F132" s="55"/>
-      <c r="G132" s="27" t="s">
+      <c r="F132" s="54"/>
+      <c r="G132" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="H132" s="55"/>
-      <c r="I132" s="55"/>
-      <c r="J132" s="55"/>
-      <c r="K132" s="55">
+      <c r="H132" s="54"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="41.4">
-      <c r="A133" s="55" t="s">
+      <c r="A133" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="B133" s="55"/>
-      <c r="C133" s="55"/>
-      <c r="D133" s="71" t="s">
+      <c r="B133" s="54"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="E133" s="72" t="s">
+      <c r="E133" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="F133" s="72" t="s">
+      <c r="F133" s="71" t="s">
         <v>298</v>
       </c>
-      <c r="G133" s="70" t="s">
+      <c r="G133" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="H133" s="55"/>
-      <c r="I133" s="55"/>
-      <c r="J133" s="55"/>
-      <c r="K133" s="55">
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="27.6">
-      <c r="A134" s="73" t="s">
+      <c r="A134" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="B134" s="73"/>
-      <c r="C134" s="73"/>
-      <c r="D134" s="74" t="s">
-        <v>877</v>
-      </c>
-      <c r="E134" s="75" t="s">
+      <c r="B134" s="54"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="70" t="s">
+        <v>873</v>
+      </c>
+      <c r="E134" s="71" t="s">
         <v>301</v>
       </c>
-      <c r="F134" s="75" t="s">
+      <c r="F134" s="71" t="s">
         <v>302</v>
       </c>
-      <c r="G134" s="73"/>
-      <c r="H134" s="73"/>
-      <c r="I134" s="73"/>
-      <c r="J134" s="73"/>
-      <c r="K134" s="73">
+      <c r="G134" s="54"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="30">
-      <c r="A135" s="55" t="s">
+      <c r="A135" s="54" t="s">
         <v>307</v>
       </c>
       <c r="D135" s="10" t="s">
@@ -6398,7 +6389,7 @@
       <c r="F135" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="K135" s="55">
+      <c r="K135" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6406,37 +6397,37 @@
       <c r="A136" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D136" s="77" t="s">
-        <v>882</v>
+      <c r="D136" s="73" t="s">
+        <v>878</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F136" s="16"/>
-      <c r="G136" s="70" t="s">
+      <c r="G136" s="69" t="s">
         <v>309</v>
       </c>
-      <c r="K136" s="55">
+      <c r="K136" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="43.2">
-      <c r="A137" s="55" t="s">
+      <c r="A137" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="D137" s="63" t="s">
-        <v>883</v>
+      <c r="D137" s="62" t="s">
+        <v>879</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="F137" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="G137" s="70" t="s">
+      <c r="G137" s="69" t="s">
         <v>313</v>
       </c>
-      <c r="K137" s="55">
+      <c r="K137" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6444,17 +6435,17 @@
       <c r="A138" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D138" s="50" t="s">
-        <v>884</v>
-      </c>
-      <c r="E138" s="33" t="s">
+      <c r="D138" s="49" t="s">
+        <v>880</v>
+      </c>
+      <c r="E138" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="F138" s="28"/>
-      <c r="G138" s="70" t="s">
+      <c r="F138" s="27"/>
+      <c r="G138" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="K138" s="55">
+      <c r="K138" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6462,17 +6453,17 @@
       <c r="A139" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D139" s="33" t="s">
+      <c r="D139" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E139" s="33" t="s">
+      <c r="E139" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="F139" s="28"/>
-      <c r="G139" s="70" t="s">
+      <c r="F139" s="27"/>
+      <c r="G139" s="69" t="s">
         <v>322</v>
       </c>
-      <c r="K139" s="55">
+      <c r="K139" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6480,17 +6471,17 @@
       <c r="A140" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D140" s="33" t="s">
+      <c r="D140" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="E140" s="33" t="s">
+      <c r="E140" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="F140" s="28"/>
-      <c r="G140" s="70" t="s">
+      <c r="F140" s="27"/>
+      <c r="G140" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="K140" s="55">
+      <c r="K140" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6504,11 +6495,11 @@
       <c r="E141" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="F141" s="28"/>
-      <c r="G141" s="70" t="s">
+      <c r="F141" s="27"/>
+      <c r="G141" s="69" t="s">
         <v>324</v>
       </c>
-      <c r="K141" s="55">
+      <c r="K141" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6516,17 +6507,17 @@
       <c r="A142" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D142" s="33" t="s">
+      <c r="D142" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="E142" s="33" t="s">
+      <c r="E142" s="32" t="s">
         <v>319</v>
       </c>
       <c r="F142" s="16"/>
-      <c r="G142" s="70" t="s">
+      <c r="G142" s="69" t="s">
         <v>325</v>
       </c>
-      <c r="K142" s="55">
+      <c r="K142" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6534,17 +6525,17 @@
       <c r="A143" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D143" s="33" t="s">
+      <c r="D143" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="E143" s="33" t="s">
+      <c r="E143" s="32" t="s">
         <v>320</v>
       </c>
       <c r="F143" s="16"/>
-      <c r="G143" s="70" t="s">
+      <c r="G143" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="K143" s="55">
+      <c r="K143" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6552,17 +6543,17 @@
       <c r="A144" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D144" s="33" t="s">
-        <v>885</v>
-      </c>
-      <c r="E144" s="33" t="s">
-        <v>885</v>
+      <c r="D144" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>881</v>
       </c>
       <c r="F144" s="16"/>
-      <c r="G144" s="70" t="s">
+      <c r="G144" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="K144" s="55">
+      <c r="K144" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6570,17 +6561,17 @@
       <c r="A145" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D145" s="78" t="s">
-        <v>886</v>
-      </c>
-      <c r="E145" s="78" t="s">
-        <v>886</v>
+      <c r="D145" s="74" t="s">
+        <v>882</v>
+      </c>
+      <c r="E145" s="74" t="s">
+        <v>882</v>
       </c>
       <c r="F145" s="16"/>
-      <c r="G145" s="70" t="s">
+      <c r="G145" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="K145" s="55">
+      <c r="K145" s="54">
         <v>1</v>
       </c>
     </row>
@@ -6588,2264 +6579,2264 @@
       <c r="A146" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D146" s="33" t="s">
-        <v>887</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>887</v>
+      <c r="D146" s="32" t="s">
+        <v>883</v>
+      </c>
+      <c r="E146" s="32" t="s">
+        <v>883</v>
       </c>
       <c r="F146" s="16"/>
-      <c r="G146" s="70" t="s">
+      <c r="G146" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="K146" s="55">
+      <c r="K146" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="16.8">
-      <c r="A147" s="83" t="s">
+      <c r="A147" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="B147" s="79"/>
-      <c r="C147" s="79"/>
-      <c r="D147" s="80" t="s">
-        <v>888</v>
-      </c>
-      <c r="E147" s="80" t="s">
-        <v>889</v>
-      </c>
-      <c r="F147" s="81"/>
-      <c r="G147" s="82" t="s">
+      <c r="B147" s="75"/>
+      <c r="C147" s="75"/>
+      <c r="D147" s="76" t="s">
+        <v>884</v>
+      </c>
+      <c r="E147" s="76" t="s">
+        <v>885</v>
+      </c>
+      <c r="F147" s="77"/>
+      <c r="G147" s="78" t="s">
         <v>330</v>
       </c>
-      <c r="H147" s="79"/>
-      <c r="I147" s="79"/>
-      <c r="J147" s="79"/>
-      <c r="K147" s="79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" ht="27.6">
-      <c r="A148" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D148" s="28" t="s">
+      <c r="H147" s="75"/>
+      <c r="I147" s="75"/>
+      <c r="J147" s="75"/>
+      <c r="K147" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" ht="17.399999999999999">
+      <c r="A148" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="D148" s="73" t="s">
+        <v>886</v>
+      </c>
+      <c r="E148" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="G148" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="G148" s="27" t="s">
-        <v>334</v>
-      </c>
-      <c r="K148" s="55">
+      <c r="K148" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="41.4">
       <c r="A149" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="F149" s="16"/>
+      <c r="G149" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="K149" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="15.6">
+      <c r="A150" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="D150" s="49" t="s">
+        <v>887</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F150" s="16"/>
+      <c r="G150" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="K150" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" ht="15.6">
+      <c r="A151" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="D149" s="28" t="s">
-        <v>336</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="F149" s="16"/>
-      <c r="G149" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="K149" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="27.6">
-      <c r="A150" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D150" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="F150" s="16"/>
-      <c r="G150" s="27" t="s">
+      <c r="D151" s="49" t="s">
+        <v>888</v>
+      </c>
+      <c r="E151" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="K150" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" ht="15.6">
-      <c r="A151" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="E151" s="28" t="s">
+      <c r="F151" s="16"/>
+      <c r="G151" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="F151" s="16"/>
-      <c r="G151" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="K151" s="55">
+      <c r="K151" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="41.4">
       <c r="A152" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="E152" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G152" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="K152" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="45">
+      <c r="A153" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E153" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="D152" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="E152" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="F152" s="16" t="s">
+      <c r="G153" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="G152" s="27" t="s">
+      <c r="K153" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" ht="27.6">
+      <c r="A154" s="80" t="s">
+        <v>354</v>
+      </c>
+      <c r="D154" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="K152" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="45">
-      <c r="A153" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D153" s="12" t="s">
+      <c r="E154" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="E153" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="G153" s="27" t="s">
+      <c r="F154" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="K153" s="55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" ht="27.6">
-      <c r="A154" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D154" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="E154" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="F154" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="G154" s="30"/>
-      <c r="K154" s="55">
+      <c r="G154" s="29"/>
+      <c r="K154" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:11" ht="82.8">
       <c r="A155" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D155" s="35" t="s">
-        <v>359</v>
-      </c>
-      <c r="E155" s="35" t="s">
-        <v>360</v>
+        <v>435</v>
+      </c>
+      <c r="D155" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="E155" s="34" t="s">
+        <v>356</v>
       </c>
       <c r="F155" s="16"/>
-      <c r="G155" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="H155" s="36"/>
-      <c r="I155" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="K155" s="55">
+      <c r="G155" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="H155" s="35"/>
+      <c r="I155" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="K155" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="69">
       <c r="A156" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D156" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="E156" s="35" t="s">
-        <v>364</v>
+        <v>436</v>
+      </c>
+      <c r="D156" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="E156" s="34" t="s">
+        <v>360</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="G156" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="H156" s="36"/>
-      <c r="I156" s="37"/>
-      <c r="K156" s="55">
+        <v>361</v>
+      </c>
+      <c r="G156" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H156" s="35"/>
+      <c r="I156" s="36"/>
+      <c r="K156" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="69">
       <c r="A157" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D157" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="E157" s="35" t="s">
-        <v>368</v>
+        <v>437</v>
+      </c>
+      <c r="D157" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="E157" s="34" t="s">
+        <v>364</v>
       </c>
       <c r="F157" s="16"/>
-      <c r="G157" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="H157" s="36"/>
-      <c r="I157" s="37"/>
-      <c r="K157" s="55">
+      <c r="G157" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="H157" s="35"/>
+      <c r="I157" s="36"/>
+      <c r="K157" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="124.2">
       <c r="A158" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="D158" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="E158" s="35" t="s">
-        <v>371</v>
-      </c>
-      <c r="F158" s="38"/>
-      <c r="G158" s="29" t="s">
-        <v>372</v>
-      </c>
-      <c r="H158" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="I158" s="37"/>
-      <c r="K158" s="55">
+        <v>438</v>
+      </c>
+      <c r="D158" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="E158" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="F158" s="37"/>
+      <c r="G158" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="H158" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="I158" s="36"/>
+      <c r="K158" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="82.8">
       <c r="A159" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="D159" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="E159" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="F159" s="38"/>
-      <c r="G159" s="29" t="s">
-        <v>375</v>
-      </c>
-      <c r="H159" s="36"/>
-      <c r="I159" s="37"/>
-      <c r="K159" s="55">
+        <v>439</v>
+      </c>
+      <c r="D159" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="E159" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="F159" s="37"/>
+      <c r="G159" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="H159" s="35"/>
+      <c r="I159" s="36"/>
+      <c r="K159" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="69">
       <c r="A160" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D160" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="E160" s="35" t="s">
-        <v>377</v>
+        <v>440</v>
+      </c>
+      <c r="D160" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="E160" s="34" t="s">
+        <v>373</v>
       </c>
       <c r="F160" s="16"/>
-      <c r="G160" s="29" t="s">
-        <v>378</v>
-      </c>
-      <c r="H160" s="36"/>
-      <c r="I160" s="37"/>
-      <c r="K160" s="55">
+      <c r="G160" s="28" t="s">
+        <v>374</v>
+      </c>
+      <c r="H160" s="35"/>
+      <c r="I160" s="36"/>
+      <c r="K160" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="41.4">
       <c r="A161" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D161" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="E161" s="35" t="s">
-        <v>380</v>
+        <v>441</v>
+      </c>
+      <c r="D161" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="E161" s="34" t="s">
+        <v>376</v>
       </c>
       <c r="F161" s="16"/>
-      <c r="G161" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="H161" s="36"/>
-      <c r="I161" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="K161" s="55">
+      <c r="G161" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="H161" s="35"/>
+      <c r="I161" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="K161" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="55.2">
       <c r="A162" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D162" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="E162" s="35" t="s">
-        <v>383</v>
+        <v>442</v>
+      </c>
+      <c r="D162" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="E162" s="34" t="s">
+        <v>379</v>
       </c>
       <c r="F162" s="16"/>
-      <c r="G162" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="H162" s="36"/>
-      <c r="I162" s="37"/>
-      <c r="K162" s="55">
+      <c r="G162" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="H162" s="35"/>
+      <c r="I162" s="36"/>
+      <c r="K162" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="41.4">
       <c r="A163" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D163" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="E163" s="35" t="s">
-        <v>386</v>
+        <v>443</v>
+      </c>
+      <c r="D163" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="E163" s="34" t="s">
+        <v>382</v>
       </c>
       <c r="F163" s="16"/>
-      <c r="G163" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="H163" s="36"/>
-      <c r="I163" s="37"/>
-      <c r="K163" s="55">
+      <c r="G163" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="H163" s="35"/>
+      <c r="I163" s="36"/>
+      <c r="K163" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="69">
       <c r="A164" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D164" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="E164" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="F164" s="38"/>
-      <c r="G164" s="29" t="s">
-        <v>390</v>
-      </c>
-      <c r="H164" s="36"/>
-      <c r="I164" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="K164" s="55">
+        <v>444</v>
+      </c>
+      <c r="D164" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="E164" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="F164" s="37"/>
+      <c r="G164" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="H164" s="35"/>
+      <c r="I164" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="K164" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="41.4">
       <c r="A165" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D165" s="35" t="s">
-        <v>391</v>
-      </c>
-      <c r="E165" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="F165" s="38"/>
-      <c r="G165" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="H165" s="36"/>
-      <c r="I165" s="37" t="s">
-        <v>394</v>
-      </c>
-      <c r="K165" s="55">
+        <v>445</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E165" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="F165" s="37"/>
+      <c r="G165" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="H165" s="35"/>
+      <c r="I165" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="K165" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="110.4">
       <c r="A166" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="D166" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="E166" s="35" t="s">
-        <v>396</v>
+        <v>446</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="E166" s="34" t="s">
+        <v>392</v>
       </c>
       <c r="F166" s="16"/>
-      <c r="G166" s="29" t="s">
-        <v>397</v>
-      </c>
-      <c r="H166" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="I166" s="37"/>
-      <c r="K166" s="55">
+      <c r="G166" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="H166" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="I166" s="36"/>
+      <c r="K166" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="96.6">
       <c r="A167" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D167" s="35" t="s">
-        <v>398</v>
-      </c>
-      <c r="E167" s="35" t="s">
-        <v>399</v>
+        <v>447</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="E167" s="34" t="s">
+        <v>395</v>
       </c>
       <c r="F167" s="16"/>
-      <c r="G167" s="29" t="s">
-        <v>400</v>
-      </c>
-      <c r="H167" s="36"/>
-      <c r="I167" s="37" t="s">
-        <v>401</v>
-      </c>
-      <c r="K167" s="55">
+      <c r="G167" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="H167" s="35"/>
+      <c r="I167" s="36" t="s">
+        <v>397</v>
+      </c>
+      <c r="K167" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="69">
       <c r="A168" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D168" s="35" t="s">
-        <v>402</v>
-      </c>
-      <c r="E168" s="35" t="s">
-        <v>403</v>
+        <v>448</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="E168" s="34" t="s">
+        <v>399</v>
       </c>
       <c r="F168" s="16"/>
-      <c r="G168" s="29" t="s">
-        <v>404</v>
-      </c>
-      <c r="H168" s="36"/>
-      <c r="I168" s="37"/>
-      <c r="K168" s="55">
+      <c r="G168" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="H168" s="35"/>
+      <c r="I168" s="36"/>
+      <c r="K168" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="82.8">
       <c r="A169" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D169" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="E169" s="35" t="s">
-        <v>406</v>
+        <v>449</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="E169" s="34" t="s">
+        <v>402</v>
       </c>
       <c r="F169" s="16"/>
-      <c r="G169" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="H169" s="36"/>
-      <c r="I169" s="37" t="s">
-        <v>408</v>
-      </c>
-      <c r="K169" s="55">
+      <c r="G169" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="H169" s="35"/>
+      <c r="I169" s="36" t="s">
+        <v>404</v>
+      </c>
+      <c r="K169" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="55.2">
       <c r="A170" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D170" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="E170" s="35" t="s">
-        <v>410</v>
+        <v>450</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="E170" s="34" t="s">
+        <v>406</v>
       </c>
       <c r="F170" s="16"/>
-      <c r="G170" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="H170" s="36"/>
-      <c r="I170" s="37"/>
-      <c r="K170" s="55">
+      <c r="G170" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="H170" s="35"/>
+      <c r="I170" s="36"/>
+      <c r="K170" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="151.80000000000001">
       <c r="A171" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D171" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="E171" s="35" t="s">
-        <v>413</v>
+        <v>451</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="E171" s="34" t="s">
+        <v>409</v>
       </c>
       <c r="F171" s="16"/>
-      <c r="G171" s="29" t="s">
-        <v>414</v>
-      </c>
-      <c r="H171" s="36"/>
-      <c r="I171" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="K171" s="55">
+      <c r="G171" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="H171" s="35"/>
+      <c r="I171" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="K171" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="69">
       <c r="A172" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D172" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="E172" s="35" t="s">
-        <v>417</v>
+        <v>452</v>
+      </c>
+      <c r="D172" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="E172" s="34" t="s">
+        <v>413</v>
       </c>
       <c r="F172" s="16"/>
-      <c r="G172" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="H172" s="36"/>
-      <c r="I172" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="K172" s="55">
+      <c r="G172" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="H172" s="35"/>
+      <c r="I172" s="36" t="s">
+        <v>415</v>
+      </c>
+      <c r="K172" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="96.6">
       <c r="A173" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="D173" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="E173" s="35" t="s">
-        <v>421</v>
+        <v>453</v>
+      </c>
+      <c r="D173" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="E173" s="34" t="s">
+        <v>417</v>
       </c>
       <c r="F173" s="16"/>
-      <c r="G173" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="H173" s="36"/>
-      <c r="I173" s="37" t="s">
-        <v>423</v>
-      </c>
-      <c r="K173" s="55">
+      <c r="G173" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="H173" s="35"/>
+      <c r="I173" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="K173" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="55.2">
       <c r="A174" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="D174" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="E174" s="35" t="s">
-        <v>425</v>
+        <v>454</v>
+      </c>
+      <c r="D174" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="E174" s="34" t="s">
+        <v>421</v>
       </c>
       <c r="F174" s="16"/>
-      <c r="G174" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="H174" s="36"/>
-      <c r="I174" s="37"/>
-      <c r="K174" s="55">
+      <c r="G174" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="H174" s="35"/>
+      <c r="I174" s="36"/>
+      <c r="K174" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="69">
       <c r="A175" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="D175" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="E175" s="35" t="s">
-        <v>428</v>
+        <v>455</v>
+      </c>
+      <c r="D175" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E175" s="34" t="s">
+        <v>424</v>
       </c>
       <c r="F175" s="16"/>
-      <c r="G175" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="H175" s="36"/>
-      <c r="I175" s="37" t="s">
-        <v>430</v>
-      </c>
-      <c r="K175" s="55">
+      <c r="G175" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="H175" s="35"/>
+      <c r="I175" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="K175" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="82.8">
       <c r="A176" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="D176" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="E176" s="35" t="s">
-        <v>432</v>
+        <v>456</v>
+      </c>
+      <c r="D176" s="34" t="s">
+        <v>427</v>
+      </c>
+      <c r="E176" s="34" t="s">
+        <v>428</v>
       </c>
       <c r="F176" s="16"/>
-      <c r="G176" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="H176" s="36"/>
-      <c r="I176" s="37" t="s">
-        <v>434</v>
-      </c>
-      <c r="K176" s="55">
+      <c r="G176" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="H176" s="35"/>
+      <c r="I176" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="K176" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="41.4">
       <c r="A177" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="D177" s="35" t="s">
-        <v>435</v>
-      </c>
-      <c r="E177" s="35" t="s">
-        <v>436</v>
+        <v>457</v>
+      </c>
+      <c r="D177" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="E177" s="34" t="s">
+        <v>432</v>
       </c>
       <c r="F177" s="16"/>
-      <c r="G177" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="H177" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="I177" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="K177" s="55">
+      <c r="G177" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="H177" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="I177" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="K177" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="45">
       <c r="A178" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="D178" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="E178" s="40" t="s">
-        <v>463</v>
-      </c>
-      <c r="F178" s="40" t="s">
-        <v>464</v>
+        <v>472</v>
+      </c>
+      <c r="D178" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="E178" s="39" t="s">
+        <v>459</v>
+      </c>
+      <c r="F178" s="39" t="s">
+        <v>460</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="K178" s="55">
+        <v>473</v>
+      </c>
+      <c r="K178" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15">
       <c r="A179" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="D179" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="E179" s="40" t="s">
-        <v>466</v>
-      </c>
-      <c r="F179" s="40"/>
+        <v>472</v>
+      </c>
+      <c r="D179" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="E179" s="39" t="s">
+        <v>462</v>
+      </c>
+      <c r="F179" s="39"/>
       <c r="G179" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="K179" s="55">
+        <v>474</v>
+      </c>
+      <c r="K179" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="60">
       <c r="A180" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="D180" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="E180" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="F180" s="40" t="s">
-        <v>469</v>
+        <v>472</v>
+      </c>
+      <c r="D180" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="E180" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="F180" s="39" t="s">
+        <v>465</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="K180" s="55">
+        <v>475</v>
+      </c>
+      <c r="K180" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="30">
       <c r="A181" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D181" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="E181" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="F181" s="39"/>
+      <c r="G181" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="D181" s="40" t="s">
-        <v>470</v>
-      </c>
-      <c r="E181" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="F181" s="40"/>
-      <c r="G181" s="15" t="s">
-        <v>480</v>
-      </c>
-      <c r="K181" s="55">
+      <c r="K181" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15">
       <c r="A182" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="D182" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="E182" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="F182" s="40"/>
+      <c r="D182" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="E182" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="F182" s="39"/>
       <c r="G182" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="K182" s="55">
+        <v>477</v>
+      </c>
+      <c r="K182" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="30">
       <c r="A183" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="D183" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="E183" s="40" t="s">
-        <v>475</v>
-      </c>
-      <c r="F183" s="40"/>
+        <v>472</v>
+      </c>
+      <c r="D183" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="E183" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="F183" s="39"/>
       <c r="G183" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="K183" s="55">
+        <v>478</v>
+      </c>
+      <c r="K183" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="45">
       <c r="A184" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D184" s="40" t="s">
-        <v>483</v>
-      </c>
-      <c r="E184" s="40" t="s">
-        <v>484</v>
-      </c>
-      <c r="F184" s="40"/>
+        <v>489</v>
+      </c>
+      <c r="D184" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="E184" s="39" t="s">
+        <v>480</v>
+      </c>
+      <c r="F184" s="39"/>
       <c r="G184" s="15" t="s">
-        <v>490</v>
-      </c>
-      <c r="K184" s="55">
+        <v>486</v>
+      </c>
+      <c r="K184" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="30">
       <c r="A185" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D185" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="E185" s="40" t="s">
-        <v>486</v>
-      </c>
-      <c r="F185" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="D185" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="E185" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="F185" s="39" t="s">
+        <v>483</v>
+      </c>
+      <c r="G185" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="G185" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="K185" s="55">
+      <c r="K185" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="30">
       <c r="A186" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="D186" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="D186" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="E186" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="F186" s="39"/>
+      <c r="G186" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="E186" s="40" t="s">
-        <v>489</v>
-      </c>
-      <c r="F186" s="40"/>
-      <c r="G186" s="15" t="s">
-        <v>492</v>
-      </c>
-      <c r="K186" s="55">
+      <c r="K186" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="30">
       <c r="A187" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="D187" s="41" t="s">
-        <v>494</v>
-      </c>
-      <c r="E187" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="F187" s="41"/>
+        <v>501</v>
+      </c>
+      <c r="D187" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="E187" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="F187" s="40"/>
       <c r="G187" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="K187" s="55">
+        <v>497</v>
+      </c>
+      <c r="K187" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="45">
       <c r="A188" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="D188" s="41" t="s">
-        <v>496</v>
-      </c>
-      <c r="E188" s="41" t="s">
-        <v>497</v>
-      </c>
-      <c r="F188" s="41"/>
+        <v>501</v>
+      </c>
+      <c r="D188" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="E188" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="F188" s="40"/>
       <c r="G188" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="K188" s="55">
+        <v>498</v>
+      </c>
+      <c r="K188" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="30">
       <c r="A189" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="D189" s="41" t="s">
-        <v>498</v>
-      </c>
-      <c r="E189" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="D189" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="E189" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="F189" s="40"/>
+      <c r="G189" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="F189" s="41"/>
-      <c r="G189" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="K189" s="55">
+      <c r="K189" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="30">
       <c r="A190" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="D190" s="41" t="s">
-        <v>498</v>
-      </c>
-      <c r="E190" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="D190" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="E190" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="F190" s="40"/>
+      <c r="G190" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="F190" s="41"/>
-      <c r="G190" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="K190" s="55">
+      <c r="K190" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="30">
       <c r="A191" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="D191" s="40" t="s">
         <v>506</v>
       </c>
-      <c r="E191" s="40" t="s">
-        <v>507</v>
-      </c>
-      <c r="F191" s="40"/>
+      <c r="D191" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="E191" s="39" t="s">
+        <v>503</v>
+      </c>
+      <c r="F191" s="39"/>
       <c r="G191" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="K191" s="55">
+        <v>508</v>
+      </c>
+      <c r="K191" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="30">
       <c r="A192" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="D192" s="40" t="s">
-        <v>508</v>
-      </c>
-      <c r="E192" s="40" t="s">
-        <v>509</v>
-      </c>
-      <c r="F192" s="40"/>
+        <v>506</v>
+      </c>
+      <c r="D192" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="E192" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="F192" s="39"/>
       <c r="G192" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="K192" s="55">
+        <v>507</v>
+      </c>
+      <c r="K192" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="30">
       <c r="A193" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="D193" s="40" t="s">
-        <v>513</v>
-      </c>
-      <c r="E193" s="40" t="s">
-        <v>514</v>
-      </c>
-      <c r="F193" s="40"/>
+        <v>511</v>
+      </c>
+      <c r="D193" s="39" t="s">
+        <v>509</v>
+      </c>
+      <c r="E193" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="F193" s="39"/>
       <c r="G193" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="K193" s="55">
+        <v>512</v>
+      </c>
+      <c r="K193" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="30">
       <c r="A194" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="D194" s="40" t="s">
-        <v>517</v>
-      </c>
-      <c r="E194" s="40" t="s">
-        <v>518</v>
-      </c>
-      <c r="F194" s="40"/>
+        <v>515</v>
+      </c>
+      <c r="D194" s="39" t="s">
+        <v>513</v>
+      </c>
+      <c r="E194" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="F194" s="39"/>
       <c r="G194" s="15" t="s">
-        <v>520</v>
-      </c>
-      <c r="K194" s="55">
+        <v>516</v>
+      </c>
+      <c r="K194" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="45">
       <c r="A195" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="D195" s="40" t="s">
-        <v>521</v>
-      </c>
-      <c r="E195" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="F195" s="40" t="s">
+      <c r="D195" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="E195" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="F195" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="G195" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="G195" s="15" t="s">
-        <v>527</v>
-      </c>
-      <c r="K195" s="55">
+      <c r="K195" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="30">
       <c r="A196" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="D196" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D196" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="E196" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="F196" s="39"/>
+      <c r="G196" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="E196" s="40" t="s">
-        <v>525</v>
-      </c>
-      <c r="F196" s="40"/>
-      <c r="G196" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="K196" s="55">
+      <c r="K196" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="30">
       <c r="A197" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D197" s="40" t="s">
-        <v>529</v>
-      </c>
-      <c r="E197" s="40" t="s">
-        <v>530</v>
-      </c>
-      <c r="F197" s="40"/>
+        <v>546</v>
+      </c>
+      <c r="D197" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="E197" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="F197" s="39"/>
       <c r="G197" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="K197" s="55">
+        <v>547</v>
+      </c>
+      <c r="K197" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="30">
       <c r="A198" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D198" s="40" t="s">
-        <v>531</v>
-      </c>
-      <c r="E198" s="40" t="s">
-        <v>532</v>
-      </c>
-      <c r="F198" s="40"/>
+        <v>546</v>
+      </c>
+      <c r="D198" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="E198" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="F198" s="39"/>
       <c r="G198" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="K198" s="55">
+        <v>548</v>
+      </c>
+      <c r="K198" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="30">
       <c r="A199" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D199" s="40" t="s">
-        <v>531</v>
-      </c>
-      <c r="E199" s="40" t="s">
-        <v>533</v>
-      </c>
-      <c r="F199" s="40"/>
+        <v>546</v>
+      </c>
+      <c r="D199" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="E199" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="F199" s="39"/>
       <c r="G199" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="K199" s="55">
+        <v>549</v>
+      </c>
+      <c r="K199" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="45">
       <c r="A200" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D200" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="E200" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="F200" s="39"/>
+      <c r="G200" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D200" s="40" t="s">
-        <v>534</v>
-      </c>
-      <c r="E200" s="40" t="s">
-        <v>535</v>
-      </c>
-      <c r="F200" s="40"/>
-      <c r="G200" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="K200" s="55">
+      <c r="K200" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="45">
       <c r="A201" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D201" s="40" t="s">
-        <v>534</v>
-      </c>
-      <c r="E201" s="40" t="s">
-        <v>536</v>
-      </c>
-      <c r="F201" s="40"/>
+        <v>546</v>
+      </c>
+      <c r="D201" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="E201" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="F201" s="39"/>
       <c r="G201" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="K201" s="55">
+        <v>551</v>
+      </c>
+      <c r="K201" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="30">
       <c r="A202" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D202" s="40" t="s">
-        <v>537</v>
-      </c>
-      <c r="E202" s="40" t="s">
-        <v>538</v>
-      </c>
-      <c r="F202" s="40"/>
+        <v>546</v>
+      </c>
+      <c r="D202" s="39" t="s">
+        <v>533</v>
+      </c>
+      <c r="E202" s="39" t="s">
+        <v>534</v>
+      </c>
+      <c r="F202" s="39"/>
       <c r="G202" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="K202" s="55">
+        <v>552</v>
+      </c>
+      <c r="K202" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="45">
       <c r="A203" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D203" s="40" t="s">
-        <v>539</v>
-      </c>
-      <c r="E203" s="40" t="s">
-        <v>540</v>
-      </c>
-      <c r="F203" s="40"/>
+        <v>546</v>
+      </c>
+      <c r="D203" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="E203" s="39" t="s">
+        <v>536</v>
+      </c>
+      <c r="F203" s="39"/>
       <c r="G203" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="K203" s="55">
+        <v>553</v>
+      </c>
+      <c r="K203" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="30">
       <c r="A204" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D204" s="40" t="s">
-        <v>541</v>
-      </c>
-      <c r="E204" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="F204" s="40"/>
+        <v>546</v>
+      </c>
+      <c r="D204" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="E204" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="F204" s="39"/>
       <c r="G204" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="K204" s="55">
+        <v>554</v>
+      </c>
+      <c r="K204" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="30">
       <c r="A205" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D205" s="40" t="s">
-        <v>541</v>
-      </c>
-      <c r="E205" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="F205" s="40"/>
+        <v>546</v>
+      </c>
+      <c r="D205" s="39" t="s">
+        <v>537</v>
+      </c>
+      <c r="E205" s="39" t="s">
+        <v>539</v>
+      </c>
+      <c r="F205" s="39"/>
       <c r="G205" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="K205" s="55">
+        <v>555</v>
+      </c>
+      <c r="K205" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="30">
       <c r="A206" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D206" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="E206" s="40" t="s">
-        <v>545</v>
-      </c>
-      <c r="F206" s="40"/>
+        <v>546</v>
+      </c>
+      <c r="D206" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="E206" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="F206" s="39"/>
       <c r="G206" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="K206" s="55">
+        <v>556</v>
+      </c>
+      <c r="K206" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="45">
       <c r="A207" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D207" s="40" t="s">
         <v>546</v>
       </c>
-      <c r="E207" s="40" t="s">
-        <v>547</v>
-      </c>
-      <c r="F207" s="40"/>
+      <c r="D207" s="39" t="s">
+        <v>542</v>
+      </c>
+      <c r="E207" s="39" t="s">
+        <v>543</v>
+      </c>
+      <c r="F207" s="39"/>
       <c r="G207" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="K207" s="55">
+        <v>557</v>
+      </c>
+      <c r="K207" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="45">
       <c r="A208" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D208" s="40" t="s">
-        <v>548</v>
-      </c>
-      <c r="E208" s="40" t="s">
-        <v>549</v>
-      </c>
-      <c r="F208" s="40"/>
+        <v>546</v>
+      </c>
+      <c r="D208" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="E208" s="39" t="s">
+        <v>545</v>
+      </c>
+      <c r="F208" s="39"/>
       <c r="G208" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="K208" s="55">
+        <v>558</v>
+      </c>
+      <c r="K208" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="105">
       <c r="A209" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="D209" s="40" t="s">
-        <v>563</v>
-      </c>
-      <c r="E209" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="F209" s="42" t="s">
+      <c r="D209" s="39" t="s">
+        <v>559</v>
+      </c>
+      <c r="E209" s="39" t="s">
+        <v>560</v>
+      </c>
+      <c r="F209" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G209" s="29"/>
-      <c r="K209" s="55">
+      <c r="G209" s="28"/>
+      <c r="K209" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="30">
       <c r="A210" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="D210" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="E210" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="F210" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="G210" s="29"/>
-      <c r="K210" s="55">
+        <v>564</v>
+      </c>
+      <c r="D210" s="39" t="s">
+        <v>561</v>
+      </c>
+      <c r="E210" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="F210" s="39" t="s">
+        <v>563</v>
+      </c>
+      <c r="G210" s="28"/>
+      <c r="K210" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="30">
       <c r="A211" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D211" s="39" t="s">
+        <v>565</v>
+      </c>
+      <c r="E211" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="F211" s="39"/>
+      <c r="G211" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="D211" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="E211" s="40" t="s">
-        <v>570</v>
-      </c>
-      <c r="F211" s="40"/>
-      <c r="G211" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="K211" s="55">
+      <c r="K211" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="30">
       <c r="A212" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="D212" s="43" t="s">
-        <v>576</v>
-      </c>
-      <c r="E212" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="D212" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="E212" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="F212" s="40"/>
+      <c r="F212" s="39"/>
       <c r="G212" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="K212" s="55">
+        <v>569</v>
+      </c>
+      <c r="K212" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="30">
       <c r="A213" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="D213" s="43" t="s">
-        <v>577</v>
-      </c>
-      <c r="E213" s="40" t="s">
-        <v>571</v>
-      </c>
-      <c r="F213" s="40"/>
+        <v>564</v>
+      </c>
+      <c r="D213" s="42" t="s">
+        <v>573</v>
+      </c>
+      <c r="E213" s="39" t="s">
+        <v>567</v>
+      </c>
+      <c r="F213" s="39"/>
       <c r="G213" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="K213" s="55">
+        <v>570</v>
+      </c>
+      <c r="K213" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="30">
       <c r="A214" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D214" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="E214" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="D214" s="40" t="s">
-        <v>578</v>
-      </c>
-      <c r="E214" s="40" t="s">
-        <v>579</v>
-      </c>
-      <c r="F214" s="40" t="s">
-        <v>580</v>
+      <c r="F214" s="39" t="s">
+        <v>576</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="K214" s="55">
+        <v>583</v>
+      </c>
+      <c r="K214" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="45">
       <c r="A215" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="D215" s="40" t="s">
-        <v>581</v>
-      </c>
-      <c r="E215" s="40" t="s">
-        <v>582</v>
-      </c>
-      <c r="F215" s="40" t="s">
-        <v>583</v>
+        <v>571</v>
+      </c>
+      <c r="D215" s="39" t="s">
+        <v>577</v>
+      </c>
+      <c r="E215" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="F215" s="39" t="s">
+        <v>579</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="K215" s="55">
+        <v>584</v>
+      </c>
+      <c r="K215" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="15">
       <c r="A216" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="D216" s="40" t="s">
-        <v>584</v>
-      </c>
-      <c r="E216" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="D216" s="39" t="s">
+        <v>580</v>
+      </c>
+      <c r="E216" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="F216" s="39"/>
+      <c r="G216" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="F216" s="40"/>
-      <c r="G216" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="K216" s="55">
+      <c r="K216" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="30">
       <c r="A217" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="D217" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="D217" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="E217" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="F217" s="39"/>
+      <c r="G217" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="E217" s="40" t="s">
-        <v>535</v>
-      </c>
-      <c r="F217" s="40"/>
-      <c r="G217" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="K217" s="55">
+      <c r="K217" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="45">
       <c r="A218" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="D218" s="40" t="s">
-        <v>591</v>
-      </c>
-      <c r="E218" s="40" t="s">
-        <v>592</v>
-      </c>
-      <c r="F218" s="40"/>
+        <v>590</v>
+      </c>
+      <c r="D218" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="E218" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="F218" s="39"/>
       <c r="G218" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="K218" s="55">
+        <v>589</v>
+      </c>
+      <c r="K218" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="30">
       <c r="A219" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="D219" s="40" t="s">
-        <v>595</v>
-      </c>
-      <c r="E219" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="F219" s="40"/>
+        <v>605</v>
+      </c>
+      <c r="D219" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="E219" s="39" t="s">
+        <v>592</v>
+      </c>
+      <c r="F219" s="39"/>
       <c r="G219" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="K219" s="55">
+        <v>600</v>
+      </c>
+      <c r="K219" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="30">
       <c r="A220" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="D220" s="40" t="s">
-        <v>597</v>
-      </c>
-      <c r="E220" s="40" t="s">
-        <v>598</v>
-      </c>
-      <c r="F220" s="40"/>
+        <v>605</v>
+      </c>
+      <c r="D220" s="39" t="s">
+        <v>593</v>
+      </c>
+      <c r="E220" s="39" t="s">
+        <v>594</v>
+      </c>
+      <c r="F220" s="39"/>
       <c r="G220" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="K220" s="55">
+        <v>601</v>
+      </c>
+      <c r="K220" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="60">
       <c r="A221" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="D221" s="40" t="s">
-        <v>599</v>
-      </c>
-      <c r="E221" s="40"/>
-      <c r="F221" s="40"/>
+        <v>605</v>
+      </c>
+      <c r="D221" s="39" t="s">
+        <v>595</v>
+      </c>
+      <c r="E221" s="39"/>
+      <c r="F221" s="39"/>
       <c r="G221" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="K221" s="55">
+        <v>602</v>
+      </c>
+      <c r="K221" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="30">
       <c r="A222" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="D222" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="E222" s="40" t="s">
-        <v>601</v>
-      </c>
-      <c r="F222" s="40"/>
+        <v>605</v>
+      </c>
+      <c r="D222" s="39" t="s">
+        <v>596</v>
+      </c>
+      <c r="E222" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="F222" s="39"/>
       <c r="G222" s="15" t="s">
-        <v>607</v>
-      </c>
-      <c r="K222" s="55">
+        <v>603</v>
+      </c>
+      <c r="K222" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="30">
       <c r="A223" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="D223" s="40" t="s">
-        <v>602</v>
-      </c>
-      <c r="E223" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="F223" s="40"/>
+        <v>605</v>
+      </c>
+      <c r="D223" s="39" t="s">
+        <v>598</v>
+      </c>
+      <c r="E223" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="F223" s="39"/>
       <c r="G223" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="K223" s="55">
+        <v>604</v>
+      </c>
+      <c r="K223" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="45">
       <c r="A224" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="D224" s="40" t="s">
+        <v>608</v>
+      </c>
+      <c r="D224" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="E224" s="39" t="s">
+        <v>607</v>
+      </c>
+      <c r="F224" s="43"/>
+      <c r="G224" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="E224" s="40" t="s">
-        <v>611</v>
-      </c>
-      <c r="F224" s="44"/>
-      <c r="G224" s="15" t="s">
-        <v>614</v>
-      </c>
-      <c r="K224" s="55">
+      <c r="K224" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="30">
       <c r="A225" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="D225" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="E225" s="39" t="s">
         <v>613</v>
       </c>
-      <c r="D225" s="40" t="s">
-        <v>616</v>
-      </c>
-      <c r="E225" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="F225" s="40"/>
+      <c r="F225" s="39"/>
       <c r="G225" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="K225" s="55">
+        <v>611</v>
+      </c>
+      <c r="K225" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="30">
       <c r="A226" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="D226" s="39" t="s">
-        <v>618</v>
-      </c>
-      <c r="E226" s="40" t="s">
-        <v>618</v>
-      </c>
-      <c r="F226" s="40"/>
+        <v>609</v>
+      </c>
+      <c r="D226" s="38" t="s">
+        <v>614</v>
+      </c>
+      <c r="E226" s="39" t="s">
+        <v>614</v>
+      </c>
+      <c r="F226" s="39"/>
       <c r="G226" s="15" t="s">
-        <v>621</v>
-      </c>
-      <c r="K226" s="55">
+        <v>617</v>
+      </c>
+      <c r="K226" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="15">
       <c r="A227" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="D227" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="E227" s="40" t="s">
-        <v>620</v>
-      </c>
-      <c r="F227" s="40"/>
+        <v>609</v>
+      </c>
+      <c r="D227" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="E227" s="39" t="s">
+        <v>616</v>
+      </c>
+      <c r="F227" s="39"/>
       <c r="G227" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="K227" s="55">
+        <v>618</v>
+      </c>
+      <c r="K227" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="30">
       <c r="A228" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="D228" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="E228" s="40" t="s">
-        <v>624</v>
-      </c>
-      <c r="F228" s="40" t="s">
-        <v>625</v>
+        <v>627</v>
+      </c>
+      <c r="D228" s="38" t="s">
+        <v>619</v>
+      </c>
+      <c r="E228" s="39" t="s">
+        <v>620</v>
+      </c>
+      <c r="F228" s="39" t="s">
+        <v>621</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="K228" s="55">
+        <v>628</v>
+      </c>
+      <c r="K228" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="30">
       <c r="A229" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="D229" s="39" t="s">
-        <v>626</v>
-      </c>
-      <c r="E229" s="40" t="s">
         <v>627</v>
       </c>
-      <c r="F229" s="40"/>
+      <c r="D229" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="E229" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="F229" s="39"/>
       <c r="G229" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="K229" s="55">
+        <v>629</v>
+      </c>
+      <c r="K229" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="15">
       <c r="A230" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="D230" s="39" t="s">
-        <v>628</v>
-      </c>
-      <c r="E230" s="40" t="s">
-        <v>629</v>
-      </c>
-      <c r="F230" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="D230" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="E230" s="39" t="s">
+        <v>625</v>
+      </c>
+      <c r="F230" s="39" t="s">
+        <v>626</v>
+      </c>
+      <c r="G230" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="G230" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="K230" s="55">
+      <c r="K230" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="15">
       <c r="A231" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="D231" s="39" t="s">
-        <v>635</v>
-      </c>
-      <c r="E231" s="40" t="s">
-        <v>636</v>
-      </c>
-      <c r="F231" s="40"/>
+        <v>638</v>
+      </c>
+      <c r="D231" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="E231" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="F231" s="39"/>
       <c r="G231" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="K231" s="55">
+        <v>639</v>
+      </c>
+      <c r="K231" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="30">
       <c r="A232" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="D232" s="39" t="s">
-        <v>637</v>
-      </c>
-      <c r="E232" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="F232" s="40" t="s">
-        <v>639</v>
+      <c r="D232" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="E232" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="F232" s="39" t="s">
+        <v>635</v>
       </c>
       <c r="G232" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="K232" s="55">
+        <v>640</v>
+      </c>
+      <c r="K232" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15">
       <c r="A233" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="D233" s="39" t="s">
-        <v>640</v>
-      </c>
-      <c r="E233" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="D233" s="38" t="s">
+        <v>636</v>
+      </c>
+      <c r="E233" s="39" t="s">
+        <v>637</v>
+      </c>
+      <c r="F233" s="39"/>
+      <c r="G233" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="F233" s="40"/>
-      <c r="G233" s="15" t="s">
-        <v>645</v>
-      </c>
-      <c r="K233" s="55">
+      <c r="K233" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="15">
       <c r="A234" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D234" s="39" t="s">
-        <v>646</v>
-      </c>
-      <c r="E234" s="40" t="s">
-        <v>647</v>
-      </c>
-      <c r="F234" s="40"/>
+        <v>652</v>
+      </c>
+      <c r="D234" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="E234" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="F234" s="39"/>
       <c r="G234" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="K234" s="55">
+        <v>653</v>
+      </c>
+      <c r="K234" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="45">
       <c r="A235" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D235" s="39" t="s">
-        <v>648</v>
-      </c>
-      <c r="E235" s="40" t="s">
-        <v>649</v>
-      </c>
-      <c r="F235" s="40" t="s">
-        <v>650</v>
+        <v>652</v>
+      </c>
+      <c r="D235" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="E235" s="39" t="s">
+        <v>645</v>
+      </c>
+      <c r="F235" s="39" t="s">
+        <v>646</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="K235" s="55">
+        <v>654</v>
+      </c>
+      <c r="K235" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="15">
       <c r="A236" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D236" s="39" t="s">
-        <v>648</v>
-      </c>
-      <c r="E236" s="40" t="s">
-        <v>651</v>
-      </c>
-      <c r="F236" s="40"/>
+        <v>652</v>
+      </c>
+      <c r="D236" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="E236" s="39" t="s">
+        <v>647</v>
+      </c>
+      <c r="F236" s="39"/>
       <c r="G236" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="K236" s="55">
+        <v>655</v>
+      </c>
+      <c r="K236" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="45">
       <c r="A237" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="D237" s="38" t="s">
+        <v>644</v>
+      </c>
+      <c r="E237" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="F237" s="39" t="s">
+        <v>648</v>
+      </c>
+      <c r="G237" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="D237" s="39" t="s">
-        <v>648</v>
-      </c>
-      <c r="E237" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="F237" s="40" t="s">
-        <v>652</v>
-      </c>
-      <c r="G237" s="15" t="s">
-        <v>660</v>
-      </c>
-      <c r="K237" s="55">
+      <c r="K237" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="30">
       <c r="A238" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D238" s="39" t="s">
-        <v>653</v>
-      </c>
-      <c r="E238" s="40" t="s">
-        <v>654</v>
-      </c>
-      <c r="F238" s="40" t="s">
-        <v>655</v>
+        <v>652</v>
+      </c>
+      <c r="D238" s="38" t="s">
+        <v>649</v>
+      </c>
+      <c r="E238" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="F238" s="39" t="s">
+        <v>651</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="K238" s="55">
+        <v>657</v>
+      </c>
+      <c r="K238" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="15">
       <c r="A239" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="D239" s="39" t="s">
-        <v>662</v>
-      </c>
-      <c r="E239" s="40" t="s">
-        <v>663</v>
-      </c>
-      <c r="F239" s="40"/>
+        <v>660</v>
+      </c>
+      <c r="D239" s="38" t="s">
+        <v>658</v>
+      </c>
+      <c r="E239" s="39" t="s">
+        <v>659</v>
+      </c>
+      <c r="F239" s="39"/>
       <c r="G239" s="15" t="s">
-        <v>665</v>
-      </c>
-      <c r="K239" s="55">
+        <v>661</v>
+      </c>
+      <c r="K239" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="15">
       <c r="A240" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="D240" s="39" t="s">
-        <v>666</v>
-      </c>
-      <c r="E240" s="40" t="s">
-        <v>667</v>
-      </c>
-      <c r="F240" s="40"/>
+        <v>684</v>
+      </c>
+      <c r="D240" s="38" t="s">
+        <v>662</v>
+      </c>
+      <c r="E240" s="39" t="s">
+        <v>663</v>
+      </c>
+      <c r="F240" s="39"/>
       <c r="G240" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="K240" s="55">
+        <v>677</v>
+      </c>
+      <c r="K240" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="45">
       <c r="A241" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="D241" s="39" t="s">
-        <v>668</v>
-      </c>
-      <c r="E241" s="40" t="s">
-        <v>669</v>
-      </c>
-      <c r="F241" s="40" t="s">
-        <v>670</v>
+        <v>684</v>
+      </c>
+      <c r="D241" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="E241" s="39" t="s">
+        <v>665</v>
+      </c>
+      <c r="F241" s="39" t="s">
+        <v>666</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="K241" s="55">
+        <v>678</v>
+      </c>
+      <c r="K241" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="45">
       <c r="A242" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="D242" s="39" t="s">
+        <v>684</v>
+      </c>
+      <c r="D242" s="38" t="s">
+        <v>664</v>
+      </c>
+      <c r="E242" s="39" t="s">
+        <v>667</v>
+      </c>
+      <c r="F242" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="E242" s="40" t="s">
-        <v>671</v>
-      </c>
-      <c r="F242" s="40" t="s">
-        <v>672</v>
-      </c>
       <c r="G242" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="K242" s="55">
+        <v>679</v>
+      </c>
+      <c r="K242" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="45">
       <c r="A243" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="D243" s="39" t="s">
-        <v>673</v>
-      </c>
-      <c r="E243" s="40" t="s">
-        <v>674</v>
-      </c>
-      <c r="F243" s="40" t="s">
-        <v>675</v>
+        <v>684</v>
+      </c>
+      <c r="D243" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="E243" s="39" t="s">
+        <v>670</v>
+      </c>
+      <c r="F243" s="39" t="s">
+        <v>671</v>
       </c>
       <c r="G243" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="K243" s="55">
+        <v>680</v>
+      </c>
+      <c r="K243" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="60">
       <c r="A244" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="D244" s="40" t="s">
+        <v>684</v>
+      </c>
+      <c r="D244" s="39" t="s">
+        <v>669</v>
+      </c>
+      <c r="E244" s="39" t="s">
+        <v>672</v>
+      </c>
+      <c r="F244" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="E244" s="40" t="s">
-        <v>676</v>
-      </c>
-      <c r="F244" s="40" t="s">
-        <v>677</v>
-      </c>
       <c r="G244" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="K244" s="55">
+        <v>681</v>
+      </c>
+      <c r="K244" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="45">
       <c r="A245" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="D245" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="E245" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="F245" s="40" t="s">
-        <v>680</v>
+        <v>684</v>
+      </c>
+      <c r="D245" s="44" t="s">
+        <v>674</v>
+      </c>
+      <c r="E245" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="F245" s="39" t="s">
+        <v>676</v>
       </c>
       <c r="G245" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="K245" s="55">
+        <v>682</v>
+      </c>
+      <c r="K245" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="45">
       <c r="A246" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="D246" s="45" t="s">
-        <v>678</v>
-      </c>
-      <c r="E246" s="39" t="s">
-        <v>679</v>
-      </c>
-      <c r="F246" s="40" t="s">
-        <v>680</v>
+        <v>684</v>
+      </c>
+      <c r="D246" s="44" t="s">
+        <v>674</v>
+      </c>
+      <c r="E246" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="F246" s="39" t="s">
+        <v>676</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>687</v>
-      </c>
-      <c r="K246" s="55">
+        <v>683</v>
+      </c>
+      <c r="K246" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="45">
       <c r="A247" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="D247" s="42" t="s">
-        <v>689</v>
-      </c>
-      <c r="E247" s="42" t="s">
-        <v>690</v>
-      </c>
-      <c r="F247" s="40"/>
-      <c r="G247" s="46" t="s">
-        <v>691</v>
-      </c>
-      <c r="H247" s="36"/>
-      <c r="I247" s="37"/>
-      <c r="K247" s="55">
+        <v>736</v>
+      </c>
+      <c r="D247" s="41" t="s">
+        <v>685</v>
+      </c>
+      <c r="E247" s="41" t="s">
+        <v>686</v>
+      </c>
+      <c r="F247" s="39"/>
+      <c r="G247" s="45" t="s">
+        <v>687</v>
+      </c>
+      <c r="H247" s="35"/>
+      <c r="I247" s="36"/>
+      <c r="K247" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="90">
       <c r="A248" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="D248" s="40" t="s">
-        <v>692</v>
-      </c>
-      <c r="E248" s="40" t="s">
-        <v>693</v>
-      </c>
-      <c r="F248" s="40"/>
-      <c r="G248" s="46" t="s">
-        <v>694</v>
-      </c>
-      <c r="H248" s="47"/>
-      <c r="I248" s="48"/>
-      <c r="K248" s="55">
+        <v>737</v>
+      </c>
+      <c r="D248" s="39" t="s">
+        <v>688</v>
+      </c>
+      <c r="E248" s="39" t="s">
+        <v>689</v>
+      </c>
+      <c r="F248" s="39"/>
+      <c r="G248" s="45" t="s">
+        <v>690</v>
+      </c>
+      <c r="H248" s="46"/>
+      <c r="I248" s="47"/>
+      <c r="K248" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15">
       <c r="A249" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="D249" s="39" t="s">
-        <v>695</v>
-      </c>
-      <c r="E249" s="39" t="s">
-        <v>696</v>
-      </c>
-      <c r="F249" s="40"/>
-      <c r="G249" s="46" t="s">
-        <v>697</v>
-      </c>
-      <c r="H249" s="47"/>
-      <c r="I249" s="48"/>
-      <c r="K249" s="55">
+        <v>738</v>
+      </c>
+      <c r="D249" s="38" t="s">
+        <v>691</v>
+      </c>
+      <c r="E249" s="38" t="s">
+        <v>692</v>
+      </c>
+      <c r="F249" s="39"/>
+      <c r="G249" s="45" t="s">
+        <v>693</v>
+      </c>
+      <c r="H249" s="46"/>
+      <c r="I249" s="47"/>
+      <c r="K249" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="15.6">
       <c r="A250" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="D250" s="39" t="s">
-        <v>698</v>
-      </c>
-      <c r="E250" s="39" t="s">
-        <v>699</v>
-      </c>
-      <c r="F250" s="40"/>
-      <c r="G250" s="46" t="s">
-        <v>700</v>
-      </c>
-      <c r="H250" s="47"/>
-      <c r="I250" s="37" t="s">
-        <v>701</v>
-      </c>
-      <c r="K250" s="55">
+        <v>739</v>
+      </c>
+      <c r="D250" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="E250" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="F250" s="39"/>
+      <c r="G250" s="45" t="s">
+        <v>696</v>
+      </c>
+      <c r="H250" s="46"/>
+      <c r="I250" s="36" t="s">
+        <v>697</v>
+      </c>
+      <c r="K250" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="60">
       <c r="A251" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="D251" s="40" t="s">
-        <v>702</v>
-      </c>
-      <c r="E251" s="40" t="s">
-        <v>703</v>
-      </c>
-      <c r="F251" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="G251" s="46" t="s">
-        <v>704</v>
-      </c>
-      <c r="H251" s="36"/>
-      <c r="I251" s="37"/>
-      <c r="K251" s="55">
+        <v>740</v>
+      </c>
+      <c r="D251" s="39" t="s">
+        <v>698</v>
+      </c>
+      <c r="E251" s="39" t="s">
+        <v>699</v>
+      </c>
+      <c r="F251" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="G251" s="45" t="s">
+        <v>700</v>
+      </c>
+      <c r="H251" s="35"/>
+      <c r="I251" s="36"/>
+      <c r="K251" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="60">
       <c r="A252" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="D252" s="40" t="s">
-        <v>705</v>
-      </c>
-      <c r="E252" s="40" t="s">
-        <v>706</v>
-      </c>
-      <c r="F252" s="40"/>
-      <c r="G252" s="46" t="s">
-        <v>707</v>
-      </c>
-      <c r="H252" s="36"/>
-      <c r="I252" s="37"/>
-      <c r="K252" s="55">
+        <v>741</v>
+      </c>
+      <c r="D252" s="39" t="s">
+        <v>701</v>
+      </c>
+      <c r="E252" s="39" t="s">
+        <v>702</v>
+      </c>
+      <c r="F252" s="39"/>
+      <c r="G252" s="45" t="s">
+        <v>703</v>
+      </c>
+      <c r="H252" s="35"/>
+      <c r="I252" s="36"/>
+      <c r="K252" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15.6">
       <c r="A253" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="D253" s="39" t="s">
-        <v>708</v>
-      </c>
-      <c r="E253" s="39" t="s">
-        <v>709</v>
-      </c>
-      <c r="F253" s="40"/>
-      <c r="G253" s="46" t="s">
-        <v>710</v>
-      </c>
-      <c r="H253" s="36"/>
-      <c r="I253" s="37"/>
-      <c r="K253" s="55">
+        <v>742</v>
+      </c>
+      <c r="D253" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="E253" s="38" t="s">
+        <v>705</v>
+      </c>
+      <c r="F253" s="39"/>
+      <c r="G253" s="45" t="s">
+        <v>706</v>
+      </c>
+      <c r="H253" s="35"/>
+      <c r="I253" s="36"/>
+      <c r="K253" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="45">
       <c r="A254" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="D254" s="42" t="s">
-        <v>711</v>
-      </c>
-      <c r="E254" s="42" t="s">
-        <v>712</v>
-      </c>
-      <c r="F254" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="G254" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="H254" s="36"/>
-      <c r="I254" s="37"/>
-      <c r="K254" s="55">
+        <v>743</v>
+      </c>
+      <c r="D254" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="E254" s="41" t="s">
+        <v>708</v>
+      </c>
+      <c r="F254" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="G254" s="45" t="s">
+        <v>709</v>
+      </c>
+      <c r="H254" s="35"/>
+      <c r="I254" s="36"/>
+      <c r="K254" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="45">
       <c r="A255" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="D255" s="42" t="s">
-        <v>714</v>
-      </c>
-      <c r="E255" s="42" t="s">
-        <v>715</v>
-      </c>
-      <c r="F255" s="40"/>
-      <c r="G255" s="46" t="s">
-        <v>716</v>
-      </c>
-      <c r="H255" s="36"/>
-      <c r="I255" s="37"/>
-      <c r="K255" s="55">
+        <v>744</v>
+      </c>
+      <c r="D255" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="E255" s="41" t="s">
+        <v>711</v>
+      </c>
+      <c r="F255" s="39"/>
+      <c r="G255" s="45" t="s">
+        <v>712</v>
+      </c>
+      <c r="H255" s="35"/>
+      <c r="I255" s="36"/>
+      <c r="K255" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="75">
       <c r="A256" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="D256" s="42" t="s">
-        <v>717</v>
-      </c>
-      <c r="E256" s="42" t="s">
-        <v>718</v>
-      </c>
-      <c r="F256" s="40"/>
-      <c r="G256" s="46" t="s">
-        <v>719</v>
-      </c>
-      <c r="H256" s="36"/>
-      <c r="I256" s="37"/>
-      <c r="K256" s="55">
+        <v>745</v>
+      </c>
+      <c r="D256" s="41" t="s">
+        <v>713</v>
+      </c>
+      <c r="E256" s="41" t="s">
+        <v>714</v>
+      </c>
+      <c r="F256" s="39"/>
+      <c r="G256" s="45" t="s">
+        <v>715</v>
+      </c>
+      <c r="H256" s="35"/>
+      <c r="I256" s="36"/>
+      <c r="K256" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="75">
       <c r="A257" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="D257" s="42" t="s">
-        <v>720</v>
-      </c>
-      <c r="E257" s="42" t="s">
-        <v>721</v>
-      </c>
-      <c r="F257" s="40"/>
-      <c r="G257" s="46" t="s">
-        <v>722</v>
-      </c>
-      <c r="H257" s="36"/>
-      <c r="I257" s="37"/>
-      <c r="K257" s="55">
+        <v>746</v>
+      </c>
+      <c r="D257" s="41" t="s">
+        <v>716</v>
+      </c>
+      <c r="E257" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="F257" s="39"/>
+      <c r="G257" s="45" t="s">
+        <v>718</v>
+      </c>
+      <c r="H257" s="35"/>
+      <c r="I257" s="36"/>
+      <c r="K257" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="90">
       <c r="A258" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="D258" s="42" t="s">
-        <v>723</v>
-      </c>
-      <c r="E258" s="42" t="s">
-        <v>724</v>
-      </c>
-      <c r="F258" s="40"/>
-      <c r="G258" s="46" t="s">
-        <v>725</v>
-      </c>
-      <c r="H258" s="36"/>
-      <c r="I258" s="37"/>
-      <c r="K258" s="55">
+        <v>747</v>
+      </c>
+      <c r="D258" s="41" t="s">
+        <v>719</v>
+      </c>
+      <c r="E258" s="41" t="s">
+        <v>720</v>
+      </c>
+      <c r="F258" s="39"/>
+      <c r="G258" s="45" t="s">
+        <v>721</v>
+      </c>
+      <c r="H258" s="35"/>
+      <c r="I258" s="36"/>
+      <c r="K258" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="60">
       <c r="A259" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="D259" s="42" t="s">
-        <v>726</v>
-      </c>
-      <c r="E259" s="42" t="s">
-        <v>727</v>
-      </c>
-      <c r="F259" s="40"/>
-      <c r="G259" s="46" t="s">
-        <v>728</v>
-      </c>
-      <c r="H259" s="36"/>
-      <c r="I259" s="37" t="s">
-        <v>729</v>
-      </c>
-      <c r="K259" s="55">
+        <v>748</v>
+      </c>
+      <c r="D259" s="41" t="s">
+        <v>722</v>
+      </c>
+      <c r="E259" s="41" t="s">
+        <v>723</v>
+      </c>
+      <c r="F259" s="39"/>
+      <c r="G259" s="45" t="s">
+        <v>724</v>
+      </c>
+      <c r="H259" s="35"/>
+      <c r="I259" s="36" t="s">
+        <v>725</v>
+      </c>
+      <c r="K259" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="75">
       <c r="A260" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="D260" s="42" t="s">
-        <v>730</v>
-      </c>
-      <c r="E260" s="42" t="s">
-        <v>731</v>
-      </c>
-      <c r="F260" s="40"/>
-      <c r="G260" s="46" t="s">
-        <v>732</v>
-      </c>
-      <c r="H260" s="36"/>
-      <c r="I260" s="37" t="s">
-        <v>733</v>
-      </c>
-      <c r="K260" s="55">
+        <v>749</v>
+      </c>
+      <c r="D260" s="41" t="s">
+        <v>726</v>
+      </c>
+      <c r="E260" s="41" t="s">
+        <v>727</v>
+      </c>
+      <c r="F260" s="39"/>
+      <c r="G260" s="45" t="s">
+        <v>728</v>
+      </c>
+      <c r="H260" s="35"/>
+      <c r="I260" s="36" t="s">
+        <v>729</v>
+      </c>
+      <c r="K260" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="75">
       <c r="A261" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="D261" s="42" t="s">
-        <v>734</v>
-      </c>
-      <c r="E261" s="42" t="s">
-        <v>735</v>
-      </c>
-      <c r="F261" s="40"/>
-      <c r="G261" s="46" t="s">
-        <v>736</v>
-      </c>
-      <c r="H261" s="36"/>
-      <c r="I261" s="37"/>
-      <c r="K261" s="55">
+        <v>750</v>
+      </c>
+      <c r="D261" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="E261" s="41" t="s">
+        <v>731</v>
+      </c>
+      <c r="F261" s="39"/>
+      <c r="G261" s="45" t="s">
+        <v>732</v>
+      </c>
+      <c r="H261" s="35"/>
+      <c r="I261" s="36"/>
+      <c r="K261" s="54">
         <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="45">
       <c r="A262" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="D262" s="42" t="s">
-        <v>737</v>
-      </c>
-      <c r="E262" s="42" t="s">
-        <v>738</v>
-      </c>
-      <c r="F262" s="40"/>
-      <c r="G262" s="46" t="s">
-        <v>739</v>
-      </c>
-      <c r="H262" s="36"/>
-      <c r="I262" s="37"/>
-      <c r="K262" s="55">
+        <v>751</v>
+      </c>
+      <c r="D262" s="41" t="s">
+        <v>733</v>
+      </c>
+      <c r="E262" s="41" t="s">
+        <v>734</v>
+      </c>
+      <c r="F262" s="39"/>
+      <c r="G262" s="45" t="s">
+        <v>735</v>
+      </c>
+      <c r="H262" s="35"/>
+      <c r="I262" s="36"/>
+      <c r="K262" s="54">
         <v>1</v>
       </c>
     </row>
@@ -8870,17 +8861,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
   </sheetData>

--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -3005,7 +3005,7 @@
       <name val="NikoshBAN"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3042,12 +3042,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3062,7 +3056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3145,9 +3139,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3276,11 +3267,17 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3555,7 +3552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3970,8 +3967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4037,7 +4034,7 @@
       <c r="F2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="53" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="8">
@@ -4065,7 +4062,7 @@
       <c r="A4" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="52" t="s">
         <v>752</v>
       </c>
       <c r="E4" s="18" t="s">
@@ -4074,7 +4071,7 @@
       <c r="F4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="53" t="s">
         <v>60</v>
       </c>
       <c r="K4" s="8">
@@ -4085,10 +4082,10 @@
       <c r="A5" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>753</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>753</v>
       </c>
       <c r="F5" s="9"/>
@@ -4103,13 +4100,13 @@
       <c r="A6" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="G6" s="54" t="s">
+      <c r="G6" s="53" t="s">
         <v>62</v>
       </c>
       <c r="K6" s="8">
@@ -4117,19 +4114,19 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="55" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="8">
@@ -4137,19 +4134,19 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="54" t="s">
         <v>770</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="55" t="s">
         <v>64</v>
       </c>
       <c r="K8" s="8">
@@ -4160,10 +4157,10 @@
       <c r="A9" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>755</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="48" t="s">
         <v>755</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -4177,13 +4174,13 @@
       <c r="A10" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="48" t="s">
         <v>756</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="48" t="s">
         <v>756</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="53" t="s">
         <v>66</v>
       </c>
       <c r="K10" s="8">
@@ -4194,10 +4191,10 @@
       <c r="A11" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="48" t="s">
         <v>757</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="48" t="s">
         <v>757</v>
       </c>
       <c r="G11" s="15" t="s">
@@ -4211,13 +4208,13 @@
       <c r="A12" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="48" t="s">
         <v>758</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="48" t="s">
         <v>758</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="53" t="s">
         <v>68</v>
       </c>
       <c r="K12" s="8">
@@ -4228,13 +4225,13 @@
       <c r="A13" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>759</v>
       </c>
-      <c r="E13" s="50" t="s">
+      <c r="E13" s="49" t="s">
         <v>759</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="53" t="s">
         <v>69</v>
       </c>
       <c r="K13" s="8">
@@ -4245,13 +4242,13 @@
       <c r="A14" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>760</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="49" t="s">
         <v>760</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="53" t="s">
         <v>70</v>
       </c>
       <c r="K14" s="8">
@@ -4262,13 +4259,13 @@
       <c r="A15" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>761</v>
       </c>
-      <c r="E15" s="50" t="s">
+      <c r="E15" s="49" t="s">
         <v>761</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="53" t="s">
         <v>71</v>
       </c>
       <c r="K15" s="8">
@@ -4279,13 +4276,13 @@
       <c r="A16" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="50" t="s">
         <v>762</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="50" t="s">
         <v>762</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="53" t="s">
         <v>72</v>
       </c>
       <c r="K16" s="8">
@@ -4296,13 +4293,13 @@
       <c r="A17" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>763</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="50" t="s">
         <v>763</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="53" t="s">
         <v>73</v>
       </c>
       <c r="K17" s="8">
@@ -4319,7 +4316,7 @@
       <c r="E18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="53" t="s">
         <v>74</v>
       </c>
       <c r="K18" s="8">
@@ -4330,10 +4327,10 @@
       <c r="A19" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="49" t="s">
         <v>764</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="49" t="s">
         <v>764</v>
       </c>
       <c r="G19" s="15" t="s">
@@ -4347,10 +4344,10 @@
       <c r="A20" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>765</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="50" t="s">
         <v>765</v>
       </c>
       <c r="G20" s="15" t="s">
@@ -4364,10 +4361,10 @@
       <c r="A21" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D21" s="50" t="s">
         <v>766</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="50" t="s">
         <v>766</v>
       </c>
       <c r="G21" s="15" t="s">
@@ -4398,13 +4395,13 @@
       <c r="A23" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="51" t="s">
         <v>768</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="51" t="s">
         <v>768</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="53" t="s">
         <v>79</v>
       </c>
       <c r="K23" s="8">
@@ -4412,29 +4409,29 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="59" t="s">
         <v>770</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60" t="s">
         <v>769</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="60" t="s">
         <v>769</v>
       </c>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60" t="s">
+      <c r="F24" s="59"/>
+      <c r="G24" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54">
-        <v>1</v>
-      </c>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53">
+        <v>1</v>
+      </c>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
     </row>
     <row r="25" spans="1:13" ht="41.4">
       <c r="A25" s="8" t="s">
@@ -4463,7 +4460,7 @@
       <c r="E26" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="53" t="s">
         <v>145</v>
       </c>
       <c r="K26" s="8">
@@ -4497,7 +4494,7 @@
       <c r="E28" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="54" t="s">
+      <c r="G28" s="53" t="s">
         <v>147</v>
       </c>
       <c r="K28" s="8">
@@ -4531,7 +4528,7 @@
       <c r="E30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="54" t="s">
+      <c r="G30" s="53" t="s">
         <v>149</v>
       </c>
       <c r="K30" s="8">
@@ -4548,7 +4545,7 @@
       <c r="E31" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="54" t="s">
+      <c r="G31" s="53" t="s">
         <v>150</v>
       </c>
       <c r="K31" s="8">
@@ -4565,7 +4562,7 @@
       <c r="E32" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="53" t="s">
         <v>151</v>
       </c>
       <c r="K32" s="8">
@@ -4582,7 +4579,7 @@
       <c r="E33" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="54" t="s">
+      <c r="G33" s="53" t="s">
         <v>152</v>
       </c>
       <c r="K33" s="8">
@@ -4599,7 +4596,7 @@
       <c r="E34" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="54" t="s">
+      <c r="G34" s="53" t="s">
         <v>153</v>
       </c>
       <c r="K34" s="8">
@@ -4616,7 +4613,7 @@
       <c r="E35" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G35" s="54" t="s">
+      <c r="G35" s="53" t="s">
         <v>154</v>
       </c>
       <c r="K35" s="8">
@@ -4627,13 +4624,13 @@
       <c r="A36" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="48" t="s">
         <v>779</v>
       </c>
-      <c r="E36" s="49" t="s">
+      <c r="E36" s="48" t="s">
         <v>780</v>
       </c>
-      <c r="G36" s="54" t="s">
+      <c r="G36" s="53" t="s">
         <v>155</v>
       </c>
       <c r="K36" s="8">
@@ -4650,7 +4647,7 @@
       <c r="E37" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="53" t="s">
         <v>156</v>
       </c>
       <c r="K37" s="8">
@@ -4684,7 +4681,7 @@
       <c r="E39" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="54" t="s">
+      <c r="G39" s="53" t="s">
         <v>158</v>
       </c>
       <c r="K39" s="8">
@@ -4701,7 +4698,7 @@
       <c r="E40" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="G40" s="53" t="s">
         <v>159</v>
       </c>
       <c r="K40" s="8">
@@ -4712,13 +4709,13 @@
       <c r="A41" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D41" s="49" t="s">
+      <c r="D41" s="48" t="s">
         <v>783</v>
       </c>
-      <c r="E41" s="49" t="s">
+      <c r="E41" s="48" t="s">
         <v>784</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="53" t="s">
         <v>160</v>
       </c>
       <c r="K41" s="8">
@@ -4752,7 +4749,7 @@
       <c r="E43" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="54" t="s">
+      <c r="G43" s="53" t="s">
         <v>162</v>
       </c>
       <c r="K43" s="8">
@@ -4763,13 +4760,13 @@
       <c r="A44" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="48" t="s">
         <v>786</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="48" t="s">
         <v>787</v>
       </c>
-      <c r="G44" s="54" t="s">
+      <c r="G44" s="53" t="s">
         <v>163</v>
       </c>
       <c r="K44" s="8">
@@ -4786,7 +4783,7 @@
       <c r="E45" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="54" t="s">
+      <c r="G45" s="53" t="s">
         <v>164</v>
       </c>
       <c r="K45" s="8">
@@ -4803,7 +4800,7 @@
       <c r="E46" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="54" t="s">
+      <c r="G46" s="53" t="s">
         <v>165</v>
       </c>
       <c r="K46" s="8">
@@ -4837,7 +4834,7 @@
       <c r="E48" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="54" t="s">
+      <c r="G48" s="53" t="s">
         <v>167</v>
       </c>
       <c r="K48" s="8">
@@ -4854,7 +4851,7 @@
       <c r="E49" s="23" t="s">
         <v>790</v>
       </c>
-      <c r="G49" s="54" t="s">
+      <c r="G49" s="53" t="s">
         <v>168</v>
       </c>
       <c r="K49" s="8">
@@ -4871,7 +4868,7 @@
       <c r="E50" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="54" t="s">
+      <c r="G50" s="53" t="s">
         <v>169</v>
       </c>
       <c r="K50" s="8">
@@ -4888,7 +4885,7 @@
       <c r="E51" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="54" t="s">
+      <c r="G51" s="53" t="s">
         <v>170</v>
       </c>
       <c r="K51" s="8">
@@ -4905,7 +4902,7 @@
       <c r="E52" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G52" s="54" t="s">
+      <c r="G52" s="53" t="s">
         <v>171</v>
       </c>
       <c r="K52" s="8">
@@ -4922,7 +4919,7 @@
       <c r="E53" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="54" t="s">
+      <c r="G53" s="53" t="s">
         <v>172</v>
       </c>
       <c r="K53" s="8">
@@ -4939,7 +4936,7 @@
       <c r="E54" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="54" t="s">
+      <c r="G54" s="53" t="s">
         <v>173</v>
       </c>
       <c r="K54" s="8">
@@ -4956,7 +4953,7 @@
       <c r="E55" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G55" s="54" t="s">
+      <c r="G55" s="53" t="s">
         <v>174</v>
       </c>
       <c r="K55" s="8">
@@ -4973,7 +4970,7 @@
       <c r="E56" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="G56" s="54" t="s">
+      <c r="G56" s="53" t="s">
         <v>175</v>
       </c>
       <c r="K56" s="8">
@@ -4984,16 +4981,16 @@
       <c r="A57" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="58" t="s">
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="59" t="s">
+      <c r="E57" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="F57" s="57"/>
-      <c r="G57" s="54" t="s">
+      <c r="F57" s="56"/>
+      <c r="G57" s="53" t="s">
         <v>176</v>
       </c>
       <c r="K57" s="8">
@@ -5010,7 +5007,7 @@
       <c r="E58" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="54" t="s">
+      <c r="G58" s="53" t="s">
         <v>177</v>
       </c>
       <c r="K58" s="8">
@@ -5021,22 +5018,22 @@
       <c r="A59" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61" t="s">
+      <c r="B59" s="59"/>
+      <c r="C59" s="59"/>
+      <c r="D59" s="60" t="s">
         <v>796</v>
       </c>
-      <c r="E59" s="61" t="s">
+      <c r="E59" s="60" t="s">
         <v>796</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60" t="s">
+      <c r="F59" s="59"/>
+      <c r="G59" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54">
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53">
         <v>1</v>
       </c>
     </row>
@@ -5050,7 +5047,7 @@
       <c r="E60" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G60" s="54" t="s">
+      <c r="G60" s="53" t="s">
         <v>179</v>
       </c>
       <c r="K60" s="8">
@@ -5067,7 +5064,7 @@
       <c r="E61" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G61" s="54" t="s">
+      <c r="G61" s="53" t="s">
         <v>180</v>
       </c>
       <c r="K61" s="8">
@@ -5084,7 +5081,7 @@
       <c r="E62" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G62" s="54" t="s">
+      <c r="G62" s="53" t="s">
         <v>181</v>
       </c>
       <c r="K62" s="8">
@@ -5135,7 +5132,7 @@
       <c r="E65" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G65" s="54" t="s">
+      <c r="G65" s="53" t="s">
         <v>184</v>
       </c>
       <c r="K65" s="8">
@@ -5152,7 +5149,7 @@
       <c r="E66" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="54" t="s">
+      <c r="G66" s="53" t="s">
         <v>185</v>
       </c>
       <c r="K66" s="8">
@@ -5169,7 +5166,7 @@
       <c r="E67" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="G67" s="54" t="s">
+      <c r="G67" s="53" t="s">
         <v>186</v>
       </c>
       <c r="K67" s="8">
@@ -5186,7 +5183,7 @@
       <c r="E68" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G68" s="54" t="s">
+      <c r="G68" s="53" t="s">
         <v>187</v>
       </c>
       <c r="K68" s="8">
@@ -5203,7 +5200,7 @@
       <c r="E69" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G69" s="54" t="s">
+      <c r="G69" s="53" t="s">
         <v>188</v>
       </c>
       <c r="K69" s="8">
@@ -5220,7 +5217,7 @@
       <c r="E70" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G70" s="54" t="s">
+      <c r="G70" s="53" t="s">
         <v>189</v>
       </c>
       <c r="K70" s="8">
@@ -5237,7 +5234,7 @@
       <c r="E71" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G71" s="54" t="s">
+      <c r="G71" s="53" t="s">
         <v>190</v>
       </c>
       <c r="K71" s="8">
@@ -5254,7 +5251,7 @@
       <c r="E72" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="G72" s="54" t="s">
+      <c r="G72" s="53" t="s">
         <v>191</v>
       </c>
       <c r="K72" s="8">
@@ -5271,7 +5268,7 @@
       <c r="E73" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="54" t="s">
+      <c r="G73" s="53" t="s">
         <v>192</v>
       </c>
       <c r="K73" s="8">
@@ -5282,13 +5279,13 @@
       <c r="A74" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="48" t="s">
         <v>810</v>
       </c>
-      <c r="E74" s="49" t="s">
+      <c r="E74" s="48" t="s">
         <v>809</v>
       </c>
-      <c r="G74" s="54" t="s">
+      <c r="G74" s="53" t="s">
         <v>193</v>
       </c>
       <c r="K74" s="8">
@@ -5305,7 +5302,7 @@
       <c r="E75" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G75" s="54" t="s">
+      <c r="G75" s="53" t="s">
         <v>194</v>
       </c>
       <c r="K75" s="8">
@@ -5322,7 +5319,7 @@
       <c r="E76" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G76" s="54" t="s">
+      <c r="G76" s="53" t="s">
         <v>195</v>
       </c>
       <c r="K76" s="8">
@@ -5339,7 +5336,7 @@
       <c r="E77" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G77" s="54" t="s">
+      <c r="G77" s="53" t="s">
         <v>196</v>
       </c>
       <c r="K77" s="8">
@@ -5373,7 +5370,7 @@
       <c r="E79" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G79" s="54" t="s">
+      <c r="G79" s="53" t="s">
         <v>198</v>
       </c>
       <c r="K79" s="8">
@@ -5390,7 +5387,7 @@
       <c r="E80" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G80" s="54" t="s">
+      <c r="G80" s="53" t="s">
         <v>199</v>
       </c>
       <c r="K80" s="8">
@@ -5401,13 +5398,13 @@
       <c r="A81" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="48" t="s">
         <v>816</v>
       </c>
-      <c r="E81" s="49" t="s">
+      <c r="E81" s="48" t="s">
         <v>816</v>
       </c>
-      <c r="G81" s="54" t="s">
+      <c r="G81" s="53" t="s">
         <v>200</v>
       </c>
       <c r="K81" s="8">
@@ -5424,7 +5421,7 @@
       <c r="E82" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G82" s="54" t="s">
+      <c r="G82" s="53" t="s">
         <v>201</v>
       </c>
       <c r="K82" s="8">
@@ -5441,7 +5438,7 @@
       <c r="E83" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G83" s="54" t="s">
+      <c r="G83" s="53" t="s">
         <v>202</v>
       </c>
       <c r="K83" s="8">
@@ -5458,7 +5455,7 @@
       <c r="E84" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G84" s="54" t="s">
+      <c r="G84" s="53" t="s">
         <v>203</v>
       </c>
       <c r="K84" s="8">
@@ -5475,7 +5472,7 @@
       <c r="E85" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G85" s="54" t="s">
+      <c r="G85" s="53" t="s">
         <v>204</v>
       </c>
       <c r="K85" s="8">
@@ -5492,7 +5489,7 @@
       <c r="E86" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="54" t="s">
+      <c r="G86" s="53" t="s">
         <v>205</v>
       </c>
       <c r="K86" s="8">
@@ -5509,7 +5506,7 @@
       <c r="E87" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="54" t="s">
+      <c r="G87" s="53" t="s">
         <v>206</v>
       </c>
       <c r="K87" s="8">
@@ -5526,7 +5523,7 @@
       <c r="E88" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="54" t="s">
+      <c r="G88" s="53" t="s">
         <v>207</v>
       </c>
       <c r="K88" s="8">
@@ -5537,10 +5534,10 @@
       <c r="A89" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="48" t="s">
         <v>821</v>
       </c>
-      <c r="E89" s="49" t="s">
+      <c r="E89" s="48" t="s">
         <v>820</v>
       </c>
       <c r="G89" s="15" t="s">
@@ -5554,13 +5551,13 @@
       <c r="A90" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D90" s="49" t="s">
+      <c r="D90" s="48" t="s">
         <v>822</v>
       </c>
-      <c r="E90" s="49" t="s">
+      <c r="E90" s="48" t="s">
         <v>822</v>
       </c>
-      <c r="G90" s="54" t="s">
+      <c r="G90" s="53" t="s">
         <v>209</v>
       </c>
       <c r="K90" s="8">
@@ -5577,7 +5574,7 @@
       <c r="E91" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G91" s="54" t="s">
+      <c r="G91" s="53" t="s">
         <v>210</v>
       </c>
       <c r="K91" s="8">
@@ -5594,7 +5591,7 @@
       <c r="E92" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G92" s="54" t="s">
+      <c r="G92" s="53" t="s">
         <v>211</v>
       </c>
       <c r="K92" s="8">
@@ -5611,7 +5608,7 @@
       <c r="E93" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G93" s="54" t="s">
+      <c r="G93" s="53" t="s">
         <v>212</v>
       </c>
       <c r="K93" s="8">
@@ -5628,7 +5625,7 @@
       <c r="E94" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G94" s="54" t="s">
+      <c r="G94" s="53" t="s">
         <v>213</v>
       </c>
       <c r="K94" s="8">
@@ -5645,7 +5642,7 @@
       <c r="E95" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="G95" s="54" t="s">
+      <c r="G95" s="53" t="s">
         <v>214</v>
       </c>
       <c r="K95" s="8">
@@ -5656,13 +5653,13 @@
       <c r="A96" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D96" s="49" t="s">
+      <c r="D96" s="48" t="s">
         <v>826</v>
       </c>
-      <c r="E96" s="49" t="s">
+      <c r="E96" s="48" t="s">
         <v>826</v>
       </c>
-      <c r="G96" s="54" t="s">
+      <c r="G96" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K96" s="8">
@@ -5679,7 +5676,7 @@
       <c r="E97" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G97" s="54" t="s">
+      <c r="G97" s="53" t="s">
         <v>216</v>
       </c>
       <c r="K97" s="8">
@@ -5687,25 +5684,25 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="54" t="s">
+      <c r="A98" s="53" t="s">
         <v>830</v>
       </c>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54"/>
-      <c r="D98" s="64" t="s">
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="63" t="s">
         <v>828</v>
       </c>
-      <c r="E98" s="64" t="s">
+      <c r="E98" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54" t="s">
+      <c r="F98" s="53"/>
+      <c r="G98" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
-      <c r="J98" s="54"/>
-      <c r="K98" s="54">
+      <c r="H98" s="53"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="53"/>
+      <c r="K98" s="53">
         <v>1</v>
       </c>
     </row>
@@ -5713,13 +5710,13 @@
       <c r="A99" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D99" s="52" t="s">
+      <c r="D99" s="51" t="s">
         <v>846</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="G99" s="54" t="s">
+      <c r="G99" s="53" t="s">
         <v>235</v>
       </c>
       <c r="K99" s="8">
@@ -5730,13 +5727,13 @@
       <c r="A100" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D100" s="30" t="s">
+      <c r="D100" s="29" t="s">
         <v>857</v>
       </c>
-      <c r="E100" s="30" t="s">
+      <c r="E100" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G100" s="54" t="s">
+      <c r="G100" s="53" t="s">
         <v>236</v>
       </c>
       <c r="K100" s="8">
@@ -5747,13 +5744,13 @@
       <c r="A101" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D101" s="30" t="s">
+      <c r="D101" s="29" t="s">
         <v>858</v>
       </c>
-      <c r="E101" s="30" t="s">
+      <c r="E101" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G101" s="54" t="s">
+      <c r="G101" s="53" t="s">
         <v>237</v>
       </c>
       <c r="K101" s="8">
@@ -5764,13 +5761,13 @@
       <c r="A102" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="D102" s="29" t="s">
         <v>859</v>
       </c>
-      <c r="E102" s="30" t="s">
+      <c r="E102" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G102" s="54" t="s">
+      <c r="G102" s="53" t="s">
         <v>238</v>
       </c>
       <c r="K102" s="8">
@@ -5781,13 +5778,13 @@
       <c r="A103" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="29" t="s">
         <v>860</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="G103" s="54" t="s">
+      <c r="G103" s="53" t="s">
         <v>239</v>
       </c>
       <c r="K103" s="8">
@@ -5798,13 +5795,13 @@
       <c r="A104" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D104" s="30" t="s">
+      <c r="D104" s="29" t="s">
         <v>861</v>
       </c>
-      <c r="E104" s="30" t="s">
+      <c r="E104" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="G104" s="54" t="s">
+      <c r="G104" s="53" t="s">
         <v>240</v>
       </c>
       <c r="K104" s="8">
@@ -5815,13 +5812,13 @@
       <c r="A105" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D105" s="30" t="s">
+      <c r="D105" s="29" t="s">
         <v>862</v>
       </c>
-      <c r="E105" s="30" t="s">
+      <c r="E105" s="29" t="s">
         <v>847</v>
       </c>
-      <c r="G105" s="54" t="s">
+      <c r="G105" s="53" t="s">
         <v>241</v>
       </c>
       <c r="K105" s="8">
@@ -5832,13 +5829,13 @@
       <c r="A106" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D106" s="62" t="s">
+      <c r="D106" s="61" t="s">
         <v>848</v>
       </c>
-      <c r="E106" s="62" t="s">
+      <c r="E106" s="61" t="s">
         <v>849</v>
       </c>
-      <c r="G106" s="54" t="s">
+      <c r="G106" s="53" t="s">
         <v>242</v>
       </c>
       <c r="K106" s="8">
@@ -5849,13 +5846,13 @@
       <c r="A107" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D107" s="30" t="s">
+      <c r="D107" s="29" t="s">
         <v>863</v>
       </c>
-      <c r="E107" s="30" t="s">
+      <c r="E107" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="G107" s="54" t="s">
+      <c r="G107" s="53" t="s">
         <v>243</v>
       </c>
       <c r="K107" s="8">
@@ -5866,13 +5863,13 @@
       <c r="A108" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D108" s="30" t="s">
+      <c r="D108" s="29" t="s">
         <v>864</v>
       </c>
-      <c r="E108" s="30" t="s">
+      <c r="E108" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="G108" s="54" t="s">
+      <c r="G108" s="53" t="s">
         <v>244</v>
       </c>
       <c r="K108" s="8">
@@ -5883,13 +5880,13 @@
       <c r="A109" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D109" s="30" t="s">
+      <c r="D109" s="29" t="s">
         <v>850</v>
       </c>
-      <c r="E109" s="30" t="s">
+      <c r="E109" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="G109" s="54" t="s">
+      <c r="G109" s="53" t="s">
         <v>245</v>
       </c>
       <c r="K109" s="8">
@@ -5900,13 +5897,13 @@
       <c r="A110" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D110" s="30" t="s">
+      <c r="D110" s="29" t="s">
         <v>851</v>
       </c>
-      <c r="E110" s="30" t="s">
+      <c r="E110" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G110" s="54" t="s">
+      <c r="G110" s="53" t="s">
         <v>246</v>
       </c>
       <c r="K110" s="8">
@@ -5917,13 +5914,13 @@
       <c r="A111" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D111" s="30" t="s">
+      <c r="D111" s="29" t="s">
         <v>852</v>
       </c>
-      <c r="E111" s="30" t="s">
+      <c r="E111" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G111" s="54" t="s">
+      <c r="G111" s="53" t="s">
         <v>247</v>
       </c>
       <c r="K111" s="8">
@@ -5934,13 +5931,13 @@
       <c r="A112" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D112" s="30" t="s">
+      <c r="D112" s="29" t="s">
         <v>853</v>
       </c>
-      <c r="E112" s="30" t="s">
+      <c r="E112" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G112" s="54" t="s">
+      <c r="G112" s="53" t="s">
         <v>248</v>
       </c>
       <c r="K112" s="8">
@@ -5951,13 +5948,13 @@
       <c r="A113" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="D113" s="29" t="s">
         <v>854</v>
       </c>
-      <c r="E113" s="30" t="s">
+      <c r="E113" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G113" s="54" t="s">
+      <c r="G113" s="53" t="s">
         <v>249</v>
       </c>
       <c r="K113" s="8">
@@ -5968,13 +5965,13 @@
       <c r="A114" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D114" s="30" t="s">
+      <c r="D114" s="29" t="s">
         <v>865</v>
       </c>
-      <c r="E114" s="30" t="s">
+      <c r="E114" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="G114" s="54" t="s">
+      <c r="G114" s="53" t="s">
         <v>250</v>
       </c>
       <c r="K114" s="8">
@@ -5985,13 +5982,13 @@
       <c r="A115" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D115" s="30" t="s">
+      <c r="D115" s="29" t="s">
         <v>866</v>
       </c>
-      <c r="E115" s="30" t="s">
+      <c r="E115" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="G115" s="54" t="s">
+      <c r="G115" s="53" t="s">
         <v>252</v>
       </c>
       <c r="K115" s="8">
@@ -6002,13 +5999,13 @@
       <c r="A116" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D116" s="30" t="s">
+      <c r="D116" s="29" t="s">
         <v>867</v>
       </c>
-      <c r="E116" s="30" t="s">
+      <c r="E116" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="G116" s="54" t="s">
+      <c r="G116" s="53" t="s">
         <v>251</v>
       </c>
       <c r="K116" s="8">
@@ -6019,13 +6016,13 @@
       <c r="A117" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="D117" s="30" t="s">
+      <c r="D117" s="29" t="s">
         <v>868</v>
       </c>
-      <c r="E117" s="30" t="s">
+      <c r="E117" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="G117" s="54" t="s">
+      <c r="G117" s="53" t="s">
         <v>253</v>
       </c>
       <c r="K117" s="8">
@@ -6033,25 +6030,25 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="15">
-      <c r="A118" s="54" t="s">
+      <c r="A118" s="53" t="s">
         <v>845</v>
       </c>
-      <c r="B118" s="54"/>
-      <c r="C118" s="54"/>
-      <c r="D118" s="63" t="s">
+      <c r="B118" s="53"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="62" t="s">
         <v>855</v>
       </c>
-      <c r="E118" s="63" t="s">
+      <c r="E118" s="62" t="s">
         <v>856</v>
       </c>
-      <c r="F118" s="54"/>
+      <c r="F118" s="53"/>
       <c r="G118" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="54">
+      <c r="H118" s="53"/>
+      <c r="I118" s="53"/>
+      <c r="J118" s="53"/>
+      <c r="K118" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6092,71 +6089,71 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="60">
-      <c r="A121" s="60" t="s">
+      <c r="A121" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="B121" s="60"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="72" t="s">
+      <c r="B121" s="59"/>
+      <c r="C121" s="59"/>
+      <c r="D121" s="71" t="s">
         <v>260</v>
       </c>
-      <c r="E121" s="72" t="s">
+      <c r="E121" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="F121" s="72" t="s">
+      <c r="F121" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="G121" s="60"/>
-      <c r="H121" s="60"/>
-      <c r="I121" s="60"/>
-      <c r="J121" s="60"/>
-      <c r="K121" s="60">
+      <c r="G121" s="59"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="59"/>
+      <c r="J121" s="59"/>
+      <c r="K121" s="59">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="27.6">
-      <c r="A122" s="54" t="s">
+      <c r="A122" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="B122" s="54"/>
-      <c r="C122" s="54"/>
-      <c r="D122" s="65" t="s">
+      <c r="B122" s="53"/>
+      <c r="C122" s="53"/>
+      <c r="D122" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="E122" s="65" t="s">
+      <c r="E122" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="F122" s="54"/>
+      <c r="F122" s="53"/>
       <c r="G122" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54">
+      <c r="H122" s="53"/>
+      <c r="I122" s="53"/>
+      <c r="J122" s="53"/>
+      <c r="K122" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="27.6">
-      <c r="A123" s="54" t="s">
+      <c r="A123" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="54"/>
-      <c r="C123" s="54"/>
-      <c r="D123" s="65" t="s">
+      <c r="B123" s="53"/>
+      <c r="C123" s="53"/>
+      <c r="D123" s="64" t="s">
         <v>269</v>
       </c>
-      <c r="E123" s="65" t="s">
+      <c r="E123" s="64" t="s">
         <v>874</v>
       </c>
-      <c r="F123" s="54"/>
-      <c r="G123" s="54" t="s">
+      <c r="F123" s="53"/>
+      <c r="G123" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="H123" s="54"/>
-      <c r="I123" s="54"/>
-      <c r="J123" s="54"/>
-      <c r="K123" s="54">
+      <c r="H123" s="53"/>
+      <c r="I123" s="53"/>
+      <c r="J123" s="53"/>
+      <c r="K123" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6173,30 +6170,30 @@
       <c r="F124" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="K124" s="54">
+      <c r="K124" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="45">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="B125" s="54"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="66" t="s">
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="E125" s="54" t="s">
+      <c r="E125" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F125" s="67" t="s">
+      <c r="F125" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="G125" s="54"/>
-      <c r="H125" s="54"/>
-      <c r="I125" s="54"/>
-      <c r="J125" s="54"/>
-      <c r="K125" s="54">
+      <c r="G125" s="53"/>
+      <c r="H125" s="53"/>
+      <c r="I125" s="53"/>
+      <c r="J125" s="53"/>
+      <c r="K125" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6204,7 +6201,7 @@
       <c r="A126" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D126" s="49" t="s">
+      <c r="D126" s="48" t="s">
         <v>869</v>
       </c>
       <c r="E126" s="16" t="s">
@@ -6213,10 +6210,10 @@
       <c r="F126" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="G126" s="69" t="s">
+      <c r="G126" s="68" t="s">
         <v>279</v>
       </c>
-      <c r="K126" s="54">
+      <c r="K126" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6224,16 +6221,16 @@
       <c r="A127" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D127" s="62" t="s">
+      <c r="D127" s="61" t="s">
         <v>870</v>
       </c>
       <c r="E127" s="27" t="s">
         <v>871</v>
       </c>
-      <c r="G127" s="69" t="s">
+      <c r="G127" s="68" t="s">
         <v>290</v>
       </c>
-      <c r="K127" s="54">
+      <c r="K127" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6241,16 +6238,16 @@
       <c r="A128" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D128" s="62" t="s">
+      <c r="D128" s="61" t="s">
         <v>872</v>
       </c>
       <c r="E128" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="G128" s="69" t="s">
+      <c r="G128" s="68" t="s">
         <v>291</v>
       </c>
-      <c r="K128" s="54">
+      <c r="K128" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6267,7 +6264,7 @@
       <c r="G129" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="K129" s="54">
+      <c r="K129" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6281,10 +6278,10 @@
       <c r="E130" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="G130" s="69" t="s">
+      <c r="G130" s="68" t="s">
         <v>293</v>
       </c>
-      <c r="K130" s="54">
+      <c r="K130" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6292,92 +6289,92 @@
       <c r="A131" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D131" s="31" t="s">
+      <c r="D131" s="30" t="s">
         <v>286</v>
       </c>
       <c r="E131" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="G131" s="69" t="s">
+      <c r="G131" s="68" t="s">
         <v>294</v>
       </c>
-      <c r="K131" s="54">
+      <c r="K131" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.6">
-      <c r="A132" s="54" t="s">
+      <c r="A132" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="68" t="s">
+      <c r="B132" s="53"/>
+      <c r="C132" s="53"/>
+      <c r="D132" s="67" t="s">
         <v>288</v>
       </c>
-      <c r="E132" s="68" t="s">
+      <c r="E132" s="67" t="s">
         <v>289</v>
       </c>
-      <c r="F132" s="54"/>
+      <c r="F132" s="53"/>
       <c r="G132" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="54">
+      <c r="H132" s="53"/>
+      <c r="I132" s="53"/>
+      <c r="J132" s="53"/>
+      <c r="K132" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="41.4">
-      <c r="A133" s="54" t="s">
+      <c r="A133" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="B133" s="54"/>
-      <c r="C133" s="54"/>
-      <c r="D133" s="70" t="s">
+      <c r="B133" s="53"/>
+      <c r="C133" s="53"/>
+      <c r="D133" s="69" t="s">
         <v>296</v>
       </c>
-      <c r="E133" s="71" t="s">
+      <c r="E133" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="F133" s="71" t="s">
+      <c r="F133" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="G133" s="69" t="s">
+      <c r="G133" s="68" t="s">
         <v>300</v>
       </c>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="54">
+      <c r="H133" s="53"/>
+      <c r="I133" s="53"/>
+      <c r="J133" s="53"/>
+      <c r="K133" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="27.6">
-      <c r="A134" s="54" t="s">
+      <c r="A134" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="B134" s="54"/>
-      <c r="C134" s="54"/>
-      <c r="D134" s="70" t="s">
+      <c r="B134" s="53"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="69" t="s">
         <v>873</v>
       </c>
-      <c r="E134" s="71" t="s">
+      <c r="E134" s="70" t="s">
         <v>301</v>
       </c>
-      <c r="F134" s="71" t="s">
+      <c r="F134" s="70" t="s">
         <v>302</v>
       </c>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54">
+      <c r="G134" s="53"/>
+      <c r="H134" s="53"/>
+      <c r="I134" s="53"/>
+      <c r="J134" s="53"/>
+      <c r="K134" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="30">
-      <c r="A135" s="54" t="s">
+      <c r="A135" s="53" t="s">
         <v>307</v>
       </c>
       <c r="D135" s="10" t="s">
@@ -6389,7 +6386,7 @@
       <c r="F135" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="K135" s="54">
+      <c r="K135" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6397,25 +6394,25 @@
       <c r="A136" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D136" s="73" t="s">
+      <c r="D136" s="72" t="s">
         <v>878</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F136" s="16"/>
-      <c r="G136" s="69" t="s">
+      <c r="G136" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="K136" s="54">
+      <c r="K136" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="43.2">
-      <c r="A137" s="54" t="s">
+      <c r="A137" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="D137" s="62" t="s">
+      <c r="D137" s="61" t="s">
         <v>879</v>
       </c>
       <c r="E137" s="20" t="s">
@@ -6424,10 +6421,10 @@
       <c r="F137" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="G137" s="69" t="s">
+      <c r="G137" s="68" t="s">
         <v>313</v>
       </c>
-      <c r="K137" s="54">
+      <c r="K137" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6435,17 +6432,17 @@
       <c r="A138" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D138" s="49" t="s">
+      <c r="D138" s="48" t="s">
         <v>880</v>
       </c>
-      <c r="E138" s="32" t="s">
+      <c r="E138" s="31" t="s">
         <v>315</v>
       </c>
       <c r="F138" s="27"/>
-      <c r="G138" s="69" t="s">
+      <c r="G138" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="K138" s="54">
+      <c r="K138" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6453,17 +6450,17 @@
       <c r="A139" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D139" s="32" t="s">
+      <c r="D139" s="31" t="s">
         <v>316</v>
       </c>
-      <c r="E139" s="32" t="s">
+      <c r="E139" s="31" t="s">
         <v>316</v>
       </c>
       <c r="F139" s="27"/>
-      <c r="G139" s="69" t="s">
+      <c r="G139" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="K139" s="54">
+      <c r="K139" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6471,17 +6468,17 @@
       <c r="A140" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D140" s="32" t="s">
+      <c r="D140" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="E140" s="32" t="s">
+      <c r="E140" s="31" t="s">
         <v>317</v>
       </c>
       <c r="F140" s="27"/>
-      <c r="G140" s="69" t="s">
+      <c r="G140" s="68" t="s">
         <v>323</v>
       </c>
-      <c r="K140" s="54">
+      <c r="K140" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6496,10 +6493,10 @@
         <v>318</v>
       </c>
       <c r="F141" s="27"/>
-      <c r="G141" s="69" t="s">
+      <c r="G141" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="K141" s="54">
+      <c r="K141" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6507,17 +6504,17 @@
       <c r="A142" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D142" s="32" t="s">
+      <c r="D142" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="E142" s="32" t="s">
+      <c r="E142" s="31" t="s">
         <v>319</v>
       </c>
       <c r="F142" s="16"/>
-      <c r="G142" s="69" t="s">
+      <c r="G142" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="K142" s="54">
+      <c r="K142" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6525,17 +6522,17 @@
       <c r="A143" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D143" s="32" t="s">
+      <c r="D143" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="E143" s="32" t="s">
+      <c r="E143" s="31" t="s">
         <v>320</v>
       </c>
       <c r="F143" s="16"/>
-      <c r="G143" s="69" t="s">
+      <c r="G143" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="K143" s="54">
+      <c r="K143" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6543,17 +6540,17 @@
       <c r="A144" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D144" s="32" t="s">
+      <c r="D144" s="31" t="s">
         <v>881</v>
       </c>
-      <c r="E144" s="32" t="s">
+      <c r="E144" s="31" t="s">
         <v>881</v>
       </c>
       <c r="F144" s="16"/>
-      <c r="G144" s="69" t="s">
+      <c r="G144" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="K144" s="54">
+      <c r="K144" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6561,17 +6558,17 @@
       <c r="A145" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D145" s="74" t="s">
+      <c r="D145" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="E145" s="74" t="s">
+      <c r="E145" s="73" t="s">
         <v>882</v>
       </c>
       <c r="F145" s="16"/>
-      <c r="G145" s="69" t="s">
+      <c r="G145" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="K145" s="54">
+      <c r="K145" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6579,57 +6576,57 @@
       <c r="A146" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D146" s="32" t="s">
+      <c r="D146" s="31" t="s">
         <v>883</v>
       </c>
-      <c r="E146" s="32" t="s">
+      <c r="E146" s="31" t="s">
         <v>883</v>
       </c>
       <c r="F146" s="16"/>
-      <c r="G146" s="69" t="s">
+      <c r="G146" s="68" t="s">
         <v>329</v>
       </c>
-      <c r="K146" s="54">
+      <c r="K146" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="16.8">
-      <c r="A147" s="79" t="s">
+      <c r="A147" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="B147" s="75"/>
-      <c r="C147" s="75"/>
-      <c r="D147" s="76" t="s">
+      <c r="B147" s="74"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="75" t="s">
         <v>884</v>
       </c>
-      <c r="E147" s="76" t="s">
+      <c r="E147" s="75" t="s">
         <v>885</v>
       </c>
-      <c r="F147" s="77"/>
-      <c r="G147" s="78" t="s">
+      <c r="F147" s="76"/>
+      <c r="G147" s="77" t="s">
         <v>330</v>
       </c>
-      <c r="H147" s="75"/>
-      <c r="I147" s="75"/>
-      <c r="J147" s="75"/>
-      <c r="K147" s="75">
+      <c r="H147" s="74"/>
+      <c r="I147" s="74"/>
+      <c r="J147" s="74"/>
+      <c r="K147" s="74">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="17.399999999999999">
-      <c r="A148" s="54" t="s">
+      <c r="A148" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="D148" s="73" t="s">
+      <c r="D148" s="72" t="s">
         <v>886</v>
       </c>
       <c r="E148" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="G148" s="26" t="s">
+      <c r="G148" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="K148" s="54">
+      <c r="K148" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6644,46 +6641,46 @@
         <v>336</v>
       </c>
       <c r="F149" s="16"/>
-      <c r="G149" s="26" t="s">
+      <c r="G149" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="K149" s="54">
+      <c r="K149" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.6">
-      <c r="A150" s="54" t="s">
+      <c r="A150" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="D150" s="49" t="s">
+      <c r="D150" s="48" t="s">
         <v>887</v>
       </c>
       <c r="E150" s="16" t="s">
         <v>337</v>
       </c>
       <c r="F150" s="16"/>
-      <c r="G150" s="26" t="s">
+      <c r="G150" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="K150" s="54">
+      <c r="K150" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.6">
-      <c r="A151" s="54" t="s">
+      <c r="A151" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="D151" s="49" t="s">
+      <c r="D151" s="48" t="s">
         <v>888</v>
       </c>
       <c r="E151" s="27" t="s">
         <v>341</v>
       </c>
       <c r="F151" s="16"/>
-      <c r="G151" s="26" t="s">
+      <c r="G151" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="K151" s="54">
+      <c r="K151" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6691,24 +6688,24 @@
       <c r="A152" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="D152" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="E152" s="33" t="s">
+      <c r="E152" s="32" t="s">
         <v>889</v>
       </c>
       <c r="F152" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="G152" s="26" t="s">
+      <c r="G152" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="K152" s="54">
+      <c r="K152" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="45">
-      <c r="A153" s="54" t="s">
+      <c r="A153" s="53" t="s">
         <v>346</v>
       </c>
       <c r="D153" s="12" t="s">
@@ -6720,25 +6717,30 @@
       <c r="G153" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="K153" s="54">
+      <c r="K153" s="53">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="27.6">
-      <c r="A154" s="80" t="s">
+      <c r="A154" s="78" t="s">
         <v>354</v>
       </c>
-      <c r="D154" s="20" t="s">
+      <c r="B154" s="78"/>
+      <c r="C154" s="78"/>
+      <c r="D154" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="E154" s="17" t="s">
+      <c r="E154" s="80" t="s">
         <v>352</v>
       </c>
-      <c r="F154" s="17" t="s">
+      <c r="F154" s="80" t="s">
         <v>353</v>
       </c>
-      <c r="G154" s="29"/>
-      <c r="K154" s="54">
+      <c r="G154" s="81"/>
+      <c r="H154" s="78"/>
+      <c r="I154" s="78"/>
+      <c r="J154" s="78"/>
+      <c r="K154" s="78">
         <v>1</v>
       </c>
     </row>
@@ -6746,21 +6748,21 @@
       <c r="A155" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="D155" s="34" t="s">
+      <c r="D155" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="E155" s="34" t="s">
+      <c r="E155" s="33" t="s">
         <v>356</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="H155" s="35"/>
-      <c r="I155" s="36" t="s">
+      <c r="H155" s="34"/>
+      <c r="I155" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="K155" s="54">
+      <c r="K155" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6768,10 +6770,10 @@
       <c r="A156" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="D156" s="34" t="s">
+      <c r="D156" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="E156" s="34" t="s">
+      <c r="E156" s="33" t="s">
         <v>360</v>
       </c>
       <c r="F156" s="16" t="s">
@@ -6780,9 +6782,9 @@
       <c r="G156" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="H156" s="35"/>
-      <c r="I156" s="36"/>
-      <c r="K156" s="54">
+      <c r="H156" s="34"/>
+      <c r="I156" s="35"/>
+      <c r="K156" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6790,19 +6792,19 @@
       <c r="A157" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D157" s="34" t="s">
+      <c r="D157" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="E157" s="34" t="s">
+      <c r="E157" s="33" t="s">
         <v>364</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="H157" s="35"/>
-      <c r="I157" s="36"/>
-      <c r="K157" s="54">
+      <c r="H157" s="34"/>
+      <c r="I157" s="35"/>
+      <c r="K157" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6810,21 +6812,21 @@
       <c r="A158" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="D158" s="34" t="s">
+      <c r="D158" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="E158" s="34" t="s">
+      <c r="E158" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="F158" s="37"/>
+      <c r="F158" s="36"/>
       <c r="G158" s="28" t="s">
         <v>368</v>
       </c>
-      <c r="H158" s="35" t="s">
+      <c r="H158" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="I158" s="36"/>
-      <c r="K158" s="54">
+      <c r="I158" s="35"/>
+      <c r="K158" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6832,19 +6834,19 @@
       <c r="A159" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="D159" s="34" t="s">
+      <c r="D159" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="E159" s="34" t="s">
+      <c r="E159" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="F159" s="37"/>
+      <c r="F159" s="36"/>
       <c r="G159" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="H159" s="35"/>
-      <c r="I159" s="36"/>
-      <c r="K159" s="54">
+      <c r="H159" s="34"/>
+      <c r="I159" s="35"/>
+      <c r="K159" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6852,19 +6854,19 @@
       <c r="A160" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="D160" s="34" t="s">
+      <c r="D160" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="E160" s="34" t="s">
+      <c r="E160" s="33" t="s">
         <v>373</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="H160" s="35"/>
-      <c r="I160" s="36"/>
-      <c r="K160" s="54">
+      <c r="H160" s="34"/>
+      <c r="I160" s="35"/>
+      <c r="K160" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6872,21 +6874,21 @@
       <c r="A161" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="D161" s="34" t="s">
+      <c r="D161" s="33" t="s">
         <v>375</v>
       </c>
-      <c r="E161" s="34" t="s">
+      <c r="E161" s="33" t="s">
         <v>376</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="H161" s="35"/>
-      <c r="I161" s="36" t="s">
+      <c r="H161" s="34"/>
+      <c r="I161" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="K161" s="54">
+      <c r="K161" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6894,19 +6896,19 @@
       <c r="A162" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="D162" s="34" t="s">
+      <c r="D162" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="E162" s="34" t="s">
+      <c r="E162" s="33" t="s">
         <v>379</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="H162" s="35"/>
-      <c r="I162" s="36"/>
-      <c r="K162" s="54">
+      <c r="H162" s="34"/>
+      <c r="I162" s="35"/>
+      <c r="K162" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6914,19 +6916,19 @@
       <c r="A163" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D163" s="34" t="s">
+      <c r="D163" s="33" t="s">
         <v>381</v>
       </c>
-      <c r="E163" s="34" t="s">
+      <c r="E163" s="33" t="s">
         <v>382</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="H163" s="35"/>
-      <c r="I163" s="36"/>
-      <c r="K163" s="54">
+      <c r="H163" s="34"/>
+      <c r="I163" s="35"/>
+      <c r="K163" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6934,21 +6936,21 @@
       <c r="A164" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D164" s="34" t="s">
+      <c r="D164" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="E164" s="34" t="s">
+      <c r="E164" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="F164" s="37"/>
+      <c r="F164" s="36"/>
       <c r="G164" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="H164" s="35"/>
-      <c r="I164" s="36" t="s">
+      <c r="H164" s="34"/>
+      <c r="I164" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="K164" s="54">
+      <c r="K164" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6956,21 +6958,21 @@
       <c r="A165" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D165" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="E165" s="34" t="s">
+      <c r="E165" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="F165" s="37"/>
+      <c r="F165" s="36"/>
       <c r="G165" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="H165" s="35"/>
-      <c r="I165" s="36" t="s">
+      <c r="H165" s="34"/>
+      <c r="I165" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="K165" s="54">
+      <c r="K165" s="53">
         <v>1</v>
       </c>
     </row>
@@ -6978,21 +6980,21 @@
       <c r="A166" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="D166" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="E166" s="34" t="s">
+      <c r="E166" s="33" t="s">
         <v>392</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="H166" s="35" t="s">
+      <c r="H166" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="I166" s="36"/>
-      <c r="K166" s="54">
+      <c r="I166" s="35"/>
+      <c r="K166" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7000,21 +7002,21 @@
       <c r="A167" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="D167" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="E167" s="34" t="s">
+      <c r="E167" s="33" t="s">
         <v>395</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="28" t="s">
         <v>396</v>
       </c>
-      <c r="H167" s="35"/>
-      <c r="I167" s="36" t="s">
+      <c r="H167" s="34"/>
+      <c r="I167" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="K167" s="54">
+      <c r="K167" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7022,19 +7024,19 @@
       <c r="A168" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="D168" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="E168" s="34" t="s">
+      <c r="E168" s="33" t="s">
         <v>399</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="28" t="s">
         <v>400</v>
       </c>
-      <c r="H168" s="35"/>
-      <c r="I168" s="36"/>
-      <c r="K168" s="54">
+      <c r="H168" s="34"/>
+      <c r="I168" s="35"/>
+      <c r="K168" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7042,21 +7044,21 @@
       <c r="A169" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="D169" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="E169" s="34" t="s">
+      <c r="E169" s="33" t="s">
         <v>402</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="28" t="s">
         <v>403</v>
       </c>
-      <c r="H169" s="35"/>
-      <c r="I169" s="36" t="s">
+      <c r="H169" s="34"/>
+      <c r="I169" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="K169" s="54">
+      <c r="K169" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7064,19 +7066,19 @@
       <c r="A170" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="D170" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="E170" s="34" t="s">
+      <c r="E170" s="33" t="s">
         <v>406</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="H170" s="35"/>
-      <c r="I170" s="36"/>
-      <c r="K170" s="54">
+      <c r="H170" s="34"/>
+      <c r="I170" s="35"/>
+      <c r="K170" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7084,21 +7086,21 @@
       <c r="A171" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="D171" s="34" t="s">
+      <c r="D171" s="33" t="s">
         <v>408</v>
       </c>
-      <c r="E171" s="34" t="s">
+      <c r="E171" s="33" t="s">
         <v>409</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="H171" s="35"/>
-      <c r="I171" s="36" t="s">
+      <c r="H171" s="34"/>
+      <c r="I171" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="K171" s="54">
+      <c r="K171" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7106,21 +7108,21 @@
       <c r="A172" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="D172" s="34" t="s">
+      <c r="D172" s="33" t="s">
         <v>412</v>
       </c>
-      <c r="E172" s="34" t="s">
+      <c r="E172" s="33" t="s">
         <v>413</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="H172" s="35"/>
-      <c r="I172" s="36" t="s">
+      <c r="H172" s="34"/>
+      <c r="I172" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="K172" s="54">
+      <c r="K172" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7128,21 +7130,21 @@
       <c r="A173" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="D173" s="34" t="s">
+      <c r="D173" s="33" t="s">
         <v>416</v>
       </c>
-      <c r="E173" s="34" t="s">
+      <c r="E173" s="33" t="s">
         <v>417</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="H173" s="35"/>
-      <c r="I173" s="36" t="s">
+      <c r="H173" s="34"/>
+      <c r="I173" s="35" t="s">
         <v>419</v>
       </c>
-      <c r="K173" s="54">
+      <c r="K173" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7150,19 +7152,19 @@
       <c r="A174" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D174" s="34" t="s">
+      <c r="D174" s="33" t="s">
         <v>420</v>
       </c>
-      <c r="E174" s="34" t="s">
+      <c r="E174" s="33" t="s">
         <v>421</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="H174" s="35"/>
-      <c r="I174" s="36"/>
-      <c r="K174" s="54">
+      <c r="H174" s="34"/>
+      <c r="I174" s="35"/>
+      <c r="K174" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7170,21 +7172,21 @@
       <c r="A175" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="D175" s="34" t="s">
+      <c r="D175" s="33" t="s">
         <v>423</v>
       </c>
-      <c r="E175" s="34" t="s">
+      <c r="E175" s="33" t="s">
         <v>424</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="28" t="s">
         <v>425</v>
       </c>
-      <c r="H175" s="35"/>
-      <c r="I175" s="36" t="s">
+      <c r="H175" s="34"/>
+      <c r="I175" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="K175" s="54">
+      <c r="K175" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7192,21 +7194,21 @@
       <c r="A176" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="D176" s="34" t="s">
+      <c r="D176" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="E176" s="34" t="s">
+      <c r="E176" s="33" t="s">
         <v>428</v>
       </c>
       <c r="F176" s="16"/>
       <c r="G176" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="H176" s="35"/>
-      <c r="I176" s="36" t="s">
+      <c r="H176" s="34"/>
+      <c r="I176" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="K176" s="54">
+      <c r="K176" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7214,23 +7216,23 @@
       <c r="A177" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="D177" s="34" t="s">
+      <c r="D177" s="33" t="s">
         <v>431</v>
       </c>
-      <c r="E177" s="34" t="s">
+      <c r="E177" s="33" t="s">
         <v>432</v>
       </c>
       <c r="F177" s="16"/>
       <c r="G177" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="H177" s="35" t="s">
+      <c r="H177" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="I177" s="36" t="s">
+      <c r="I177" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="K177" s="54">
+      <c r="K177" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7238,19 +7240,19 @@
       <c r="A178" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D178" s="39" t="s">
+      <c r="D178" s="38" t="s">
         <v>458</v>
       </c>
-      <c r="E178" s="39" t="s">
+      <c r="E178" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="F178" s="39" t="s">
+      <c r="F178" s="38" t="s">
         <v>460</v>
       </c>
       <c r="G178" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="K178" s="54">
+      <c r="K178" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7258,17 +7260,17 @@
       <c r="A179" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D179" s="39" t="s">
+      <c r="D179" s="38" t="s">
         <v>461</v>
       </c>
-      <c r="E179" s="39" t="s">
+      <c r="E179" s="38" t="s">
         <v>462</v>
       </c>
-      <c r="F179" s="39"/>
+      <c r="F179" s="38"/>
       <c r="G179" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="K179" s="54">
+      <c r="K179" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7276,19 +7278,19 @@
       <c r="A180" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D180" s="39" t="s">
+      <c r="D180" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="E180" s="39" t="s">
+      <c r="E180" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="F180" s="39" t="s">
+      <c r="F180" s="38" t="s">
         <v>465</v>
       </c>
       <c r="G180" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="K180" s="54">
+      <c r="K180" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7296,17 +7298,17 @@
       <c r="A181" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D181" s="39" t="s">
+      <c r="D181" s="38" t="s">
         <v>466</v>
       </c>
-      <c r="E181" s="39" t="s">
+      <c r="E181" s="38" t="s">
         <v>467</v>
       </c>
-      <c r="F181" s="39"/>
+      <c r="F181" s="38"/>
       <c r="G181" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="K181" s="54">
+      <c r="K181" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7314,17 +7316,17 @@
       <c r="A182" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D182" s="39" t="s">
+      <c r="D182" s="38" t="s">
         <v>468</v>
       </c>
-      <c r="E182" s="39" t="s">
+      <c r="E182" s="38" t="s">
         <v>469</v>
       </c>
-      <c r="F182" s="39"/>
+      <c r="F182" s="38"/>
       <c r="G182" s="15" t="s">
         <v>477</v>
       </c>
-      <c r="K182" s="54">
+      <c r="K182" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7332,17 +7334,17 @@
       <c r="A183" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="D183" s="39" t="s">
+      <c r="D183" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="E183" s="39" t="s">
+      <c r="E183" s="38" t="s">
         <v>471</v>
       </c>
-      <c r="F183" s="39"/>
+      <c r="F183" s="38"/>
       <c r="G183" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="K183" s="54">
+      <c r="K183" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7350,17 +7352,17 @@
       <c r="A184" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="D184" s="39" t="s">
+      <c r="D184" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="E184" s="39" t="s">
+      <c r="E184" s="38" t="s">
         <v>480</v>
       </c>
-      <c r="F184" s="39"/>
+      <c r="F184" s="38"/>
       <c r="G184" s="15" t="s">
         <v>486</v>
       </c>
-      <c r="K184" s="54">
+      <c r="K184" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7368,19 +7370,19 @@
       <c r="A185" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="D185" s="39" t="s">
+      <c r="D185" s="38" t="s">
         <v>481</v>
       </c>
-      <c r="E185" s="39" t="s">
+      <c r="E185" s="38" t="s">
         <v>482</v>
       </c>
-      <c r="F185" s="39" t="s">
+      <c r="F185" s="38" t="s">
         <v>483</v>
       </c>
       <c r="G185" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="K185" s="54">
+      <c r="K185" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7388,17 +7390,17 @@
       <c r="A186" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="D186" s="39" t="s">
+      <c r="D186" s="38" t="s">
         <v>484</v>
       </c>
-      <c r="E186" s="39" t="s">
+      <c r="E186" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="F186" s="39"/>
+      <c r="F186" s="38"/>
       <c r="G186" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="K186" s="54">
+      <c r="K186" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7406,17 +7408,17 @@
       <c r="A187" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D187" s="40" t="s">
+      <c r="D187" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="E187" s="40" t="s">
+      <c r="E187" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="F187" s="40"/>
+      <c r="F187" s="39"/>
       <c r="G187" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="K187" s="54">
+      <c r="K187" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7424,17 +7426,17 @@
       <c r="A188" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D188" s="40" t="s">
+      <c r="D188" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="E188" s="40" t="s">
+      <c r="E188" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="F188" s="40"/>
+      <c r="F188" s="39"/>
       <c r="G188" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="K188" s="54">
+      <c r="K188" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7442,17 +7444,17 @@
       <c r="A189" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D189" s="40" t="s">
+      <c r="D189" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="E189" s="40" t="s">
+      <c r="E189" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="F189" s="40"/>
+      <c r="F189" s="39"/>
       <c r="G189" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="K189" s="54">
+      <c r="K189" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7460,17 +7462,17 @@
       <c r="A190" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="D190" s="40" t="s">
+      <c r="D190" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="E190" s="40" t="s">
+      <c r="E190" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="F190" s="40"/>
+      <c r="F190" s="39"/>
       <c r="G190" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="K190" s="54">
+      <c r="K190" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7478,17 +7480,17 @@
       <c r="A191" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D191" s="39" t="s">
+      <c r="D191" s="38" t="s">
         <v>502</v>
       </c>
-      <c r="E191" s="39" t="s">
+      <c r="E191" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="F191" s="39"/>
+      <c r="F191" s="38"/>
       <c r="G191" s="15" t="s">
         <v>508</v>
       </c>
-      <c r="K191" s="54">
+      <c r="K191" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7496,17 +7498,17 @@
       <c r="A192" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D192" s="39" t="s">
+      <c r="D192" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="E192" s="39" t="s">
+      <c r="E192" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="F192" s="39"/>
+      <c r="F192" s="38"/>
       <c r="G192" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="K192" s="54">
+      <c r="K192" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7514,17 +7516,17 @@
       <c r="A193" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="D193" s="39" t="s">
+      <c r="D193" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="E193" s="39" t="s">
+      <c r="E193" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="F193" s="39"/>
+      <c r="F193" s="38"/>
       <c r="G193" s="15" t="s">
         <v>512</v>
       </c>
-      <c r="K193" s="54">
+      <c r="K193" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7532,17 +7534,17 @@
       <c r="A194" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="D194" s="39" t="s">
+      <c r="D194" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="E194" s="39" t="s">
+      <c r="E194" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="F194" s="39"/>
+      <c r="F194" s="38"/>
       <c r="G194" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="K194" s="54">
+      <c r="K194" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7550,19 +7552,19 @@
       <c r="A195" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="D195" s="39" t="s">
+      <c r="D195" s="38" t="s">
         <v>517</v>
       </c>
-      <c r="E195" s="39" t="s">
+      <c r="E195" s="38" t="s">
         <v>518</v>
       </c>
-      <c r="F195" s="39" t="s">
+      <c r="F195" s="38" t="s">
         <v>519</v>
       </c>
       <c r="G195" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="K195" s="54">
+      <c r="K195" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7570,17 +7572,17 @@
       <c r="A196" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="D196" s="39" t="s">
+      <c r="D196" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="E196" s="39" t="s">
+      <c r="E196" s="38" t="s">
         <v>521</v>
       </c>
-      <c r="F196" s="39"/>
+      <c r="F196" s="38"/>
       <c r="G196" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="K196" s="54">
+      <c r="K196" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7588,17 +7590,17 @@
       <c r="A197" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D197" s="39" t="s">
+      <c r="D197" s="38" t="s">
         <v>525</v>
       </c>
-      <c r="E197" s="39" t="s">
+      <c r="E197" s="38" t="s">
         <v>526</v>
       </c>
-      <c r="F197" s="39"/>
+      <c r="F197" s="38"/>
       <c r="G197" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="K197" s="54">
+      <c r="K197" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7606,17 +7608,17 @@
       <c r="A198" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D198" s="39" t="s">
+      <c r="D198" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="E198" s="39" t="s">
+      <c r="E198" s="38" t="s">
         <v>528</v>
       </c>
-      <c r="F198" s="39"/>
+      <c r="F198" s="38"/>
       <c r="G198" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="K198" s="54">
+      <c r="K198" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7624,17 +7626,17 @@
       <c r="A199" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D199" s="39" t="s">
+      <c r="D199" s="38" t="s">
         <v>527</v>
       </c>
-      <c r="E199" s="39" t="s">
+      <c r="E199" s="38" t="s">
         <v>529</v>
       </c>
-      <c r="F199" s="39"/>
+      <c r="F199" s="38"/>
       <c r="G199" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="K199" s="54">
+      <c r="K199" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7642,17 +7644,17 @@
       <c r="A200" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D200" s="39" t="s">
+      <c r="D200" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="E200" s="39" t="s">
+      <c r="E200" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="F200" s="39"/>
+      <c r="F200" s="38"/>
       <c r="G200" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="K200" s="54">
+      <c r="K200" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7660,17 +7662,17 @@
       <c r="A201" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D201" s="39" t="s">
+      <c r="D201" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="E201" s="39" t="s">
+      <c r="E201" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="F201" s="39"/>
+      <c r="F201" s="38"/>
       <c r="G201" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="K201" s="54">
+      <c r="K201" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7678,17 +7680,17 @@
       <c r="A202" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D202" s="39" t="s">
+      <c r="D202" s="38" t="s">
         <v>533</v>
       </c>
-      <c r="E202" s="39" t="s">
+      <c r="E202" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="F202" s="39"/>
+      <c r="F202" s="38"/>
       <c r="G202" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="K202" s="54">
+      <c r="K202" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7696,17 +7698,17 @@
       <c r="A203" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D203" s="39" t="s">
+      <c r="D203" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="E203" s="39" t="s">
+      <c r="E203" s="38" t="s">
         <v>536</v>
       </c>
-      <c r="F203" s="39"/>
+      <c r="F203" s="38"/>
       <c r="G203" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="K203" s="54">
+      <c r="K203" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7714,17 +7716,17 @@
       <c r="A204" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D204" s="39" t="s">
+      <c r="D204" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="E204" s="39" t="s">
+      <c r="E204" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="F204" s="39"/>
+      <c r="F204" s="38"/>
       <c r="G204" s="15" t="s">
         <v>554</v>
       </c>
-      <c r="K204" s="54">
+      <c r="K204" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7732,17 +7734,17 @@
       <c r="A205" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D205" s="39" t="s">
+      <c r="D205" s="38" t="s">
         <v>537</v>
       </c>
-      <c r="E205" s="39" t="s">
+      <c r="E205" s="38" t="s">
         <v>539</v>
       </c>
-      <c r="F205" s="39"/>
+      <c r="F205" s="38"/>
       <c r="G205" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="K205" s="54">
+      <c r="K205" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7750,17 +7752,17 @@
       <c r="A206" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D206" s="39" t="s">
+      <c r="D206" s="38" t="s">
         <v>540</v>
       </c>
-      <c r="E206" s="39" t="s">
+      <c r="E206" s="38" t="s">
         <v>541</v>
       </c>
-      <c r="F206" s="39"/>
+      <c r="F206" s="38"/>
       <c r="G206" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="K206" s="54">
+      <c r="K206" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7768,17 +7770,17 @@
       <c r="A207" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D207" s="39" t="s">
+      <c r="D207" s="38" t="s">
         <v>542</v>
       </c>
-      <c r="E207" s="39" t="s">
+      <c r="E207" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="F207" s="39"/>
+      <c r="F207" s="38"/>
       <c r="G207" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="K207" s="54">
+      <c r="K207" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7786,17 +7788,17 @@
       <c r="A208" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="D208" s="39" t="s">
+      <c r="D208" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="E208" s="39" t="s">
+      <c r="E208" s="38" t="s">
         <v>545</v>
       </c>
-      <c r="F208" s="39"/>
+      <c r="F208" s="38"/>
       <c r="G208" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="K208" s="54">
+      <c r="K208" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7804,17 +7806,17 @@
       <c r="A209" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="D209" s="39" t="s">
+      <c r="D209" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="E209" s="39" t="s">
+      <c r="E209" s="38" t="s">
         <v>560</v>
       </c>
-      <c r="F209" s="41" t="s">
+      <c r="F209" s="40" t="s">
         <v>52</v>
       </c>
       <c r="G209" s="28"/>
-      <c r="K209" s="54">
+      <c r="K209" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7822,17 +7824,17 @@
       <c r="A210" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="D210" s="39" t="s">
+      <c r="D210" s="38" t="s">
         <v>561</v>
       </c>
-      <c r="E210" s="39" t="s">
+      <c r="E210" s="38" t="s">
         <v>562</v>
       </c>
-      <c r="F210" s="39" t="s">
+      <c r="F210" s="38" t="s">
         <v>563</v>
       </c>
       <c r="G210" s="28"/>
-      <c r="K210" s="54">
+      <c r="K210" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7840,17 +7842,17 @@
       <c r="A211" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="D211" s="39" t="s">
+      <c r="D211" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="E211" s="39" t="s">
+      <c r="E211" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="F211" s="39"/>
+      <c r="F211" s="38"/>
       <c r="G211" s="15" t="s">
         <v>568</v>
       </c>
-      <c r="K211" s="54">
+      <c r="K211" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7858,17 +7860,17 @@
       <c r="A212" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="D212" s="42" t="s">
+      <c r="D212" s="41" t="s">
         <v>572</v>
       </c>
-      <c r="E212" s="39" t="s">
+      <c r="E212" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="F212" s="39"/>
+      <c r="F212" s="38"/>
       <c r="G212" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="K212" s="54">
+      <c r="K212" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7876,17 +7878,17 @@
       <c r="A213" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="D213" s="42" t="s">
+      <c r="D213" s="41" t="s">
         <v>573</v>
       </c>
-      <c r="E213" s="39" t="s">
+      <c r="E213" s="38" t="s">
         <v>567</v>
       </c>
-      <c r="F213" s="39"/>
+      <c r="F213" s="38"/>
       <c r="G213" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="K213" s="54">
+      <c r="K213" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7894,19 +7896,19 @@
       <c r="A214" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="D214" s="39" t="s">
+      <c r="D214" s="38" t="s">
         <v>574</v>
       </c>
-      <c r="E214" s="39" t="s">
+      <c r="E214" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="F214" s="39" t="s">
+      <c r="F214" s="38" t="s">
         <v>576</v>
       </c>
       <c r="G214" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="K214" s="54">
+      <c r="K214" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7914,19 +7916,19 @@
       <c r="A215" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="D215" s="39" t="s">
+      <c r="D215" s="38" t="s">
         <v>577</v>
       </c>
-      <c r="E215" s="39" t="s">
+      <c r="E215" s="38" t="s">
         <v>578</v>
       </c>
-      <c r="F215" s="39" t="s">
+      <c r="F215" s="38" t="s">
         <v>579</v>
       </c>
       <c r="G215" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="K215" s="54">
+      <c r="K215" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7934,17 +7936,17 @@
       <c r="A216" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="D216" s="39" t="s">
+      <c r="D216" s="38" t="s">
         <v>580</v>
       </c>
-      <c r="E216" s="39" t="s">
+      <c r="E216" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="F216" s="39"/>
+      <c r="F216" s="38"/>
       <c r="G216" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="K216" s="54">
+      <c r="K216" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7952,17 +7954,17 @@
       <c r="A217" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="D217" s="39" t="s">
+      <c r="D217" s="38" t="s">
         <v>582</v>
       </c>
-      <c r="E217" s="39" t="s">
+      <c r="E217" s="38" t="s">
         <v>531</v>
       </c>
-      <c r="F217" s="39"/>
+      <c r="F217" s="38"/>
       <c r="G217" s="15" t="s">
         <v>586</v>
       </c>
-      <c r="K217" s="54">
+      <c r="K217" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7970,17 +7972,17 @@
       <c r="A218" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="D218" s="39" t="s">
+      <c r="D218" s="38" t="s">
         <v>587</v>
       </c>
-      <c r="E218" s="39" t="s">
+      <c r="E218" s="38" t="s">
         <v>588</v>
       </c>
-      <c r="F218" s="39"/>
+      <c r="F218" s="38"/>
       <c r="G218" s="15" t="s">
         <v>589</v>
       </c>
-      <c r="K218" s="54">
+      <c r="K218" s="53">
         <v>1</v>
       </c>
     </row>
@@ -7988,17 +7990,17 @@
       <c r="A219" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="D219" s="39" t="s">
+      <c r="D219" s="38" t="s">
         <v>591</v>
       </c>
-      <c r="E219" s="39" t="s">
+      <c r="E219" s="38" t="s">
         <v>592</v>
       </c>
-      <c r="F219" s="39"/>
+      <c r="F219" s="38"/>
       <c r="G219" s="15" t="s">
         <v>600</v>
       </c>
-      <c r="K219" s="54">
+      <c r="K219" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8006,17 +8008,17 @@
       <c r="A220" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="D220" s="39" t="s">
+      <c r="D220" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="E220" s="39" t="s">
+      <c r="E220" s="38" t="s">
         <v>594</v>
       </c>
-      <c r="F220" s="39"/>
+      <c r="F220" s="38"/>
       <c r="G220" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="K220" s="54">
+      <c r="K220" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8024,15 +8026,15 @@
       <c r="A221" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="D221" s="39" t="s">
+      <c r="D221" s="38" t="s">
         <v>595</v>
       </c>
-      <c r="E221" s="39"/>
-      <c r="F221" s="39"/>
+      <c r="E221" s="38"/>
+      <c r="F221" s="38"/>
       <c r="G221" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="K221" s="54">
+      <c r="K221" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8040,17 +8042,17 @@
       <c r="A222" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="D222" s="39" t="s">
+      <c r="D222" s="38" t="s">
         <v>596</v>
       </c>
-      <c r="E222" s="39" t="s">
+      <c r="E222" s="38" t="s">
         <v>597</v>
       </c>
-      <c r="F222" s="39"/>
+      <c r="F222" s="38"/>
       <c r="G222" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="K222" s="54">
+      <c r="K222" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8058,17 +8060,17 @@
       <c r="A223" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="D223" s="39" t="s">
+      <c r="D223" s="38" t="s">
         <v>598</v>
       </c>
-      <c r="E223" s="39" t="s">
+      <c r="E223" s="38" t="s">
         <v>599</v>
       </c>
-      <c r="F223" s="39"/>
+      <c r="F223" s="38"/>
       <c r="G223" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="K223" s="54">
+      <c r="K223" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8076,17 +8078,17 @@
       <c r="A224" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="D224" s="39" t="s">
+      <c r="D224" s="38" t="s">
         <v>606</v>
       </c>
-      <c r="E224" s="39" t="s">
+      <c r="E224" s="38" t="s">
         <v>607</v>
       </c>
-      <c r="F224" s="43"/>
+      <c r="F224" s="42"/>
       <c r="G224" s="15" t="s">
         <v>610</v>
       </c>
-      <c r="K224" s="54">
+      <c r="K224" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8094,17 +8096,17 @@
       <c r="A225" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="D225" s="39" t="s">
+      <c r="D225" s="38" t="s">
         <v>612</v>
       </c>
-      <c r="E225" s="39" t="s">
+      <c r="E225" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="F225" s="39"/>
+      <c r="F225" s="38"/>
       <c r="G225" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="K225" s="54">
+      <c r="K225" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8112,17 +8114,17 @@
       <c r="A226" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="D226" s="38" t="s">
+      <c r="D226" s="37" t="s">
         <v>614</v>
       </c>
-      <c r="E226" s="39" t="s">
+      <c r="E226" s="38" t="s">
         <v>614</v>
       </c>
-      <c r="F226" s="39"/>
+      <c r="F226" s="38"/>
       <c r="G226" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="K226" s="54">
+      <c r="K226" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8130,17 +8132,17 @@
       <c r="A227" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="D227" s="38" t="s">
+      <c r="D227" s="37" t="s">
         <v>615</v>
       </c>
-      <c r="E227" s="39" t="s">
+      <c r="E227" s="38" t="s">
         <v>616</v>
       </c>
-      <c r="F227" s="39"/>
+      <c r="F227" s="38"/>
       <c r="G227" s="15" t="s">
         <v>618</v>
       </c>
-      <c r="K227" s="54">
+      <c r="K227" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8148,19 +8150,19 @@
       <c r="A228" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="D228" s="38" t="s">
+      <c r="D228" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="E228" s="39" t="s">
+      <c r="E228" s="38" t="s">
         <v>620</v>
       </c>
-      <c r="F228" s="39" t="s">
+      <c r="F228" s="38" t="s">
         <v>621</v>
       </c>
       <c r="G228" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="K228" s="54">
+      <c r="K228" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8168,17 +8170,17 @@
       <c r="A229" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="D229" s="38" t="s">
+      <c r="D229" s="37" t="s">
         <v>622</v>
       </c>
-      <c r="E229" s="39" t="s">
+      <c r="E229" s="38" t="s">
         <v>623</v>
       </c>
-      <c r="F229" s="39"/>
+      <c r="F229" s="38"/>
       <c r="G229" s="15" t="s">
         <v>629</v>
       </c>
-      <c r="K229" s="54">
+      <c r="K229" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8186,19 +8188,19 @@
       <c r="A230" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="D230" s="38" t="s">
+      <c r="D230" s="37" t="s">
         <v>624</v>
       </c>
-      <c r="E230" s="39" t="s">
+      <c r="E230" s="38" t="s">
         <v>625</v>
       </c>
-      <c r="F230" s="39" t="s">
+      <c r="F230" s="38" t="s">
         <v>626</v>
       </c>
       <c r="G230" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="K230" s="54">
+      <c r="K230" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8206,17 +8208,17 @@
       <c r="A231" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="D231" s="38" t="s">
+      <c r="D231" s="37" t="s">
         <v>631</v>
       </c>
-      <c r="E231" s="39" t="s">
+      <c r="E231" s="38" t="s">
         <v>632</v>
       </c>
-      <c r="F231" s="39"/>
+      <c r="F231" s="38"/>
       <c r="G231" s="15" t="s">
         <v>639</v>
       </c>
-      <c r="K231" s="54">
+      <c r="K231" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8224,19 +8226,19 @@
       <c r="A232" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="D232" s="38" t="s">
+      <c r="D232" s="37" t="s">
         <v>633</v>
       </c>
-      <c r="E232" s="38" t="s">
+      <c r="E232" s="37" t="s">
         <v>634</v>
       </c>
-      <c r="F232" s="39" t="s">
+      <c r="F232" s="38" t="s">
         <v>635</v>
       </c>
       <c r="G232" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="K232" s="54">
+      <c r="K232" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8244,17 +8246,17 @@
       <c r="A233" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="D233" s="38" t="s">
+      <c r="D233" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="E233" s="39" t="s">
+      <c r="E233" s="38" t="s">
         <v>637</v>
       </c>
-      <c r="F233" s="39"/>
+      <c r="F233" s="38"/>
       <c r="G233" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="K233" s="54">
+      <c r="K233" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8262,17 +8264,17 @@
       <c r="A234" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="D234" s="38" t="s">
+      <c r="D234" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="E234" s="39" t="s">
+      <c r="E234" s="38" t="s">
         <v>643</v>
       </c>
-      <c r="F234" s="39"/>
+      <c r="F234" s="38"/>
       <c r="G234" s="15" t="s">
         <v>653</v>
       </c>
-      <c r="K234" s="54">
+      <c r="K234" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8280,19 +8282,19 @@
       <c r="A235" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="D235" s="38" t="s">
+      <c r="D235" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="E235" s="39" t="s">
+      <c r="E235" s="38" t="s">
         <v>645</v>
       </c>
-      <c r="F235" s="39" t="s">
+      <c r="F235" s="38" t="s">
         <v>646</v>
       </c>
       <c r="G235" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="K235" s="54">
+      <c r="K235" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8300,17 +8302,17 @@
       <c r="A236" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="D236" s="38" t="s">
+      <c r="D236" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="E236" s="39" t="s">
+      <c r="E236" s="38" t="s">
         <v>647</v>
       </c>
-      <c r="F236" s="39"/>
+      <c r="F236" s="38"/>
       <c r="G236" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="K236" s="54">
+      <c r="K236" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8318,19 +8320,19 @@
       <c r="A237" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="D237" s="38" t="s">
+      <c r="D237" s="37" t="s">
         <v>644</v>
       </c>
-      <c r="E237" s="39" t="s">
+      <c r="E237" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="F237" s="39" t="s">
+      <c r="F237" s="38" t="s">
         <v>648</v>
       </c>
       <c r="G237" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="K237" s="54">
+      <c r="K237" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8338,19 +8340,19 @@
       <c r="A238" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="D238" s="38" t="s">
+      <c r="D238" s="37" t="s">
         <v>649</v>
       </c>
-      <c r="E238" s="39" t="s">
+      <c r="E238" s="38" t="s">
         <v>650</v>
       </c>
-      <c r="F238" s="39" t="s">
+      <c r="F238" s="38" t="s">
         <v>651</v>
       </c>
       <c r="G238" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="K238" s="54">
+      <c r="K238" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8358,17 +8360,17 @@
       <c r="A239" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="D239" s="38" t="s">
+      <c r="D239" s="37" t="s">
         <v>658</v>
       </c>
-      <c r="E239" s="39" t="s">
+      <c r="E239" s="38" t="s">
         <v>659</v>
       </c>
-      <c r="F239" s="39"/>
+      <c r="F239" s="38"/>
       <c r="G239" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="K239" s="54">
+      <c r="K239" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8376,17 +8378,17 @@
       <c r="A240" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="D240" s="38" t="s">
+      <c r="D240" s="37" t="s">
         <v>662</v>
       </c>
-      <c r="E240" s="39" t="s">
+      <c r="E240" s="38" t="s">
         <v>663</v>
       </c>
-      <c r="F240" s="39"/>
+      <c r="F240" s="38"/>
       <c r="G240" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="K240" s="54">
+      <c r="K240" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8394,19 +8396,19 @@
       <c r="A241" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="D241" s="38" t="s">
+      <c r="D241" s="37" t="s">
         <v>664</v>
       </c>
-      <c r="E241" s="39" t="s">
+      <c r="E241" s="38" t="s">
         <v>665</v>
       </c>
-      <c r="F241" s="39" t="s">
+      <c r="F241" s="38" t="s">
         <v>666</v>
       </c>
       <c r="G241" s="15" t="s">
         <v>678</v>
       </c>
-      <c r="K241" s="54">
+      <c r="K241" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8414,19 +8416,19 @@
       <c r="A242" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="D242" s="38" t="s">
+      <c r="D242" s="37" t="s">
         <v>664</v>
       </c>
-      <c r="E242" s="39" t="s">
+      <c r="E242" s="38" t="s">
         <v>667</v>
       </c>
-      <c r="F242" s="39" t="s">
+      <c r="F242" s="38" t="s">
         <v>668</v>
       </c>
       <c r="G242" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="K242" s="54">
+      <c r="K242" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8434,19 +8436,19 @@
       <c r="A243" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="D243" s="38" t="s">
+      <c r="D243" s="37" t="s">
         <v>669</v>
       </c>
-      <c r="E243" s="39" t="s">
+      <c r="E243" s="38" t="s">
         <v>670</v>
       </c>
-      <c r="F243" s="39" t="s">
+      <c r="F243" s="38" t="s">
         <v>671</v>
       </c>
       <c r="G243" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="K243" s="54">
+      <c r="K243" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8454,19 +8456,19 @@
       <c r="A244" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="D244" s="39" t="s">
+      <c r="D244" s="38" t="s">
         <v>669</v>
       </c>
-      <c r="E244" s="39" t="s">
+      <c r="E244" s="38" t="s">
         <v>672</v>
       </c>
-      <c r="F244" s="39" t="s">
+      <c r="F244" s="38" t="s">
         <v>673</v>
       </c>
       <c r="G244" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="K244" s="54">
+      <c r="K244" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8474,19 +8476,19 @@
       <c r="A245" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="D245" s="44" t="s">
+      <c r="D245" s="43" t="s">
         <v>674</v>
       </c>
-      <c r="E245" s="38" t="s">
+      <c r="E245" s="37" t="s">
         <v>675</v>
       </c>
-      <c r="F245" s="39" t="s">
+      <c r="F245" s="38" t="s">
         <v>676</v>
       </c>
       <c r="G245" s="15" t="s">
         <v>682</v>
       </c>
-      <c r="K245" s="54">
+      <c r="K245" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8494,19 +8496,19 @@
       <c r="A246" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="D246" s="44" t="s">
+      <c r="D246" s="43" t="s">
         <v>674</v>
       </c>
-      <c r="E246" s="38" t="s">
+      <c r="E246" s="37" t="s">
         <v>675</v>
       </c>
-      <c r="F246" s="39" t="s">
+      <c r="F246" s="38" t="s">
         <v>676</v>
       </c>
       <c r="G246" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="K246" s="54">
+      <c r="K246" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8514,19 +8516,19 @@
       <c r="A247" s="8" t="s">
         <v>736</v>
       </c>
-      <c r="D247" s="41" t="s">
+      <c r="D247" s="40" t="s">
         <v>685</v>
       </c>
-      <c r="E247" s="41" t="s">
+      <c r="E247" s="40" t="s">
         <v>686</v>
       </c>
-      <c r="F247" s="39"/>
-      <c r="G247" s="45" t="s">
+      <c r="F247" s="38"/>
+      <c r="G247" s="44" t="s">
         <v>687</v>
       </c>
-      <c r="H247" s="35"/>
-      <c r="I247" s="36"/>
-      <c r="K247" s="54">
+      <c r="H247" s="34"/>
+      <c r="I247" s="35"/>
+      <c r="K247" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8534,19 +8536,19 @@
       <c r="A248" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D248" s="39" t="s">
+      <c r="D248" s="38" t="s">
         <v>688</v>
       </c>
-      <c r="E248" s="39" t="s">
+      <c r="E248" s="38" t="s">
         <v>689</v>
       </c>
-      <c r="F248" s="39"/>
-      <c r="G248" s="45" t="s">
+      <c r="F248" s="38"/>
+      <c r="G248" s="44" t="s">
         <v>690</v>
       </c>
-      <c r="H248" s="46"/>
-      <c r="I248" s="47"/>
-      <c r="K248" s="54">
+      <c r="H248" s="45"/>
+      <c r="I248" s="46"/>
+      <c r="K248" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8554,19 +8556,19 @@
       <c r="A249" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="D249" s="38" t="s">
+      <c r="D249" s="37" t="s">
         <v>691</v>
       </c>
-      <c r="E249" s="38" t="s">
+      <c r="E249" s="37" t="s">
         <v>692</v>
       </c>
-      <c r="F249" s="39"/>
-      <c r="G249" s="45" t="s">
+      <c r="F249" s="38"/>
+      <c r="G249" s="44" t="s">
         <v>693</v>
       </c>
-      <c r="H249" s="46"/>
-      <c r="I249" s="47"/>
-      <c r="K249" s="54">
+      <c r="H249" s="45"/>
+      <c r="I249" s="46"/>
+      <c r="K249" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8574,21 +8576,21 @@
       <c r="A250" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D250" s="38" t="s">
+      <c r="D250" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="E250" s="38" t="s">
+      <c r="E250" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="F250" s="39"/>
-      <c r="G250" s="45" t="s">
+      <c r="F250" s="38"/>
+      <c r="G250" s="44" t="s">
         <v>696</v>
       </c>
-      <c r="H250" s="46"/>
-      <c r="I250" s="36" t="s">
+      <c r="H250" s="45"/>
+      <c r="I250" s="35" t="s">
         <v>697</v>
       </c>
-      <c r="K250" s="54">
+      <c r="K250" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8596,21 +8598,21 @@
       <c r="A251" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="D251" s="39" t="s">
+      <c r="D251" s="38" t="s">
         <v>698</v>
       </c>
-      <c r="E251" s="39" t="s">
+      <c r="E251" s="38" t="s">
         <v>699</v>
       </c>
-      <c r="F251" s="39" t="s">
+      <c r="F251" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="G251" s="45" t="s">
+      <c r="G251" s="44" t="s">
         <v>700</v>
       </c>
-      <c r="H251" s="35"/>
-      <c r="I251" s="36"/>
-      <c r="K251" s="54">
+      <c r="H251" s="34"/>
+      <c r="I251" s="35"/>
+      <c r="K251" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8618,19 +8620,19 @@
       <c r="A252" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D252" s="39" t="s">
+      <c r="D252" s="38" t="s">
         <v>701</v>
       </c>
-      <c r="E252" s="39" t="s">
+      <c r="E252" s="38" t="s">
         <v>702</v>
       </c>
-      <c r="F252" s="39"/>
-      <c r="G252" s="45" t="s">
+      <c r="F252" s="38"/>
+      <c r="G252" s="44" t="s">
         <v>703</v>
       </c>
-      <c r="H252" s="35"/>
-      <c r="I252" s="36"/>
-      <c r="K252" s="54">
+      <c r="H252" s="34"/>
+      <c r="I252" s="35"/>
+      <c r="K252" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8638,19 +8640,19 @@
       <c r="A253" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="D253" s="38" t="s">
+      <c r="D253" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="E253" s="38" t="s">
+      <c r="E253" s="37" t="s">
         <v>705</v>
       </c>
-      <c r="F253" s="39"/>
-      <c r="G253" s="45" t="s">
+      <c r="F253" s="38"/>
+      <c r="G253" s="44" t="s">
         <v>706</v>
       </c>
-      <c r="H253" s="35"/>
-      <c r="I253" s="36"/>
-      <c r="K253" s="54">
+      <c r="H253" s="34"/>
+      <c r="I253" s="35"/>
+      <c r="K253" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8658,21 +8660,21 @@
       <c r="A254" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D254" s="41" t="s">
+      <c r="D254" s="40" t="s">
         <v>707</v>
       </c>
-      <c r="E254" s="41" t="s">
+      <c r="E254" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="F254" s="39" t="s">
+      <c r="F254" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="G254" s="45" t="s">
+      <c r="G254" s="44" t="s">
         <v>709</v>
       </c>
-      <c r="H254" s="35"/>
-      <c r="I254" s="36"/>
-      <c r="K254" s="54">
+      <c r="H254" s="34"/>
+      <c r="I254" s="35"/>
+      <c r="K254" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8680,19 +8682,19 @@
       <c r="A255" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="D255" s="41" t="s">
+      <c r="D255" s="40" t="s">
         <v>710</v>
       </c>
-      <c r="E255" s="41" t="s">
+      <c r="E255" s="40" t="s">
         <v>711</v>
       </c>
-      <c r="F255" s="39"/>
-      <c r="G255" s="45" t="s">
+      <c r="F255" s="38"/>
+      <c r="G255" s="44" t="s">
         <v>712</v>
       </c>
-      <c r="H255" s="35"/>
-      <c r="I255" s="36"/>
-      <c r="K255" s="54">
+      <c r="H255" s="34"/>
+      <c r="I255" s="35"/>
+      <c r="K255" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8700,19 +8702,19 @@
       <c r="A256" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D256" s="41" t="s">
+      <c r="D256" s="40" t="s">
         <v>713</v>
       </c>
-      <c r="E256" s="41" t="s">
+      <c r="E256" s="40" t="s">
         <v>714</v>
       </c>
-      <c r="F256" s="39"/>
-      <c r="G256" s="45" t="s">
+      <c r="F256" s="38"/>
+      <c r="G256" s="44" t="s">
         <v>715</v>
       </c>
-      <c r="H256" s="35"/>
-      <c r="I256" s="36"/>
-      <c r="K256" s="54">
+      <c r="H256" s="34"/>
+      <c r="I256" s="35"/>
+      <c r="K256" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8720,19 +8722,19 @@
       <c r="A257" s="8" t="s">
         <v>746</v>
       </c>
-      <c r="D257" s="41" t="s">
+      <c r="D257" s="40" t="s">
         <v>716</v>
       </c>
-      <c r="E257" s="41" t="s">
+      <c r="E257" s="40" t="s">
         <v>717</v>
       </c>
-      <c r="F257" s="39"/>
-      <c r="G257" s="45" t="s">
+      <c r="F257" s="38"/>
+      <c r="G257" s="44" t="s">
         <v>718</v>
       </c>
-      <c r="H257" s="35"/>
-      <c r="I257" s="36"/>
-      <c r="K257" s="54">
+      <c r="H257" s="34"/>
+      <c r="I257" s="35"/>
+      <c r="K257" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8740,19 +8742,19 @@
       <c r="A258" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D258" s="41" t="s">
+      <c r="D258" s="40" t="s">
         <v>719</v>
       </c>
-      <c r="E258" s="41" t="s">
+      <c r="E258" s="40" t="s">
         <v>720</v>
       </c>
-      <c r="F258" s="39"/>
-      <c r="G258" s="45" t="s">
+      <c r="F258" s="38"/>
+      <c r="G258" s="44" t="s">
         <v>721</v>
       </c>
-      <c r="H258" s="35"/>
-      <c r="I258" s="36"/>
-      <c r="K258" s="54">
+      <c r="H258" s="34"/>
+      <c r="I258" s="35"/>
+      <c r="K258" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8760,21 +8762,21 @@
       <c r="A259" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="D259" s="41" t="s">
+      <c r="D259" s="40" t="s">
         <v>722</v>
       </c>
-      <c r="E259" s="41" t="s">
+      <c r="E259" s="40" t="s">
         <v>723</v>
       </c>
-      <c r="F259" s="39"/>
-      <c r="G259" s="45" t="s">
+      <c r="F259" s="38"/>
+      <c r="G259" s="44" t="s">
         <v>724</v>
       </c>
-      <c r="H259" s="35"/>
-      <c r="I259" s="36" t="s">
+      <c r="H259" s="34"/>
+      <c r="I259" s="35" t="s">
         <v>725</v>
       </c>
-      <c r="K259" s="54">
+      <c r="K259" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8782,21 +8784,21 @@
       <c r="A260" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D260" s="41" t="s">
+      <c r="D260" s="40" t="s">
         <v>726</v>
       </c>
-      <c r="E260" s="41" t="s">
+      <c r="E260" s="40" t="s">
         <v>727</v>
       </c>
-      <c r="F260" s="39"/>
-      <c r="G260" s="45" t="s">
+      <c r="F260" s="38"/>
+      <c r="G260" s="44" t="s">
         <v>728</v>
       </c>
-      <c r="H260" s="35"/>
-      <c r="I260" s="36" t="s">
+      <c r="H260" s="34"/>
+      <c r="I260" s="35" t="s">
         <v>729</v>
       </c>
-      <c r="K260" s="54">
+      <c r="K260" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8804,19 +8806,19 @@
       <c r="A261" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="D261" s="41" t="s">
+      <c r="D261" s="40" t="s">
         <v>730</v>
       </c>
-      <c r="E261" s="41" t="s">
+      <c r="E261" s="40" t="s">
         <v>731</v>
       </c>
-      <c r="F261" s="39"/>
-      <c r="G261" s="45" t="s">
+      <c r="F261" s="38"/>
+      <c r="G261" s="44" t="s">
         <v>732</v>
       </c>
-      <c r="H261" s="35"/>
-      <c r="I261" s="36"/>
-      <c r="K261" s="54">
+      <c r="H261" s="34"/>
+      <c r="I261" s="35"/>
+      <c r="K261" s="53">
         <v>1</v>
       </c>
     </row>
@@ -8824,19 +8826,19 @@
       <c r="A262" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D262" s="41" t="s">
+      <c r="D262" s="40" t="s">
         <v>733</v>
       </c>
-      <c r="E262" s="41" t="s">
+      <c r="E262" s="40" t="s">
         <v>734</v>
       </c>
-      <c r="F262" s="39"/>
-      <c r="G262" s="45" t="s">
+      <c r="F262" s="38"/>
+      <c r="G262" s="44" t="s">
         <v>735</v>
       </c>
-      <c r="H262" s="35"/>
-      <c r="I262" s="36"/>
-      <c r="K262" s="54">
+      <c r="H262" s="34"/>
+      <c r="I262" s="35"/>
+      <c r="K262" s="53">
         <v>1</v>
       </c>
     </row>

--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="867">
   <si>
     <t>সহজে বহনীয়</t>
   </si>
@@ -1088,241 +1088,34 @@
     <t>290.Chapter-p1-24.xhtml</t>
   </si>
   <si>
-    <t>জবের নামঃ ইলেকট্রিক্যাল কাজে নিরাপত্তা জনিত পোশাক ও মালামালের সঠিক ব্যবহার করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>ইলেকট্রিক্যাল কাজে নিরাপত্তা জনিত পোশাক ও মালামালের সঠিক ব্যবহার করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>imagej01001</t>
-  </si>
-  <si>
     <t>Videoj01001</t>
   </si>
   <si>
-    <t>জবের নামঃ ইলেকট্রিক্যাল হ্যান্ড টুলস শনাক্তকরণ ও সেগুলোর ব্যবহার বিষয়ে দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>ইলেকট্রিক্যাল হ্যান্ড টুলস শনাক্তকরণ ও সেগুলোর ব্যবহার বিষয়ে দক্ষতা অর্জন।</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>imagej02001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ বৈদ্যুতিক ওয়্যারিং ফিটিংস শনাক্তকরণ ও সঠিক ব্যবহার করার দক্ষতা অর্জন ।</t>
-  </si>
-  <si>
-    <t>বৈদ্যুতিক ওয়্যারিং ফিটিংস শনাক্তকরণ ও সঠিক ব্যবহার করার দক্ষতা অর্জন ।</t>
-  </si>
-  <si>
-    <t>imagej03001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ বিভিন্ন তার ও ক্যাবল (ধরন, সাইজ, কারেন্ট বহন ক্ষমতা ও ভোল্টেজ গ্রেড) শনাক্তকরণ ও ওয়্যার গেজের সাহায্যে বিদ্যুৎ পরিবাহীর সাইজ নির্ণয়ে দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>বিভিন্ন তার ও ক্যাবল (ধরন, সাইজ, কারেন্ট বহন ক্ষমতা ও ভোল্টেজ গ্রেড) শনাক্তকরণ ও ওয়্যার গেজের সাহায্যে বিদ্যুৎ পরিবাহীর সাইজ নির্ণয়ে দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>imagej04001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ এক হারা (খেই) তার দিয়ে (ক) পিগ টেইল জয়েন্ট, (খ) টি জয়েন্ট, (গ) বেল হেঙ্গার জয়েন্ট তৈরি করা</t>
-  </si>
-  <si>
-    <t>এক হারা (খেই) তার দিয়ে (ক) পিগ টেইল জয়েন্ট, (খ) টি জয়েন্ট, (গ) বেল হেঙ্গার জয়েন্ট তৈরি করা</t>
-  </si>
-  <si>
-    <t>imagej05001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ বহু হারা তার দিয়ে (ক) ম্যারিড জয়েন্ট, (খ) ব্রিটেনিয়া জয়েন্ট, (গ) ডুপলেক্স জয়েন্ট তৈরিকরণ।</t>
-  </si>
-  <si>
-    <t>বহু হারা তার দিয়ে (ক) ম্যারিড জয়েন্ট, (খ) ব্রিটেনিয়া জয়েন্ট, (গ) ডুপলেক্স জয়েন্ট তৈরিকরণ।</t>
-  </si>
-  <si>
-    <t>imagej06001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ বৈদ্যুতিক জয়েন্ট সোল্ডারিং এবং টেপিংকরণ।</t>
-  </si>
-  <si>
-    <t>বৈদ্যুতিক জয়েন্ট সোল্ডারিং এবং টেপিংকরণ।</t>
-  </si>
-  <si>
-    <t>imagej07001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ চ্যানেল আটকানো এবং উহাতে তার/ক্যাবল স্থাপনের দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>চ্যানেল আটকানো এবং উহাতে তার/ক্যাবল স্থাপনের দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>imagej08001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">জবের নামঃ জাংশন বাক্সে তারের সংযোগকরণ। </t>
-  </si>
-  <si>
-    <t xml:space="preserve">জাংশন বাক্সে তারের সংযোগকরণ। </t>
-  </si>
-  <si>
-    <t>imagej09001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ ওয়্যারিং বোর্ডে ১টি সুইচ দ্বারা ১টি বাতি নিয়ন্ত্রণের চ্যানেল ওয়্যারিং করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>ওয়্যারিং বোর্ডে ১টি সুইচ দ্বারা ১টি বাতি নিয়ন্ত্রণের চ্যানেল ওয়্যারিং করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>imagej10001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ টিউব লাইট সংযোগ করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>টিউব লাইট সংযোগ করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>imagej11001</t>
-  </si>
-  <si>
     <t>Videoj01002</t>
   </si>
   <si>
-    <t>জবের নামঃ ১টি বৈদ্যুতিক এনার্জি বাতি, ১ টি ফ্যান, ১ টি সকেট সঠিকভাবে নিয়ন্ত্রণের মাধ্যমে ওয়্যারিং বোর্ডে চ্যানেল ওয়্যারিং করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>১টি বৈদ্যুতিক এনার্জি বাতি, ১ টি ফ্যান, ১ টি সকেট সঠিকভাবে নিয়ন্ত্রণের মাধ্যমে ওয়্যারিং বোর্ডে চ্যানেল ওয়্যারিং করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>imagej12001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ তিনটি ইন্ডিকেটর বাতিসহ তিন জায়গা থেকে নিয়ন্ত্রণের ১ টি কলিং বেল চ্যানেল ওয়্যারিং এর মাধ্যমে স্থাপন করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>তিনটি ইন্ডিকেটর বাতিসহ তিন জায়গা থেকে নিয়ন্ত্রণের ১ টি কলিং বেল চ্যানেল ওয়্যারিং এর মাধ্যমে স্থাপন করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>imagej13001</t>
-  </si>
-  <si>
     <t>Videoj01004</t>
   </si>
   <si>
-    <t xml:space="preserve">জবের নামঃ বোর্ডে একটি টিউব লাইট, একটি সিলিং ফ্যান আলাদাভাবে নিয়ন্ত্রণের চ্যানেল ওয়্যারিং।  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">বোর্ডে একটি টিউব লাইট, একটি সিলিং ফ্যান আলাদাভাবে নিয়ন্ত্রণের চ্যানেল ওয়্যারিং।  </t>
-  </si>
-  <si>
-    <t>imagej14001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ ওয়্যারিং বোর্ডে চ্যানেল ওয়্যারিং এর মাধ্যমে ২ টি SPDT সুইচ ব্যবহারে ১ টি বাতি স্বতন্ত্রভাবে নিয়ন্ত্রণের ব্যবস্থাকরণ।</t>
-  </si>
-  <si>
-    <t>ওয়্যারিং বোর্ডে চ্যানেল ওয়্যারিং এর মাধ্যমে ২ টি SPDT সুইচ ব্যবহারে ১ টি বাতি স্বতন্ত্রভাবে নিয়ন্ত্রণের ব্যবস্থাকরণ।</t>
-  </si>
-  <si>
-    <t>imagej15001</t>
-  </si>
-  <si>
     <t>Videoj01006</t>
   </si>
   <si>
-    <t>জবের নামঃ ওয়্যারিং বোর্ডে চৌ-রাসত্মায় ট্রাফিক কন্ট্রোল সার্কিট স্থাপনকরণ।</t>
-  </si>
-  <si>
-    <t>ওয়্যারিং বোর্ডে চৌ-রাসত্মায় ট্রাফিক কন্ট্রোল সার্কিট স্থাপনকরণ।</t>
-  </si>
-  <si>
-    <t>imagej16001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ ২টি বৈদ্যুতিক এনার্জি সেভিং ল্যাম্প, ২ টি টিউব লাইট, ২ টি তিন পিন সকেট, ২ টি কলিং বেল, ২ টি ফ্যান এর জন্য ফিউজ, মেইন সুইচ, জাংশন বক্স দিয়ে পিভিসি কন্ডুইট ওয়্যারিং করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>২টি বৈদ্যুতিক এনার্জি সেভিং ল্যাম্প, ২ টি টিউব লাইট, ২ টি তিন পিন সকেট, ২ টি কলিং বেল, ২ টি ফ্যান এর জন্য ফিউজ, মেইন সুইচ, জাংশন বক্স দিয়ে পিভিসি কন্ডুইট ওয়্যারিং করার দক্ষতা অর্জন।</t>
-  </si>
-  <si>
-    <t>imagej17001</t>
-  </si>
-  <si>
     <t>Videoj01008</t>
   </si>
   <si>
-    <t>জবের নামঃ পেস্নট আর্থিং বা আর্থ ইলেকট্রোড বসানো এবং আর্থ রেজিস্ট্যান্স টেস্ট/পরিমাপকরণ।</t>
-  </si>
-  <si>
-    <t>পেস্নট আর্থিং বা আর্থ ইলেকট্রোড বসানো এবং আর্থ রেজিস্ট্যান্স টেস্ট/পরিমাপকরণ।</t>
-  </si>
-  <si>
-    <t>imagej18001</t>
-  </si>
-  <si>
     <t>Videoj01009</t>
   </si>
   <si>
-    <t>জবের নামঃ বৈদ্যুতিক ওয়্যারিং এর টেস্টসমূহ- (ক) কন্টিনিউয়িটি টেস্ট, (খ) সুইচের পোলারিটি টেস্ট (গ) ইনসুলেশন রেজিস্ট্যান্স টেস্ট/পরিমাপকরণ</t>
-  </si>
-  <si>
-    <t>বৈদ্যুতিক ওয়্যারিং এর টেস্টসমূহ- (ক) কন্টিনিউয়িটি টেস্ট, (খ) সুইচের পোলারিটি টেস্ট (গ) ইনসুলেশন রেজিস্ট্যান্স টেস্ট/পরিমাপকরণ</t>
-  </si>
-  <si>
-    <t>imagej19001</t>
-  </si>
-  <si>
     <t>Videoj01010</t>
   </si>
   <si>
-    <t>জবের নামঃ ধাতব বার (তামা/ লোহা) দিয়ে বিভিন্ন ধরনের বাসবার তৈরি করা।</t>
-  </si>
-  <si>
-    <t>ধাতব বার (তামা/ লোহা) দিয়ে বিভিন্ন ধরনের বাসবার তৈরি করা।</t>
-  </si>
-  <si>
-    <t>imagej20001</t>
-  </si>
-  <si>
-    <t>জবের নামঃ ওয়্যারিং বুথে দুই রম্নম বিশিষ্ট একটি বাসগৃহে চ্যানেল পদ্ধতিতে বৈদ্যুতিক ওয়্যারিং করা।</t>
-  </si>
-  <si>
-    <t>ওয়্যারিং বুথে দুই রম্নম বিশিষ্ট একটি বাসগৃহে চ্যানেল পদ্ধতিতে বৈদ্যুতিক ওয়্যারিং করা।</t>
-  </si>
-  <si>
-    <t>imagej21001</t>
-  </si>
-  <si>
     <t>Videoj01012</t>
   </si>
   <si>
-    <t>জবের নামঃ ওয়্যারিং বুথে দুই রম্নম বিশিষ্ট একটি বাসগৃহের ন্যায় কনসিল্ড কন্ডুইট পদ্ধতিতে বৈদ্যুতিক ওয়্যারিং করা।</t>
-  </si>
-  <si>
-    <t>ওয়্যারিং বুথে দুই রম্নম বিশিষ্ট একটি বাসগৃহের ন্যায় কনসিল্ড কন্ডুইট পদ্ধতিতে বৈদ্যুতিক ওয়্যারিং করা।</t>
-  </si>
-  <si>
-    <t>imagej22001</t>
-  </si>
-  <si>
     <t>Videoj01013</t>
-  </si>
-  <si>
-    <t>জবের নামঃ প্রজেক্ট তৈরির দক্ষতা অর্জন করা।</t>
-  </si>
-  <si>
-    <t>প্রজেক্ট তৈরির দক্ষতা অর্জন করা।</t>
-  </si>
-  <si>
-    <t>imagej24001</t>
   </si>
   <si>
     <t>Videoj01014</t>
@@ -2817,6 +2610,144 @@
   </si>
   <si>
     <t>ব্লুপ্রিন্ট</t>
+  </si>
+  <si>
+    <t>ইলেকট্রিক্যাল কাজে নিরাপত্তা জনিত পোশাক ও মালামালের সঠিক ব্যবহার</t>
+  </si>
+  <si>
+    <t>ইলেকট্রিক্যাল হ্যান্ড টুলস্ সনাক্তকরণ ও সেগুলোর ব্যবহার বিষয়ে দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>বৈদ্যুতিক ওয়্যারিং ফিটিংস সনাক্তকরণ ও সঠিক ব্যবহার করার দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>বিভিন্ন তার ও ক্যাবল (ধরণ, সাইজ, কারেন্ট বহন ক্ষমতা ও ভোল্টেজ গ্রেড)সনাক্তকরণ ও ওয়্যার গেজের সাহায্যে বিদ্যুৎ পরিবাহীর সাইজ নির্ণয়ে দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>এক হারা (খেই) তার দিয়ে (ক) পিগটেনল জয়েন্ট, (খ) টি জয়েন্ট, (গ) বেল হেঙ্গার জয়েন্ট তৈরি করা</t>
+  </si>
+  <si>
+    <t>বহু হারা তার দিয়ে (ক) ম্যারিড জয়েন্ট, (খ) ব্রিটেনিয়া জয়েন্ট, (গ) ডুপলেক্স জয়েন্ট তৈরিকরণ</t>
+  </si>
+  <si>
+    <t>বৈদ্যুতিক জয়েন্ট সোল্ডারিং এবং টেপিংকরণ</t>
+  </si>
+  <si>
+    <t>চ্যানেল আটকানো এবং উহাতে তার/ক্যাবল স্থাপনের দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>জাংশন বাক্সে তারের সংযোগকরণ</t>
+  </si>
+  <si>
+    <t>বোর্ডে ১টি সুইচ দ্বারা ১টি বাতি নিয়ন্ত্রণের চ্যানেল ওয়্যারিং করার দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>টিউব লাইট সংযোগকরার দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>১টি বৈদ্যুতিক এনার্জি বাতি, ১ টি ফ্যান, ১ টি সকেট সঠিকভাবে নিয়ন্ত্রণের মাধ্যমে ওয়্যারিং বোর্ডে চ্যানেল ওয়্যারিং করার দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>তিনটি ইন্ডিকেটর বাতিসহ তিন জায়গা থেকে নিয়ন্ত্রণের ১ টি কলিং বেল চ্যানেল ওয়্যারিং এর মাধ্যমে স্থাপন করার দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>বোর্ডে একটি টিউব লাইট, একটি সিলিং ফ্যান আলাদাভাবে নিয়ন্ত্রণের চ্যানেল ওয়্যারিং</t>
+  </si>
+  <si>
+    <t>ওয়্যারিং বোর্ডে চ্যানেল ওয়্যারিং এর মাধ্যমে ২ টি SPDT বা টু-ওয়ে সুইচ ব্যবহারে ১ টি বাতি স্বতন্ত্রভাবে নিয়ন্ত্রণের ব্যবস্থাকরণ</t>
+  </si>
+  <si>
+    <t>ওয়্যারিং বোর্ডেচৌ-রাস্তায় ট্রাফিক কন্ট্রোল সার্কিট স্থাপনকরণ</t>
+  </si>
+  <si>
+    <t>পিভিসি কন্ডুইট ওয়্যারিং করার দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>প্লেট আর্থিং বা আর্থ ইলেকট্রোড বসানো এবং আর্থ রেজিস্ট্যান্স টেস্ট/পরিমাপ করণ</t>
+  </si>
+  <si>
+    <t>বৈদ্যুতিক ওয়্যারিং এর টেস্টসমূহ</t>
+  </si>
+  <si>
+    <t>ধাতব বার (তামা/ লোহা) দিয়ে বিভিন্ন ধরনের বাসবার তৈরী করা</t>
+  </si>
+  <si>
+    <t>ওয়্যারিং বুথে দু’ রুম বিশিষ্ট একটি বাসগৃহে চ্যানেল পদ্ধতিতে বৈদ্যুতিক ওয়্যারিং করা</t>
+  </si>
+  <si>
+    <t>ওয়্যারিং বুথে দু’রুম বিশিষ্ট একটি বাসগৃহের ন্যায় কনসিল্ড কন্ডুইট পদ্ধতিতে বৈদ্যুতিক ওয়্যারিং করা</t>
+  </si>
+  <si>
+    <t>প্রজেক্ট তৈরীর দক্ষতা অর্জন করা</t>
+  </si>
+  <si>
+    <t>imagej01001.jpg</t>
+  </si>
+  <si>
+    <t>imagej02001.jpg</t>
+  </si>
+  <si>
+    <t>imagej03001.jpg</t>
+  </si>
+  <si>
+    <t>imagej04001.jpg</t>
+  </si>
+  <si>
+    <t>imagej05001.jpg</t>
+  </si>
+  <si>
+    <t>imagej06001.jpg</t>
+  </si>
+  <si>
+    <t>imagej07001.jpg</t>
+  </si>
+  <si>
+    <t>imagej08001.jpg</t>
+  </si>
+  <si>
+    <t>imagej09001.jpg</t>
+  </si>
+  <si>
+    <t>imagej10001.jpg</t>
+  </si>
+  <si>
+    <t>imagej11001.jpg</t>
+  </si>
+  <si>
+    <t>imagej12001.jpg</t>
+  </si>
+  <si>
+    <t>imagej13001.jpg</t>
+  </si>
+  <si>
+    <t>imagej14001.jpg</t>
+  </si>
+  <si>
+    <t>imagej15001.jpg</t>
+  </si>
+  <si>
+    <t>imagej16001.jpg</t>
+  </si>
+  <si>
+    <t>imagej17001.jpg</t>
+  </si>
+  <si>
+    <t>imagej18001.jpg</t>
+  </si>
+  <si>
+    <t>imagej19001.jpg</t>
+  </si>
+  <si>
+    <t>imagej20001.jpg</t>
+  </si>
+  <si>
+    <t>imagej21001.jpg</t>
+  </si>
+  <si>
+    <t>imagej22001.jpg</t>
+  </si>
+  <si>
+    <t>imagej24001.jpg</t>
   </si>
 </sst>
 </file>
@@ -3005,7 +2936,7 @@
       <name val="NikoshBAN"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3042,6 +2973,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3056,7 +2993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3151,9 +3088,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3278,6 +3212,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3552,7 +3501,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3967,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView tabSelected="1" topLeftCell="B168" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168:G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4023,7 +3972,7 @@
     </row>
     <row r="2" spans="1:11" ht="82.8">
       <c r="A2" s="8" t="s">
-        <v>770</v>
+        <v>701</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>51</v>
@@ -4034,7 +3983,7 @@
       <c r="F2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="52" t="s">
         <v>50</v>
       </c>
       <c r="K2" s="8">
@@ -4043,7 +3992,7 @@
     </row>
     <row r="3" spans="1:11" ht="30">
       <c r="A3" s="8" t="s">
-        <v>770</v>
+        <v>701</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>53</v>
@@ -4060,10 +4009,10 @@
     </row>
     <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D4" s="52" t="s">
-        <v>752</v>
+        <v>701</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>683</v>
       </c>
       <c r="E4" s="18" t="s">
         <v>133</v>
@@ -4071,7 +4020,7 @@
       <c r="F4" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="52" t="s">
         <v>60</v>
       </c>
       <c r="K4" s="8">
@@ -4080,13 +4029,13 @@
     </row>
     <row r="5" spans="1:11" ht="28.8">
       <c r="A5" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>753</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>753</v>
+        <v>701</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>684</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>684</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="15" t="s">
@@ -4098,15 +4047,15 @@
     </row>
     <row r="6" spans="1:11" ht="28.8">
       <c r="A6" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>754</v>
-      </c>
-      <c r="E6" s="47" t="s">
-        <v>754</v>
-      </c>
-      <c r="G6" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="G6" s="52" t="s">
         <v>62</v>
       </c>
       <c r="K6" s="8">
@@ -4114,19 +4063,19 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="54" t="s">
-        <v>770</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
+      <c r="A7" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="21" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="54" t="s">
         <v>63</v>
       </c>
       <c r="K7" s="8">
@@ -4134,19 +4083,19 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="54" t="s">
-        <v>770</v>
-      </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="53"/>
+      <c r="G8" s="54" t="s">
         <v>64</v>
       </c>
       <c r="K8" s="8">
@@ -4155,13 +4104,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>755</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>755</v>
+        <v>701</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>686</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>686</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>65</v>
@@ -4172,15 +4121,15 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>756</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>756</v>
-      </c>
-      <c r="G10" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>687</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>687</v>
+      </c>
+      <c r="G10" s="52" t="s">
         <v>66</v>
       </c>
       <c r="K10" s="8">
@@ -4189,13 +4138,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>757</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>757</v>
+        <v>701</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>688</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>688</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>67</v>
@@ -4206,15 +4155,15 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>758</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>758</v>
-      </c>
-      <c r="G12" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>689</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>689</v>
+      </c>
+      <c r="G12" s="52" t="s">
         <v>68</v>
       </c>
       <c r="K12" s="8">
@@ -4223,15 +4172,15 @@
     </row>
     <row r="13" spans="1:11" ht="16.8">
       <c r="A13" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>759</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>759</v>
-      </c>
-      <c r="G13" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>690</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>690</v>
+      </c>
+      <c r="G13" s="52" t="s">
         <v>69</v>
       </c>
       <c r="K13" s="8">
@@ -4240,15 +4189,15 @@
     </row>
     <row r="14" spans="1:11" ht="16.8">
       <c r="A14" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>760</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>760</v>
-      </c>
-      <c r="G14" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>691</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>691</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>70</v>
       </c>
       <c r="K14" s="8">
@@ -4257,15 +4206,15 @@
     </row>
     <row r="15" spans="1:11" ht="16.8">
       <c r="A15" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>761</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>761</v>
-      </c>
-      <c r="G15" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>692</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>692</v>
+      </c>
+      <c r="G15" s="52" t="s">
         <v>71</v>
       </c>
       <c r="K15" s="8">
@@ -4274,15 +4223,15 @@
     </row>
     <row r="16" spans="1:11" ht="16.8">
       <c r="A16" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>762</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>762</v>
-      </c>
-      <c r="G16" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>693</v>
+      </c>
+      <c r="G16" s="52" t="s">
         <v>72</v>
       </c>
       <c r="K16" s="8">
@@ -4291,15 +4240,15 @@
     </row>
     <row r="17" spans="1:13" ht="15">
       <c r="A17" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>763</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>763</v>
-      </c>
-      <c r="G17" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>694</v>
+      </c>
+      <c r="G17" s="52" t="s">
         <v>73</v>
       </c>
       <c r="K17" s="8">
@@ -4308,7 +4257,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
-        <v>770</v>
+        <v>701</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>59</v>
@@ -4316,7 +4265,7 @@
       <c r="E18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="53" t="s">
+      <c r="G18" s="52" t="s">
         <v>74</v>
       </c>
       <c r="K18" s="8">
@@ -4325,13 +4274,13 @@
     </row>
     <row r="19" spans="1:13" ht="18">
       <c r="A19" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>764</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>764</v>
+        <v>701</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>695</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>695</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>75</v>
@@ -4342,13 +4291,13 @@
     </row>
     <row r="20" spans="1:13" ht="15">
       <c r="A20" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>765</v>
-      </c>
-      <c r="E20" s="50" t="s">
-        <v>765</v>
+        <v>701</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>696</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>696</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>76</v>
@@ -4359,13 +4308,13 @@
     </row>
     <row r="21" spans="1:13" ht="15">
       <c r="A21" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D21" s="50" t="s">
-        <v>766</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>766</v>
+        <v>701</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>697</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>697</v>
       </c>
       <c r="G21" s="15" t="s">
         <v>77</v>
@@ -4376,13 +4325,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
-        <v>770</v>
+        <v>701</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>767</v>
+        <v>698</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>767</v>
+        <v>698</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>78</v>
@@ -4393,15 +4342,15 @@
     </row>
     <row r="23" spans="1:13" ht="17.399999999999999">
       <c r="A23" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>768</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>768</v>
-      </c>
-      <c r="G23" s="53" t="s">
+        <v>701</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>699</v>
+      </c>
+      <c r="E23" s="50" t="s">
+        <v>699</v>
+      </c>
+      <c r="G23" s="52" t="s">
         <v>79</v>
       </c>
       <c r="K23" s="8">
@@ -4409,33 +4358,33 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="59" t="s">
-        <v>770</v>
-      </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60" t="s">
-        <v>769</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>769</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59" t="s">
+      <c r="A24" s="58" t="s">
+        <v>701</v>
+      </c>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59" t="s">
+        <v>700</v>
+      </c>
+      <c r="E24" s="59" t="s">
+        <v>700</v>
+      </c>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53">
-        <v>1</v>
-      </c>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52">
+        <v>1</v>
+      </c>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
     </row>
     <row r="25" spans="1:13" ht="41.4">
       <c r="A25" s="8" t="s">
-        <v>829</v>
+        <v>760</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>81</v>
@@ -4452,7 +4401,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>83</v>
@@ -4460,7 +4409,7 @@
       <c r="E26" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="G26" s="52" t="s">
         <v>145</v>
       </c>
       <c r="K26" s="8">
@@ -4469,10 +4418,10 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>771</v>
+        <v>702</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>84</v>
@@ -4486,15 +4435,15 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>831</v>
+        <v>762</v>
       </c>
       <c r="E28" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="52" t="s">
         <v>147</v>
       </c>
       <c r="K28" s="8">
@@ -4503,10 +4452,10 @@
     </row>
     <row r="29" spans="1:13" ht="15">
       <c r="A29" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>772</v>
+        <v>703</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>135</v>
@@ -4520,15 +4469,15 @@
     </row>
     <row r="30" spans="1:13" ht="15">
       <c r="A30" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>773</v>
+        <v>704</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="52" t="s">
         <v>149</v>
       </c>
       <c r="K30" s="8">
@@ -4537,15 +4486,15 @@
     </row>
     <row r="31" spans="1:13" ht="30">
       <c r="A31" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>774</v>
+        <v>705</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="52" t="s">
         <v>150</v>
       </c>
       <c r="K31" s="8">
@@ -4554,15 +4503,15 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>775</v>
+        <v>706</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="52" t="s">
         <v>151</v>
       </c>
       <c r="K32" s="8">
@@ -4571,15 +4520,15 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>776</v>
+        <v>707</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="52" t="s">
         <v>152</v>
       </c>
       <c r="K33" s="8">
@@ -4588,15 +4537,15 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>777</v>
+        <v>708</v>
       </c>
       <c r="E34" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="52" t="s">
         <v>153</v>
       </c>
       <c r="K34" s="8">
@@ -4605,15 +4554,15 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>778</v>
+        <v>709</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="G35" s="52" t="s">
         <v>154</v>
       </c>
       <c r="K35" s="8">
@@ -4622,15 +4571,15 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>779</v>
-      </c>
-      <c r="E36" s="48" t="s">
-        <v>780</v>
-      </c>
-      <c r="G36" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>710</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>711</v>
+      </c>
+      <c r="G36" s="52" t="s">
         <v>155</v>
       </c>
       <c r="K36" s="8">
@@ -4639,15 +4588,15 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>781</v>
+        <v>712</v>
       </c>
       <c r="E37" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="52" t="s">
         <v>156</v>
       </c>
       <c r="K37" s="8">
@@ -4656,10 +4605,10 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>782</v>
+        <v>713</v>
       </c>
       <c r="E38" s="23" t="s">
         <v>90</v>
@@ -4673,15 +4622,15 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>832</v>
+        <v>763</v>
       </c>
       <c r="E39" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="52" t="s">
         <v>158</v>
       </c>
       <c r="K39" s="8">
@@ -4690,15 +4639,15 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>833</v>
+        <v>764</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="53" t="s">
+      <c r="G40" s="52" t="s">
         <v>159</v>
       </c>
       <c r="K40" s="8">
@@ -4707,15 +4656,15 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="D41" s="48" t="s">
-        <v>783</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>784</v>
-      </c>
-      <c r="G41" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>714</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>715</v>
+      </c>
+      <c r="G41" s="52" t="s">
         <v>160</v>
       </c>
       <c r="K41" s="8">
@@ -4724,10 +4673,10 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>785</v>
+        <v>716</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>93</v>
@@ -4741,15 +4690,15 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>834</v>
+        <v>765</v>
       </c>
       <c r="E43" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="53" t="s">
+      <c r="G43" s="52" t="s">
         <v>162</v>
       </c>
       <c r="K43" s="8">
@@ -4758,15 +4707,15 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="D44" s="48" t="s">
-        <v>786</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>787</v>
-      </c>
-      <c r="G44" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>717</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>718</v>
+      </c>
+      <c r="G44" s="52" t="s">
         <v>163</v>
       </c>
       <c r="K44" s="8">
@@ -4775,15 +4724,15 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>835</v>
+        <v>766</v>
       </c>
       <c r="E45" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G45" s="53" t="s">
+      <c r="G45" s="52" t="s">
         <v>164</v>
       </c>
       <c r="K45" s="8">
@@ -4792,15 +4741,15 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>788</v>
+        <v>719</v>
       </c>
       <c r="E46" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G46" s="53" t="s">
+      <c r="G46" s="52" t="s">
         <v>165</v>
       </c>
       <c r="K46" s="8">
@@ -4809,10 +4758,10 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>763</v>
+        <v>694</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>58</v>
@@ -4826,15 +4775,15 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>789</v>
+        <v>720</v>
       </c>
       <c r="E48" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G48" s="53" t="s">
+      <c r="G48" s="52" t="s">
         <v>167</v>
       </c>
       <c r="K48" s="8">
@@ -4843,15 +4792,15 @@
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>790</v>
+        <v>721</v>
       </c>
       <c r="E49" s="23" t="s">
-        <v>790</v>
-      </c>
-      <c r="G49" s="53" t="s">
+        <v>721</v>
+      </c>
+      <c r="G49" s="52" t="s">
         <v>168</v>
       </c>
       <c r="K49" s="8">
@@ -4860,15 +4809,15 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>791</v>
+        <v>722</v>
       </c>
       <c r="E50" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G50" s="53" t="s">
+      <c r="G50" s="52" t="s">
         <v>169</v>
       </c>
       <c r="K50" s="8">
@@ -4877,15 +4826,15 @@
     </row>
     <row r="51" spans="1:11" ht="27.6">
       <c r="A51" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>836</v>
+        <v>767</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="53" t="s">
+      <c r="G51" s="52" t="s">
         <v>170</v>
       </c>
       <c r="K51" s="8">
@@ -4894,15 +4843,15 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>792</v>
+        <v>723</v>
       </c>
       <c r="E52" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G52" s="53" t="s">
+      <c r="G52" s="52" t="s">
         <v>171</v>
       </c>
       <c r="K52" s="8">
@@ -4911,15 +4860,15 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>793</v>
+        <v>724</v>
       </c>
       <c r="E53" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="G53" s="53" t="s">
+      <c r="G53" s="52" t="s">
         <v>172</v>
       </c>
       <c r="K53" s="8">
@@ -4928,15 +4877,15 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>837</v>
+        <v>768</v>
       </c>
       <c r="E54" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="53" t="s">
+      <c r="G54" s="52" t="s">
         <v>173</v>
       </c>
       <c r="K54" s="8">
@@ -4945,15 +4894,15 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>838</v>
+        <v>769</v>
       </c>
       <c r="E55" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="G55" s="53" t="s">
+      <c r="G55" s="52" t="s">
         <v>174</v>
       </c>
       <c r="K55" s="8">
@@ -4962,15 +4911,15 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>794</v>
+        <v>725</v>
       </c>
       <c r="E56" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="G56" s="53" t="s">
+      <c r="G56" s="52" t="s">
         <v>175</v>
       </c>
       <c r="K56" s="8">
@@ -4979,18 +4928,18 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="57" t="s">
+        <v>761</v>
+      </c>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="58" t="s">
+      <c r="E57" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="F57" s="56"/>
-      <c r="G57" s="53" t="s">
+      <c r="F57" s="55"/>
+      <c r="G57" s="52" t="s">
         <v>176</v>
       </c>
       <c r="K57" s="8">
@@ -4999,15 +4948,15 @@
     </row>
     <row r="58" spans="1:11" ht="27.6">
       <c r="A58" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>795</v>
+        <v>726</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="53" t="s">
+      <c r="G58" s="52" t="s">
         <v>177</v>
       </c>
       <c r="K58" s="8">
@@ -5016,38 +4965,38 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="B59" s="59"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60" t="s">
-        <v>796</v>
-      </c>
-      <c r="E59" s="60" t="s">
-        <v>796</v>
-      </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59" t="s">
+        <v>761</v>
+      </c>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="59" t="s">
+        <v>727</v>
+      </c>
+      <c r="E59" s="59" t="s">
+        <v>727</v>
+      </c>
+      <c r="F59" s="58"/>
+      <c r="G59" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53">
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>797</v>
+        <v>728</v>
       </c>
       <c r="E60" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G60" s="53" t="s">
+      <c r="G60" s="52" t="s">
         <v>179</v>
       </c>
       <c r="K60" s="8">
@@ -5056,15 +5005,15 @@
     </row>
     <row r="61" spans="1:11" ht="27.6">
       <c r="A61" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>798</v>
+        <v>729</v>
       </c>
       <c r="E61" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="G61" s="53" t="s">
+      <c r="G61" s="52" t="s">
         <v>180</v>
       </c>
       <c r="K61" s="8">
@@ -5073,15 +5022,15 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>799</v>
+        <v>730</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G62" s="53" t="s">
+      <c r="G62" s="52" t="s">
         <v>181</v>
       </c>
       <c r="K62" s="8">
@@ -5090,10 +5039,10 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>839</v>
+        <v>770</v>
       </c>
       <c r="E63" s="23" t="s">
         <v>106</v>
@@ -5107,10 +5056,10 @@
     </row>
     <row r="64" spans="1:11" ht="27.6">
       <c r="A64" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>840</v>
+        <v>771</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>107</v>
@@ -5124,15 +5073,15 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>800</v>
+        <v>731</v>
       </c>
       <c r="E65" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="G65" s="53" t="s">
+      <c r="G65" s="52" t="s">
         <v>184</v>
       </c>
       <c r="K65" s="8">
@@ -5141,15 +5090,15 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>801</v>
+        <v>732</v>
       </c>
       <c r="E66" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="53" t="s">
+      <c r="G66" s="52" t="s">
         <v>185</v>
       </c>
       <c r="K66" s="8">
@@ -5158,15 +5107,15 @@
     </row>
     <row r="67" spans="1:11" ht="27.6">
       <c r="A67" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>802</v>
+        <v>733</v>
       </c>
       <c r="E67" s="23" t="s">
-        <v>802</v>
-      </c>
-      <c r="G67" s="53" t="s">
+        <v>733</v>
+      </c>
+      <c r="G67" s="52" t="s">
         <v>186</v>
       </c>
       <c r="K67" s="8">
@@ -5175,15 +5124,15 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>803</v>
+        <v>734</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="G68" s="53" t="s">
+      <c r="G68" s="52" t="s">
         <v>187</v>
       </c>
       <c r="K68" s="8">
@@ -5192,15 +5141,15 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>804</v>
+        <v>735</v>
       </c>
       <c r="E69" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="G69" s="53" t="s">
+      <c r="G69" s="52" t="s">
         <v>188</v>
       </c>
       <c r="K69" s="8">
@@ -5209,15 +5158,15 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>805</v>
+        <v>736</v>
       </c>
       <c r="E70" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G70" s="53" t="s">
+      <c r="G70" s="52" t="s">
         <v>189</v>
       </c>
       <c r="K70" s="8">
@@ -5226,15 +5175,15 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>806</v>
+        <v>737</v>
       </c>
       <c r="E71" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="G71" s="53" t="s">
+      <c r="G71" s="52" t="s">
         <v>190</v>
       </c>
       <c r="K71" s="8">
@@ -5243,15 +5192,15 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>807</v>
+        <v>738</v>
       </c>
       <c r="E72" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="G72" s="53" t="s">
+      <c r="G72" s="52" t="s">
         <v>191</v>
       </c>
       <c r="K72" s="8">
@@ -5260,15 +5209,15 @@
     </row>
     <row r="73" spans="1:11" ht="27.6">
       <c r="A73" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>808</v>
+        <v>739</v>
       </c>
       <c r="E73" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G73" s="53" t="s">
+      <c r="G73" s="52" t="s">
         <v>192</v>
       </c>
       <c r="K73" s="8">
@@ -5277,15 +5226,15 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="D74" s="48" t="s">
-        <v>810</v>
-      </c>
-      <c r="E74" s="48" t="s">
-        <v>809</v>
-      </c>
-      <c r="G74" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="E74" s="47" t="s">
+        <v>740</v>
+      </c>
+      <c r="G74" s="52" t="s">
         <v>193</v>
       </c>
       <c r="K74" s="8">
@@ -5294,15 +5243,15 @@
     </row>
     <row r="75" spans="1:11" ht="27.6">
       <c r="A75" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>841</v>
+        <v>772</v>
       </c>
       <c r="E75" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G75" s="53" t="s">
+      <c r="G75" s="52" t="s">
         <v>194</v>
       </c>
       <c r="K75" s="8">
@@ -5311,15 +5260,15 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>811</v>
+        <v>742</v>
       </c>
       <c r="E76" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="G76" s="53" t="s">
+      <c r="G76" s="52" t="s">
         <v>195</v>
       </c>
       <c r="K76" s="8">
@@ -5328,15 +5277,15 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>812</v>
+        <v>743</v>
       </c>
       <c r="E77" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="G77" s="53" t="s">
+      <c r="G77" s="52" t="s">
         <v>196</v>
       </c>
       <c r="K77" s="8">
@@ -5345,13 +5294,13 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>842</v>
+        <v>773</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>813</v>
+        <v>744</v>
       </c>
       <c r="G78" s="15" t="s">
         <v>197</v>
@@ -5362,15 +5311,15 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>814</v>
+        <v>745</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G79" s="53" t="s">
+      <c r="G79" s="52" t="s">
         <v>198</v>
       </c>
       <c r="K79" s="8">
@@ -5379,15 +5328,15 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>815</v>
+        <v>746</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="G80" s="53" t="s">
+      <c r="G80" s="52" t="s">
         <v>199</v>
       </c>
       <c r="K80" s="8">
@@ -5396,15 +5345,15 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="D81" s="48" t="s">
-        <v>816</v>
-      </c>
-      <c r="E81" s="48" t="s">
-        <v>816</v>
-      </c>
-      <c r="G81" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="E81" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="G81" s="52" t="s">
         <v>200</v>
       </c>
       <c r="K81" s="8">
@@ -5413,15 +5362,15 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>817</v>
+        <v>748</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G82" s="53" t="s">
+      <c r="G82" s="52" t="s">
         <v>201</v>
       </c>
       <c r="K82" s="8">
@@ -5430,15 +5379,15 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>818</v>
+        <v>749</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G83" s="53" t="s">
+      <c r="G83" s="52" t="s">
         <v>202</v>
       </c>
       <c r="K83" s="8">
@@ -5447,15 +5396,15 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>843</v>
+        <v>774</v>
       </c>
       <c r="E84" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G84" s="53" t="s">
+      <c r="G84" s="52" t="s">
         <v>203</v>
       </c>
       <c r="K84" s="8">
@@ -5464,15 +5413,15 @@
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>844</v>
+        <v>775</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G85" s="53" t="s">
+      <c r="G85" s="52" t="s">
         <v>204</v>
       </c>
       <c r="K85" s="8">
@@ -5481,7 +5430,7 @@
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D86" s="23" t="s">
         <v>123</v>
@@ -5489,7 +5438,7 @@
       <c r="E86" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="53" t="s">
+      <c r="G86" s="52" t="s">
         <v>205</v>
       </c>
       <c r="K86" s="8">
@@ -5498,7 +5447,7 @@
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D87" s="23" t="s">
         <v>124</v>
@@ -5506,7 +5455,7 @@
       <c r="E87" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="53" t="s">
+      <c r="G87" s="52" t="s">
         <v>206</v>
       </c>
       <c r="K87" s="8">
@@ -5515,15 +5464,15 @@
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>819</v>
+        <v>750</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="53" t="s">
+      <c r="G88" s="52" t="s">
         <v>207</v>
       </c>
       <c r="K88" s="8">
@@ -5532,13 +5481,13 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="D89" s="48" t="s">
-        <v>821</v>
-      </c>
-      <c r="E89" s="48" t="s">
-        <v>820</v>
+        <v>761</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="E89" s="47" t="s">
+        <v>751</v>
       </c>
       <c r="G89" s="15" t="s">
         <v>208</v>
@@ -5549,15 +5498,15 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="D90" s="48" t="s">
-        <v>822</v>
-      </c>
-      <c r="E90" s="48" t="s">
-        <v>822</v>
-      </c>
-      <c r="G90" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>753</v>
+      </c>
+      <c r="E90" s="47" t="s">
+        <v>753</v>
+      </c>
+      <c r="G90" s="52" t="s">
         <v>209</v>
       </c>
       <c r="K90" s="8">
@@ -5566,15 +5515,15 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>823</v>
+        <v>754</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G91" s="53" t="s">
+      <c r="G91" s="52" t="s">
         <v>210</v>
       </c>
       <c r="K91" s="8">
@@ -5583,7 +5532,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D92" s="23" t="s">
         <v>127</v>
@@ -5591,7 +5540,7 @@
       <c r="E92" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="G92" s="53" t="s">
+      <c r="G92" s="52" t="s">
         <v>211</v>
       </c>
       <c r="K92" s="8">
@@ -5600,7 +5549,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D93" s="23" t="s">
         <v>128</v>
@@ -5608,7 +5557,7 @@
       <c r="E93" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="G93" s="53" t="s">
+      <c r="G93" s="52" t="s">
         <v>212</v>
       </c>
       <c r="K93" s="8">
@@ -5617,15 +5566,15 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>824</v>
+        <v>755</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G94" s="53" t="s">
+      <c r="G94" s="52" t="s">
         <v>213</v>
       </c>
       <c r="K94" s="8">
@@ -5634,15 +5583,15 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>825</v>
+        <v>756</v>
       </c>
       <c r="E95" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="G95" s="53" t="s">
+      <c r="G95" s="52" t="s">
         <v>214</v>
       </c>
       <c r="K95" s="8">
@@ -5651,15 +5600,15 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="D96" s="48" t="s">
-        <v>826</v>
-      </c>
-      <c r="E96" s="48" t="s">
-        <v>826</v>
-      </c>
-      <c r="G96" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>757</v>
+      </c>
+      <c r="E96" s="47" t="s">
+        <v>757</v>
+      </c>
+      <c r="G96" s="52" t="s">
         <v>215</v>
       </c>
       <c r="K96" s="8">
@@ -5668,15 +5617,15 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="8" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>827</v>
+        <v>758</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="G97" s="53" t="s">
+      <c r="G97" s="52" t="s">
         <v>216</v>
       </c>
       <c r="K97" s="8">
@@ -5684,39 +5633,39 @@
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="53" t="s">
-        <v>830</v>
-      </c>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="63" t="s">
-        <v>828</v>
-      </c>
-      <c r="E98" s="63" t="s">
+      <c r="A98" s="52" t="s">
+        <v>761</v>
+      </c>
+      <c r="B98" s="52"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="62" t="s">
+        <v>759</v>
+      </c>
+      <c r="E98" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53" t="s">
+      <c r="F98" s="52"/>
+      <c r="G98" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53">
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="16.8">
       <c r="A99" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D99" s="51" t="s">
-        <v>846</v>
+        <v>776</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>777</v>
       </c>
       <c r="E99" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="G99" s="53" t="s">
+      <c r="G99" s="52" t="s">
         <v>235</v>
       </c>
       <c r="K99" s="8">
@@ -5725,15 +5674,15 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>857</v>
+        <v>788</v>
       </c>
       <c r="E100" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G100" s="53" t="s">
+      <c r="G100" s="52" t="s">
         <v>236</v>
       </c>
       <c r="K100" s="8">
@@ -5742,15 +5691,15 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>858</v>
+        <v>789</v>
       </c>
       <c r="E101" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G101" s="53" t="s">
+      <c r="G101" s="52" t="s">
         <v>237</v>
       </c>
       <c r="K101" s="8">
@@ -5759,15 +5708,15 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>859</v>
+        <v>790</v>
       </c>
       <c r="E102" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G102" s="53" t="s">
+      <c r="G102" s="52" t="s">
         <v>238</v>
       </c>
       <c r="K102" s="8">
@@ -5776,15 +5725,15 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D103" s="29" t="s">
-        <v>860</v>
+        <v>791</v>
       </c>
       <c r="E103" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="G103" s="53" t="s">
+      <c r="G103" s="52" t="s">
         <v>239</v>
       </c>
       <c r="K103" s="8">
@@ -5793,15 +5742,15 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D104" s="29" t="s">
-        <v>861</v>
+        <v>792</v>
       </c>
       <c r="E104" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="G104" s="53" t="s">
+      <c r="G104" s="52" t="s">
         <v>240</v>
       </c>
       <c r="K104" s="8">
@@ -5810,15 +5759,15 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D105" s="29" t="s">
-        <v>862</v>
+        <v>793</v>
       </c>
       <c r="E105" s="29" t="s">
-        <v>847</v>
-      </c>
-      <c r="G105" s="53" t="s">
+        <v>778</v>
+      </c>
+      <c r="G105" s="52" t="s">
         <v>241</v>
       </c>
       <c r="K105" s="8">
@@ -5827,15 +5776,15 @@
     </row>
     <row r="106" spans="1:11" ht="15">
       <c r="A106" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="D106" s="61" t="s">
-        <v>848</v>
-      </c>
-      <c r="E106" s="61" t="s">
-        <v>849</v>
-      </c>
-      <c r="G106" s="53" t="s">
+        <v>776</v>
+      </c>
+      <c r="D106" s="60" t="s">
+        <v>779</v>
+      </c>
+      <c r="E106" s="60" t="s">
+        <v>780</v>
+      </c>
+      <c r="G106" s="52" t="s">
         <v>242</v>
       </c>
       <c r="K106" s="8">
@@ -5844,15 +5793,15 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D107" s="29" t="s">
-        <v>863</v>
+        <v>794</v>
       </c>
       <c r="E107" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="G107" s="53" t="s">
+      <c r="G107" s="52" t="s">
         <v>243</v>
       </c>
       <c r="K107" s="8">
@@ -5861,15 +5810,15 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D108" s="29" t="s">
-        <v>864</v>
+        <v>795</v>
       </c>
       <c r="E108" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="G108" s="53" t="s">
+      <c r="G108" s="52" t="s">
         <v>244</v>
       </c>
       <c r="K108" s="8">
@@ -5878,15 +5827,15 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D109" s="29" t="s">
-        <v>850</v>
+        <v>781</v>
       </c>
       <c r="E109" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="G109" s="53" t="s">
+      <c r="G109" s="52" t="s">
         <v>245</v>
       </c>
       <c r="K109" s="8">
@@ -5895,15 +5844,15 @@
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D110" s="29" t="s">
-        <v>851</v>
+        <v>782</v>
       </c>
       <c r="E110" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G110" s="53" t="s">
+      <c r="G110" s="52" t="s">
         <v>246</v>
       </c>
       <c r="K110" s="8">
@@ -5912,15 +5861,15 @@
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D111" s="29" t="s">
-        <v>852</v>
+        <v>783</v>
       </c>
       <c r="E111" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G111" s="53" t="s">
+      <c r="G111" s="52" t="s">
         <v>247</v>
       </c>
       <c r="K111" s="8">
@@ -5929,15 +5878,15 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D112" s="29" t="s">
-        <v>853</v>
+        <v>784</v>
       </c>
       <c r="E112" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G112" s="53" t="s">
+      <c r="G112" s="52" t="s">
         <v>248</v>
       </c>
       <c r="K112" s="8">
@@ -5946,15 +5895,15 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D113" s="29" t="s">
-        <v>854</v>
+        <v>785</v>
       </c>
       <c r="E113" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G113" s="53" t="s">
+      <c r="G113" s="52" t="s">
         <v>249</v>
       </c>
       <c r="K113" s="8">
@@ -5963,15 +5912,15 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D114" s="29" t="s">
-        <v>865</v>
+        <v>796</v>
       </c>
       <c r="E114" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="G114" s="53" t="s">
+      <c r="G114" s="52" t="s">
         <v>250</v>
       </c>
       <c r="K114" s="8">
@@ -5980,15 +5929,15 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D115" s="29" t="s">
-        <v>866</v>
+        <v>797</v>
       </c>
       <c r="E115" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="G115" s="53" t="s">
+      <c r="G115" s="52" t="s">
         <v>252</v>
       </c>
       <c r="K115" s="8">
@@ -5997,15 +5946,15 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D116" s="29" t="s">
-        <v>867</v>
+        <v>798</v>
       </c>
       <c r="E116" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="G116" s="53" t="s">
+      <c r="G116" s="52" t="s">
         <v>251</v>
       </c>
       <c r="K116" s="8">
@@ -6014,15 +5963,15 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="8" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="D117" s="29" t="s">
-        <v>868</v>
+        <v>799</v>
       </c>
       <c r="E117" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="G117" s="53" t="s">
+      <c r="G117" s="52" t="s">
         <v>253</v>
       </c>
       <c r="K117" s="8">
@@ -6030,25 +5979,25 @@
       </c>
     </row>
     <row r="118" spans="1:11" ht="15">
-      <c r="A118" s="53" t="s">
-        <v>845</v>
-      </c>
-      <c r="B118" s="53"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="62" t="s">
-        <v>855</v>
-      </c>
-      <c r="E118" s="62" t="s">
-        <v>856</v>
-      </c>
-      <c r="F118" s="53"/>
+      <c r="A118" s="52" t="s">
+        <v>776</v>
+      </c>
+      <c r="B118" s="52"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="61" t="s">
+        <v>786</v>
+      </c>
+      <c r="E118" s="61" t="s">
+        <v>787</v>
+      </c>
+      <c r="F118" s="52"/>
       <c r="G118" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="H118" s="53"/>
-      <c r="I118" s="53"/>
-      <c r="J118" s="53"/>
-      <c r="K118" s="53">
+      <c r="H118" s="52"/>
+      <c r="I118" s="52"/>
+      <c r="J118" s="52"/>
+      <c r="K118" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6089,71 +6038,71 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="60">
-      <c r="A121" s="59" t="s">
+      <c r="A121" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="B121" s="59"/>
-      <c r="C121" s="59"/>
-      <c r="D121" s="71" t="s">
+      <c r="B121" s="58"/>
+      <c r="C121" s="58"/>
+      <c r="D121" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="E121" s="71" t="s">
+      <c r="E121" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="F121" s="71" t="s">
+      <c r="F121" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="G121" s="59"/>
-      <c r="H121" s="59"/>
-      <c r="I121" s="59"/>
-      <c r="J121" s="59"/>
-      <c r="K121" s="59">
+      <c r="G121" s="58"/>
+      <c r="H121" s="58"/>
+      <c r="I121" s="58"/>
+      <c r="J121" s="58"/>
+      <c r="K121" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="27.6">
-      <c r="A122" s="53" t="s">
+      <c r="A122" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="B122" s="53"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="64" t="s">
+      <c r="B122" s="52"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="E122" s="64" t="s">
+      <c r="E122" s="63" t="s">
         <v>264</v>
       </c>
-      <c r="F122" s="53"/>
+      <c r="F122" s="52"/>
       <c r="G122" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="H122" s="53"/>
-      <c r="I122" s="53"/>
-      <c r="J122" s="53"/>
-      <c r="K122" s="53">
+      <c r="H122" s="52"/>
+      <c r="I122" s="52"/>
+      <c r="J122" s="52"/>
+      <c r="K122" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="27.6">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="64" t="s">
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="E123" s="64" t="s">
-        <v>874</v>
-      </c>
-      <c r="F123" s="53"/>
-      <c r="G123" s="53" t="s">
+      <c r="E123" s="63" t="s">
+        <v>805</v>
+      </c>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="H123" s="53"/>
-      <c r="I123" s="53"/>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53">
+      <c r="H123" s="52"/>
+      <c r="I123" s="52"/>
+      <c r="J123" s="52"/>
+      <c r="K123" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6170,30 +6119,30 @@
       <c r="F124" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="K124" s="53">
+      <c r="K124" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="45">
-      <c r="A125" s="53" t="s">
+      <c r="A125" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="B125" s="53"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="65" t="s">
+      <c r="B125" s="52"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="E125" s="53" t="s">
+      <c r="E125" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="F125" s="66" t="s">
+      <c r="F125" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="G125" s="53"/>
-      <c r="H125" s="53"/>
-      <c r="I125" s="53"/>
-      <c r="J125" s="53"/>
-      <c r="K125" s="53">
+      <c r="G125" s="52"/>
+      <c r="H125" s="52"/>
+      <c r="I125" s="52"/>
+      <c r="J125" s="52"/>
+      <c r="K125" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6201,8 +6150,8 @@
       <c r="A126" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D126" s="48" t="s">
-        <v>869</v>
+      <c r="D126" s="47" t="s">
+        <v>800</v>
       </c>
       <c r="E126" s="16" t="s">
         <v>277</v>
@@ -6210,10 +6159,10 @@
       <c r="F126" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="G126" s="68" t="s">
+      <c r="G126" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="K126" s="53">
+      <c r="K126" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6221,16 +6170,16 @@
       <c r="A127" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D127" s="61" t="s">
-        <v>870</v>
+      <c r="D127" s="60" t="s">
+        <v>801</v>
       </c>
       <c r="E127" s="27" t="s">
-        <v>871</v>
-      </c>
-      <c r="G127" s="68" t="s">
+        <v>802</v>
+      </c>
+      <c r="G127" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="K127" s="53">
+      <c r="K127" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6238,16 +6187,16 @@
       <c r="A128" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="D128" s="61" t="s">
-        <v>872</v>
+      <c r="D128" s="60" t="s">
+        <v>803</v>
       </c>
       <c r="E128" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="G128" s="68" t="s">
+      <c r="G128" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="K128" s="53">
+      <c r="K128" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6264,7 +6213,7 @@
       <c r="G129" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="K129" s="53">
+      <c r="K129" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6278,10 +6227,10 @@
       <c r="E130" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="G130" s="68" t="s">
+      <c r="G130" s="67" t="s">
         <v>293</v>
       </c>
-      <c r="K130" s="53">
+      <c r="K130" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6295,86 +6244,86 @@
       <c r="E131" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="G131" s="68" t="s">
+      <c r="G131" s="67" t="s">
         <v>294</v>
       </c>
-      <c r="K131" s="53">
+      <c r="K131" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="15.6">
-      <c r="A132" s="53" t="s">
+      <c r="A132" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="B132" s="53"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="67" t="s">
+      <c r="B132" s="52"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="66" t="s">
         <v>288</v>
       </c>
-      <c r="E132" s="67" t="s">
+      <c r="E132" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="F132" s="53"/>
+      <c r="F132" s="52"/>
       <c r="G132" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="H132" s="53"/>
-      <c r="I132" s="53"/>
-      <c r="J132" s="53"/>
-      <c r="K132" s="53">
+      <c r="H132" s="52"/>
+      <c r="I132" s="52"/>
+      <c r="J132" s="52"/>
+      <c r="K132" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="41.4">
-      <c r="A133" s="53" t="s">
+      <c r="A133" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="B133" s="53"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="69" t="s">
+      <c r="B133" s="52"/>
+      <c r="C133" s="52"/>
+      <c r="D133" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="E133" s="70" t="s">
+      <c r="E133" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="F133" s="70" t="s">
+      <c r="F133" s="69" t="s">
         <v>298</v>
       </c>
-      <c r="G133" s="68" t="s">
+      <c r="G133" s="67" t="s">
         <v>300</v>
       </c>
-      <c r="H133" s="53"/>
-      <c r="I133" s="53"/>
-      <c r="J133" s="53"/>
-      <c r="K133" s="53">
+      <c r="H133" s="52"/>
+      <c r="I133" s="52"/>
+      <c r="J133" s="52"/>
+      <c r="K133" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="27.6">
-      <c r="A134" s="53" t="s">
+      <c r="A134" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="B134" s="53"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="69" t="s">
-        <v>873</v>
-      </c>
-      <c r="E134" s="70" t="s">
+      <c r="B134" s="52"/>
+      <c r="C134" s="52"/>
+      <c r="D134" s="68" t="s">
+        <v>804</v>
+      </c>
+      <c r="E134" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="F134" s="70" t="s">
+      <c r="F134" s="69" t="s">
         <v>302</v>
       </c>
-      <c r="G134" s="53"/>
-      <c r="H134" s="53"/>
-      <c r="I134" s="53"/>
-      <c r="J134" s="53"/>
-      <c r="K134" s="53">
+      <c r="G134" s="52"/>
+      <c r="H134" s="52"/>
+      <c r="I134" s="52"/>
+      <c r="J134" s="52"/>
+      <c r="K134" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="30">
-      <c r="A135" s="53" t="s">
+      <c r="A135" s="52" t="s">
         <v>307</v>
       </c>
       <c r="D135" s="10" t="s">
@@ -6386,7 +6335,7 @@
       <c r="F135" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="K135" s="53">
+      <c r="K135" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6394,26 +6343,26 @@
       <c r="A136" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D136" s="72" t="s">
-        <v>878</v>
+      <c r="D136" s="71" t="s">
+        <v>809</v>
       </c>
       <c r="E136" s="16" t="s">
         <v>308</v>
       </c>
       <c r="F136" s="16"/>
-      <c r="G136" s="68" t="s">
+      <c r="G136" s="67" t="s">
         <v>309</v>
       </c>
-      <c r="K136" s="53">
+      <c r="K136" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="43.2">
-      <c r="A137" s="53" t="s">
+      <c r="A137" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="D137" s="61" t="s">
-        <v>879</v>
+      <c r="D137" s="60" t="s">
+        <v>810</v>
       </c>
       <c r="E137" s="20" t="s">
         <v>311</v>
@@ -6421,10 +6370,10 @@
       <c r="F137" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="G137" s="68" t="s">
+      <c r="G137" s="67" t="s">
         <v>313</v>
       </c>
-      <c r="K137" s="53">
+      <c r="K137" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6432,17 +6381,17 @@
       <c r="A138" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D138" s="48" t="s">
-        <v>880</v>
+      <c r="D138" s="47" t="s">
+        <v>811</v>
       </c>
       <c r="E138" s="31" t="s">
         <v>315</v>
       </c>
       <c r="F138" s="27"/>
-      <c r="G138" s="68" t="s">
+      <c r="G138" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="K138" s="53">
+      <c r="K138" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6457,10 +6406,10 @@
         <v>316</v>
       </c>
       <c r="F139" s="27"/>
-      <c r="G139" s="68" t="s">
+      <c r="G139" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="K139" s="53">
+      <c r="K139" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6475,10 +6424,10 @@
         <v>317</v>
       </c>
       <c r="F140" s="27"/>
-      <c r="G140" s="68" t="s">
+      <c r="G140" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="K140" s="53">
+      <c r="K140" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6493,10 +6442,10 @@
         <v>318</v>
       </c>
       <c r="F141" s="27"/>
-      <c r="G141" s="68" t="s">
+      <c r="G141" s="67" t="s">
         <v>324</v>
       </c>
-      <c r="K141" s="53">
+      <c r="K141" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6511,10 +6460,10 @@
         <v>319</v>
       </c>
       <c r="F142" s="16"/>
-      <c r="G142" s="68" t="s">
+      <c r="G142" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="K142" s="53">
+      <c r="K142" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6529,10 +6478,10 @@
         <v>320</v>
       </c>
       <c r="F143" s="16"/>
-      <c r="G143" s="68" t="s">
+      <c r="G143" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="K143" s="53">
+      <c r="K143" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6541,16 +6490,16 @@
         <v>331</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>881</v>
+        <v>812</v>
       </c>
       <c r="E144" s="31" t="s">
-        <v>881</v>
+        <v>812</v>
       </c>
       <c r="F144" s="16"/>
-      <c r="G144" s="68" t="s">
+      <c r="G144" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="K144" s="53">
+      <c r="K144" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6558,17 +6507,17 @@
       <c r="A145" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="D145" s="73" t="s">
-        <v>882</v>
-      </c>
-      <c r="E145" s="73" t="s">
-        <v>882</v>
+      <c r="D145" s="72" t="s">
+        <v>813</v>
+      </c>
+      <c r="E145" s="72" t="s">
+        <v>813</v>
       </c>
       <c r="F145" s="16"/>
-      <c r="G145" s="68" t="s">
+      <c r="G145" s="67" t="s">
         <v>328</v>
       </c>
-      <c r="K145" s="53">
+      <c r="K145" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6577,56 +6526,56 @@
         <v>331</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>883</v>
+        <v>814</v>
       </c>
       <c r="E146" s="31" t="s">
-        <v>883</v>
+        <v>814</v>
       </c>
       <c r="F146" s="16"/>
-      <c r="G146" s="68" t="s">
+      <c r="G146" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="K146" s="53">
+      <c r="K146" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="16.8">
-      <c r="A147" s="74" t="s">
+      <c r="A147" s="73" t="s">
         <v>331</v>
       </c>
-      <c r="B147" s="74"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="75" t="s">
-        <v>884</v>
-      </c>
-      <c r="E147" s="75" t="s">
-        <v>885</v>
-      </c>
-      <c r="F147" s="76"/>
-      <c r="G147" s="77" t="s">
+      <c r="B147" s="73"/>
+      <c r="C147" s="73"/>
+      <c r="D147" s="74" t="s">
+        <v>815</v>
+      </c>
+      <c r="E147" s="74" t="s">
+        <v>816</v>
+      </c>
+      <c r="F147" s="75"/>
+      <c r="G147" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="H147" s="74"/>
-      <c r="I147" s="74"/>
-      <c r="J147" s="74"/>
-      <c r="K147" s="74">
+      <c r="H147" s="73"/>
+      <c r="I147" s="73"/>
+      <c r="J147" s="73"/>
+      <c r="K147" s="73">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="17.399999999999999">
-      <c r="A148" s="53" t="s">
+      <c r="A148" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="D148" s="72" t="s">
-        <v>886</v>
+      <c r="D148" s="71" t="s">
+        <v>817</v>
       </c>
       <c r="E148" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="G148" s="68" t="s">
+      <c r="G148" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="K148" s="53">
+      <c r="K148" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6641,46 +6590,46 @@
         <v>336</v>
       </c>
       <c r="F149" s="16"/>
-      <c r="G149" s="68" t="s">
+      <c r="G149" s="67" t="s">
         <v>338</v>
       </c>
-      <c r="K149" s="53">
+      <c r="K149" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="15.6">
-      <c r="A150" s="53" t="s">
+      <c r="A150" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="D150" s="48" t="s">
-        <v>887</v>
+      <c r="D150" s="47" t="s">
+        <v>818</v>
       </c>
       <c r="E150" s="16" t="s">
         <v>337</v>
       </c>
       <c r="F150" s="16"/>
-      <c r="G150" s="68" t="s">
+      <c r="G150" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="K150" s="53">
+      <c r="K150" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="15.6">
-      <c r="A151" s="53" t="s">
+      <c r="A151" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="D151" s="48" t="s">
-        <v>888</v>
+      <c r="D151" s="47" t="s">
+        <v>819</v>
       </c>
       <c r="E151" s="27" t="s">
         <v>341</v>
       </c>
       <c r="F151" s="16"/>
-      <c r="G151" s="68" t="s">
+      <c r="G151" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="K151" s="53">
+      <c r="K151" s="52">
         <v>1</v>
       </c>
     </row>
@@ -6692,20 +6641,20 @@
         <v>344</v>
       </c>
       <c r="E152" s="32" t="s">
-        <v>889</v>
+        <v>820</v>
       </c>
       <c r="F152" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="G152" s="68" t="s">
+      <c r="G152" s="67" t="s">
         <v>347</v>
       </c>
-      <c r="K152" s="53">
+      <c r="K152" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="45">
-      <c r="A153" s="53" t="s">
+      <c r="A153" s="52" t="s">
         <v>346</v>
       </c>
       <c r="D153" s="12" t="s">
@@ -6717,2128 +6666,2125 @@
       <c r="G153" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="K153" s="53">
+      <c r="K153" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="27.6">
-      <c r="A154" s="78" t="s">
+      <c r="A154" s="77" t="s">
         <v>354</v>
       </c>
-      <c r="B154" s="78"/>
-      <c r="C154" s="78"/>
-      <c r="D154" s="79" t="s">
+      <c r="B154" s="77"/>
+      <c r="C154" s="77"/>
+      <c r="D154" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="E154" s="80" t="s">
+      <c r="E154" s="79" t="s">
         <v>352</v>
       </c>
-      <c r="F154" s="80" t="s">
+      <c r="F154" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="G154" s="81"/>
-      <c r="H154" s="78"/>
-      <c r="I154" s="78"/>
-      <c r="J154" s="78"/>
-      <c r="K154" s="78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="82.8">
+      <c r="G154" s="80"/>
+      <c r="H154" s="77"/>
+      <c r="I154" s="77"/>
+      <c r="J154" s="77"/>
+      <c r="K154" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="75">
       <c r="A155" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="D155" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="E155" s="33" t="s">
-        <v>356</v>
+        <v>366</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>821</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="28" t="s">
-        <v>357</v>
-      </c>
-      <c r="H155" s="34"/>
-      <c r="I155" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="K155" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="69">
+        <v>844</v>
+      </c>
+      <c r="H155" s="33"/>
+      <c r="I155" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="K155" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="60">
       <c r="A156" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="D156" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="E156" s="33" t="s">
-        <v>360</v>
+        <v>367</v>
+      </c>
+      <c r="D156" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>822</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G156" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="H156" s="34"/>
-      <c r="I156" s="35"/>
-      <c r="K156" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" ht="69">
+        <v>845</v>
+      </c>
+      <c r="H156" s="33"/>
+      <c r="I156" s="34"/>
+      <c r="K156" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="60">
       <c r="A157" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D157" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="E157" s="33" t="s">
-        <v>364</v>
+        <v>368</v>
+      </c>
+      <c r="D157" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>823</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="H157" s="34"/>
-      <c r="I157" s="35"/>
-      <c r="K157" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" ht="124.2">
+        <v>846</v>
+      </c>
+      <c r="H157" s="33"/>
+      <c r="I157" s="34"/>
+      <c r="K157" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="135">
       <c r="A158" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="D158" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="E158" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="F158" s="36"/>
+        <v>369</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="F158" s="35"/>
       <c r="G158" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="H158" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="I158" s="35"/>
-      <c r="K158" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" ht="82.8">
+        <v>847</v>
+      </c>
+      <c r="H158" s="33"/>
+      <c r="I158" s="34"/>
+      <c r="K158" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="90">
       <c r="A159" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D159" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="E159" s="33" t="s">
         <v>370</v>
       </c>
-      <c r="F159" s="36"/>
+      <c r="D159" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="E159" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="F159" s="35"/>
       <c r="G159" s="28" t="s">
+        <v>848</v>
+      </c>
+      <c r="H159" s="33"/>
+      <c r="I159" s="34"/>
+      <c r="K159" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="75">
+      <c r="A160" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="H159" s="34"/>
-      <c r="I159" s="35"/>
-      <c r="K159" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="69">
-      <c r="A160" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="D160" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="E160" s="33" t="s">
-        <v>373</v>
+      <c r="D160" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="E160" s="12" t="s">
+        <v>826</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="28" t="s">
-        <v>374</v>
-      </c>
-      <c r="H160" s="34"/>
-      <c r="I160" s="35"/>
-      <c r="K160" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" ht="41.4">
+        <v>849</v>
+      </c>
+      <c r="H160" s="33"/>
+      <c r="I160" s="34"/>
+      <c r="K160" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="45">
       <c r="A161" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="D161" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="E161" s="33" t="s">
-        <v>376</v>
+        <v>372</v>
+      </c>
+      <c r="D161" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="E161" s="12" t="s">
+        <v>827</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="H161" s="34"/>
-      <c r="I161" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="K161" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="55.2">
+        <v>850</v>
+      </c>
+      <c r="H161" s="33"/>
+      <c r="I161" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="K161" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="75">
       <c r="A162" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="D162" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="E162" s="33" t="s">
-        <v>379</v>
+        <v>373</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>828</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="28" t="s">
-        <v>380</v>
-      </c>
-      <c r="H162" s="34"/>
-      <c r="I162" s="35"/>
-      <c r="K162" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="41.4">
+        <v>851</v>
+      </c>
+      <c r="H162" s="33"/>
+      <c r="I162" s="34"/>
+      <c r="K162" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="30">
       <c r="A163" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="D163" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="E163" s="33" t="s">
-        <v>382</v>
+        <v>374</v>
+      </c>
+      <c r="D163" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="E163" s="12" t="s">
+        <v>829</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="28" t="s">
-        <v>383</v>
-      </c>
-      <c r="H163" s="34"/>
-      <c r="I163" s="35"/>
-      <c r="K163" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" ht="69">
+        <v>852</v>
+      </c>
+      <c r="H163" s="33"/>
+      <c r="I163" s="34"/>
+      <c r="K163" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="75">
       <c r="A164" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="D164" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="E164" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="F164" s="36"/>
+        <v>375</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="F164" s="35"/>
       <c r="G164" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="H164" s="34"/>
-      <c r="I164" s="35" t="s">
-        <v>358</v>
-      </c>
-      <c r="K164" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="41.4">
+        <v>853</v>
+      </c>
+      <c r="H164" s="33"/>
+      <c r="I164" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="K164" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="45">
       <c r="A165" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D165" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="E165" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="F165" s="36"/>
+        <v>376</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>831</v>
+      </c>
+      <c r="F165" s="35"/>
       <c r="G165" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="H165" s="34"/>
-      <c r="I165" s="35" t="s">
-        <v>390</v>
-      </c>
-      <c r="K165" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" ht="110.4">
+        <v>854</v>
+      </c>
+      <c r="H165" s="33"/>
+      <c r="I165" s="34" t="s">
+        <v>357</v>
+      </c>
+      <c r="K165" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="120">
       <c r="A166" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D166" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="E166" s="33" t="s">
-        <v>392</v>
+        <v>377</v>
+      </c>
+      <c r="D166" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>832</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="H166" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="H166" s="33"/>
+      <c r="I166" s="34"/>
+      <c r="K166" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="120">
+      <c r="A167" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D167" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="F167" s="16"/>
+      <c r="G167" s="85" t="s">
+        <v>856</v>
+      </c>
+      <c r="H167" s="33"/>
+      <c r="I167" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="K167" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="75">
+      <c r="A168" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D168" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="F168" s="16"/>
+      <c r="G168" s="85" t="s">
+        <v>857</v>
+      </c>
+      <c r="H168" s="33"/>
+      <c r="I168" s="34"/>
+      <c r="K168" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="105">
+      <c r="A169" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D169" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="F169" s="16"/>
+      <c r="G169" s="85" t="s">
+        <v>858</v>
+      </c>
+      <c r="H169" s="33"/>
+      <c r="I169" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="K169" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="60">
+      <c r="A170" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D170" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="F170" s="16"/>
+      <c r="G170" s="85" t="s">
+        <v>859</v>
+      </c>
+      <c r="H170" s="33"/>
+      <c r="I170" s="34"/>
+      <c r="K170" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="45">
+      <c r="A171" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D171" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="F171" s="16"/>
+      <c r="G171" s="85" t="s">
+        <v>860</v>
+      </c>
+      <c r="H171" s="33"/>
+      <c r="I171" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="K171" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="75">
+      <c r="A172" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="F172" s="16"/>
+      <c r="G172" s="85" t="s">
+        <v>861</v>
+      </c>
+      <c r="H172" s="33"/>
+      <c r="I172" s="34" t="s">
         <v>361</v>
       </c>
-      <c r="I166" s="35"/>
-      <c r="K166" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="96.6">
-      <c r="A167" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D167" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="E167" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="F167" s="16"/>
-      <c r="G167" s="28" t="s">
-        <v>396</v>
-      </c>
-      <c r="H167" s="34"/>
-      <c r="I167" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="K167" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" ht="69">
-      <c r="A168" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="D168" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="E168" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="F168" s="16"/>
-      <c r="G168" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="H168" s="34"/>
-      <c r="I168" s="35"/>
-      <c r="K168" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="82.8">
-      <c r="A169" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D169" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="E169" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="F169" s="16"/>
-      <c r="G169" s="28" t="s">
-        <v>403</v>
-      </c>
-      <c r="H169" s="34"/>
-      <c r="I169" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="K169" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="55.2">
-      <c r="A170" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="D170" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="E170" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="F170" s="16"/>
-      <c r="G170" s="28" t="s">
-        <v>407</v>
-      </c>
-      <c r="H170" s="34"/>
-      <c r="I170" s="35"/>
-      <c r="K170" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="151.80000000000001">
-      <c r="A171" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D171" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="E171" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="F171" s="16"/>
-      <c r="G171" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="H171" s="34"/>
-      <c r="I171" s="35" t="s">
-        <v>411</v>
-      </c>
-      <c r="K171" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" ht="69">
-      <c r="A172" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D172" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="E172" s="33" t="s">
-        <v>413</v>
-      </c>
-      <c r="F172" s="16"/>
-      <c r="G172" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="H172" s="34"/>
-      <c r="I172" s="35" t="s">
-        <v>415</v>
-      </c>
-      <c r="K172" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" ht="96.6">
+      <c r="K172" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="30">
       <c r="A173" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D173" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="E173" s="33" t="s">
-        <v>417</v>
+        <v>384</v>
+      </c>
+      <c r="D173" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="E173" s="12" t="s">
+        <v>839</v>
       </c>
       <c r="F173" s="16"/>
-      <c r="G173" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="H173" s="34"/>
-      <c r="I173" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="K173" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" ht="55.2">
+      <c r="G173" s="85" t="s">
+        <v>862</v>
+      </c>
+      <c r="H173" s="33"/>
+      <c r="I173" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="K173" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="60">
       <c r="A174" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D174" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="E174" s="33" t="s">
-        <v>421</v>
+        <v>385</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>840</v>
       </c>
       <c r="F174" s="16"/>
-      <c r="G174" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="H174" s="34"/>
-      <c r="I174" s="35"/>
-      <c r="K174" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" ht="69">
+      <c r="G174" s="85" t="s">
+        <v>863</v>
+      </c>
+      <c r="H174" s="33"/>
+      <c r="I174" s="34"/>
+      <c r="K174" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="75">
       <c r="A175" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="D175" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="E175" s="33" t="s">
-        <v>424</v>
+        <v>386</v>
+      </c>
+      <c r="D175" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="E175" s="12" t="s">
+        <v>841</v>
       </c>
       <c r="F175" s="16"/>
-      <c r="G175" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="H175" s="34"/>
-      <c r="I175" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="K175" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="82.8">
+      <c r="G175" s="85" t="s">
+        <v>864</v>
+      </c>
+      <c r="H175" s="33"/>
+      <c r="I175" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="K175" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" ht="90">
       <c r="A176" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="D176" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="E176" s="33" t="s">
-        <v>428</v>
+        <v>387</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>842</v>
       </c>
       <c r="F176" s="16"/>
-      <c r="G176" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="H176" s="34"/>
-      <c r="I176" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="K176" s="53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" ht="41.4">
-      <c r="A177" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="D177" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="E177" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="F177" s="16"/>
-      <c r="G177" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="H177" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="I177" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="K177" s="53">
+      <c r="G176" s="85" t="s">
+        <v>865</v>
+      </c>
+      <c r="H176" s="33"/>
+      <c r="I176" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="K176" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" ht="30">
+      <c r="A177" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="B177" s="81"/>
+      <c r="C177" s="81"/>
+      <c r="D177" s="82" t="s">
+        <v>843</v>
+      </c>
+      <c r="E177" s="82" t="s">
+        <v>843</v>
+      </c>
+      <c r="F177" s="83"/>
+      <c r="G177" s="85" t="s">
+        <v>866</v>
+      </c>
+      <c r="H177" s="33"/>
+      <c r="I177" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="J177" s="81"/>
+      <c r="K177" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="45">
       <c r="A178" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D178" s="38" t="s">
-        <v>458</v>
-      </c>
-      <c r="E178" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="F178" s="38" t="s">
-        <v>460</v>
+        <v>403</v>
+      </c>
+      <c r="D178" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="E178" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="F178" s="37" t="s">
+        <v>391</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="K178" s="53">
+        <v>404</v>
+      </c>
+      <c r="K178" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="15">
       <c r="A179" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D179" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="E179" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="F179" s="38"/>
+        <v>403</v>
+      </c>
+      <c r="D179" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="E179" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="F179" s="37"/>
       <c r="G179" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="K179" s="53">
+        <v>405</v>
+      </c>
+      <c r="K179" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="60">
       <c r="A180" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D180" s="38" t="s">
-        <v>463</v>
-      </c>
-      <c r="E180" s="38" t="s">
-        <v>464</v>
-      </c>
-      <c r="F180" s="38" t="s">
-        <v>465</v>
+        <v>403</v>
+      </c>
+      <c r="D180" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E180" s="37" t="s">
+        <v>395</v>
+      </c>
+      <c r="F180" s="37" t="s">
+        <v>396</v>
       </c>
       <c r="G180" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="K180" s="53">
+        <v>406</v>
+      </c>
+      <c r="K180" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="30">
       <c r="A181" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D181" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="E181" s="38" t="s">
-        <v>467</v>
-      </c>
-      <c r="F181" s="38"/>
+        <v>403</v>
+      </c>
+      <c r="D181" s="37" t="s">
+        <v>397</v>
+      </c>
+      <c r="E181" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="F181" s="37"/>
       <c r="G181" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="K181" s="53">
+        <v>407</v>
+      </c>
+      <c r="K181" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="15">
       <c r="A182" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D182" s="38" t="s">
-        <v>468</v>
-      </c>
-      <c r="E182" s="38" t="s">
-        <v>469</v>
-      </c>
-      <c r="F182" s="38"/>
+        <v>403</v>
+      </c>
+      <c r="D182" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="E182" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="F182" s="37"/>
       <c r="G182" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="K182" s="53">
+        <v>408</v>
+      </c>
+      <c r="K182" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:11" ht="30">
       <c r="A183" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="D183" s="38" t="s">
-        <v>470</v>
-      </c>
-      <c r="E183" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="F183" s="38"/>
+        <v>403</v>
+      </c>
+      <c r="D183" s="37" t="s">
+        <v>401</v>
+      </c>
+      <c r="E183" s="37" t="s">
+        <v>402</v>
+      </c>
+      <c r="F183" s="37"/>
       <c r="G183" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="K183" s="53">
+        <v>409</v>
+      </c>
+      <c r="K183" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:11" ht="45">
       <c r="A184" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="D184" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="E184" s="38" t="s">
-        <v>480</v>
-      </c>
-      <c r="F184" s="38"/>
+        <v>420</v>
+      </c>
+      <c r="D184" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="E184" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="F184" s="37"/>
       <c r="G184" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="K184" s="53">
+        <v>417</v>
+      </c>
+      <c r="K184" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="30">
       <c r="A185" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="D185" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="E185" s="38" t="s">
-        <v>482</v>
-      </c>
-      <c r="F185" s="38" t="s">
-        <v>483</v>
+        <v>420</v>
+      </c>
+      <c r="D185" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="E185" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="F185" s="37" t="s">
+        <v>414</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="K185" s="53">
+        <v>418</v>
+      </c>
+      <c r="K185" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="30">
       <c r="A186" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="D186" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="E186" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="F186" s="38"/>
+        <v>420</v>
+      </c>
+      <c r="D186" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="E186" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="F186" s="37"/>
       <c r="G186" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="K186" s="53">
+        <v>419</v>
+      </c>
+      <c r="K186" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:11" ht="30">
       <c r="A187" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D187" s="39" t="s">
-        <v>490</v>
-      </c>
-      <c r="E187" s="39" t="s">
-        <v>491</v>
-      </c>
-      <c r="F187" s="39"/>
+        <v>432</v>
+      </c>
+      <c r="D187" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="E187" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="F187" s="38"/>
       <c r="G187" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="K187" s="53">
+        <v>428</v>
+      </c>
+      <c r="K187" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:11" ht="45">
       <c r="A188" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D188" s="39" t="s">
-        <v>492</v>
-      </c>
-      <c r="E188" s="39" t="s">
-        <v>493</v>
-      </c>
-      <c r="F188" s="39"/>
+        <v>432</v>
+      </c>
+      <c r="D188" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="E188" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="F188" s="38"/>
       <c r="G188" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="K188" s="53">
+        <v>429</v>
+      </c>
+      <c r="K188" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:11" ht="30">
       <c r="A189" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D189" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="E189" s="39" t="s">
-        <v>495</v>
-      </c>
-      <c r="F189" s="39"/>
+        <v>432</v>
+      </c>
+      <c r="D189" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="E189" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="F189" s="38"/>
       <c r="G189" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="K189" s="53">
+        <v>430</v>
+      </c>
+      <c r="K189" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:11" ht="30">
       <c r="A190" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="D190" s="39" t="s">
-        <v>494</v>
-      </c>
-      <c r="E190" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="F190" s="39"/>
+        <v>432</v>
+      </c>
+      <c r="D190" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="E190" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="F190" s="38"/>
       <c r="G190" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="K190" s="53">
+        <v>431</v>
+      </c>
+      <c r="K190" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:11" ht="30">
       <c r="A191" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D191" s="38" t="s">
-        <v>502</v>
-      </c>
-      <c r="E191" s="38" t="s">
-        <v>503</v>
-      </c>
-      <c r="F191" s="38"/>
+        <v>437</v>
+      </c>
+      <c r="D191" s="37" t="s">
+        <v>433</v>
+      </c>
+      <c r="E191" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="F191" s="37"/>
       <c r="G191" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="K191" s="53">
+        <v>439</v>
+      </c>
+      <c r="K191" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:11" ht="30">
       <c r="A192" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D192" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="E192" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="F192" s="38"/>
+        <v>437</v>
+      </c>
+      <c r="D192" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="E192" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="F192" s="37"/>
       <c r="G192" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="K192" s="53">
+        <v>438</v>
+      </c>
+      <c r="K192" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:11" ht="30">
       <c r="A193" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="D193" s="38" t="s">
-        <v>509</v>
-      </c>
-      <c r="E193" s="38" t="s">
-        <v>510</v>
-      </c>
-      <c r="F193" s="38"/>
+        <v>442</v>
+      </c>
+      <c r="D193" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="E193" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="F193" s="37"/>
       <c r="G193" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="K193" s="53">
+        <v>443</v>
+      </c>
+      <c r="K193" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="30">
       <c r="A194" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="D194" s="38" t="s">
-        <v>513</v>
-      </c>
-      <c r="E194" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="F194" s="38"/>
+        <v>446</v>
+      </c>
+      <c r="D194" s="37" t="s">
+        <v>444</v>
+      </c>
+      <c r="E194" s="37" t="s">
+        <v>445</v>
+      </c>
+      <c r="F194" s="37"/>
       <c r="G194" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="K194" s="53">
+        <v>447</v>
+      </c>
+      <c r="K194" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:11" ht="45">
       <c r="A195" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="D195" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="E195" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="F195" s="38" t="s">
-        <v>519</v>
+        <v>453</v>
+      </c>
+      <c r="D195" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="E195" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="F195" s="37" t="s">
+        <v>450</v>
       </c>
       <c r="G195" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="K195" s="53">
+        <v>454</v>
+      </c>
+      <c r="K195" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:11" ht="30">
       <c r="A196" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="D196" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="E196" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="F196" s="38"/>
+        <v>453</v>
+      </c>
+      <c r="D196" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="E196" s="37" t="s">
+        <v>452</v>
+      </c>
+      <c r="F196" s="37"/>
       <c r="G196" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="K196" s="53">
+        <v>455</v>
+      </c>
+      <c r="K196" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:11" ht="30">
       <c r="A197" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D197" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="E197" s="38" t="s">
-        <v>526</v>
-      </c>
-      <c r="F197" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D197" s="37" t="s">
+        <v>456</v>
+      </c>
+      <c r="E197" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="F197" s="37"/>
       <c r="G197" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="K197" s="53">
+        <v>478</v>
+      </c>
+      <c r="K197" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:11" ht="30">
       <c r="A198" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D198" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="E198" s="38" t="s">
-        <v>528</v>
-      </c>
-      <c r="F198" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D198" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="E198" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="F198" s="37"/>
       <c r="G198" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="K198" s="53">
+        <v>479</v>
+      </c>
+      <c r="K198" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:11" ht="30">
       <c r="A199" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D199" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="E199" s="38" t="s">
-        <v>529</v>
-      </c>
-      <c r="F199" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D199" s="37" t="s">
+        <v>458</v>
+      </c>
+      <c r="E199" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="F199" s="37"/>
       <c r="G199" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="K199" s="53">
+        <v>480</v>
+      </c>
+      <c r="K199" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:11" ht="45">
       <c r="A200" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D200" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="E200" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="F200" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D200" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="E200" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="F200" s="37"/>
       <c r="G200" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="K200" s="53">
+        <v>481</v>
+      </c>
+      <c r="K200" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:11" ht="45">
       <c r="A201" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D201" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="E201" s="38" t="s">
-        <v>532</v>
-      </c>
-      <c r="F201" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D201" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="E201" s="37" t="s">
+        <v>463</v>
+      </c>
+      <c r="F201" s="37"/>
       <c r="G201" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="K201" s="53">
+        <v>482</v>
+      </c>
+      <c r="K201" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:11" ht="30">
       <c r="A202" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D202" s="38" t="s">
-        <v>533</v>
-      </c>
-      <c r="E202" s="38" t="s">
-        <v>534</v>
-      </c>
-      <c r="F202" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D202" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="E202" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="F202" s="37"/>
       <c r="G202" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="K202" s="53">
+        <v>483</v>
+      </c>
+      <c r="K202" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:11" ht="45">
       <c r="A203" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D203" s="38" t="s">
-        <v>535</v>
-      </c>
-      <c r="E203" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="F203" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D203" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="E203" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="F203" s="37"/>
       <c r="G203" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="K203" s="53">
+        <v>484</v>
+      </c>
+      <c r="K203" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:11" ht="30">
       <c r="A204" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D204" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="E204" s="38" t="s">
-        <v>538</v>
-      </c>
-      <c r="F204" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D204" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="E204" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="F204" s="37"/>
       <c r="G204" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="K204" s="53">
+        <v>485</v>
+      </c>
+      <c r="K204" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:11" ht="30">
       <c r="A205" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D205" s="38" t="s">
-        <v>537</v>
-      </c>
-      <c r="E205" s="38" t="s">
-        <v>539</v>
-      </c>
-      <c r="F205" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D205" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="E205" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="F205" s="37"/>
       <c r="G205" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="K205" s="53">
+        <v>486</v>
+      </c>
+      <c r="K205" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:11" ht="30">
       <c r="A206" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D206" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="E206" s="38" t="s">
-        <v>541</v>
-      </c>
-      <c r="F206" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D206" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="E206" s="37" t="s">
+        <v>472</v>
+      </c>
+      <c r="F206" s="37"/>
       <c r="G206" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="K206" s="53">
+        <v>487</v>
+      </c>
+      <c r="K206" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:11" ht="45">
       <c r="A207" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D207" s="38" t="s">
-        <v>542</v>
-      </c>
-      <c r="E207" s="38" t="s">
-        <v>543</v>
-      </c>
-      <c r="F207" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D207" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="E207" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="F207" s="37"/>
       <c r="G207" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="K207" s="53">
+        <v>488</v>
+      </c>
+      <c r="K207" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:11" ht="45">
       <c r="A208" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="D208" s="38" t="s">
-        <v>544</v>
-      </c>
-      <c r="E208" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="F208" s="38"/>
+        <v>477</v>
+      </c>
+      <c r="D208" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="E208" s="37" t="s">
+        <v>476</v>
+      </c>
+      <c r="F208" s="37"/>
       <c r="G208" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="K208" s="53">
+        <v>489</v>
+      </c>
+      <c r="K208" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:11" ht="105">
       <c r="A209" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="D209" s="38" t="s">
-        <v>559</v>
-      </c>
-      <c r="E209" s="38" t="s">
-        <v>560</v>
-      </c>
-      <c r="F209" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="D209" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="E209" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="F209" s="39" t="s">
         <v>52</v>
       </c>
       <c r="G209" s="28"/>
-      <c r="K209" s="53">
+      <c r="K209" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:11" ht="30">
       <c r="A210" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="D210" s="38" t="s">
-        <v>561</v>
-      </c>
-      <c r="E210" s="38" t="s">
-        <v>562</v>
-      </c>
-      <c r="F210" s="38" t="s">
-        <v>563</v>
+        <v>495</v>
+      </c>
+      <c r="D210" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="E210" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="F210" s="37" t="s">
+        <v>494</v>
       </c>
       <c r="G210" s="28"/>
-      <c r="K210" s="53">
+      <c r="K210" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:11" ht="30">
       <c r="A211" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="D211" s="38" t="s">
-        <v>565</v>
-      </c>
-      <c r="E211" s="38" t="s">
-        <v>566</v>
-      </c>
-      <c r="F211" s="38"/>
+        <v>495</v>
+      </c>
+      <c r="D211" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="E211" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="F211" s="37"/>
       <c r="G211" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="K211" s="53">
+        <v>499</v>
+      </c>
+      <c r="K211" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:11" ht="30">
       <c r="A212" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="D212" s="41" t="s">
-        <v>572</v>
-      </c>
-      <c r="E212" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="D212" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="E212" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="F212" s="38"/>
+      <c r="F212" s="37"/>
       <c r="G212" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="K212" s="53">
+        <v>500</v>
+      </c>
+      <c r="K212" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:11" ht="30">
       <c r="A213" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="D213" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="E213" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="F213" s="38"/>
+        <v>495</v>
+      </c>
+      <c r="D213" s="40" t="s">
+        <v>504</v>
+      </c>
+      <c r="E213" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="F213" s="37"/>
       <c r="G213" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="K213" s="53">
+        <v>501</v>
+      </c>
+      <c r="K213" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="30">
       <c r="A214" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="D214" s="38" t="s">
-        <v>574</v>
-      </c>
-      <c r="E214" s="38" t="s">
-        <v>575</v>
-      </c>
-      <c r="F214" s="38" t="s">
-        <v>576</v>
+        <v>502</v>
+      </c>
+      <c r="D214" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="E214" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="F214" s="37" t="s">
+        <v>507</v>
       </c>
       <c r="G214" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="K214" s="53">
+        <v>514</v>
+      </c>
+      <c r="K214" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:11" ht="45">
       <c r="A215" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="D215" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="E215" s="38" t="s">
-        <v>578</v>
-      </c>
-      <c r="F215" s="38" t="s">
-        <v>579</v>
+        <v>502</v>
+      </c>
+      <c r="D215" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="E215" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="F215" s="37" t="s">
+        <v>510</v>
       </c>
       <c r="G215" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="K215" s="53">
+        <v>515</v>
+      </c>
+      <c r="K215" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:11" ht="15">
       <c r="A216" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="D216" s="38" t="s">
-        <v>580</v>
-      </c>
-      <c r="E216" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="F216" s="38"/>
+        <v>502</v>
+      </c>
+      <c r="D216" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="E216" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="F216" s="37"/>
       <c r="G216" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="K216" s="53">
+        <v>516</v>
+      </c>
+      <c r="K216" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:11" ht="30">
       <c r="A217" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="D217" s="38" t="s">
-        <v>582</v>
-      </c>
-      <c r="E217" s="38" t="s">
-        <v>531</v>
-      </c>
-      <c r="F217" s="38"/>
+        <v>502</v>
+      </c>
+      <c r="D217" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="E217" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="F217" s="37"/>
       <c r="G217" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="K217" s="53">
+        <v>517</v>
+      </c>
+      <c r="K217" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:11" ht="45">
       <c r="A218" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D218" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="E218" s="38" t="s">
-        <v>588</v>
-      </c>
-      <c r="F218" s="38"/>
+        <v>521</v>
+      </c>
+      <c r="D218" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="E218" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="F218" s="37"/>
       <c r="G218" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="K218" s="53">
+        <v>520</v>
+      </c>
+      <c r="K218" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:11" ht="30">
       <c r="A219" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="D219" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="E219" s="38" t="s">
-        <v>592</v>
-      </c>
-      <c r="F219" s="38"/>
+        <v>536</v>
+      </c>
+      <c r="D219" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="E219" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="F219" s="37"/>
       <c r="G219" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="K219" s="53">
+        <v>531</v>
+      </c>
+      <c r="K219" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:11" ht="30">
       <c r="A220" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="D220" s="38" t="s">
-        <v>593</v>
-      </c>
-      <c r="E220" s="38" t="s">
-        <v>594</v>
-      </c>
-      <c r="F220" s="38"/>
+        <v>536</v>
+      </c>
+      <c r="D220" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="E220" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="F220" s="37"/>
       <c r="G220" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="K220" s="53">
+        <v>532</v>
+      </c>
+      <c r="K220" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:11" ht="60">
       <c r="A221" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="D221" s="38" t="s">
-        <v>595</v>
-      </c>
-      <c r="E221" s="38"/>
-      <c r="F221" s="38"/>
+        <v>536</v>
+      </c>
+      <c r="D221" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="E221" s="37"/>
+      <c r="F221" s="37"/>
       <c r="G221" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="K221" s="53">
+        <v>533</v>
+      </c>
+      <c r="K221" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:11" ht="30">
       <c r="A222" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="D222" s="38" t="s">
-        <v>596</v>
-      </c>
-      <c r="E222" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="F222" s="38"/>
+        <v>536</v>
+      </c>
+      <c r="D222" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="E222" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="F222" s="37"/>
       <c r="G222" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="K222" s="53">
+        <v>534</v>
+      </c>
+      <c r="K222" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:11" ht="30">
       <c r="A223" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="D223" s="38" t="s">
-        <v>598</v>
-      </c>
-      <c r="E223" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="F223" s="38"/>
+        <v>536</v>
+      </c>
+      <c r="D223" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="E223" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="F223" s="37"/>
       <c r="G223" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="K223" s="53">
+        <v>535</v>
+      </c>
+      <c r="K223" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:11" ht="45">
       <c r="A224" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="D224" s="38" t="s">
-        <v>606</v>
-      </c>
-      <c r="E224" s="38" t="s">
-        <v>607</v>
-      </c>
-      <c r="F224" s="42"/>
+        <v>539</v>
+      </c>
+      <c r="D224" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="E224" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="F224" s="41"/>
       <c r="G224" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="K224" s="53">
+        <v>541</v>
+      </c>
+      <c r="K224" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:11" ht="30">
       <c r="A225" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="D225" s="38" t="s">
-        <v>612</v>
-      </c>
-      <c r="E225" s="38" t="s">
-        <v>613</v>
-      </c>
-      <c r="F225" s="38"/>
+        <v>540</v>
+      </c>
+      <c r="D225" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="E225" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="F225" s="37"/>
       <c r="G225" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="K225" s="53">
+        <v>542</v>
+      </c>
+      <c r="K225" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:11" ht="30">
       <c r="A226" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="D226" s="37" t="s">
-        <v>614</v>
-      </c>
-      <c r="E226" s="38" t="s">
-        <v>614</v>
-      </c>
-      <c r="F226" s="38"/>
+        <v>540</v>
+      </c>
+      <c r="D226" s="36" t="s">
+        <v>545</v>
+      </c>
+      <c r="E226" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="F226" s="37"/>
       <c r="G226" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="K226" s="53">
+        <v>548</v>
+      </c>
+      <c r="K226" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:11" ht="15">
       <c r="A227" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="D227" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="E227" s="38" t="s">
-        <v>616</v>
-      </c>
-      <c r="F227" s="38"/>
+        <v>540</v>
+      </c>
+      <c r="D227" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="E227" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="F227" s="37"/>
       <c r="G227" s="15" t="s">
-        <v>618</v>
-      </c>
-      <c r="K227" s="53">
+        <v>549</v>
+      </c>
+      <c r="K227" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:11" ht="30">
       <c r="A228" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="D228" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="E228" s="38" t="s">
-        <v>620</v>
-      </c>
-      <c r="F228" s="38" t="s">
-        <v>621</v>
+        <v>558</v>
+      </c>
+      <c r="D228" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="E228" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="F228" s="37" t="s">
+        <v>552</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>628</v>
-      </c>
-      <c r="K228" s="53">
+        <v>559</v>
+      </c>
+      <c r="K228" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:11" ht="30">
       <c r="A229" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="D229" s="37" t="s">
-        <v>622</v>
-      </c>
-      <c r="E229" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="F229" s="38"/>
+        <v>558</v>
+      </c>
+      <c r="D229" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="E229" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="F229" s="37"/>
       <c r="G229" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="K229" s="53">
+        <v>560</v>
+      </c>
+      <c r="K229" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:11" ht="15">
       <c r="A230" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="D230" s="37" t="s">
-        <v>624</v>
-      </c>
-      <c r="E230" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="F230" s="38" t="s">
-        <v>626</v>
+        <v>558</v>
+      </c>
+      <c r="D230" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="E230" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="F230" s="37" t="s">
+        <v>557</v>
       </c>
       <c r="G230" s="15" t="s">
-        <v>630</v>
-      </c>
-      <c r="K230" s="53">
+        <v>561</v>
+      </c>
+      <c r="K230" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:11" ht="15">
       <c r="A231" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="D231" s="37" t="s">
-        <v>631</v>
-      </c>
-      <c r="E231" s="38" t="s">
-        <v>632</v>
-      </c>
-      <c r="F231" s="38"/>
+        <v>569</v>
+      </c>
+      <c r="D231" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="E231" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="F231" s="37"/>
       <c r="G231" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="K231" s="53">
+        <v>570</v>
+      </c>
+      <c r="K231" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:11" ht="30">
       <c r="A232" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="D232" s="37" t="s">
-        <v>633</v>
-      </c>
-      <c r="E232" s="37" t="s">
-        <v>634</v>
-      </c>
-      <c r="F232" s="38" t="s">
-        <v>635</v>
+        <v>569</v>
+      </c>
+      <c r="D232" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="E232" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="F232" s="37" t="s">
+        <v>566</v>
       </c>
       <c r="G232" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="K232" s="53">
+        <v>571</v>
+      </c>
+      <c r="K232" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:11" ht="15">
       <c r="A233" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="D233" s="37" t="s">
-        <v>636</v>
-      </c>
-      <c r="E233" s="38" t="s">
-        <v>637</v>
-      </c>
-      <c r="F233" s="38"/>
+        <v>569</v>
+      </c>
+      <c r="D233" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="E233" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="F233" s="37"/>
       <c r="G233" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="K233" s="53">
+        <v>572</v>
+      </c>
+      <c r="K233" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:11" ht="15">
       <c r="A234" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D234" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="E234" s="38" t="s">
-        <v>643</v>
-      </c>
-      <c r="F234" s="38"/>
+        <v>583</v>
+      </c>
+      <c r="D234" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="E234" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="F234" s="37"/>
       <c r="G234" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="K234" s="53">
+        <v>584</v>
+      </c>
+      <c r="K234" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:11" ht="45">
       <c r="A235" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D235" s="37" t="s">
-        <v>644</v>
-      </c>
-      <c r="E235" s="38" t="s">
-        <v>645</v>
-      </c>
-      <c r="F235" s="38" t="s">
-        <v>646</v>
+        <v>583</v>
+      </c>
+      <c r="D235" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="E235" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="F235" s="37" t="s">
+        <v>577</v>
       </c>
       <c r="G235" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="K235" s="53">
+        <v>585</v>
+      </c>
+      <c r="K235" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:11" ht="15">
       <c r="A236" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D236" s="37" t="s">
-        <v>644</v>
-      </c>
-      <c r="E236" s="38" t="s">
-        <v>647</v>
-      </c>
-      <c r="F236" s="38"/>
+        <v>583</v>
+      </c>
+      <c r="D236" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="E236" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="F236" s="37"/>
       <c r="G236" s="15" t="s">
-        <v>655</v>
-      </c>
-      <c r="K236" s="53">
+        <v>586</v>
+      </c>
+      <c r="K236" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:11" ht="45">
       <c r="A237" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D237" s="37" t="s">
-        <v>644</v>
-      </c>
-      <c r="E237" s="38" t="s">
-        <v>581</v>
-      </c>
-      <c r="F237" s="38" t="s">
-        <v>648</v>
+        <v>583</v>
+      </c>
+      <c r="D237" s="36" t="s">
+        <v>575</v>
+      </c>
+      <c r="E237" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="F237" s="37" t="s">
+        <v>579</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>656</v>
-      </c>
-      <c r="K237" s="53">
+        <v>587</v>
+      </c>
+      <c r="K237" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:11" ht="30">
       <c r="A238" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="D238" s="37" t="s">
-        <v>649</v>
-      </c>
-      <c r="E238" s="38" t="s">
-        <v>650</v>
-      </c>
-      <c r="F238" s="38" t="s">
-        <v>651</v>
+        <v>583</v>
+      </c>
+      <c r="D238" s="36" t="s">
+        <v>580</v>
+      </c>
+      <c r="E238" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="F238" s="37" t="s">
+        <v>582</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="K238" s="53">
+        <v>588</v>
+      </c>
+      <c r="K238" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:11" ht="15">
       <c r="A239" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="D239" s="37" t="s">
-        <v>658</v>
-      </c>
-      <c r="E239" s="38" t="s">
-        <v>659</v>
-      </c>
-      <c r="F239" s="38"/>
+        <v>591</v>
+      </c>
+      <c r="D239" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="E239" s="37" t="s">
+        <v>590</v>
+      </c>
+      <c r="F239" s="37"/>
       <c r="G239" s="15" t="s">
-        <v>661</v>
-      </c>
-      <c r="K239" s="53">
+        <v>592</v>
+      </c>
+      <c r="K239" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:11" ht="15">
       <c r="A240" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="D240" s="37" t="s">
-        <v>662</v>
-      </c>
-      <c r="E240" s="38" t="s">
-        <v>663</v>
-      </c>
-      <c r="F240" s="38"/>
+        <v>615</v>
+      </c>
+      <c r="D240" s="36" t="s">
+        <v>593</v>
+      </c>
+      <c r="E240" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="F240" s="37"/>
       <c r="G240" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="K240" s="53">
+        <v>608</v>
+      </c>
+      <c r="K240" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:11" ht="45">
       <c r="A241" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="D241" s="37" t="s">
-        <v>664</v>
-      </c>
-      <c r="E241" s="38" t="s">
-        <v>665</v>
-      </c>
-      <c r="F241" s="38" t="s">
-        <v>666</v>
+        <v>615</v>
+      </c>
+      <c r="D241" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="E241" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="F241" s="37" t="s">
+        <v>597</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="K241" s="53">
+        <v>609</v>
+      </c>
+      <c r="K241" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:11" ht="45">
       <c r="A242" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="D242" s="37" t="s">
-        <v>664</v>
-      </c>
-      <c r="E242" s="38" t="s">
-        <v>667</v>
-      </c>
-      <c r="F242" s="38" t="s">
-        <v>668</v>
+        <v>615</v>
+      </c>
+      <c r="D242" s="36" t="s">
+        <v>595</v>
+      </c>
+      <c r="E242" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="F242" s="37" t="s">
+        <v>599</v>
       </c>
       <c r="G242" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="K242" s="53">
+        <v>610</v>
+      </c>
+      <c r="K242" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:11" ht="45">
       <c r="A243" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="D243" s="37" t="s">
-        <v>669</v>
-      </c>
-      <c r="E243" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="F243" s="38" t="s">
-        <v>671</v>
+        <v>615</v>
+      </c>
+      <c r="D243" s="36" t="s">
+        <v>600</v>
+      </c>
+      <c r="E243" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="F243" s="37" t="s">
+        <v>602</v>
       </c>
       <c r="G243" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="K243" s="53">
+        <v>611</v>
+      </c>
+      <c r="K243" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:11" ht="60">
       <c r="A244" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="D244" s="38" t="s">
-        <v>669</v>
-      </c>
-      <c r="E244" s="38" t="s">
-        <v>672</v>
-      </c>
-      <c r="F244" s="38" t="s">
-        <v>673</v>
+        <v>615</v>
+      </c>
+      <c r="D244" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="E244" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="F244" s="37" t="s">
+        <v>604</v>
       </c>
       <c r="G244" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="K244" s="53">
+        <v>612</v>
+      </c>
+      <c r="K244" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:11" ht="45">
       <c r="A245" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="D245" s="43" t="s">
-        <v>674</v>
-      </c>
-      <c r="E245" s="37" t="s">
-        <v>675</v>
-      </c>
-      <c r="F245" s="38" t="s">
-        <v>676</v>
+        <v>615</v>
+      </c>
+      <c r="D245" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="E245" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="F245" s="37" t="s">
+        <v>607</v>
       </c>
       <c r="G245" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="K245" s="53">
+        <v>613</v>
+      </c>
+      <c r="K245" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:11" ht="45">
       <c r="A246" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="D246" s="43" t="s">
-        <v>674</v>
-      </c>
-      <c r="E246" s="37" t="s">
-        <v>675</v>
-      </c>
-      <c r="F246" s="38" t="s">
-        <v>676</v>
+        <v>615</v>
+      </c>
+      <c r="D246" s="42" t="s">
+        <v>605</v>
+      </c>
+      <c r="E246" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="F246" s="37" t="s">
+        <v>607</v>
       </c>
       <c r="G246" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="K246" s="53">
+        <v>614</v>
+      </c>
+      <c r="K246" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:11" ht="45">
       <c r="A247" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="D247" s="40" t="s">
-        <v>685</v>
-      </c>
-      <c r="E247" s="40" t="s">
-        <v>686</v>
-      </c>
-      <c r="F247" s="38"/>
-      <c r="G247" s="44" t="s">
-        <v>687</v>
-      </c>
-      <c r="H247" s="34"/>
-      <c r="I247" s="35"/>
-      <c r="K247" s="53">
+        <v>667</v>
+      </c>
+      <c r="D247" s="39" t="s">
+        <v>616</v>
+      </c>
+      <c r="E247" s="39" t="s">
+        <v>617</v>
+      </c>
+      <c r="F247" s="37"/>
+      <c r="G247" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="H247" s="33"/>
+      <c r="I247" s="34"/>
+      <c r="K247" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:11" ht="90">
       <c r="A248" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="D248" s="38" t="s">
-        <v>688</v>
-      </c>
-      <c r="E248" s="38" t="s">
-        <v>689</v>
-      </c>
-      <c r="F248" s="38"/>
-      <c r="G248" s="44" t="s">
-        <v>690</v>
-      </c>
-      <c r="H248" s="45"/>
-      <c r="I248" s="46"/>
-      <c r="K248" s="53">
+        <v>668</v>
+      </c>
+      <c r="D248" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="E248" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="F248" s="37"/>
+      <c r="G248" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="H248" s="44"/>
+      <c r="I248" s="45"/>
+      <c r="K248" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:11" ht="15">
       <c r="A249" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="D249" s="37" t="s">
-        <v>691</v>
-      </c>
-      <c r="E249" s="37" t="s">
-        <v>692</v>
-      </c>
-      <c r="F249" s="38"/>
-      <c r="G249" s="44" t="s">
-        <v>693</v>
-      </c>
-      <c r="H249" s="45"/>
-      <c r="I249" s="46"/>
-      <c r="K249" s="53">
+        <v>669</v>
+      </c>
+      <c r="D249" s="36" t="s">
+        <v>622</v>
+      </c>
+      <c r="E249" s="36" t="s">
+        <v>623</v>
+      </c>
+      <c r="F249" s="37"/>
+      <c r="G249" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="H249" s="44"/>
+      <c r="I249" s="45"/>
+      <c r="K249" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:11" ht="15.6">
       <c r="A250" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="D250" s="37" t="s">
-        <v>694</v>
-      </c>
-      <c r="E250" s="37" t="s">
-        <v>695</v>
-      </c>
-      <c r="F250" s="38"/>
-      <c r="G250" s="44" t="s">
-        <v>696</v>
-      </c>
-      <c r="H250" s="45"/>
-      <c r="I250" s="35" t="s">
-        <v>697</v>
-      </c>
-      <c r="K250" s="53">
+        <v>670</v>
+      </c>
+      <c r="D250" s="36" t="s">
+        <v>625</v>
+      </c>
+      <c r="E250" s="36" t="s">
+        <v>626</v>
+      </c>
+      <c r="F250" s="37"/>
+      <c r="G250" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="H250" s="44"/>
+      <c r="I250" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="K250" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:11" ht="60">
       <c r="A251" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="D251" s="38" t="s">
-        <v>698</v>
-      </c>
-      <c r="E251" s="38" t="s">
-        <v>699</v>
-      </c>
-      <c r="F251" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="G251" s="44" t="s">
-        <v>700</v>
-      </c>
-      <c r="H251" s="34"/>
-      <c r="I251" s="35"/>
-      <c r="K251" s="53">
+        <v>671</v>
+      </c>
+      <c r="D251" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="E251" s="37" t="s">
+        <v>630</v>
+      </c>
+      <c r="F251" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G251" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="H251" s="33"/>
+      <c r="I251" s="34"/>
+      <c r="K251" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:11" ht="60">
       <c r="A252" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="D252" s="38" t="s">
-        <v>701</v>
-      </c>
-      <c r="E252" s="38" t="s">
-        <v>702</v>
-      </c>
-      <c r="F252" s="38"/>
-      <c r="G252" s="44" t="s">
-        <v>703</v>
-      </c>
-      <c r="H252" s="34"/>
-      <c r="I252" s="35"/>
-      <c r="K252" s="53">
+        <v>672</v>
+      </c>
+      <c r="D252" s="37" t="s">
+        <v>632</v>
+      </c>
+      <c r="E252" s="37" t="s">
+        <v>633</v>
+      </c>
+      <c r="F252" s="37"/>
+      <c r="G252" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="H252" s="33"/>
+      <c r="I252" s="34"/>
+      <c r="K252" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:11" ht="15.6">
       <c r="A253" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="D253" s="37" t="s">
-        <v>704</v>
-      </c>
-      <c r="E253" s="37" t="s">
-        <v>705</v>
-      </c>
-      <c r="F253" s="38"/>
-      <c r="G253" s="44" t="s">
-        <v>706</v>
-      </c>
-      <c r="H253" s="34"/>
-      <c r="I253" s="35"/>
-      <c r="K253" s="53">
+        <v>673</v>
+      </c>
+      <c r="D253" s="36" t="s">
+        <v>635</v>
+      </c>
+      <c r="E253" s="36" t="s">
+        <v>636</v>
+      </c>
+      <c r="F253" s="37"/>
+      <c r="G253" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="H253" s="33"/>
+      <c r="I253" s="34"/>
+      <c r="K253" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:11" ht="45">
       <c r="A254" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="D254" s="40" t="s">
-        <v>707</v>
-      </c>
-      <c r="E254" s="40" t="s">
-        <v>708</v>
-      </c>
-      <c r="F254" s="38" t="s">
-        <v>361</v>
-      </c>
-      <c r="G254" s="44" t="s">
-        <v>709</v>
-      </c>
-      <c r="H254" s="34"/>
-      <c r="I254" s="35"/>
-      <c r="K254" s="53">
+        <v>674</v>
+      </c>
+      <c r="D254" s="39" t="s">
+        <v>638</v>
+      </c>
+      <c r="E254" s="39" t="s">
+        <v>639</v>
+      </c>
+      <c r="F254" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="G254" s="43" t="s">
+        <v>640</v>
+      </c>
+      <c r="H254" s="33"/>
+      <c r="I254" s="34"/>
+      <c r="K254" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:11" ht="45">
       <c r="A255" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="D255" s="40" t="s">
-        <v>710</v>
-      </c>
-      <c r="E255" s="40" t="s">
-        <v>711</v>
-      </c>
-      <c r="F255" s="38"/>
-      <c r="G255" s="44" t="s">
-        <v>712</v>
-      </c>
-      <c r="H255" s="34"/>
-      <c r="I255" s="35"/>
-      <c r="K255" s="53">
+        <v>675</v>
+      </c>
+      <c r="D255" s="39" t="s">
+        <v>641</v>
+      </c>
+      <c r="E255" s="39" t="s">
+        <v>642</v>
+      </c>
+      <c r="F255" s="37"/>
+      <c r="G255" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="H255" s="33"/>
+      <c r="I255" s="34"/>
+      <c r="K255" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:11" ht="75">
       <c r="A256" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="D256" s="40" t="s">
-        <v>713</v>
-      </c>
-      <c r="E256" s="40" t="s">
-        <v>714</v>
-      </c>
-      <c r="F256" s="38"/>
-      <c r="G256" s="44" t="s">
-        <v>715</v>
-      </c>
-      <c r="H256" s="34"/>
-      <c r="I256" s="35"/>
-      <c r="K256" s="53">
+        <v>676</v>
+      </c>
+      <c r="D256" s="39" t="s">
+        <v>644</v>
+      </c>
+      <c r="E256" s="39" t="s">
+        <v>645</v>
+      </c>
+      <c r="F256" s="37"/>
+      <c r="G256" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="H256" s="33"/>
+      <c r="I256" s="34"/>
+      <c r="K256" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:11" ht="75">
       <c r="A257" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="D257" s="40" t="s">
-        <v>716</v>
-      </c>
-      <c r="E257" s="40" t="s">
-        <v>717</v>
-      </c>
-      <c r="F257" s="38"/>
-      <c r="G257" s="44" t="s">
-        <v>718</v>
-      </c>
-      <c r="H257" s="34"/>
-      <c r="I257" s="35"/>
-      <c r="K257" s="53">
+        <v>677</v>
+      </c>
+      <c r="D257" s="39" t="s">
+        <v>647</v>
+      </c>
+      <c r="E257" s="39" t="s">
+        <v>648</v>
+      </c>
+      <c r="F257" s="37"/>
+      <c r="G257" s="43" t="s">
+        <v>649</v>
+      </c>
+      <c r="H257" s="33"/>
+      <c r="I257" s="34"/>
+      <c r="K257" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:11" ht="90">
       <c r="A258" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="D258" s="40" t="s">
-        <v>719</v>
-      </c>
-      <c r="E258" s="40" t="s">
-        <v>720</v>
-      </c>
-      <c r="F258" s="38"/>
-      <c r="G258" s="44" t="s">
-        <v>721</v>
-      </c>
-      <c r="H258" s="34"/>
-      <c r="I258" s="35"/>
-      <c r="K258" s="53">
+        <v>678</v>
+      </c>
+      <c r="D258" s="39" t="s">
+        <v>650</v>
+      </c>
+      <c r="E258" s="39" t="s">
+        <v>651</v>
+      </c>
+      <c r="F258" s="37"/>
+      <c r="G258" s="43" t="s">
+        <v>652</v>
+      </c>
+      <c r="H258" s="33"/>
+      <c r="I258" s="34"/>
+      <c r="K258" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:11" ht="60">
       <c r="A259" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="D259" s="40" t="s">
-        <v>722</v>
-      </c>
-      <c r="E259" s="40" t="s">
-        <v>723</v>
-      </c>
-      <c r="F259" s="38"/>
-      <c r="G259" s="44" t="s">
-        <v>724</v>
-      </c>
-      <c r="H259" s="34"/>
-      <c r="I259" s="35" t="s">
-        <v>725</v>
-      </c>
-      <c r="K259" s="53">
+        <v>679</v>
+      </c>
+      <c r="D259" s="39" t="s">
+        <v>653</v>
+      </c>
+      <c r="E259" s="39" t="s">
+        <v>654</v>
+      </c>
+      <c r="F259" s="37"/>
+      <c r="G259" s="43" t="s">
+        <v>655</v>
+      </c>
+      <c r="H259" s="33"/>
+      <c r="I259" s="34" t="s">
+        <v>656</v>
+      </c>
+      <c r="K259" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:11" ht="75">
       <c r="A260" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="D260" s="40" t="s">
-        <v>726</v>
-      </c>
-      <c r="E260" s="40" t="s">
-        <v>727</v>
-      </c>
-      <c r="F260" s="38"/>
-      <c r="G260" s="44" t="s">
-        <v>728</v>
-      </c>
-      <c r="H260" s="34"/>
-      <c r="I260" s="35" t="s">
-        <v>729</v>
-      </c>
-      <c r="K260" s="53">
+        <v>680</v>
+      </c>
+      <c r="D260" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="E260" s="39" t="s">
+        <v>658</v>
+      </c>
+      <c r="F260" s="37"/>
+      <c r="G260" s="43" t="s">
+        <v>659</v>
+      </c>
+      <c r="H260" s="33"/>
+      <c r="I260" s="34" t="s">
+        <v>660</v>
+      </c>
+      <c r="K260" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:11" ht="75">
       <c r="A261" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="D261" s="40" t="s">
-        <v>730</v>
-      </c>
-      <c r="E261" s="40" t="s">
-        <v>731</v>
-      </c>
-      <c r="F261" s="38"/>
-      <c r="G261" s="44" t="s">
-        <v>732</v>
-      </c>
-      <c r="H261" s="34"/>
-      <c r="I261" s="35"/>
-      <c r="K261" s="53">
+        <v>681</v>
+      </c>
+      <c r="D261" s="39" t="s">
+        <v>661</v>
+      </c>
+      <c r="E261" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="F261" s="37"/>
+      <c r="G261" s="43" t="s">
+        <v>663</v>
+      </c>
+      <c r="H261" s="33"/>
+      <c r="I261" s="34"/>
+      <c r="K261" s="52">
         <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:11" ht="45">
       <c r="A262" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="D262" s="40" t="s">
-        <v>733</v>
-      </c>
-      <c r="E262" s="40" t="s">
-        <v>734</v>
-      </c>
-      <c r="F262" s="38"/>
-      <c r="G262" s="44" t="s">
-        <v>735</v>
-      </c>
-      <c r="H262" s="34"/>
-      <c r="I262" s="35"/>
-      <c r="K262" s="53">
+        <v>682</v>
+      </c>
+      <c r="D262" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="E262" s="39" t="s">
+        <v>665</v>
+      </c>
+      <c r="F262" s="37"/>
+      <c r="G262" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="H262" s="33"/>
+      <c r="I262" s="34"/>
+      <c r="K262" s="52">
         <v>1</v>
       </c>
     </row>
@@ -8863,17 +8809,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>875</v>
+        <v>806</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>876</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>877</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="847">
   <si>
     <t>SearchText</t>
   </si>
@@ -2637,6 +2637,57 @@
   </si>
   <si>
     <t>Replace image text</t>
+  </si>
+  <si>
+    <t>ব্যাটারী চার্জিং পদ্ধতি</t>
+  </si>
+  <si>
+    <t>সোলার সিস্টেম এর ধারণা</t>
+  </si>
+  <si>
+    <t>১. বাসবার, ২. সার্কিট ব্রেকার</t>
+  </si>
+  <si>
+    <t>এ্যারেস্টার, ৪. আইসোলেটর</t>
+  </si>
+  <si>
+    <t>৫. ট্রান্সফরমার,</t>
+  </si>
+  <si>
+    <t>৮. কন্ট্রোল প্যানেল</t>
+  </si>
+  <si>
+    <t>৯. আর্থিং সিস্টেম,</t>
+  </si>
+  <si>
+    <t>১০. আগুন নিভানোর যন্ত্র,</t>
+  </si>
+  <si>
+    <t>১২. সার্জ এ্যাবজরভার</t>
+  </si>
+  <si>
+    <t> সাবস্টেশনের সিঙ্গেল লাইন ডায়াগ্রাম দেখানো হলো।</t>
+  </si>
+  <si>
+    <t>আর্থ লিকেজ সার্কিট ব্রেকার (ELCB)</t>
+  </si>
+  <si>
+    <t>এয়ার সার্কিট ব্রেকার (Air circuit breaker)</t>
+  </si>
+  <si>
+    <t>অয়েল সার্কিট ব্রেকার (Oil circuit breaker)</t>
+  </si>
+  <si>
+    <t>রিলের সংজ্ঞা (Definition of relay)</t>
+  </si>
+  <si>
+    <t>লাইটনিং এর সংজ্ঞা (Definition of lightning)</t>
+  </si>
+  <si>
+    <t>লাইটনিং</t>
+  </si>
+  <si>
+    <t>ট্রান্সমিশন লাইনের</t>
   </si>
 </sst>
 </file>
@@ -2888,7 +2939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3163,6 +3214,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5507,8 +5562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" topLeftCell="B210" workbookViewId="0">
+      <selection activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9075,18 +9130,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="30">
+    <row r="194" spans="1:11" ht="15.6">
       <c r="A194" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="D194" s="36" t="s">
-        <v>392</v>
-      </c>
-      <c r="E194" s="36" t="s">
-        <v>393</v>
+      <c r="D194" s="79" t="s">
+        <v>830</v>
+      </c>
+      <c r="E194" s="79" t="s">
+        <v>830</v>
       </c>
       <c r="F194" s="36"/>
-      <c r="G194" s="86" t="s">
+      <c r="G194" s="94" t="s">
         <v>395</v>
       </c>
       <c r="K194" s="44">
@@ -9106,25 +9161,25 @@
       <c r="F195" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="G195" s="86" t="s">
+      <c r="G195" s="94" t="s">
         <v>402</v>
       </c>
       <c r="K195" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="30">
+    <row r="196" spans="1:11" ht="15.6">
       <c r="A196" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="D196" s="36" t="s">
-        <v>399</v>
+      <c r="D196" s="79" t="s">
+        <v>831</v>
       </c>
       <c r="E196" s="36" t="s">
         <v>400</v>
       </c>
       <c r="F196" s="36"/>
-      <c r="G196" s="86" t="s">
+      <c r="G196" s="94" t="s">
         <v>403</v>
       </c>
       <c r="K196" s="44">
@@ -9142,205 +9197,205 @@
         <v>405</v>
       </c>
       <c r="F197" s="36"/>
-      <c r="G197" s="86" t="s">
+      <c r="G197" s="94" t="s">
         <v>426</v>
       </c>
       <c r="K197" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="30">
+    <row r="198" spans="1:11" ht="15.6">
       <c r="A198" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D198" s="36" t="s">
-        <v>406</v>
+      <c r="D198" s="93" t="s">
+        <v>832</v>
       </c>
       <c r="E198" s="36" t="s">
         <v>407</v>
       </c>
       <c r="F198" s="36"/>
-      <c r="G198" s="86" t="s">
+      <c r="G198" s="94" t="s">
         <v>427</v>
       </c>
       <c r="K198" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="30">
+    <row r="199" spans="1:11" ht="15.6">
       <c r="A199" s="8" t="s">
         <v>425</v>
       </c>
       <c r="D199" s="36" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E199" s="36" t="s">
         <v>408</v>
       </c>
       <c r="F199" s="36"/>
-      <c r="G199" s="86" t="s">
+      <c r="G199" s="94" t="s">
         <v>428</v>
       </c>
       <c r="K199" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="45">
+    <row r="200" spans="1:11" ht="15.6">
       <c r="A200" s="8" t="s">
         <v>425</v>
       </c>
       <c r="D200" s="36" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E200" s="36" t="s">
         <v>410</v>
       </c>
       <c r="F200" s="36"/>
-      <c r="G200" s="86" t="s">
+      <c r="G200" s="94" t="s">
         <v>429</v>
       </c>
       <c r="K200" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="45">
+    <row r="201" spans="1:11" ht="15.6">
       <c r="A201" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D201" s="36" t="s">
-        <v>409</v>
+      <c r="D201" s="93" t="s">
+        <v>833</v>
       </c>
       <c r="E201" s="36" t="s">
         <v>411</v>
       </c>
       <c r="F201" s="36"/>
-      <c r="G201" s="86" t="s">
+      <c r="G201" s="94" t="s">
         <v>430</v>
       </c>
       <c r="K201" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="30">
+    <row r="202" spans="1:11" ht="15.6">
       <c r="A202" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D202" s="36" t="s">
-        <v>412</v>
+      <c r="D202" s="93" t="s">
+        <v>834</v>
       </c>
       <c r="E202" s="36" t="s">
         <v>413</v>
       </c>
       <c r="F202" s="36"/>
-      <c r="G202" s="86" t="s">
+      <c r="G202" s="94" t="s">
         <v>431</v>
       </c>
       <c r="K202" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="45">
+    <row r="203" spans="1:11" ht="15.6">
       <c r="A203" s="8" t="s">
         <v>425</v>
       </c>
       <c r="D203" s="36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E203" s="36" t="s">
         <v>415</v>
       </c>
       <c r="F203" s="36"/>
-      <c r="G203" s="86" t="s">
+      <c r="G203" s="94" t="s">
         <v>432</v>
       </c>
       <c r="K203" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="30">
+    <row r="204" spans="1:11" ht="15.6">
       <c r="A204" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D204" s="36" t="s">
-        <v>416</v>
+      <c r="D204" s="93" t="s">
+        <v>835</v>
       </c>
       <c r="E204" s="36" t="s">
         <v>417</v>
       </c>
       <c r="F204" s="36"/>
-      <c r="G204" s="86" t="s">
+      <c r="G204" s="94" t="s">
         <v>433</v>
       </c>
       <c r="K204" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="30">
+    <row r="205" spans="1:11" ht="15.6">
       <c r="A205" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D205" s="36" t="s">
-        <v>416</v>
+      <c r="D205" s="93" t="s">
+        <v>836</v>
       </c>
       <c r="E205" s="36" t="s">
         <v>418</v>
       </c>
       <c r="F205" s="36"/>
-      <c r="G205" s="86" t="s">
+      <c r="G205" s="94" t="s">
         <v>434</v>
       </c>
       <c r="K205" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="30">
+    <row r="206" spans="1:11" ht="15.6">
       <c r="A206" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D206" s="36" t="s">
-        <v>419</v>
+      <c r="D206" s="93" t="s">
+        <v>837</v>
       </c>
       <c r="E206" s="36" t="s">
         <v>420</v>
       </c>
       <c r="F206" s="36"/>
-      <c r="G206" s="86" t="s">
+      <c r="G206" s="94" t="s">
         <v>435</v>
       </c>
       <c r="K206" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="45">
+    <row r="207" spans="1:11" ht="15.6">
       <c r="A207" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D207" s="36" t="s">
-        <v>421</v>
+      <c r="D207" s="93" t="s">
+        <v>838</v>
       </c>
       <c r="E207" s="36" t="s">
         <v>422</v>
       </c>
       <c r="F207" s="36"/>
-      <c r="G207" s="86" t="s">
+      <c r="G207" s="65" t="s">
         <v>436</v>
       </c>
       <c r="K207" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="45">
+    <row r="208" spans="1:11" ht="30">
       <c r="A208" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D208" s="36" t="s">
-        <v>423</v>
+      <c r="D208" s="93" t="s">
+        <v>839</v>
       </c>
       <c r="E208" s="36" t="s">
         <v>424</v>
       </c>
       <c r="F208" s="36"/>
-      <c r="G208" s="86" t="s">
+      <c r="G208" s="94" t="s">
         <v>437</v>
       </c>
       <c r="K208" s="44">
@@ -9360,7 +9415,7 @@
       <c r="F209" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G209" s="86"/>
+      <c r="G209" s="94"/>
       <c r="K209" s="44">
         <v>1</v>
       </c>
@@ -9378,7 +9433,7 @@
       <c r="F210" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="G210" s="86"/>
+      <c r="G210" s="94"/>
       <c r="K210" s="44">
         <v>1</v>
       </c>
@@ -9387,50 +9442,50 @@
       <c r="A211" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D211" s="36" t="s">
-        <v>444</v>
+      <c r="D211" s="93" t="s">
+        <v>840</v>
       </c>
       <c r="E211" s="36" t="s">
         <v>445</v>
       </c>
       <c r="F211" s="36"/>
-      <c r="G211" s="86" t="s">
+      <c r="G211" s="94" t="s">
         <v>447</v>
       </c>
       <c r="K211" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="30">
+    <row r="212" spans="1:11" ht="15.6">
       <c r="A212" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D212" s="38" t="s">
-        <v>451</v>
+      <c r="D212" s="93" t="s">
+        <v>841</v>
       </c>
       <c r="E212" s="36" t="s">
         <v>280</v>
       </c>
       <c r="F212" s="36"/>
-      <c r="G212" s="86" t="s">
+      <c r="G212" s="94" t="s">
         <v>448</v>
       </c>
       <c r="K212" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="30">
+    <row r="213" spans="1:11" ht="15.6">
       <c r="A213" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D213" s="38" t="s">
-        <v>452</v>
+      <c r="D213" s="93" t="s">
+        <v>842</v>
       </c>
       <c r="E213" s="36" t="s">
         <v>446</v>
       </c>
       <c r="F213" s="36"/>
-      <c r="G213" s="86" t="s">
+      <c r="G213" s="94" t="s">
         <v>449</v>
       </c>
       <c r="K213" s="44">
@@ -9442,15 +9497,15 @@
         <v>450</v>
       </c>
       <c r="D214" s="36" t="s">
-        <v>453</v>
+        <v>846</v>
       </c>
       <c r="E214" s="36" t="s">
-        <v>454</v>
+        <v>846</v>
       </c>
       <c r="F214" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="G214" s="86" t="s">
+      <c r="G214" s="94" t="s">
         <v>462</v>
       </c>
       <c r="K214" s="44">
@@ -9462,7 +9517,7 @@
         <v>450</v>
       </c>
       <c r="D215" s="36" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E215" s="36" t="s">
         <v>457</v>
@@ -9470,46 +9525,51 @@
       <c r="F215" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="G215" s="86" t="s">
+      <c r="G215" s="94" t="s">
         <v>463</v>
       </c>
       <c r="K215" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="15.6">
+    <row r="216" spans="1:11" ht="30">
       <c r="A216" s="8" t="s">
         <v>450</v>
       </c>
       <c r="D216" s="36" t="s">
-        <v>459</v>
+        <v>843</v>
       </c>
       <c r="E216" s="36" t="s">
         <v>460</v>
       </c>
       <c r="F216" s="36"/>
-      <c r="G216" s="86" t="s">
+      <c r="G216" s="94" t="s">
         <v>464</v>
       </c>
       <c r="K216" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="30">
-      <c r="A217" s="8" t="s">
+    <row r="217" spans="1:11" ht="45">
+      <c r="A217" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="D217" s="36" t="s">
-        <v>461</v>
-      </c>
-      <c r="E217" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="F217" s="36"/>
-      <c r="G217" s="86" t="s">
+      <c r="B217" s="64"/>
+      <c r="C217" s="64"/>
+      <c r="D217" s="82" t="s">
+        <v>844</v>
+      </c>
+      <c r="E217" s="82" t="s">
+        <v>845</v>
+      </c>
+      <c r="F217" s="82"/>
+      <c r="G217" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="K217" s="44">
+      <c r="H217" s="64"/>
+      <c r="I217" s="64"/>
+      <c r="J217" s="64"/>
+      <c r="K217" s="64">
         <v>1</v>
       </c>
     </row>

--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="862">
   <si>
     <t>SearchText</t>
   </si>
@@ -2689,6 +2689,51 @@
   <si>
     <t>ট্রান্সমিশন লাইনের</t>
   </si>
+  <si>
+    <t>ইমারশন হীটার (Immersion heater)</t>
+  </si>
+  <si>
+    <t>ইমারশন হীটার</t>
+  </si>
+  <si>
+    <t>টেবিল হীটার</t>
+  </si>
+  <si>
+    <t>রুম হীটার (Room heater)</t>
+  </si>
+  <si>
+    <t>রুম হীটার</t>
+  </si>
+  <si>
+    <t>ওয়াটার হীটার (Water heater)</t>
+  </si>
+  <si>
+    <t>ওয়াটার হীটার</t>
+  </si>
+  <si>
+    <t>বৈদ্যুতিক কুকারের</t>
+  </si>
+  <si>
+    <t>একটি নন্ অটোমেটিক আয়রণ এর বিভিন্ন অংশগুলো হলো</t>
+  </si>
+  <si>
+    <t>অটোমেটিক আয়রণ এর বিভিন্ন অংশগুলো</t>
+  </si>
+  <si>
+    <t>সুইচ, কানেক্টর, প্লাগ</t>
+  </si>
+  <si>
+    <t>৯. এক্সটেনশন টিউব</t>
+  </si>
+  <si>
+    <t>এক্সটেনশন টিউব</t>
+  </si>
+  <si>
+    <t>বৈদ্যুতিক হেয়ার ড্রায়ার (Electric Hair Dryer)</t>
+  </si>
+  <si>
+    <t>redraw</t>
+  </si>
 </sst>
 </file>
 
@@ -2698,7 +2743,7 @@
     <numFmt numFmtId="164" formatCode="[$-5000445]0.#"/>
     <numFmt numFmtId="165" formatCode="[$-5000445]0.##"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2875,6 +2920,11 @@
       <color theme="1"/>
       <name val="NikoshBAN"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2939,7 +2989,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3219,6 +3269,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3492,7 +3545,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5562,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B210" workbookViewId="0">
-      <selection activeCell="F214" sqref="F214"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9551,110 +9604,112 @@
       </c>
     </row>
     <row r="217" spans="1:11" ht="45">
-      <c r="A217" s="64" t="s">
+      <c r="A217" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="B217" s="64"/>
-      <c r="C217" s="64"/>
-      <c r="D217" s="82" t="s">
+      <c r="B217" s="44"/>
+      <c r="C217" s="44"/>
+      <c r="D217" s="68" t="s">
         <v>844</v>
       </c>
-      <c r="E217" s="82" t="s">
+      <c r="E217" s="68" t="s">
         <v>845</v>
       </c>
-      <c r="F217" s="82"/>
+      <c r="F217" s="68"/>
       <c r="G217" s="94" t="s">
         <v>465</v>
       </c>
-      <c r="H217" s="64"/>
-      <c r="I217" s="64"/>
-      <c r="J217" s="64"/>
-      <c r="K217" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" ht="45">
+      <c r="H217" s="44"/>
+      <c r="I217" s="44"/>
+      <c r="J217" s="44"/>
+      <c r="K217" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" ht="30">
       <c r="A218" s="8" t="s">
         <v>469</v>
       </c>
       <c r="D218" s="36" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E218" s="36" t="s">
         <v>467</v>
       </c>
       <c r="F218" s="36"/>
-      <c r="G218" s="86" t="s">
+      <c r="G218" s="65" t="s">
         <v>468</v>
       </c>
       <c r="K218" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="30">
+    <row r="219" spans="1:11" ht="15.6">
       <c r="A219" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D219" s="36" t="s">
-        <v>470</v>
-      </c>
-      <c r="E219" s="36" t="s">
-        <v>471</v>
+      <c r="D219" s="93" t="s">
+        <v>847</v>
+      </c>
+      <c r="E219" s="93" t="s">
+        <v>848</v>
       </c>
       <c r="F219" s="36"/>
-      <c r="G219" s="86" t="s">
+      <c r="G219" s="94" t="s">
         <v>479</v>
       </c>
       <c r="K219" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="30">
+    <row r="220" spans="1:11" ht="15.6">
       <c r="A220" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D220" s="36" t="s">
-        <v>472</v>
-      </c>
-      <c r="E220" s="36" t="s">
-        <v>473</v>
+      <c r="D220" s="93" t="s">
+        <v>849</v>
+      </c>
+      <c r="E220" s="93" t="s">
+        <v>849</v>
       </c>
       <c r="F220" s="36"/>
-      <c r="G220" s="86" t="s">
+      <c r="G220" s="94" t="s">
         <v>480</v>
       </c>
       <c r="K220" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="60">
+    <row r="221" spans="1:11" ht="15.6">
       <c r="A221" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D221" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="E221" s="36"/>
+      <c r="D221" s="93" t="s">
+        <v>850</v>
+      </c>
+      <c r="E221" s="93" t="s">
+        <v>851</v>
+      </c>
       <c r="F221" s="36"/>
-      <c r="G221" s="86" t="s">
+      <c r="G221" s="94" t="s">
         <v>481</v>
       </c>
       <c r="K221" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="30">
+    <row r="222" spans="1:11" ht="15.6">
       <c r="A222" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D222" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="E222" s="36" t="s">
-        <v>476</v>
+      <c r="D222" s="93" t="s">
+        <v>852</v>
+      </c>
+      <c r="E222" s="93" t="s">
+        <v>853</v>
       </c>
       <c r="F222" s="36"/>
-      <c r="G222" s="86" t="s">
+      <c r="G222" s="94" t="s">
         <v>482</v>
       </c>
       <c r="K222" s="44">
@@ -9669,40 +9724,40 @@
         <v>477</v>
       </c>
       <c r="E223" s="36" t="s">
-        <v>478</v>
+        <v>854</v>
       </c>
       <c r="F223" s="36"/>
-      <c r="G223" s="86" t="s">
+      <c r="G223" s="94" t="s">
         <v>483</v>
       </c>
       <c r="K223" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="45">
+    <row r="224" spans="1:11" ht="15.6">
       <c r="A224" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="D224" s="36" t="s">
-        <v>485</v>
-      </c>
-      <c r="E224" s="36" t="s">
-        <v>486</v>
+      <c r="D224" s="93" t="s">
+        <v>855</v>
+      </c>
+      <c r="E224" s="93" t="s">
+        <v>856</v>
       </c>
       <c r="F224" s="39"/>
-      <c r="G224" s="86" t="s">
+      <c r="G224" s="65" t="s">
         <v>489</v>
       </c>
       <c r="K224" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="30">
+    <row r="225" spans="1:12" ht="30">
       <c r="A225" s="8" t="s">
         <v>488</v>
       </c>
       <c r="D225" s="36" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E225" s="36" t="s">
         <v>492</v>
@@ -9714,8 +9769,11 @@
       <c r="K225" s="44">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:11" ht="30">
+      <c r="L225" s="8" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" ht="30">
       <c r="A226" s="8" t="s">
         <v>488</v>
       </c>
@@ -9733,83 +9791,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="15.6">
+    <row r="227" spans="1:12" ht="15.6">
       <c r="A227" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="D227" s="36" t="s">
-        <v>494</v>
+      <c r="D227" s="93" t="s">
+        <v>857</v>
       </c>
       <c r="E227" s="36" t="s">
         <v>495</v>
       </c>
       <c r="F227" s="36"/>
-      <c r="G227" s="86" t="s">
+      <c r="G227" s="94" t="s">
         <v>497</v>
       </c>
       <c r="K227" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="30">
+    <row r="228" spans="1:12" ht="30">
       <c r="A228" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D228" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="E228" s="36" t="s">
-        <v>499</v>
+      <c r="D228" s="93" t="s">
+        <v>858</v>
+      </c>
+      <c r="E228" s="93" t="s">
+        <v>859</v>
       </c>
       <c r="F228" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="G228" s="86" t="s">
+      <c r="G228" s="95" t="s">
         <v>507</v>
       </c>
       <c r="K228" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="30">
+    <row r="229" spans="1:12" ht="30">
       <c r="A229" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D229" s="36" t="s">
-        <v>501</v>
+      <c r="D229" s="93" t="s">
+        <v>860</v>
       </c>
       <c r="E229" s="36" t="s">
         <v>502</v>
       </c>
       <c r="F229" s="36"/>
-      <c r="G229" s="86" t="s">
+      <c r="G229" s="94" t="s">
         <v>508</v>
       </c>
       <c r="K229" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="30">
-      <c r="A230" s="8" t="s">
+    <row r="230" spans="1:12" ht="15.6">
+      <c r="A230" s="63" t="s">
         <v>506</v>
       </c>
-      <c r="D230" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="E230" s="36" t="s">
+      <c r="B230" s="63"/>
+      <c r="C230" s="63"/>
+      <c r="D230" s="92" t="s">
         <v>504</v>
       </c>
-      <c r="F230" s="36" t="s">
+      <c r="E230" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="F230" s="92" t="s">
         <v>505</v>
       </c>
-      <c r="G230" s="86" t="s">
+      <c r="G230" s="67" t="s">
         <v>509</v>
       </c>
       <c r="K230" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="30">
+    <row r="231" spans="1:12" ht="30">
       <c r="A231" s="8" t="s">
         <v>517</v>
       </c>
@@ -9827,7 +9887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="30">
+    <row r="232" spans="1:12" ht="30">
       <c r="A232" s="8" t="s">
         <v>517</v>
       </c>
@@ -9847,7 +9907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="30">
+    <row r="233" spans="1:12" ht="30">
       <c r="A233" s="8" t="s">
         <v>517</v>
       </c>
@@ -9865,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="30">
+    <row r="234" spans="1:12" ht="30">
       <c r="A234" s="8" t="s">
         <v>531</v>
       </c>
@@ -9883,7 +9943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="45">
+    <row r="235" spans="1:12" ht="45">
       <c r="A235" s="8" t="s">
         <v>531</v>
       </c>
@@ -9903,7 +9963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="45">
+    <row r="236" spans="1:12" ht="45">
       <c r="A236" s="8" t="s">
         <v>531</v>
       </c>
@@ -9921,7 +9981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="45">
+    <row r="237" spans="1:12" ht="45">
       <c r="A237" s="8" t="s">
         <v>531</v>
       </c>
@@ -9941,7 +10001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="30">
+    <row r="238" spans="1:12" ht="30">
       <c r="A238" s="8" t="s">
         <v>531</v>
       </c>
@@ -9961,7 +10021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="30">
+    <row r="239" spans="1:12" ht="30">
       <c r="A239" s="8" t="s">
         <v>539</v>
       </c>
@@ -9979,7 +10039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="30">
+    <row r="240" spans="1:12" ht="30">
       <c r="A240" s="8" t="s">
         <v>563</v>
       </c>

--- a/GEW2_Script.xlsx
+++ b/GEW2_Script.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="898">
   <si>
     <t>SearchText</t>
   </si>
@@ -2733,6 +2733,114 @@
   </si>
   <si>
     <t>redraw</t>
+  </si>
+  <si>
+    <t>কম্প্রেসর দিয়ে পরিচালিত হয়</t>
+  </si>
+  <si>
+    <t>স্টিরার মোটর, ম্যাগনেট্রিন টিউব</t>
+  </si>
+  <si>
+    <t>ম্যাগনেট্রিন টিউব</t>
+  </si>
+  <si>
+    <t>ম্যাগনেট্রিন টিউব, রিলে</t>
+  </si>
+  <si>
+    <t>টেস্ট ল্যাম্পের</t>
+  </si>
+  <si>
+    <t>একটি রেক্টিফায়ার এবং থাইরেষ্টর নিয়ন্ত্রিত</t>
+  </si>
+  <si>
+    <t>রেক্টিফায়ার</t>
+  </si>
+  <si>
+    <t>রেক্টিফায়ার এমন এক ধরনের ডিভাইস যা এসি বৈদ্যুতিক শক্তিকে   ডিসি বৈদ্যুতিক শক্তিতে রুপান্তর করে।</t>
+  </si>
+  <si>
+    <t>থাইরেষ্টর</t>
+  </si>
+  <si>
+    <t>থাইরেষ্টর একটি সেমিকন্ডাক্টর ডিভাইস চার স্তর বিশিষ্ট পরিবর্তনশীল পি ও এন টাইপ পদার্থ দ্বারা গঠিত ইহা মূলত দ্বিমূখী সুইচ হিসেবে ব্যবহৃত হয়।</t>
+  </si>
+  <si>
+    <t>লিড এসিড ব্যাটারী পরীক্ষা করার দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>লিড এসিড ব্যাটারী ক. তৈরী করা, খ. চার্জ করা, গ. পরীক্ষা করা</t>
+  </si>
+  <si>
+    <t>কতকগুলো ব্যাটারী সিরিজ, প্যারালাল ও মিশ্র সংযোগকরণ</t>
+  </si>
+  <si>
+    <t>সাব-স্টেশন পরিদর্শণ ও প্রতিবেদন তৈরী</t>
+  </si>
+  <si>
+    <t>রিলে ও লাইটনিং অ্যারেষ্টর সংযোগকরণ</t>
+  </si>
+  <si>
+    <t>বৈদ্যুতিক কেটলি ও টোস্টার এর দোষ-ত্রুটি নির্ণয় এবং সেগুলো মেরামতকরণ</t>
+  </si>
+  <si>
+    <t>মাইক্রোওয়েভ ওভেন বিদ্যুৎ সাপ্লাই এর সাথে সংযোগ ও পরিচালনা করার দক্ষতা অর্জন</t>
+  </si>
+  <si>
+    <t>প্রজেক্ট তৈরীর দক্ষতা অর্জন করবে</t>
+  </si>
+  <si>
+    <t>image13028.jpg</t>
+  </si>
+  <si>
+    <t>image13029.jpg</t>
+  </si>
+  <si>
+    <t>image13030.jpg</t>
+  </si>
+  <si>
+    <t>image13031.jpg</t>
+  </si>
+  <si>
+    <t>image13032.jpg</t>
+  </si>
+  <si>
+    <t>image13033.jpg</t>
+  </si>
+  <si>
+    <t>image13034.jpg</t>
+  </si>
+  <si>
+    <t>image13035.jpg</t>
+  </si>
+  <si>
+    <t>image13036.jpg</t>
+  </si>
+  <si>
+    <t>image13037.jpg</t>
+  </si>
+  <si>
+    <t>image13038.jpg</t>
+  </si>
+  <si>
+    <t>image13039.jpg</t>
+  </si>
+  <si>
+    <t>image13040.jpg</t>
+  </si>
+  <si>
+    <t>image13041.jpg</t>
+  </si>
+  <si>
+    <t>image13042.jpg</t>
+  </si>
+  <si>
+    <t>image13043.jpg</t>
+  </si>
+  <si>
+    <t>বৈদ্যুতিক হীটার ও কুকার এর দোষত্রম্নটি নির্ণয় এবং সেগুলো মেরামতকরণ</t>
+  </si>
+  <si>
+    <t>বৈদ্যুতিক ইস্ত্রির দোষত্রুটি নির্ণয় এবং সেগুলো মেরামতকরণ</t>
   </si>
 </sst>
 </file>
@@ -2989,7 +3097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3259,9 +3367,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3270,6 +3375,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3545,7 +3656,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5615,8 +5726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A261" sqref="A1:K261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9161,25 +9272,25 @@
       </c>
     </row>
     <row r="193" spans="1:11" ht="28.8">
-      <c r="A193" s="63" t="s">
+      <c r="A193" s="44" t="s">
         <v>390</v>
       </c>
-      <c r="B193" s="63"/>
-      <c r="C193" s="63"/>
-      <c r="D193" s="91" t="s">
+      <c r="B193" s="44"/>
+      <c r="C193" s="44"/>
+      <c r="D193" s="79" t="s">
         <v>826</v>
       </c>
-      <c r="E193" s="91" t="s">
+      <c r="E193" s="79" t="s">
         <v>827</v>
       </c>
-      <c r="F193" s="92"/>
-      <c r="G193" s="67" t="s">
+      <c r="F193" s="68"/>
+      <c r="G193" s="93" t="s">
         <v>391</v>
       </c>
-      <c r="H193" s="63"/>
-      <c r="I193" s="63"/>
-      <c r="J193" s="63"/>
-      <c r="K193" s="63">
+      <c r="H193" s="44"/>
+      <c r="I193" s="44"/>
+      <c r="J193" s="44"/>
+      <c r="K193" s="44">
         <v>1</v>
       </c>
     </row>
@@ -9194,7 +9305,7 @@
         <v>830</v>
       </c>
       <c r="F194" s="36"/>
-      <c r="G194" s="94" t="s">
+      <c r="G194" s="93" t="s">
         <v>395</v>
       </c>
       <c r="K194" s="44">
@@ -9214,7 +9325,7 @@
       <c r="F195" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="G195" s="94" t="s">
+      <c r="G195" s="93" t="s">
         <v>402</v>
       </c>
       <c r="K195" s="44">
@@ -9232,7 +9343,7 @@
         <v>400</v>
       </c>
       <c r="F196" s="36"/>
-      <c r="G196" s="94" t="s">
+      <c r="G196" s="93" t="s">
         <v>403</v>
       </c>
       <c r="K196" s="44">
@@ -9250,7 +9361,7 @@
         <v>405</v>
       </c>
       <c r="F197" s="36"/>
-      <c r="G197" s="94" t="s">
+      <c r="G197" s="93" t="s">
         <v>426</v>
       </c>
       <c r="K197" s="44">
@@ -9261,14 +9372,14 @@
       <c r="A198" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D198" s="93" t="s">
+      <c r="D198" s="92" t="s">
         <v>832</v>
       </c>
       <c r="E198" s="36" t="s">
         <v>407</v>
       </c>
       <c r="F198" s="36"/>
-      <c r="G198" s="94" t="s">
+      <c r="G198" s="93" t="s">
         <v>427</v>
       </c>
       <c r="K198" s="44">
@@ -9286,7 +9397,7 @@
         <v>408</v>
       </c>
       <c r="F199" s="36"/>
-      <c r="G199" s="94" t="s">
+      <c r="G199" s="93" t="s">
         <v>428</v>
       </c>
       <c r="K199" s="44">
@@ -9304,7 +9415,7 @@
         <v>410</v>
       </c>
       <c r="F200" s="36"/>
-      <c r="G200" s="94" t="s">
+      <c r="G200" s="93" t="s">
         <v>429</v>
       </c>
       <c r="K200" s="44">
@@ -9315,14 +9426,14 @@
       <c r="A201" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D201" s="93" t="s">
+      <c r="D201" s="92" t="s">
         <v>833</v>
       </c>
       <c r="E201" s="36" t="s">
         <v>411</v>
       </c>
       <c r="F201" s="36"/>
-      <c r="G201" s="94" t="s">
+      <c r="G201" s="93" t="s">
         <v>430</v>
       </c>
       <c r="K201" s="44">
@@ -9333,14 +9444,14 @@
       <c r="A202" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D202" s="93" t="s">
+      <c r="D202" s="92" t="s">
         <v>834</v>
       </c>
       <c r="E202" s="36" t="s">
         <v>413</v>
       </c>
       <c r="F202" s="36"/>
-      <c r="G202" s="94" t="s">
+      <c r="G202" s="93" t="s">
         <v>431</v>
       </c>
       <c r="K202" s="44">
@@ -9358,7 +9469,7 @@
         <v>415</v>
       </c>
       <c r="F203" s="36"/>
-      <c r="G203" s="94" t="s">
+      <c r="G203" s="93" t="s">
         <v>432</v>
       </c>
       <c r="K203" s="44">
@@ -9369,14 +9480,14 @@
       <c r="A204" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D204" s="93" t="s">
+      <c r="D204" s="92" t="s">
         <v>835</v>
       </c>
       <c r="E204" s="36" t="s">
         <v>417</v>
       </c>
       <c r="F204" s="36"/>
-      <c r="G204" s="94" t="s">
+      <c r="G204" s="93" t="s">
         <v>433</v>
       </c>
       <c r="K204" s="44">
@@ -9387,14 +9498,14 @@
       <c r="A205" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D205" s="93" t="s">
+      <c r="D205" s="92" t="s">
         <v>836</v>
       </c>
       <c r="E205" s="36" t="s">
         <v>418</v>
       </c>
       <c r="F205" s="36"/>
-      <c r="G205" s="94" t="s">
+      <c r="G205" s="93" t="s">
         <v>434</v>
       </c>
       <c r="K205" s="44">
@@ -9405,14 +9516,14 @@
       <c r="A206" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D206" s="93" t="s">
+      <c r="D206" s="92" t="s">
         <v>837</v>
       </c>
       <c r="E206" s="36" t="s">
         <v>420</v>
       </c>
       <c r="F206" s="36"/>
-      <c r="G206" s="94" t="s">
+      <c r="G206" s="93" t="s">
         <v>435</v>
       </c>
       <c r="K206" s="44">
@@ -9423,7 +9534,7 @@
       <c r="A207" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D207" s="93" t="s">
+      <c r="D207" s="92" t="s">
         <v>838</v>
       </c>
       <c r="E207" s="36" t="s">
@@ -9441,14 +9552,14 @@
       <c r="A208" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D208" s="93" t="s">
+      <c r="D208" s="92" t="s">
         <v>839</v>
       </c>
       <c r="E208" s="36" t="s">
         <v>424</v>
       </c>
       <c r="F208" s="36"/>
-      <c r="G208" s="94" t="s">
+      <c r="G208" s="93" t="s">
         <v>437</v>
       </c>
       <c r="K208" s="44">
@@ -9468,7 +9579,7 @@
       <c r="F209" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G209" s="94"/>
+      <c r="G209" s="93"/>
       <c r="K209" s="44">
         <v>1</v>
       </c>
@@ -9486,7 +9597,7 @@
       <c r="F210" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="G210" s="94"/>
+      <c r="G210" s="93"/>
       <c r="K210" s="44">
         <v>1</v>
       </c>
@@ -9495,14 +9606,14 @@
       <c r="A211" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D211" s="93" t="s">
+      <c r="D211" s="92" t="s">
         <v>840</v>
       </c>
       <c r="E211" s="36" t="s">
         <v>445</v>
       </c>
       <c r="F211" s="36"/>
-      <c r="G211" s="94" t="s">
+      <c r="G211" s="93" t="s">
         <v>447</v>
       </c>
       <c r="K211" s="44">
@@ -9513,14 +9624,14 @@
       <c r="A212" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D212" s="93" t="s">
+      <c r="D212" s="92" t="s">
         <v>841</v>
       </c>
       <c r="E212" s="36" t="s">
         <v>280</v>
       </c>
       <c r="F212" s="36"/>
-      <c r="G212" s="94" t="s">
+      <c r="G212" s="93" t="s">
         <v>448</v>
       </c>
       <c r="K212" s="44">
@@ -9531,14 +9642,14 @@
       <c r="A213" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="D213" s="93" t="s">
+      <c r="D213" s="92" t="s">
         <v>842</v>
       </c>
       <c r="E213" s="36" t="s">
         <v>446</v>
       </c>
       <c r="F213" s="36"/>
-      <c r="G213" s="94" t="s">
+      <c r="G213" s="93" t="s">
         <v>449</v>
       </c>
       <c r="K213" s="44">
@@ -9558,7 +9669,7 @@
       <c r="F214" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="G214" s="94" t="s">
+      <c r="G214" s="93" t="s">
         <v>462</v>
       </c>
       <c r="K214" s="44">
@@ -9578,7 +9689,7 @@
       <c r="F215" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="G215" s="94" t="s">
+      <c r="G215" s="93" t="s">
         <v>463</v>
       </c>
       <c r="K215" s="44">
@@ -9596,7 +9707,7 @@
         <v>460</v>
       </c>
       <c r="F216" s="36"/>
-      <c r="G216" s="94" t="s">
+      <c r="G216" s="93" t="s">
         <v>464</v>
       </c>
       <c r="K216" s="44">
@@ -9616,7 +9727,7 @@
         <v>845</v>
       </c>
       <c r="F217" s="68"/>
-      <c r="G217" s="94" t="s">
+      <c r="G217" s="93" t="s">
         <v>465</v>
       </c>
       <c r="H217" s="44"/>
@@ -9648,14 +9759,14 @@
       <c r="A219" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D219" s="93" t="s">
+      <c r="D219" s="92" t="s">
         <v>847</v>
       </c>
-      <c r="E219" s="93" t="s">
+      <c r="E219" s="92" t="s">
         <v>848</v>
       </c>
       <c r="F219" s="36"/>
-      <c r="G219" s="94" t="s">
+      <c r="G219" s="93" t="s">
         <v>479</v>
       </c>
       <c r="K219" s="44">
@@ -9666,14 +9777,14 @@
       <c r="A220" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D220" s="93" t="s">
+      <c r="D220" s="92" t="s">
         <v>849</v>
       </c>
-      <c r="E220" s="93" t="s">
+      <c r="E220" s="92" t="s">
         <v>849</v>
       </c>
       <c r="F220" s="36"/>
-      <c r="G220" s="94" t="s">
+      <c r="G220" s="93" t="s">
         <v>480</v>
       </c>
       <c r="K220" s="44">
@@ -9684,14 +9795,14 @@
       <c r="A221" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D221" s="93" t="s">
+      <c r="D221" s="92" t="s">
         <v>850</v>
       </c>
-      <c r="E221" s="93" t="s">
+      <c r="E221" s="92" t="s">
         <v>851</v>
       </c>
       <c r="F221" s="36"/>
-      <c r="G221" s="94" t="s">
+      <c r="G221" s="93" t="s">
         <v>481</v>
       </c>
       <c r="K221" s="44">
@@ -9702,14 +9813,14 @@
       <c r="A222" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="D222" s="93" t="s">
+      <c r="D222" s="92" t="s">
         <v>852</v>
       </c>
-      <c r="E222" s="93" t="s">
+      <c r="E222" s="92" t="s">
         <v>853</v>
       </c>
       <c r="F222" s="36"/>
-      <c r="G222" s="94" t="s">
+      <c r="G222" s="93" t="s">
         <v>482</v>
       </c>
       <c r="K222" s="44">
@@ -9727,7 +9838,7 @@
         <v>854</v>
       </c>
       <c r="F223" s="36"/>
-      <c r="G223" s="94" t="s">
+      <c r="G223" s="93" t="s">
         <v>483</v>
       </c>
       <c r="K223" s="44">
@@ -9738,10 +9849,10 @@
       <c r="A224" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="D224" s="93" t="s">
+      <c r="D224" s="92" t="s">
         <v>855</v>
       </c>
-      <c r="E224" s="93" t="s">
+      <c r="E224" s="92" t="s">
         <v>856</v>
       </c>
       <c r="F224" s="39"/>
@@ -9763,7 +9874,7 @@
         <v>492</v>
       </c>
       <c r="F225" s="36"/>
-      <c r="G225" s="86" t="s">
+      <c r="G225" s="93" t="s">
         <v>490</v>
       </c>
       <c r="K225" s="44">
@@ -9784,7 +9895,7 @@
         <v>493</v>
       </c>
       <c r="F226" s="36"/>
-      <c r="G226" s="86" t="s">
+      <c r="G226" s="93" t="s">
         <v>496</v>
       </c>
       <c r="K226" s="44">
@@ -9795,14 +9906,14 @@
       <c r="A227" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="D227" s="93" t="s">
+      <c r="D227" s="92" t="s">
         <v>857</v>
       </c>
       <c r="E227" s="36" t="s">
         <v>495</v>
       </c>
       <c r="F227" s="36"/>
-      <c r="G227" s="94" t="s">
+      <c r="G227" s="93" t="s">
         <v>497</v>
       </c>
       <c r="K227" s="44">
@@ -9813,16 +9924,16 @@
       <c r="A228" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D228" s="93" t="s">
+      <c r="D228" s="92" t="s">
         <v>858</v>
       </c>
-      <c r="E228" s="93" t="s">
+      <c r="E228" s="92" t="s">
         <v>859</v>
       </c>
       <c r="F228" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="G228" s="95" t="s">
+      <c r="G228" s="94" t="s">
         <v>507</v>
       </c>
       <c r="K228" s="44">
@@ -9833,14 +9944,14 @@
       <c r="A229" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="D229" s="93" t="s">
+      <c r="D229" s="92" t="s">
         <v>860</v>
       </c>
       <c r="E229" s="36" t="s">
         <v>502</v>
       </c>
       <c r="F229" s="36"/>
-      <c r="G229" s="94" t="s">
+      <c r="G229" s="93" t="s">
         <v>508</v>
       </c>
       <c r="K229" s="44">
@@ -9853,13 +9964,13 @@
       </c>
       <c r="B230" s="63"/>
       <c r="C230" s="63"/>
-      <c r="D230" s="92" t="s">
+      <c r="D230" s="91" t="s">
         <v>504</v>
       </c>
-      <c r="E230" s="92" t="s">
+      <c r="E230" s="91" t="s">
         <v>504</v>
       </c>
-      <c r="F230" s="92" t="s">
+      <c r="F230" s="91" t="s">
         <v>505</v>
       </c>
       <c r="G230" s="67" t="s">
@@ -9880,7 +9991,7 @@
         <v>511</v>
       </c>
       <c r="F231" s="36"/>
-      <c r="G231" s="86" t="s">
+      <c r="G231" s="93" t="s">
         <v>518</v>
       </c>
       <c r="K231" s="44">
@@ -9891,8 +10002,8 @@
       <c r="A232" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="D232" s="36" t="s">
-        <v>512</v>
+      <c r="D232" s="92" t="s">
+        <v>862</v>
       </c>
       <c r="E232" s="36" t="s">
         <v>513</v>
@@ -9900,7 +10011,7 @@
       <c r="F232" s="36" t="s">
         <v>514</v>
       </c>
-      <c r="G232" s="86" t="s">
+      <c r="G232" s="93" t="s">
         <v>519</v>
       </c>
       <c r="K232" s="44">
@@ -9908,7 +10019,7 @@
       </c>
     </row>
     <row r="233" spans="1:12" ht="30">
-      <c r="A233" s="8" t="s">
+      <c r="A233" s="44" t="s">
         <v>517</v>
       </c>
       <c r="D233" s="36" t="s">
@@ -9918,7 +10029,7 @@
         <v>516</v>
       </c>
       <c r="F233" s="36"/>
-      <c r="G233" s="86" t="s">
+      <c r="G233" s="93" t="s">
         <v>520</v>
       </c>
       <c r="K233" s="44">
@@ -9936,7 +10047,7 @@
         <v>522</v>
       </c>
       <c r="F234" s="36"/>
-      <c r="G234" s="86" t="s">
+      <c r="G234" s="93" t="s">
         <v>532</v>
       </c>
       <c r="K234" s="44">
@@ -9947,8 +10058,8 @@
       <c r="A235" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="D235" s="36" t="s">
-        <v>523</v>
+      <c r="D235" s="92" t="s">
+        <v>863</v>
       </c>
       <c r="E235" s="36" t="s">
         <v>524</v>
@@ -9956,25 +10067,25 @@
       <c r="F235" s="36" t="s">
         <v>525</v>
       </c>
-      <c r="G235" s="86" t="s">
+      <c r="G235" s="93" t="s">
         <v>533</v>
       </c>
       <c r="K235" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="45">
+    <row r="236" spans="1:12" ht="15.6">
       <c r="A236" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="D236" s="36" t="s">
-        <v>523</v>
-      </c>
-      <c r="E236" s="36" t="s">
-        <v>526</v>
+      <c r="D236" s="92" t="s">
+        <v>863</v>
+      </c>
+      <c r="E236" s="92" t="s">
+        <v>864</v>
       </c>
       <c r="F236" s="36"/>
-      <c r="G236" s="86" t="s">
+      <c r="G236" s="93" t="s">
         <v>534</v>
       </c>
       <c r="K236" s="44">
@@ -9985,8 +10096,8 @@
       <c r="A237" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="D237" s="36" t="s">
-        <v>523</v>
+      <c r="D237" s="92" t="s">
+        <v>865</v>
       </c>
       <c r="E237" s="36" t="s">
         <v>460</v>
@@ -9994,7 +10105,7 @@
       <c r="F237" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="G237" s="86" t="s">
+      <c r="G237" s="93" t="s">
         <v>535</v>
       </c>
       <c r="K237" s="44">
@@ -10002,7 +10113,7 @@
       </c>
     </row>
     <row r="238" spans="1:12" ht="30">
-      <c r="A238" s="8" t="s">
+      <c r="A238" s="44" t="s">
         <v>531</v>
       </c>
       <c r="D238" s="36" t="s">
@@ -10014,7 +10125,7 @@
       <c r="F238" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="G238" s="86" t="s">
+      <c r="G238" s="93" t="s">
         <v>536</v>
       </c>
       <c r="K238" s="44">
@@ -10028,11 +10139,11 @@
       <c r="D239" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="E239" s="36" t="s">
-        <v>538</v>
+      <c r="E239" s="92" t="s">
+        <v>866</v>
       </c>
       <c r="F239" s="36"/>
-      <c r="G239" s="86" t="s">
+      <c r="G239" s="93" t="s">
         <v>540</v>
       </c>
       <c r="K239" s="44">
@@ -10050,7 +10161,7 @@
         <v>542</v>
       </c>
       <c r="F240" s="36"/>
-      <c r="G240" s="86" t="s">
+      <c r="G240" s="93" t="s">
         <v>556</v>
       </c>
       <c r="K240" s="44">
@@ -10070,7 +10181,7 @@
       <c r="F241" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="G241" s="86" t="s">
+      <c r="G241" s="93" t="s">
         <v>557</v>
       </c>
       <c r="K241" s="44">
@@ -10090,7 +10201,7 @@
       <c r="F242" s="36" t="s">
         <v>547</v>
       </c>
-      <c r="G242" s="86" t="s">
+      <c r="G242" s="93" t="s">
         <v>558</v>
       </c>
       <c r="K242" s="44">
@@ -10101,16 +10212,16 @@
       <c r="A243" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="D243" s="36" t="s">
-        <v>548</v>
-      </c>
-      <c r="E243" s="36" t="s">
-        <v>549</v>
+      <c r="D243" s="92" t="s">
+        <v>867</v>
+      </c>
+      <c r="E243" s="92" t="s">
+        <v>868</v>
       </c>
       <c r="F243" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="G243" s="86" t="s">
+        <v>869</v>
+      </c>
+      <c r="G243" s="93" t="s">
         <v>559</v>
       </c>
       <c r="K243" s="44">
@@ -10121,16 +10232,16 @@
       <c r="A244" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="D244" s="36" t="s">
-        <v>548</v>
-      </c>
-      <c r="E244" s="36" t="s">
-        <v>551</v>
+      <c r="D244" s="92" t="s">
+        <v>867</v>
+      </c>
+      <c r="E244" s="92" t="s">
+        <v>870</v>
       </c>
       <c r="F244" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="G244" s="86" t="s">
+        <v>871</v>
+      </c>
+      <c r="G244" s="93" t="s">
         <v>560</v>
       </c>
       <c r="K244" s="44">
@@ -10138,7 +10249,7 @@
       </c>
     </row>
     <row r="245" spans="1:11" ht="45">
-      <c r="A245" s="8" t="s">
+      <c r="A245" s="64" t="s">
         <v>563</v>
       </c>
       <c r="D245" s="80" t="s">
@@ -10150,7 +10261,7 @@
       <c r="F245" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="G245" s="86" t="s">
+      <c r="G245" s="93" t="s">
         <v>561</v>
       </c>
       <c r="K245" s="44">
@@ -10159,59 +10270,56 @@
     </row>
     <row r="246" spans="1:11" ht="45">
       <c r="A246" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="D246" s="80" t="s">
-        <v>553</v>
-      </c>
-      <c r="E246" s="36" t="s">
-        <v>554</v>
-      </c>
-      <c r="F246" s="36" t="s">
-        <v>555</v>
-      </c>
-      <c r="G246" s="86" t="s">
-        <v>562</v>
-      </c>
+        <v>615</v>
+      </c>
+      <c r="D246" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="E246" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="F246" s="36"/>
+      <c r="G246" s="40" t="s">
+        <v>880</v>
+      </c>
+      <c r="I246" s="33"/>
       <c r="K246" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="45">
+    <row r="247" spans="1:11" ht="75">
       <c r="A247" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="D247" s="37" t="s">
-        <v>564</v>
-      </c>
-      <c r="E247" s="37" t="s">
-        <v>565</v>
+        <v>616</v>
+      </c>
+      <c r="D247" s="68" t="s">
+        <v>568</v>
+      </c>
+      <c r="E247" s="36" t="s">
+        <v>568</v>
       </c>
       <c r="F247" s="36"/>
       <c r="G247" s="40" t="s">
-        <v>566</v>
-      </c>
-      <c r="H247" s="33"/>
-      <c r="I247" s="34"/>
+        <v>881</v>
+      </c>
+      <c r="I247" s="42"/>
       <c r="K247" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="90">
+    <row r="248" spans="1:11" ht="45">
       <c r="A248" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="D248" s="36" t="s">
-        <v>567</v>
-      </c>
-      <c r="E248" s="36" t="s">
-        <v>568</v>
+        <v>617</v>
+      </c>
+      <c r="D248" s="68" t="s">
+        <v>872</v>
+      </c>
+      <c r="E248" s="68" t="s">
+        <v>872</v>
       </c>
       <c r="F248" s="36"/>
       <c r="G248" s="40" t="s">
-        <v>569</v>
-      </c>
-      <c r="H248" s="41"/>
+        <v>882</v>
+      </c>
       <c r="I248" s="42"/>
       <c r="K248" s="44">
         <v>1</v>
@@ -10219,103 +10327,100 @@
     </row>
     <row r="249" spans="1:11" ht="60">
       <c r="A249" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="D249" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="E249" s="36" t="s">
-        <v>571</v>
+        <v>618</v>
+      </c>
+      <c r="D249" s="68" t="s">
+        <v>873</v>
+      </c>
+      <c r="E249" s="68" t="s">
+        <v>873</v>
       </c>
       <c r="F249" s="36"/>
       <c r="G249" s="40" t="s">
-        <v>572</v>
-      </c>
-      <c r="H249" s="41"/>
-      <c r="I249" s="42"/>
+        <v>883</v>
+      </c>
+      <c r="I249" s="34" t="s">
+        <v>576</v>
+      </c>
       <c r="K249" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="60">
+    <row r="250" spans="1:11" ht="45">
       <c r="A250" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D250" s="36" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="E250" s="36" t="s">
-        <v>574</v>
-      </c>
-      <c r="F250" s="36"/>
+        <v>578</v>
+      </c>
+      <c r="F250" s="36" t="s">
+        <v>317</v>
+      </c>
       <c r="G250" s="40" t="s">
-        <v>575</v>
-      </c>
-      <c r="H250" s="41"/>
-      <c r="I250" s="34" t="s">
-        <v>576</v>
-      </c>
+        <v>884</v>
+      </c>
+      <c r="I250" s="34"/>
       <c r="K250" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="60">
+    <row r="251" spans="1:11" ht="45">
       <c r="A251" s="8" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D251" s="36" t="s">
-        <v>577</v>
+        <v>874</v>
       </c>
       <c r="E251" s="36" t="s">
-        <v>578</v>
-      </c>
-      <c r="F251" s="36" t="s">
-        <v>317</v>
-      </c>
+        <v>874</v>
+      </c>
+      <c r="F251" s="36"/>
       <c r="G251" s="40" t="s">
-        <v>579</v>
-      </c>
-      <c r="H251" s="33"/>
+        <v>885</v>
+      </c>
       <c r="I251" s="34"/>
       <c r="K251" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="60">
+    <row r="252" spans="1:11" ht="30">
       <c r="A252" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D252" s="36" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E252" s="36" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F252" s="36"/>
       <c r="G252" s="40" t="s">
-        <v>582</v>
-      </c>
-      <c r="H252" s="33"/>
+        <v>886</v>
+      </c>
       <c r="I252" s="34"/>
       <c r="K252" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="30">
+    <row r="253" spans="1:11" ht="45">
       <c r="A253" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D253" s="36" t="s">
-        <v>583</v>
+        <v>875</v>
       </c>
       <c r="E253" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="F253" s="36"/>
+        <v>875</v>
+      </c>
+      <c r="F253" s="36" t="s">
+        <v>317</v>
+      </c>
       <c r="G253" s="40" t="s">
-        <v>585</v>
-      </c>
-      <c r="H253" s="33"/>
+        <v>887</v>
+      </c>
       <c r="I253" s="34"/>
       <c r="K253" s="44">
         <v>1</v>
@@ -10323,123 +10428,117 @@
     </row>
     <row r="254" spans="1:11" ht="45">
       <c r="A254" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="D254" s="37" t="s">
-        <v>586</v>
-      </c>
-      <c r="E254" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="F254" s="36" t="s">
-        <v>317</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="D254" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="E254" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="F254" s="36"/>
       <c r="G254" s="40" t="s">
-        <v>588</v>
-      </c>
-      <c r="H254" s="33"/>
+        <v>888</v>
+      </c>
       <c r="I254" s="34"/>
       <c r="K254" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="45">
+    <row r="255" spans="1:11" ht="75">
       <c r="A255" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="D255" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="E255" s="37" t="s">
-        <v>590</v>
+        <v>624</v>
+      </c>
+      <c r="D255" s="36" t="s">
+        <v>896</v>
+      </c>
+      <c r="E255" s="36" t="s">
+        <v>896</v>
       </c>
       <c r="F255" s="36"/>
-      <c r="G255" s="40" t="s">
-        <v>591</v>
-      </c>
-      <c r="H255" s="33"/>
+      <c r="G255" s="96" t="s">
+        <v>889</v>
+      </c>
       <c r="I255" s="34"/>
       <c r="K255" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="75">
+    <row r="256" spans="1:11" ht="60">
       <c r="A256" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D256" s="37" t="s">
-        <v>592</v>
+        <v>897</v>
       </c>
       <c r="E256" s="37" t="s">
-        <v>593</v>
+        <v>897</v>
       </c>
       <c r="F256" s="36"/>
-      <c r="G256" s="40" t="s">
-        <v>594</v>
-      </c>
-      <c r="H256" s="33"/>
+      <c r="G256" s="95" t="s">
+        <v>890</v>
+      </c>
       <c r="I256" s="34"/>
       <c r="K256" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="75">
+    <row r="257" spans="1:11" ht="60">
       <c r="A257" s="8" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D257" s="37" t="s">
-        <v>595</v>
+        <v>877</v>
       </c>
       <c r="E257" s="37" t="s">
-        <v>596</v>
+        <v>877</v>
       </c>
       <c r="F257" s="36"/>
-      <c r="G257" s="40" t="s">
-        <v>597</v>
-      </c>
-      <c r="H257" s="33"/>
+      <c r="G257" s="96" t="s">
+        <v>891</v>
+      </c>
       <c r="I257" s="34"/>
       <c r="K257" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="90">
+    <row r="258" spans="1:11" ht="45">
       <c r="A258" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D258" s="37" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E258" s="37" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="F258" s="36"/>
-      <c r="G258" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="H258" s="33"/>
-      <c r="I258" s="34"/>
+      <c r="G258" s="95" t="s">
+        <v>892</v>
+      </c>
+      <c r="I258" s="34" t="s">
+        <v>604</v>
+      </c>
       <c r="K258" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="60">
+    <row r="259" spans="1:11" ht="75">
       <c r="A259" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D259" s="37" t="s">
-        <v>601</v>
+        <v>878</v>
       </c>
       <c r="E259" s="37" t="s">
-        <v>602</v>
+        <v>878</v>
       </c>
       <c r="F259" s="36"/>
-      <c r="G259" s="40" t="s">
-        <v>603</v>
-      </c>
-      <c r="H259" s="33"/>
+      <c r="G259" s="96" t="s">
+        <v>893</v>
+      </c>
       <c r="I259" s="34" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="K259" s="44">
         <v>1</v>
@@ -10447,61 +10546,47 @@
     </row>
     <row r="260" spans="1:11" ht="75">
       <c r="A260" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D260" s="37" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E260" s="37" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F260" s="36"/>
-      <c r="G260" s="40" t="s">
-        <v>607</v>
-      </c>
-      <c r="H260" s="33"/>
-      <c r="I260" s="34" t="s">
-        <v>608</v>
-      </c>
+      <c r="G260" s="95" t="s">
+        <v>894</v>
+      </c>
+      <c r="I260" s="34"/>
       <c r="K260" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="75">
-      <c r="A261" s="8" t="s">
-        <v>629</v>
+    <row r="261" spans="1:11" ht="30">
+      <c r="A261" s="64" t="s">
+        <v>630</v>
       </c>
       <c r="D261" s="37" t="s">
-        <v>609</v>
+        <v>879</v>
       </c>
       <c r="E261" s="37" t="s">
-        <v>610</v>
+        <v>879</v>
       </c>
       <c r="F261" s="36"/>
-      <c r="G261" s="40" t="s">
-        <v>611</v>
-      </c>
-      <c r="H261" s="33"/>
+      <c r="G261" s="96" t="s">
+        <v>895</v>
+      </c>
       <c r="I261" s="34"/>
       <c r="K261" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="45">
-      <c r="A262" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="D262" s="37" t="s">
-        <v>612</v>
-      </c>
-      <c r="E262" s="37" t="s">
-        <v>613</v>
-      </c>
+    <row r="262" spans="1:11" ht="15.6">
+      <c r="D262" s="37"/>
+      <c r="E262" s="37"/>
       <c r="F262" s="36"/>
-      <c r="G262" s="40" t="s">
-        <v>614</v>
-      </c>
-      <c r="H262" s="33"/>
+      <c r="G262" s="40"/>
       <c r="I262" s="34"/>
       <c r="K262" s="44">
         <v>1</v>
